--- a/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -737,25 +737,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8888500</v>
+        <v>8381300</v>
       </c>
       <c r="E8" s="3">
-        <v>3033600</v>
+        <v>2860500</v>
       </c>
       <c r="F8" s="3">
-        <v>2999100</v>
+        <v>2828000</v>
       </c>
       <c r="G8" s="3">
-        <v>3053200</v>
+        <v>2879000</v>
       </c>
       <c r="H8" s="3">
-        <v>2990600</v>
+        <v>2820000</v>
       </c>
       <c r="I8" s="3">
-        <v>2983800</v>
+        <v>2813600</v>
       </c>
       <c r="J8" s="3">
-        <v>2945500</v>
+        <v>2777400</v>
       </c>
       <c r="K8" s="3">
         <v>2247000</v>
@@ -781,25 +781,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2087600</v>
+        <v>1968500</v>
       </c>
       <c r="E9" s="3">
-        <v>736200</v>
+        <v>694200</v>
       </c>
       <c r="F9" s="3">
-        <v>730100</v>
+        <v>688500</v>
       </c>
       <c r="G9" s="3">
-        <v>808900</v>
+        <v>762700</v>
       </c>
       <c r="H9" s="3">
-        <v>657300</v>
+        <v>619800</v>
       </c>
       <c r="I9" s="3">
-        <v>702800</v>
+        <v>662700</v>
       </c>
       <c r="J9" s="3">
-        <v>671200</v>
+        <v>632900</v>
       </c>
       <c r="K9" s="3">
         <v>523300</v>
@@ -825,25 +825,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6800900</v>
+        <v>6412900</v>
       </c>
       <c r="E10" s="3">
-        <v>2297400</v>
+        <v>2166300</v>
       </c>
       <c r="F10" s="3">
-        <v>2269000</v>
+        <v>2139500</v>
       </c>
       <c r="G10" s="3">
-        <v>2244300</v>
+        <v>2116300</v>
       </c>
       <c r="H10" s="3">
-        <v>2333300</v>
+        <v>2200200</v>
       </c>
       <c r="I10" s="3">
-        <v>2281000</v>
+        <v>2150900</v>
       </c>
       <c r="J10" s="3">
-        <v>2274300</v>
+        <v>2144500</v>
       </c>
       <c r="K10" s="3">
         <v>1723800</v>
@@ -975,25 +975,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9200</v>
+        <v>8700</v>
       </c>
       <c r="E14" s="3">
-        <v>26000</v>
+        <v>24600</v>
       </c>
       <c r="F14" s="3">
-        <v>20200</v>
+        <v>19000</v>
       </c>
       <c r="G14" s="3">
-        <v>260600</v>
+        <v>245700</v>
       </c>
       <c r="H14" s="3">
-        <v>27000</v>
+        <v>25500</v>
       </c>
       <c r="I14" s="3">
-        <v>28200</v>
+        <v>26600</v>
       </c>
       <c r="J14" s="3">
-        <v>19700</v>
+        <v>18600</v>
       </c>
       <c r="K14" s="3">
         <v>59900</v>
@@ -1019,25 +1019,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1919400</v>
+        <v>1809900</v>
       </c>
       <c r="E15" s="3">
-        <v>626500</v>
+        <v>590800</v>
       </c>
       <c r="F15" s="3">
-        <v>610800</v>
+        <v>575900</v>
       </c>
       <c r="G15" s="3">
-        <v>452100</v>
+        <v>426300</v>
       </c>
       <c r="H15" s="3">
-        <v>586900</v>
+        <v>553400</v>
       </c>
       <c r="I15" s="3">
-        <v>561200</v>
+        <v>529200</v>
       </c>
       <c r="J15" s="3">
-        <v>581000</v>
+        <v>547800</v>
       </c>
       <c r="K15" s="3">
         <v>457600</v>
@@ -1078,25 +1078,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6781700</v>
+        <v>6394800</v>
       </c>
       <c r="E17" s="3">
-        <v>2332800</v>
+        <v>2199700</v>
       </c>
       <c r="F17" s="3">
-        <v>2261100</v>
+        <v>2132100</v>
       </c>
       <c r="G17" s="3">
-        <v>2644300</v>
+        <v>2493500</v>
       </c>
       <c r="H17" s="3">
-        <v>2261400</v>
+        <v>2132300</v>
       </c>
       <c r="I17" s="3">
-        <v>2355400</v>
+        <v>2221000</v>
       </c>
       <c r="J17" s="3">
-        <v>2315300</v>
+        <v>2183200</v>
       </c>
       <c r="K17" s="3">
         <v>1893900</v>
@@ -1122,25 +1122,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2106800</v>
+        <v>1986600</v>
       </c>
       <c r="E18" s="3">
-        <v>700800</v>
+        <v>660900</v>
       </c>
       <c r="F18" s="3">
-        <v>737900</v>
+        <v>695800</v>
       </c>
       <c r="G18" s="3">
-        <v>408900</v>
+        <v>385600</v>
       </c>
       <c r="H18" s="3">
-        <v>729300</v>
+        <v>687700</v>
       </c>
       <c r="I18" s="3">
-        <v>628400</v>
+        <v>592500</v>
       </c>
       <c r="J18" s="3">
-        <v>630200</v>
+        <v>594300</v>
       </c>
       <c r="K18" s="3">
         <v>353200</v>
@@ -1184,25 +1184,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-320400</v>
+        <v>-302100</v>
       </c>
       <c r="E20" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="F20" s="3">
-        <v>59900</v>
+        <v>56500</v>
       </c>
       <c r="G20" s="3">
-        <v>-247800</v>
+        <v>-233700</v>
       </c>
       <c r="H20" s="3">
-        <v>10400</v>
+        <v>9800</v>
       </c>
       <c r="I20" s="3">
-        <v>-131500</v>
+        <v>-124000</v>
       </c>
       <c r="J20" s="3">
-        <v>248000</v>
+        <v>233900</v>
       </c>
       <c r="K20" s="3">
         <v>-45200</v>
@@ -1228,25 +1228,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3704400</v>
+        <v>3493000</v>
       </c>
       <c r="E21" s="3">
-        <v>1332300</v>
+        <v>1256200</v>
       </c>
       <c r="F21" s="3">
-        <v>1410800</v>
+        <v>1330300</v>
       </c>
       <c r="G21" s="3">
-        <v>621200</v>
+        <v>585800</v>
       </c>
       <c r="H21" s="3">
-        <v>1328500</v>
+        <v>1252700</v>
       </c>
       <c r="I21" s="3">
-        <v>1079200</v>
+        <v>1017600</v>
       </c>
       <c r="J21" s="3">
-        <v>1508700</v>
+        <v>1422600</v>
       </c>
       <c r="K21" s="3">
         <v>1009200</v>
@@ -1272,25 +1272,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>121500</v>
+        <v>114600</v>
       </c>
       <c r="E22" s="3">
-        <v>108600</v>
+        <v>102400</v>
       </c>
       <c r="F22" s="3">
-        <v>94300</v>
+        <v>88900</v>
       </c>
       <c r="G22" s="3">
-        <v>101000</v>
+        <v>95200</v>
       </c>
       <c r="H22" s="3">
-        <v>48700</v>
+        <v>45900</v>
       </c>
       <c r="I22" s="3">
-        <v>49000</v>
+        <v>46200</v>
       </c>
       <c r="J22" s="3">
-        <v>32300</v>
+        <v>30500</v>
       </c>
       <c r="K22" s="3">
         <v>105800</v>
@@ -1316,25 +1316,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1664900</v>
+        <v>1569900</v>
       </c>
       <c r="E23" s="3">
-        <v>598900</v>
+        <v>564700</v>
       </c>
       <c r="F23" s="3">
-        <v>703600</v>
+        <v>663400</v>
       </c>
       <c r="G23" s="3">
-        <v>60100</v>
+        <v>56700</v>
       </c>
       <c r="H23" s="3">
-        <v>691000</v>
+        <v>651500</v>
       </c>
       <c r="I23" s="3">
-        <v>447800</v>
+        <v>422300</v>
       </c>
       <c r="J23" s="3">
-        <v>845900</v>
+        <v>797600</v>
       </c>
       <c r="K23" s="3">
         <v>202200</v>
@@ -1360,25 +1360,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>833400</v>
+        <v>785900</v>
       </c>
       <c r="E24" s="3">
-        <v>203400</v>
+        <v>191800</v>
       </c>
       <c r="F24" s="3">
-        <v>195000</v>
+        <v>183800</v>
       </c>
       <c r="G24" s="3">
-        <v>70500</v>
+        <v>66500</v>
       </c>
       <c r="H24" s="3">
-        <v>218200</v>
+        <v>205700</v>
       </c>
       <c r="I24" s="3">
-        <v>132600</v>
+        <v>125000</v>
       </c>
       <c r="J24" s="3">
-        <v>249200</v>
+        <v>235000</v>
       </c>
       <c r="K24" s="3">
         <v>77200</v>
@@ -1448,25 +1448,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>831500</v>
+        <v>784000</v>
       </c>
       <c r="E26" s="3">
-        <v>395400</v>
+        <v>372900</v>
       </c>
       <c r="F26" s="3">
-        <v>508600</v>
+        <v>479600</v>
       </c>
       <c r="G26" s="3">
-        <v>-10400</v>
+        <v>-9800</v>
       </c>
       <c r="H26" s="3">
-        <v>472800</v>
+        <v>445800</v>
       </c>
       <c r="I26" s="3">
-        <v>315300</v>
+        <v>297300</v>
       </c>
       <c r="J26" s="3">
-        <v>596700</v>
+        <v>562700</v>
       </c>
       <c r="K26" s="3">
         <v>124900</v>
@@ -1492,25 +1492,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>561900</v>
+        <v>529800</v>
       </c>
       <c r="E27" s="3">
-        <v>314300</v>
+        <v>296400</v>
       </c>
       <c r="F27" s="3">
-        <v>409700</v>
+        <v>386300</v>
       </c>
       <c r="G27" s="3">
-        <v>-46400</v>
+        <v>-43800</v>
       </c>
       <c r="H27" s="3">
-        <v>392600</v>
+        <v>370200</v>
       </c>
       <c r="I27" s="3">
-        <v>220700</v>
+        <v>208100</v>
       </c>
       <c r="J27" s="3">
-        <v>513400</v>
+        <v>484100</v>
       </c>
       <c r="K27" s="3">
         <v>46100</v>
@@ -1580,25 +1580,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>89000</v>
+        <v>83900</v>
       </c>
       <c r="E29" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="F29" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="G29" s="3">
-        <v>178000</v>
+        <v>167900</v>
       </c>
       <c r="H29" s="3">
-        <v>245400</v>
+        <v>231400</v>
       </c>
       <c r="I29" s="3">
-        <v>66300</v>
+        <v>62500</v>
       </c>
       <c r="J29" s="3">
-        <v>28200</v>
+        <v>26600</v>
       </c>
       <c r="K29" s="3">
         <v>211500</v>
@@ -1712,25 +1712,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>320400</v>
+        <v>302100</v>
       </c>
       <c r="E32" s="3">
-        <v>-6600</v>
+        <v>-6200</v>
       </c>
       <c r="F32" s="3">
-        <v>-59900</v>
+        <v>-56500</v>
       </c>
       <c r="G32" s="3">
-        <v>247800</v>
+        <v>233700</v>
       </c>
       <c r="H32" s="3">
-        <v>-10400</v>
+        <v>-9800</v>
       </c>
       <c r="I32" s="3">
-        <v>131500</v>
+        <v>124000</v>
       </c>
       <c r="J32" s="3">
-        <v>-248000</v>
+        <v>-233900</v>
       </c>
       <c r="K32" s="3">
         <v>45200</v>
@@ -1756,25 +1756,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>650800</v>
+        <v>613700</v>
       </c>
       <c r="E33" s="3">
-        <v>311500</v>
+        <v>293700</v>
       </c>
       <c r="F33" s="3">
-        <v>415800</v>
+        <v>392100</v>
       </c>
       <c r="G33" s="3">
-        <v>131600</v>
+        <v>124100</v>
       </c>
       <c r="H33" s="3">
-        <v>638000</v>
+        <v>601600</v>
       </c>
       <c r="I33" s="3">
-        <v>287000</v>
+        <v>270600</v>
       </c>
       <c r="J33" s="3">
-        <v>541600</v>
+        <v>510700</v>
       </c>
       <c r="K33" s="3">
         <v>257600</v>
@@ -1844,25 +1844,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>650800</v>
+        <v>613700</v>
       </c>
       <c r="E35" s="3">
-        <v>311500</v>
+        <v>293700</v>
       </c>
       <c r="F35" s="3">
-        <v>415800</v>
+        <v>392100</v>
       </c>
       <c r="G35" s="3">
-        <v>131600</v>
+        <v>124100</v>
       </c>
       <c r="H35" s="3">
-        <v>638000</v>
+        <v>601600</v>
       </c>
       <c r="I35" s="3">
-        <v>287000</v>
+        <v>270600</v>
       </c>
       <c r="J35" s="3">
-        <v>541600</v>
+        <v>510700</v>
       </c>
       <c r="K35" s="3">
         <v>257600</v>
@@ -1973,25 +1973,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3462500</v>
+        <v>3264900</v>
       </c>
       <c r="E41" s="3">
-        <v>4597000</v>
+        <v>4334800</v>
       </c>
       <c r="F41" s="3">
-        <v>2697200</v>
+        <v>2543300</v>
       </c>
       <c r="G41" s="3">
-        <v>2006200</v>
+        <v>1891700</v>
       </c>
       <c r="H41" s="3">
-        <v>3548300</v>
+        <v>3345800</v>
       </c>
       <c r="I41" s="3">
-        <v>2015500</v>
+        <v>1900500</v>
       </c>
       <c r="J41" s="3">
-        <v>2273800</v>
+        <v>2144100</v>
       </c>
       <c r="K41" s="3">
         <v>2610600</v>
@@ -2017,25 +2017,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>72700</v>
+        <v>68500</v>
       </c>
       <c r="E42" s="3">
-        <v>91200</v>
+        <v>86000</v>
       </c>
       <c r="F42" s="3">
-        <v>84700</v>
+        <v>79900</v>
       </c>
       <c r="G42" s="3">
-        <v>73600</v>
+        <v>69400</v>
       </c>
       <c r="H42" s="3">
-        <v>98800</v>
+        <v>93200</v>
       </c>
       <c r="I42" s="3">
-        <v>88200</v>
+        <v>83200</v>
       </c>
       <c r="J42" s="3">
-        <v>73100</v>
+        <v>69000</v>
       </c>
       <c r="K42" s="3">
         <v>187800</v>
@@ -2061,25 +2061,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3077300</v>
+        <v>2901700</v>
       </c>
       <c r="E43" s="3">
-        <v>2357700</v>
+        <v>2223200</v>
       </c>
       <c r="F43" s="3">
-        <v>2378000</v>
+        <v>2242300</v>
       </c>
       <c r="G43" s="3">
-        <v>2439800</v>
+        <v>2300600</v>
       </c>
       <c r="H43" s="3">
-        <v>2450100</v>
+        <v>2310300</v>
       </c>
       <c r="I43" s="3">
-        <v>2286100</v>
+        <v>2155700</v>
       </c>
       <c r="J43" s="3">
-        <v>2246600</v>
+        <v>2118400</v>
       </c>
       <c r="K43" s="3">
         <v>2990300</v>
@@ -2105,25 +2105,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>147300</v>
+        <v>138900</v>
       </c>
       <c r="E44" s="3">
-        <v>125200</v>
+        <v>118100</v>
       </c>
       <c r="F44" s="3">
-        <v>161200</v>
+        <v>152000</v>
       </c>
       <c r="G44" s="3">
-        <v>184800</v>
+        <v>174200</v>
       </c>
       <c r="H44" s="3">
-        <v>107900</v>
+        <v>101800</v>
       </c>
       <c r="I44" s="3">
-        <v>121900</v>
+        <v>115000</v>
       </c>
       <c r="J44" s="3">
-        <v>158800</v>
+        <v>149800</v>
       </c>
       <c r="K44" s="3">
         <v>205300</v>
@@ -2158,16 +2158,16 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>97900</v>
+        <v>92300</v>
       </c>
       <c r="H45" s="3">
-        <v>466200</v>
+        <v>439600</v>
       </c>
       <c r="I45" s="3">
-        <v>3153500</v>
+        <v>2973600</v>
       </c>
       <c r="J45" s="3">
-        <v>3229300</v>
+        <v>3045100</v>
       </c>
       <c r="K45" s="3">
         <v>197100</v>
@@ -2193,25 +2193,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6759800</v>
+        <v>6374100</v>
       </c>
       <c r="E46" s="3">
-        <v>7171100</v>
+        <v>6761900</v>
       </c>
       <c r="F46" s="3">
-        <v>5321100</v>
+        <v>5017500</v>
       </c>
       <c r="G46" s="3">
-        <v>4802200</v>
+        <v>4528200</v>
       </c>
       <c r="H46" s="3">
-        <v>6671400</v>
+        <v>6290700</v>
       </c>
       <c r="I46" s="3">
-        <v>7665300</v>
+        <v>7227900</v>
       </c>
       <c r="J46" s="3">
-        <v>7981800</v>
+        <v>7526400</v>
       </c>
       <c r="K46" s="3">
         <v>6191100</v>
@@ -2237,25 +2237,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>245200</v>
+        <v>231200</v>
       </c>
       <c r="E47" s="3">
-        <v>238000</v>
+        <v>224400</v>
       </c>
       <c r="F47" s="3">
-        <v>272600</v>
+        <v>257100</v>
       </c>
       <c r="G47" s="3">
-        <v>258400</v>
+        <v>243700</v>
       </c>
       <c r="H47" s="3">
-        <v>55100</v>
+        <v>52000</v>
       </c>
       <c r="I47" s="3">
-        <v>56700</v>
+        <v>53500</v>
       </c>
       <c r="J47" s="3">
-        <v>56500</v>
+        <v>53300</v>
       </c>
       <c r="K47" s="3">
         <v>55600</v>
@@ -2281,25 +2281,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15272700</v>
+        <v>14401300</v>
       </c>
       <c r="E48" s="3">
-        <v>13603600</v>
+        <v>12827400</v>
       </c>
       <c r="F48" s="3">
-        <v>13898900</v>
+        <v>13105900</v>
       </c>
       <c r="G48" s="3">
-        <v>7958900</v>
+        <v>7504800</v>
       </c>
       <c r="H48" s="3">
-        <v>7487900</v>
+        <v>7060600</v>
       </c>
       <c r="I48" s="3">
-        <v>7533900</v>
+        <v>7104000</v>
       </c>
       <c r="J48" s="3">
-        <v>7406800</v>
+        <v>6984200</v>
       </c>
       <c r="K48" s="3">
         <v>8748700</v>
@@ -2325,25 +2325,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4617800</v>
+        <v>4354300</v>
       </c>
       <c r="E49" s="3">
-        <v>2216000</v>
+        <v>2089600</v>
       </c>
       <c r="F49" s="3">
-        <v>2210200</v>
+        <v>2084100</v>
       </c>
       <c r="G49" s="3">
-        <v>5508500</v>
+        <v>5194200</v>
       </c>
       <c r="H49" s="3">
-        <v>3921800</v>
+        <v>3698000</v>
       </c>
       <c r="I49" s="3">
-        <v>4098200</v>
+        <v>3864400</v>
       </c>
       <c r="J49" s="3">
-        <v>4244700</v>
+        <v>4002500</v>
       </c>
       <c r="K49" s="3">
         <v>6605500</v>
@@ -2457,25 +2457,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2243600</v>
+        <v>2115600</v>
       </c>
       <c r="E52" s="3">
-        <v>2151800</v>
+        <v>2029000</v>
       </c>
       <c r="F52" s="3">
-        <v>2025300</v>
+        <v>1909700</v>
       </c>
       <c r="G52" s="3">
-        <v>2223100</v>
+        <v>2096200</v>
       </c>
       <c r="H52" s="3">
-        <v>2102900</v>
+        <v>1982900</v>
       </c>
       <c r="I52" s="3">
-        <v>1575400</v>
+        <v>1485500</v>
       </c>
       <c r="J52" s="3">
-        <v>1625700</v>
+        <v>1533000</v>
       </c>
       <c r="K52" s="3">
         <v>1761500</v>
@@ -2545,25 +2545,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29139000</v>
+        <v>27476500</v>
       </c>
       <c r="E54" s="3">
-        <v>25380500</v>
+        <v>23932400</v>
       </c>
       <c r="F54" s="3">
-        <v>23728100</v>
+        <v>22374200</v>
       </c>
       <c r="G54" s="3">
-        <v>20751100</v>
+        <v>19567100</v>
       </c>
       <c r="H54" s="3">
-        <v>20239100</v>
+        <v>19084400</v>
       </c>
       <c r="I54" s="3">
-        <v>20929600</v>
+        <v>19735400</v>
       </c>
       <c r="J54" s="3">
-        <v>21315600</v>
+        <v>20099400</v>
       </c>
       <c r="K54" s="3">
         <v>23362400</v>
@@ -2625,25 +2625,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3951500</v>
+        <v>3726100</v>
       </c>
       <c r="E57" s="3">
-        <v>3561700</v>
+        <v>3358500</v>
       </c>
       <c r="F57" s="3">
-        <v>3755400</v>
+        <v>3541100</v>
       </c>
       <c r="G57" s="3">
-        <v>4093100</v>
+        <v>3859600</v>
       </c>
       <c r="H57" s="3">
-        <v>3792500</v>
+        <v>3576100</v>
       </c>
       <c r="I57" s="3">
-        <v>3695700</v>
+        <v>3484800</v>
       </c>
       <c r="J57" s="3">
-        <v>3696900</v>
+        <v>3486000</v>
       </c>
       <c r="K57" s="3">
         <v>4665800</v>
@@ -2669,25 +2669,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3761700</v>
+        <v>3547000</v>
       </c>
       <c r="E58" s="3">
-        <v>3200600</v>
+        <v>3018000</v>
       </c>
       <c r="F58" s="3">
-        <v>3006800</v>
+        <v>2835200</v>
       </c>
       <c r="G58" s="3">
-        <v>1707600</v>
+        <v>1610200</v>
       </c>
       <c r="H58" s="3">
-        <v>1684800</v>
+        <v>1588700</v>
       </c>
       <c r="I58" s="3">
-        <v>2774000</v>
+        <v>2615700</v>
       </c>
       <c r="J58" s="3">
-        <v>2175100</v>
+        <v>2051000</v>
       </c>
       <c r="K58" s="3">
         <v>2629600</v>
@@ -2713,25 +2713,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2095700</v>
+        <v>1976100</v>
       </c>
       <c r="E59" s="3">
-        <v>2026100</v>
+        <v>1910500</v>
       </c>
       <c r="F59" s="3">
-        <v>1400700</v>
+        <v>1320800</v>
       </c>
       <c r="G59" s="3">
-        <v>1517600</v>
+        <v>1431000</v>
       </c>
       <c r="H59" s="3">
-        <v>2815400</v>
+        <v>2654800</v>
       </c>
       <c r="I59" s="3">
-        <v>2418400</v>
+        <v>2280400</v>
       </c>
       <c r="J59" s="3">
-        <v>2015000</v>
+        <v>1900000</v>
       </c>
       <c r="K59" s="3">
         <v>1583800</v>
@@ -2757,25 +2757,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9808900</v>
+        <v>9249200</v>
       </c>
       <c r="E60" s="3">
-        <v>8788300</v>
+        <v>8286900</v>
       </c>
       <c r="F60" s="3">
-        <v>8162900</v>
+        <v>7697200</v>
       </c>
       <c r="G60" s="3">
-        <v>7318300</v>
+        <v>6900700</v>
       </c>
       <c r="H60" s="3">
-        <v>8292800</v>
+        <v>7819600</v>
       </c>
       <c r="I60" s="3">
-        <v>8888000</v>
+        <v>8380900</v>
       </c>
       <c r="J60" s="3">
-        <v>7887000</v>
+        <v>7437000</v>
       </c>
       <c r="K60" s="3">
         <v>8879100</v>
@@ -2801,25 +2801,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13074500</v>
+        <v>12328500</v>
       </c>
       <c r="E61" s="3">
-        <v>10474400</v>
+        <v>9876800</v>
       </c>
       <c r="F61" s="3">
-        <v>7968200</v>
+        <v>7513500</v>
       </c>
       <c r="G61" s="3">
-        <v>6067400</v>
+        <v>5721200</v>
       </c>
       <c r="H61" s="3">
-        <v>4824100</v>
+        <v>4548900</v>
       </c>
       <c r="I61" s="3">
-        <v>5026000</v>
+        <v>4739300</v>
       </c>
       <c r="J61" s="3">
-        <v>5146000</v>
+        <v>4852400</v>
       </c>
       <c r="K61" s="3">
         <v>5973300</v>
@@ -2845,25 +2845,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1768900</v>
+        <v>1668000</v>
       </c>
       <c r="E62" s="3">
-        <v>1321000</v>
+        <v>1245600</v>
       </c>
       <c r="F62" s="3">
-        <v>1364400</v>
+        <v>1286500</v>
       </c>
       <c r="G62" s="3">
-        <v>1457600</v>
+        <v>1374400</v>
       </c>
       <c r="H62" s="3">
-        <v>1337200</v>
+        <v>1260900</v>
       </c>
       <c r="I62" s="3">
-        <v>1319800</v>
+        <v>1244500</v>
       </c>
       <c r="J62" s="3">
-        <v>1129700</v>
+        <v>1065200</v>
       </c>
       <c r="K62" s="3">
         <v>1292200</v>
@@ -3021,25 +3021,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25168100</v>
+        <v>23732100</v>
       </c>
       <c r="E66" s="3">
-        <v>21108700</v>
+        <v>19904300</v>
       </c>
       <c r="F66" s="3">
-        <v>18082500</v>
+        <v>17050800</v>
       </c>
       <c r="G66" s="3">
-        <v>15386700</v>
+        <v>14508800</v>
       </c>
       <c r="H66" s="3">
-        <v>14974500</v>
+        <v>14120200</v>
       </c>
       <c r="I66" s="3">
-        <v>15812400</v>
+        <v>14910200</v>
       </c>
       <c r="J66" s="3">
-        <v>14752800</v>
+        <v>13911100</v>
       </c>
       <c r="K66" s="3">
         <v>16704900</v>
@@ -3259,25 +3259,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3276700</v>
+        <v>3089800</v>
       </c>
       <c r="E72" s="3">
-        <v>3707000</v>
+        <v>3495500</v>
       </c>
       <c r="F72" s="3">
-        <v>4964300</v>
+        <v>4681000</v>
       </c>
       <c r="G72" s="3">
-        <v>4642700</v>
+        <v>4377800</v>
       </c>
       <c r="H72" s="3">
-        <v>4742400</v>
+        <v>4471800</v>
       </c>
       <c r="I72" s="3">
-        <v>4795500</v>
+        <v>4521900</v>
       </c>
       <c r="J72" s="3">
-        <v>6127400</v>
+        <v>5777800</v>
       </c>
       <c r="K72" s="3">
         <v>6005900</v>
@@ -3435,25 +3435,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3971000</v>
+        <v>3744400</v>
       </c>
       <c r="E76" s="3">
-        <v>4271800</v>
+        <v>4028100</v>
       </c>
       <c r="F76" s="3">
-        <v>5645600</v>
+        <v>5323500</v>
       </c>
       <c r="G76" s="3">
-        <v>5364400</v>
+        <v>5058300</v>
       </c>
       <c r="H76" s="3">
-        <v>5264600</v>
+        <v>4964200</v>
       </c>
       <c r="I76" s="3">
-        <v>5117100</v>
+        <v>4825200</v>
       </c>
       <c r="J76" s="3">
-        <v>6562800</v>
+        <v>6188300</v>
       </c>
       <c r="K76" s="3">
         <v>6657500</v>
@@ -3572,25 +3572,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>650800</v>
+        <v>613700</v>
       </c>
       <c r="E81" s="3">
-        <v>311500</v>
+        <v>293700</v>
       </c>
       <c r="F81" s="3">
-        <v>415800</v>
+        <v>392100</v>
       </c>
       <c r="G81" s="3">
-        <v>131600</v>
+        <v>124100</v>
       </c>
       <c r="H81" s="3">
-        <v>638000</v>
+        <v>601600</v>
       </c>
       <c r="I81" s="3">
-        <v>287000</v>
+        <v>270600</v>
       </c>
       <c r="J81" s="3">
-        <v>541600</v>
+        <v>510700</v>
       </c>
       <c r="K81" s="3">
         <v>257600</v>
@@ -3634,25 +3634,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1918000</v>
+        <v>1808600</v>
       </c>
       <c r="E83" s="3">
-        <v>624800</v>
+        <v>589100</v>
       </c>
       <c r="F83" s="3">
-        <v>613000</v>
+        <v>578000</v>
       </c>
       <c r="G83" s="3">
-        <v>420200</v>
+        <v>396200</v>
       </c>
       <c r="H83" s="3">
-        <v>605600</v>
+        <v>571000</v>
       </c>
       <c r="I83" s="3">
-        <v>602000</v>
+        <v>567700</v>
       </c>
       <c r="J83" s="3">
-        <v>633800</v>
+        <v>597600</v>
       </c>
       <c r="K83" s="3">
         <v>701200</v>
@@ -3898,25 +3898,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2950800</v>
+        <v>2782500</v>
       </c>
       <c r="E89" s="3">
-        <v>667300</v>
+        <v>629200</v>
       </c>
       <c r="F89" s="3">
-        <v>1015800</v>
+        <v>957800</v>
       </c>
       <c r="G89" s="3">
-        <v>890600</v>
+        <v>839800</v>
       </c>
       <c r="H89" s="3">
-        <v>1174200</v>
+        <v>1107200</v>
       </c>
       <c r="I89" s="3">
-        <v>949800</v>
+        <v>895600</v>
       </c>
       <c r="J89" s="3">
-        <v>933800</v>
+        <v>880500</v>
       </c>
       <c r="K89" s="3">
         <v>1064600</v>
@@ -3960,25 +3960,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-66200</v>
+        <v>-62400</v>
       </c>
       <c r="E91" s="3">
-        <v>30500</v>
+        <v>28700</v>
       </c>
       <c r="F91" s="3">
-        <v>-97500</v>
+        <v>-92000</v>
       </c>
       <c r="G91" s="3">
-        <v>-795800</v>
+        <v>-750400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1394700</v>
+        <v>-1315200</v>
       </c>
       <c r="I91" s="3">
-        <v>513900</v>
+        <v>484600</v>
       </c>
       <c r="J91" s="3">
-        <v>-602900</v>
+        <v>-568500</v>
       </c>
       <c r="K91" s="3">
         <v>-523100</v>
@@ -4092,25 +4092,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3310900</v>
+        <v>-3122000</v>
       </c>
       <c r="E94" s="3">
-        <v>-502600</v>
+        <v>-474000</v>
       </c>
       <c r="F94" s="3">
-        <v>-541300</v>
+        <v>-510400</v>
       </c>
       <c r="G94" s="3">
-        <v>-871600</v>
+        <v>-821900</v>
       </c>
       <c r="H94" s="3">
-        <v>1878700</v>
+        <v>1771500</v>
       </c>
       <c r="I94" s="3">
-        <v>-475900</v>
+        <v>-448800</v>
       </c>
       <c r="J94" s="3">
-        <v>-597700</v>
+        <v>-563600</v>
       </c>
       <c r="K94" s="3">
         <v>-511600</v>
@@ -4154,22 +4154,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-696100</v>
+        <v>-656400</v>
       </c>
       <c r="E96" s="3">
-        <v>-696100</v>
+        <v>-656400</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1316300</v>
+        <v>-1241200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-677800</v>
+        <v>-639200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4330,25 +4330,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1694100</v>
+        <v>1597400</v>
       </c>
       <c r="E100" s="3">
-        <v>1722100</v>
+        <v>1623800</v>
       </c>
       <c r="F100" s="3">
-        <v>200300</v>
+        <v>188800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1618700</v>
+        <v>-1526300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1642400</v>
+        <v>-1548700</v>
       </c>
       <c r="I100" s="3">
-        <v>-692100</v>
+        <v>-652600</v>
       </c>
       <c r="J100" s="3">
-        <v>-330800</v>
+        <v>-311900</v>
       </c>
       <c r="K100" s="3">
         <v>-1372300</v>
@@ -4374,25 +4374,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>59300</v>
+        <v>56000</v>
       </c>
       <c r="E101" s="3">
-        <v>-20600</v>
+        <v>-19400</v>
       </c>
       <c r="F101" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="G101" s="3">
-        <v>10300</v>
+        <v>9700</v>
       </c>
       <c r="H101" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="I101" s="3">
-        <v>-6300</v>
+        <v>-5900</v>
       </c>
       <c r="J101" s="3">
-        <v>-31200</v>
+        <v>-29500</v>
       </c>
       <c r="K101" s="3">
         <v>72600</v>
@@ -4418,25 +4418,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1393300</v>
+        <v>1313800</v>
       </c>
       <c r="E102" s="3">
-        <v>1866100</v>
+        <v>1759700</v>
       </c>
       <c r="F102" s="3">
-        <v>670900</v>
+        <v>632600</v>
       </c>
       <c r="G102" s="3">
-        <v>-1589400</v>
+        <v>-1498700</v>
       </c>
       <c r="H102" s="3">
-        <v>1406900</v>
+        <v>1326600</v>
       </c>
       <c r="I102" s="3">
-        <v>-224500</v>
+        <v>-211700</v>
       </c>
       <c r="J102" s="3">
-        <v>-25900</v>
+        <v>-24400</v>
       </c>
       <c r="K102" s="3">
         <v>-864300</v>

--- a/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>TELNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,244 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8381300</v>
+        <v>3486500</v>
       </c>
       <c r="E8" s="3">
-        <v>2860500</v>
+        <v>3492100</v>
       </c>
       <c r="F8" s="3">
-        <v>2828000</v>
+        <v>3226300</v>
       </c>
       <c r="G8" s="3">
-        <v>2879000</v>
+        <v>3323900</v>
       </c>
       <c r="H8" s="3">
+        <v>3036800</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2999700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2674300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2820000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>2813600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>2777400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>2247000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>3179900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>3280600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>3402600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>15461200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>3853000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1968500</v>
+        <v>813500</v>
       </c>
       <c r="E9" s="3">
-        <v>694200</v>
+        <v>829700</v>
       </c>
       <c r="F9" s="3">
-        <v>688500</v>
+        <v>800300</v>
       </c>
       <c r="G9" s="3">
-        <v>762700</v>
+        <v>823800</v>
       </c>
       <c r="H9" s="3">
+        <v>707500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>698400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>588400</v>
+      </c>
+      <c r="K9" s="3">
         <v>619800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>662700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>632900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>523300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>725500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>760900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>1192600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="R9" s="3">
         <v>5577700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>1329500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6412900</v>
+        <v>2672900</v>
       </c>
       <c r="E10" s="3">
-        <v>2166300</v>
+        <v>2662400</v>
       </c>
       <c r="F10" s="3">
-        <v>2139500</v>
+        <v>2426000</v>
       </c>
       <c r="G10" s="3">
-        <v>2116300</v>
+        <v>2500100</v>
       </c>
       <c r="H10" s="3">
+        <v>2329300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2301300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2085900</v>
+      </c>
+      <c r="K10" s="3">
         <v>2200200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>2150900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>2144500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>1723800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>2454400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>2519700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
         <v>2210000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>9883500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>2523500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +919,11 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +966,17 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1019,123 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8700</v>
+        <v>150100</v>
       </c>
       <c r="E14" s="3">
-        <v>24600</v>
+        <v>37800</v>
       </c>
       <c r="F14" s="3">
-        <v>19000</v>
+        <v>37800</v>
       </c>
       <c r="G14" s="3">
-        <v>245700</v>
+        <v>9300</v>
       </c>
       <c r="H14" s="3">
+        <v>26300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>20600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>268700</v>
+      </c>
+      <c r="K14" s="3">
         <v>25500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>26600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>18600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>59900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>55600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>718100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="Q14" s="3">
         <v>-82400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="R14" s="3">
         <v>158900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="S14" s="3">
         <v>707900</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1809900</v>
+        <v>855100</v>
       </c>
       <c r="E15" s="3">
-        <v>590800</v>
+        <v>806900</v>
       </c>
       <c r="F15" s="3">
-        <v>575900</v>
+        <v>770800</v>
       </c>
       <c r="G15" s="3">
-        <v>426300</v>
+        <v>709600</v>
       </c>
       <c r="H15" s="3">
+        <v>650600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>635600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>462800</v>
+      </c>
+      <c r="K15" s="3">
         <v>553400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>529200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>547800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>457600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>556300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>570100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="Q15" s="3">
         <v>581900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="R15" s="3">
         <v>2414600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="S15" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1149,117 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6394800</v>
+        <v>2878200</v>
       </c>
       <c r="E17" s="3">
-        <v>2199700</v>
+        <v>2743300</v>
       </c>
       <c r="F17" s="3">
-        <v>2132100</v>
+        <v>2599500</v>
       </c>
       <c r="G17" s="3">
-        <v>2493500</v>
+        <v>2533600</v>
       </c>
       <c r="H17" s="3">
+        <v>2340100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2261600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2378100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2132300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>2221000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>2183200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>1893900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>2354800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>3111300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>2705400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>12375000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>3663500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1986600</v>
+        <v>608300</v>
       </c>
       <c r="E18" s="3">
-        <v>660900</v>
+        <v>748800</v>
       </c>
       <c r="F18" s="3">
-        <v>695800</v>
+        <v>626800</v>
       </c>
       <c r="G18" s="3">
-        <v>385600</v>
+        <v>790300</v>
       </c>
       <c r="H18" s="3">
+        <v>696700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>738100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>296200</v>
+      </c>
+      <c r="K18" s="3">
         <v>687700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>592500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>594300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>353200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>825100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>169300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>697100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>3086200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>189500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1276,276 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-302100</v>
+        <v>124700</v>
       </c>
       <c r="E20" s="3">
-        <v>6200</v>
+        <v>-385700</v>
       </c>
       <c r="F20" s="3">
-        <v>56500</v>
+        <v>86900</v>
       </c>
       <c r="G20" s="3">
-        <v>-233700</v>
+        <v>-189200</v>
       </c>
       <c r="H20" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>62600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-258100</v>
+      </c>
+      <c r="K20" s="3">
         <v>9800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-124000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>233900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-45200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>211800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>102900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>100400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>-323500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>90900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3493000</v>
+        <v>1588200</v>
       </c>
       <c r="E21" s="3">
-        <v>1256200</v>
+        <v>1170700</v>
       </c>
       <c r="F21" s="3">
-        <v>1330300</v>
+        <v>1497300</v>
       </c>
       <c r="G21" s="3">
-        <v>585800</v>
+        <v>1305800</v>
       </c>
       <c r="H21" s="3">
+        <v>1354000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1440100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>516500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1252700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>1017600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>1422600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>1009200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>1647600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>934400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>1428400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>6219100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>1416700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>114600</v>
+        <v>102600</v>
       </c>
       <c r="E22" s="3">
-        <v>102400</v>
+        <v>106700</v>
       </c>
       <c r="F22" s="3">
-        <v>88900</v>
+        <v>177200</v>
       </c>
       <c r="G22" s="3">
-        <v>95200</v>
+        <v>126400</v>
       </c>
       <c r="H22" s="3">
+        <v>114300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>100500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>104900</v>
+      </c>
+      <c r="K22" s="3">
         <v>45900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>46200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>30500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>105800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>54700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>72700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="Q22" s="3">
         <v>72500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="R22" s="3">
         <v>382700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="S22" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1569900</v>
+        <v>630400</v>
       </c>
       <c r="E23" s="3">
-        <v>564700</v>
+        <v>256300</v>
       </c>
       <c r="F23" s="3">
-        <v>663400</v>
+        <v>536500</v>
       </c>
       <c r="G23" s="3">
-        <v>56700</v>
+        <v>474700</v>
       </c>
       <c r="H23" s="3">
+        <v>589300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>700200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="K23" s="3">
         <v>651500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>422300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>797600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>202200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>982200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>199500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>725000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>2379900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>785900</v>
+        <v>228000</v>
       </c>
       <c r="E24" s="3">
-        <v>191800</v>
+        <v>81000</v>
       </c>
       <c r="F24" s="3">
-        <v>183800</v>
+        <v>150400</v>
       </c>
       <c r="G24" s="3">
-        <v>66500</v>
+        <v>454300</v>
       </c>
       <c r="H24" s="3">
+        <v>210900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>202300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>55800</v>
+      </c>
+      <c r="K24" s="3">
         <v>205700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>125000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>235000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>77200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>272900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>186400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="Q24" s="3">
         <v>197900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="R24" s="3">
         <v>730400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="S24" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1588,123 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>784000</v>
+        <v>402400</v>
       </c>
       <c r="E26" s="3">
-        <v>372900</v>
+        <v>175300</v>
       </c>
       <c r="F26" s="3">
-        <v>479600</v>
+        <v>386100</v>
       </c>
       <c r="G26" s="3">
-        <v>-9800</v>
+        <v>20400</v>
       </c>
       <c r="H26" s="3">
+        <v>378400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>497900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-122700</v>
+      </c>
+      <c r="K26" s="3">
         <v>445800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>297300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>562700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>124900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>709300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>13100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>527100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>1649500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>529800</v>
+        <v>298500</v>
       </c>
       <c r="E27" s="3">
-        <v>296400</v>
+        <v>56700</v>
       </c>
       <c r="F27" s="3">
-        <v>386300</v>
+        <v>283300</v>
       </c>
       <c r="G27" s="3">
-        <v>-43800</v>
+        <v>-75600</v>
       </c>
       <c r="H27" s="3">
+        <v>294800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>395800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-160200</v>
+      </c>
+      <c r="K27" s="3">
         <v>370200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>208100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>484100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>46100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>623500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-79500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>441500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>1282600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-93500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,52 +1747,70 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>83900</v>
+        <v>201000</v>
       </c>
       <c r="E29" s="3">
-        <v>-2700</v>
+        <v>22000</v>
       </c>
       <c r="F29" s="3">
-        <v>5800</v>
+        <v>-88200</v>
       </c>
       <c r="G29" s="3">
-        <v>167900</v>
+        <v>1000</v>
       </c>
       <c r="H29" s="3">
+        <v>27300</v>
+      </c>
+      <c r="I29" s="3">
+        <v>35300</v>
+      </c>
+      <c r="J29" s="3">
+        <v>297100</v>
+      </c>
+      <c r="K29" s="3">
         <v>231400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="L29" s="3">
         <v>62500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="M29" s="3">
         <v>26600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="N29" s="3">
         <v>211500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="O29" s="3">
         <v>42800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="P29" s="3">
         <v>60200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="Q29" s="3">
         <v>72400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="R29" s="3">
         <v>-933600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="S29" s="3">
         <v>-501000</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1853,17 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1906,123 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>302100</v>
+        <v>-124700</v>
       </c>
       <c r="E32" s="3">
-        <v>-6200</v>
+        <v>385700</v>
       </c>
       <c r="F32" s="3">
-        <v>-56500</v>
+        <v>-86900</v>
       </c>
       <c r="G32" s="3">
-        <v>233700</v>
+        <v>189200</v>
       </c>
       <c r="H32" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>258100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-9800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>124000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-233900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>45200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-211800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-102900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>-100400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="R32" s="3">
         <v>323500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>613700</v>
+        <v>499600</v>
       </c>
       <c r="E33" s="3">
-        <v>293700</v>
+        <v>78700</v>
       </c>
       <c r="F33" s="3">
-        <v>392100</v>
+        <v>195100</v>
       </c>
       <c r="G33" s="3">
-        <v>124100</v>
+        <v>-74600</v>
       </c>
       <c r="H33" s="3">
+        <v>322100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>431100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>136900</v>
+      </c>
+      <c r="K33" s="3">
         <v>601600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>270600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>510700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>257600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>666400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-19300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>513900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>348900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +2065,128 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>613700</v>
+        <v>499600</v>
       </c>
       <c r="E35" s="3">
-        <v>293700</v>
+        <v>78700</v>
       </c>
       <c r="F35" s="3">
-        <v>392100</v>
+        <v>195100</v>
       </c>
       <c r="G35" s="3">
-        <v>124100</v>
+        <v>-74600</v>
       </c>
       <c r="H35" s="3">
+        <v>322100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>431100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>136900</v>
+      </c>
+      <c r="K35" s="3">
         <v>601600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>270600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>510700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>257600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>666400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-19300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>513900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>348900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2203,11 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2224,488 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3264900</v>
+        <v>1884000</v>
       </c>
       <c r="E41" s="3">
-        <v>4334800</v>
+        <v>2038000</v>
       </c>
       <c r="F41" s="3">
-        <v>2543300</v>
+        <v>1564500</v>
       </c>
       <c r="G41" s="3">
-        <v>1891700</v>
+        <v>3600700</v>
       </c>
       <c r="H41" s="3">
+        <v>4780500</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1564500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2086300</v>
+      </c>
+      <c r="K41" s="3">
         <v>3345800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>1900500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>2144100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>2610600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>3448500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>2389300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>3222400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>2846400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>3399800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>68500</v>
+        <v>66500</v>
       </c>
       <c r="E42" s="3">
-        <v>86000</v>
+        <v>95100</v>
       </c>
       <c r="F42" s="3">
-        <v>79900</v>
+        <v>102700</v>
       </c>
       <c r="G42" s="3">
-        <v>69400</v>
+        <v>75600</v>
       </c>
       <c r="H42" s="3">
+        <v>94900</v>
+      </c>
+      <c r="I42" s="3">
+        <v>102700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>76500</v>
+      </c>
+      <c r="K42" s="3">
         <v>93200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>83200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>69000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>187800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>189300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>192000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="Q42" s="3">
         <v>297900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="R42" s="3">
         <v>306900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="S42" s="3">
         <v>261000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2901700</v>
+        <v>3181000</v>
       </c>
       <c r="E43" s="3">
-        <v>2223200</v>
+        <v>3291600</v>
       </c>
       <c r="F43" s="3">
-        <v>2242300</v>
+        <v>3058200</v>
       </c>
       <c r="G43" s="3">
-        <v>2300600</v>
+        <v>3200100</v>
       </c>
       <c r="H43" s="3">
+        <v>2448600</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3058200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2537200</v>
+      </c>
+      <c r="K43" s="3">
         <v>2310300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>2155700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>2118400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>2990300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>2713200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>2991200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>3085500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>3158100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>2854000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>138900</v>
+        <v>144700</v>
       </c>
       <c r="E44" s="3">
-        <v>118100</v>
+        <v>175300</v>
       </c>
       <c r="F44" s="3">
-        <v>152000</v>
+        <v>167500</v>
       </c>
       <c r="G44" s="3">
-        <v>174200</v>
+        <v>153200</v>
       </c>
       <c r="H44" s="3">
+        <v>130200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>167500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>192100</v>
+      </c>
+      <c r="K44" s="3">
         <v>101800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>115000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>149800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>205300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>174100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>200000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="Q44" s="3">
         <v>210800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="R44" s="3">
         <v>222200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="S44" s="3">
         <v>175900</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="3">
+        <v>417200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>393600</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>92300</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>393600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>101800</v>
+      </c>
+      <c r="K45" s="3">
         <v>439600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>2973600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>3045100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>197100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>178000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>117900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>438000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6374100</v>
+        <v>5276100</v>
       </c>
       <c r="E46" s="3">
-        <v>6761900</v>
+        <v>6017300</v>
       </c>
       <c r="F46" s="3">
-        <v>5017500</v>
+        <v>5286500</v>
       </c>
       <c r="G46" s="3">
-        <v>4528200</v>
+        <v>7029600</v>
       </c>
       <c r="H46" s="3">
+        <v>7454100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>5286500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4993900</v>
+      </c>
+      <c r="K46" s="3">
         <v>6290700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>7227900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>7526400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>6191100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>6703100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>5890400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>7254600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>6533800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>6691100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>231200</v>
+        <v>860900</v>
       </c>
       <c r="E47" s="3">
-        <v>224400</v>
+        <v>552300</v>
       </c>
       <c r="F47" s="3">
-        <v>257100</v>
+        <v>485000</v>
       </c>
       <c r="G47" s="3">
-        <v>243700</v>
+        <v>255000</v>
       </c>
       <c r="H47" s="3">
+        <v>247500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>485000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>268700</v>
+      </c>
+      <c r="K47" s="3">
         <v>52000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>53500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>53300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>55600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>51200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>51200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="Q47" s="3">
         <v>1738500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="R47" s="3">
         <v>1944800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="S47" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14401300</v>
+        <v>16798700</v>
       </c>
       <c r="E48" s="3">
-        <v>12827400</v>
+        <v>17564400</v>
       </c>
       <c r="F48" s="3">
-        <v>13105900</v>
+        <v>16083600</v>
       </c>
       <c r="G48" s="3">
-        <v>7504800</v>
+        <v>15882200</v>
       </c>
       <c r="H48" s="3">
+        <v>14191100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>16083600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>8276600</v>
+      </c>
+      <c r="K48" s="3">
         <v>7060600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>7104000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>6984200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>8748700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>8271800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>8497000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>9027500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>8879600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>8405100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4354300</v>
+        <v>4714900</v>
       </c>
       <c r="E49" s="3">
-        <v>2089600</v>
+        <v>4914800</v>
       </c>
       <c r="F49" s="3">
-        <v>2084100</v>
+        <v>4379800</v>
       </c>
       <c r="G49" s="3">
-        <v>5194200</v>
+        <v>4802100</v>
       </c>
       <c r="H49" s="3">
+        <v>2304500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4379800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5728300</v>
+      </c>
+      <c r="K49" s="3">
         <v>3698000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>3864400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>4002500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>6605500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>6627500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>6847600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="Q49" s="3">
         <v>6962500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="R49" s="3">
         <v>7099100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="S49" s="3">
         <v>7250400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2748,17 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2801,70 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2115600</v>
+        <v>2177900</v>
       </c>
       <c r="E52" s="3">
-        <v>2029000</v>
+        <v>2269700</v>
       </c>
       <c r="F52" s="3">
-        <v>1909700</v>
+        <v>1845800</v>
       </c>
       <c r="G52" s="3">
-        <v>2096200</v>
+        <v>2333100</v>
       </c>
       <c r="H52" s="3">
+        <v>2232800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1846000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2311800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1982900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>1485500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>1533000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>1761500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>1790700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>2147400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="Q52" s="3">
         <v>850000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="R52" s="3">
         <v>981800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="S52" s="3">
         <v>874400</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2907,70 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27476500</v>
+        <v>29828500</v>
       </c>
       <c r="E54" s="3">
-        <v>23932400</v>
+        <v>31318400</v>
       </c>
       <c r="F54" s="3">
-        <v>22374200</v>
+        <v>28080800</v>
       </c>
       <c r="G54" s="3">
-        <v>19567100</v>
+        <v>30302000</v>
       </c>
       <c r="H54" s="3">
+        <v>26430000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>28080800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>21579300</v>
+      </c>
+      <c r="K54" s="3">
         <v>19084400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>19735400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>20099400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>23362400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>23444200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>23433600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>25833200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>25439100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>24911800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2987,11 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +3008,329 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3726100</v>
+        <v>3893400</v>
       </c>
       <c r="E57" s="3">
-        <v>3358500</v>
+        <v>4153100</v>
       </c>
       <c r="F57" s="3">
-        <v>3541100</v>
+        <v>4026700</v>
       </c>
       <c r="G57" s="3">
-        <v>3859600</v>
+        <v>4109200</v>
       </c>
       <c r="H57" s="3">
+        <v>3703300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>4026700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>4256500</v>
+      </c>
+      <c r="K57" s="3">
         <v>3576100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>3484800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>3486000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>4665800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>4258800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>4539200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>4887000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>5288300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>4924500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3547000</v>
+        <v>2504300</v>
       </c>
       <c r="E58" s="3">
-        <v>3018000</v>
+        <v>2101500</v>
       </c>
       <c r="F58" s="3">
-        <v>2835200</v>
+        <v>2714000</v>
       </c>
       <c r="G58" s="3">
-        <v>1610200</v>
+        <v>3911800</v>
       </c>
       <c r="H58" s="3">
+        <v>3369100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2714000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1775800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1588700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>2615700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>2051000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>2629600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>2984700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>3083000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>4001300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>3202100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>3174000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1976100</v>
+        <v>1958000</v>
       </c>
       <c r="E59" s="3">
-        <v>1910500</v>
+        <v>1277800</v>
       </c>
       <c r="F59" s="3">
-        <v>1320800</v>
+        <v>1498800</v>
       </c>
       <c r="G59" s="3">
-        <v>1431000</v>
+        <v>2179300</v>
       </c>
       <c r="H59" s="3">
+        <v>2106900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1498900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1578100</v>
+      </c>
+      <c r="K59" s="3">
         <v>2654800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>2280400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>1900000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>1583800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>2214000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>2207700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>1558500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>1079900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>1033600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9249200</v>
+        <v>8355700</v>
       </c>
       <c r="E60" s="3">
-        <v>8286900</v>
+        <v>7532400</v>
       </c>
       <c r="F60" s="3">
-        <v>7697200</v>
+        <v>8239500</v>
       </c>
       <c r="G60" s="3">
-        <v>6900700</v>
+        <v>10200400</v>
       </c>
       <c r="H60" s="3">
+        <v>9179400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>8239500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>7610400</v>
+      </c>
+      <c r="K60" s="3">
         <v>7819600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>8380900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>7437000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>8879100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>9457500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>9829900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>10446800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>9570300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>9132100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12328500</v>
+        <v>15506900</v>
       </c>
       <c r="E61" s="3">
-        <v>9876800</v>
+        <v>16118100</v>
       </c>
       <c r="F61" s="3">
-        <v>7513500</v>
+        <v>13085900</v>
       </c>
       <c r="G61" s="3">
-        <v>5721200</v>
+        <v>13596300</v>
       </c>
       <c r="H61" s="3">
+        <v>10867200</v>
+      </c>
+      <c r="I61" s="3">
+        <v>13085900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>6309600</v>
+      </c>
+      <c r="K61" s="3">
         <v>4548900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>4739300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>4852400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>5973300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>5762600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>5949300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="Q61" s="3">
         <v>6540000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="R61" s="3">
         <v>7446200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="S61" s="3">
         <v>7214000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1668000</v>
+        <v>2125500</v>
       </c>
       <c r="E62" s="3">
-        <v>1245600</v>
+        <v>2262300</v>
       </c>
       <c r="F62" s="3">
-        <v>1286500</v>
+        <v>1865900</v>
       </c>
       <c r="G62" s="3">
-        <v>1374400</v>
+        <v>1839500</v>
       </c>
       <c r="H62" s="3">
+        <v>1373800</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1865800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1515700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1260900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>1244500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>1065200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>1292200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>1284700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>1223900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="Q62" s="3">
         <v>1479700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="R62" s="3">
         <v>1592300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>1503800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3373,17 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3426,17 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3479,70 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23732100</v>
+        <v>26689700</v>
       </c>
       <c r="E66" s="3">
-        <v>19904300</v>
+        <v>26619700</v>
       </c>
       <c r="F66" s="3">
-        <v>17050800</v>
+        <v>23787600</v>
       </c>
       <c r="G66" s="3">
-        <v>14508800</v>
+        <v>26172500</v>
       </c>
       <c r="H66" s="3">
+        <v>21973800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>23787600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>16000800</v>
+      </c>
+      <c r="K66" s="3">
         <v>14120200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>14910200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>13911100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>16704900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>17006400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>17551000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>19074800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>19165800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>18363900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3559,11 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3606,17 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3659,17 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3712,17 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3765,70 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3089800</v>
+        <v>2287500</v>
       </c>
       <c r="E72" s="3">
-        <v>3495500</v>
+        <v>3606600</v>
       </c>
       <c r="F72" s="3">
-        <v>4681000</v>
+        <v>3631700</v>
       </c>
       <c r="G72" s="3">
-        <v>4377800</v>
+        <v>3407500</v>
       </c>
       <c r="H72" s="3">
+        <v>3868400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>5177500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>4828000</v>
+      </c>
+      <c r="K72" s="3">
         <v>4471800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>4521900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>5777800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>6005900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>5929300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>5278900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>5612000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>5136300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>5466800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3871,17 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3924,17 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3977,70 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3744400</v>
+        <v>3138800</v>
       </c>
       <c r="E76" s="3">
-        <v>4028100</v>
+        <v>4698700</v>
       </c>
       <c r="F76" s="3">
-        <v>5323500</v>
+        <v>4293100</v>
       </c>
       <c r="G76" s="3">
-        <v>5058300</v>
+        <v>4129400</v>
       </c>
       <c r="H76" s="3">
+        <v>4456200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>4293100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>5578500</v>
+      </c>
+      <c r="K76" s="3">
         <v>4964200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>4825200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>6188300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>6657500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>6437800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>5882600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>6758400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>6273400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>6547800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +4083,128 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>613700</v>
+        <v>499600</v>
       </c>
       <c r="E81" s="3">
-        <v>293700</v>
+        <v>78700</v>
       </c>
       <c r="F81" s="3">
-        <v>392100</v>
+        <v>195100</v>
       </c>
       <c r="G81" s="3">
-        <v>124100</v>
+        <v>-74600</v>
       </c>
       <c r="H81" s="3">
+        <v>322100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>431100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>136900</v>
+      </c>
+      <c r="K81" s="3">
         <v>601600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>270600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>510700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>257600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>666400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-19300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>513900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>348900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4221,64 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1808600</v>
+        <v>855200</v>
       </c>
       <c r="E83" s="3">
-        <v>589100</v>
+        <v>807700</v>
       </c>
       <c r="F83" s="3">
-        <v>578000</v>
+        <v>783600</v>
       </c>
       <c r="G83" s="3">
-        <v>396200</v>
+        <v>704700</v>
       </c>
       <c r="H83" s="3">
+        <v>650400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>639500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>437000</v>
+      </c>
+      <c r="K83" s="3">
         <v>571000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>567700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>597600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>701200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>610700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>662200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="Q83" s="3">
         <v>630900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="R83" s="3">
         <v>3456500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="S83" s="3">
         <v>1136300</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4321,17 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4374,17 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4427,17 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4480,17 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4533,70 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2782500</v>
+        <v>1265600</v>
       </c>
       <c r="E89" s="3">
-        <v>629200</v>
+        <v>1169900</v>
       </c>
       <c r="F89" s="3">
-        <v>957800</v>
+        <v>792400</v>
       </c>
       <c r="G89" s="3">
-        <v>839800</v>
+        <v>1314200</v>
       </c>
       <c r="H89" s="3">
+        <v>686400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1068000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>926100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1107200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>895600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>880500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>1064600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>1399400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>1343300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>1129900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>4904600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>1293700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4613,64 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-62400</v>
+        <v>580000</v>
       </c>
       <c r="E91" s="3">
-        <v>28700</v>
+        <v>-619800</v>
       </c>
       <c r="F91" s="3">
-        <v>-92000</v>
+        <v>-8800</v>
       </c>
       <c r="G91" s="3">
-        <v>-750400</v>
+        <v>900</v>
       </c>
       <c r="H91" s="3">
+        <v>31700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-101400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-827500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1315200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>484600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-568500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-523100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-449500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-530800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="Q91" s="3">
         <v>-1393000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="R91" s="3">
         <v>-2925500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="S91" s="3">
         <v>-500200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4713,17 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4766,70 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3122000</v>
+        <v>-571100</v>
       </c>
       <c r="E94" s="3">
-        <v>-474000</v>
+        <v>-506800</v>
       </c>
       <c r="F94" s="3">
-        <v>-510400</v>
+        <v>-1467600</v>
       </c>
       <c r="G94" s="3">
-        <v>-821900</v>
+        <v>-2357500</v>
       </c>
       <c r="H94" s="3">
+        <v>-522700</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-562900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-906400</v>
+      </c>
+      <c r="K94" s="3">
         <v>1771500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-448800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-563600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-511600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-41700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>50900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="Q94" s="3">
         <v>-662400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="R94" s="3">
         <v>-2602200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="S94" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4846,64 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-656400</v>
+        <v>-706300</v>
       </c>
       <c r="E96" s="3">
-        <v>-656400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-643600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1241200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-723900</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1368800</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-639200</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-606500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-747500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="Q96" s="3">
         <v>-30800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="R96" s="3">
         <v>-1386600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="S96" s="3">
         <v>-32100</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4946,17 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4999,17 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +5052,172 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1597400</v>
+        <v>-907400</v>
       </c>
       <c r="E100" s="3">
-        <v>1623800</v>
+        <v>-306900</v>
       </c>
       <c r="F100" s="3">
-        <v>188800</v>
+        <v>-1272900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1526300</v>
+        <v>-237400</v>
       </c>
       <c r="H100" s="3">
+        <v>1790800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>208300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1683300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1548700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-652600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-311900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-1372300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-107900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-1948200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>-15300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>-1114300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>503100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>56000</v>
+        <v>-39400</v>
       </c>
       <c r="E101" s="3">
-        <v>-19400</v>
+        <v>156400</v>
       </c>
       <c r="F101" s="3">
-        <v>-3700</v>
+        <v>10600</v>
       </c>
       <c r="G101" s="3">
-        <v>9700</v>
+        <v>87200</v>
       </c>
       <c r="H101" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>-5900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>-29500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>72600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>-60200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>15500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="Q101" s="3">
         <v>26300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="R101" s="3">
         <v>-55000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="S101" s="3">
         <v>-70700</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1313800</v>
+        <v>-252300</v>
       </c>
       <c r="E102" s="3">
-        <v>1759700</v>
+        <v>512700</v>
       </c>
       <c r="F102" s="3">
-        <v>632600</v>
+        <v>-1937500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1498700</v>
+        <v>-1189300</v>
       </c>
       <c r="H102" s="3">
+        <v>1940600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>697700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1652800</v>
+      </c>
+      <c r="K102" s="3">
         <v>1326600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-211700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-24400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-864300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>1083000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>-642900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>373700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>1133100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>1819800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>TELNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3486500</v>
+        <v>3396900</v>
       </c>
       <c r="E8" s="3">
-        <v>3492100</v>
+        <v>3498500</v>
       </c>
       <c r="F8" s="3">
-        <v>3226300</v>
+        <v>3504200</v>
       </c>
       <c r="G8" s="3">
-        <v>3323900</v>
+        <v>3237500</v>
       </c>
       <c r="H8" s="3">
-        <v>3036800</v>
+        <v>3217900</v>
       </c>
       <c r="I8" s="3">
-        <v>2999700</v>
+        <v>3047300</v>
       </c>
       <c r="J8" s="3">
+        <v>3010000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2674300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2820000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2813600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2777400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2247000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3179900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3280600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3402600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15461200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3853000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>813500</v>
+        <v>785500</v>
       </c>
       <c r="E9" s="3">
-        <v>829700</v>
+        <v>816400</v>
       </c>
       <c r="F9" s="3">
-        <v>800300</v>
+        <v>832500</v>
       </c>
       <c r="G9" s="3">
-        <v>823800</v>
+        <v>803100</v>
       </c>
       <c r="H9" s="3">
-        <v>707500</v>
+        <v>767700</v>
       </c>
       <c r="I9" s="3">
-        <v>698400</v>
+        <v>709900</v>
       </c>
       <c r="J9" s="3">
+        <v>700800</v>
+      </c>
+      <c r="K9" s="3">
         <v>588400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>619800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>662700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>632900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>523300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>725500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>760900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1192600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5577700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1329500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2672900</v>
+        <v>2611400</v>
       </c>
       <c r="E10" s="3">
-        <v>2662400</v>
+        <v>2682200</v>
       </c>
       <c r="F10" s="3">
-        <v>2426000</v>
+        <v>2671600</v>
       </c>
       <c r="G10" s="3">
-        <v>2500100</v>
+        <v>2434400</v>
       </c>
       <c r="H10" s="3">
-        <v>2329300</v>
+        <v>2450200</v>
       </c>
       <c r="I10" s="3">
-        <v>2301300</v>
+        <v>2337300</v>
       </c>
       <c r="J10" s="3">
+        <v>2309300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2085900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2200200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2150900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2144500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1723800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2454400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2519700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2210000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9883500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2523500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>150100</v>
+        <v>12200</v>
       </c>
       <c r="E14" s="3">
-        <v>37800</v>
+        <v>150600</v>
       </c>
       <c r="F14" s="3">
-        <v>37800</v>
+        <v>37900</v>
       </c>
       <c r="G14" s="3">
-        <v>9300</v>
+        <v>37900</v>
       </c>
       <c r="H14" s="3">
-        <v>26300</v>
+        <v>4900</v>
       </c>
       <c r="I14" s="3">
-        <v>20600</v>
+        <v>26400</v>
       </c>
       <c r="J14" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K14" s="3">
         <v>268700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>25500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>26600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>18600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>59900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>55600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>718100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-82400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>158900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>707900</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>855100</v>
+        <v>807400</v>
       </c>
       <c r="E15" s="3">
-        <v>806900</v>
+        <v>858000</v>
       </c>
       <c r="F15" s="3">
-        <v>770800</v>
+        <v>809700</v>
       </c>
       <c r="G15" s="3">
-        <v>709600</v>
+        <v>773500</v>
       </c>
       <c r="H15" s="3">
-        <v>650600</v>
+        <v>712100</v>
       </c>
       <c r="I15" s="3">
-        <v>635600</v>
+        <v>652900</v>
       </c>
       <c r="J15" s="3">
+        <v>637800</v>
+      </c>
+      <c r="K15" s="3">
         <v>462800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>553400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>529200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>547800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>457600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>556300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>570100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>581900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2414600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2878200</v>
+        <v>2469600</v>
       </c>
       <c r="E17" s="3">
-        <v>2743300</v>
+        <v>2888100</v>
       </c>
       <c r="F17" s="3">
-        <v>2599500</v>
+        <v>2752800</v>
       </c>
       <c r="G17" s="3">
-        <v>2533600</v>
+        <v>2608500</v>
       </c>
       <c r="H17" s="3">
-        <v>2340100</v>
+        <v>2457100</v>
       </c>
       <c r="I17" s="3">
-        <v>2261600</v>
+        <v>2348200</v>
       </c>
       <c r="J17" s="3">
+        <v>2269400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2378100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2132300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2221000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2183200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1893900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2354800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3111300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2705400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12375000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3663500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>608300</v>
+        <v>927300</v>
       </c>
       <c r="E18" s="3">
-        <v>748800</v>
+        <v>610400</v>
       </c>
       <c r="F18" s="3">
-        <v>626800</v>
+        <v>751400</v>
       </c>
       <c r="G18" s="3">
-        <v>790300</v>
+        <v>629000</v>
       </c>
       <c r="H18" s="3">
-        <v>696700</v>
+        <v>760800</v>
       </c>
       <c r="I18" s="3">
-        <v>738100</v>
+        <v>699100</v>
       </c>
       <c r="J18" s="3">
+        <v>740600</v>
+      </c>
+      <c r="K18" s="3">
         <v>296200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>687700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>592500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>594300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>353200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>825100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>169300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>697100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3086200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>189500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>124700</v>
+        <v>55600</v>
       </c>
       <c r="E20" s="3">
-        <v>-385700</v>
+        <v>125100</v>
       </c>
       <c r="F20" s="3">
-        <v>86900</v>
+        <v>-387100</v>
       </c>
       <c r="G20" s="3">
-        <v>-189200</v>
+        <v>87200</v>
       </c>
       <c r="H20" s="3">
+        <v>-190000</v>
+      </c>
+      <c r="I20" s="3">
         <v>6900</v>
       </c>
-      <c r="I20" s="3">
-        <v>62600</v>
-      </c>
       <c r="J20" s="3">
+        <v>62800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-258100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-124000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>233900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-45200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>211800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>102900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-323500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>90900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1588200</v>
+        <v>1790300</v>
       </c>
       <c r="E21" s="3">
-        <v>1170700</v>
+        <v>1593700</v>
       </c>
       <c r="F21" s="3">
-        <v>1497300</v>
+        <v>1174800</v>
       </c>
       <c r="G21" s="3">
-        <v>1305800</v>
+        <v>1498200</v>
       </c>
       <c r="H21" s="3">
-        <v>1354000</v>
+        <v>1282200</v>
       </c>
       <c r="I21" s="3">
-        <v>1440100</v>
+        <v>1358600</v>
       </c>
       <c r="J21" s="3">
+        <v>1445100</v>
+      </c>
+      <c r="K21" s="3">
         <v>516500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1252700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1017600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1422600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1009200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1647600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>934400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1428400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6219100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1416700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>102600</v>
+        <v>120000</v>
       </c>
       <c r="E22" s="3">
-        <v>106700</v>
+        <v>102900</v>
       </c>
       <c r="F22" s="3">
-        <v>177200</v>
+        <v>107100</v>
       </c>
       <c r="G22" s="3">
-        <v>126400</v>
+        <v>177900</v>
       </c>
       <c r="H22" s="3">
-        <v>114300</v>
+        <v>127400</v>
       </c>
       <c r="I22" s="3">
-        <v>100500</v>
+        <v>114700</v>
       </c>
       <c r="J22" s="3">
+        <v>100900</v>
+      </c>
+      <c r="K22" s="3">
         <v>104900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>45900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>46200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>30500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>105800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>54700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>72700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>72500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>382700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>630400</v>
+        <v>862900</v>
       </c>
       <c r="E23" s="3">
-        <v>256300</v>
+        <v>632600</v>
       </c>
       <c r="F23" s="3">
-        <v>536500</v>
+        <v>257200</v>
       </c>
       <c r="G23" s="3">
-        <v>474700</v>
+        <v>538300</v>
       </c>
       <c r="H23" s="3">
-        <v>589300</v>
+        <v>443400</v>
       </c>
       <c r="I23" s="3">
-        <v>700200</v>
+        <v>591300</v>
       </c>
       <c r="J23" s="3">
+        <v>702600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-66900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>651500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>422300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>797600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>202200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>982200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>199500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>725000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2379900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>228000</v>
+        <v>243100</v>
       </c>
       <c r="E24" s="3">
-        <v>81000</v>
+        <v>228800</v>
       </c>
       <c r="F24" s="3">
-        <v>150400</v>
+        <v>81300</v>
       </c>
       <c r="G24" s="3">
-        <v>454300</v>
+        <v>150900</v>
       </c>
       <c r="H24" s="3">
-        <v>210900</v>
+        <v>455100</v>
       </c>
       <c r="I24" s="3">
-        <v>202300</v>
+        <v>211600</v>
       </c>
       <c r="J24" s="3">
+        <v>203000</v>
+      </c>
+      <c r="K24" s="3">
         <v>55800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>205700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>125000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>235000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>77200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>272900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>186400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>197900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>730400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>402400</v>
+        <v>619800</v>
       </c>
       <c r="E26" s="3">
-        <v>175300</v>
+        <v>403800</v>
       </c>
       <c r="F26" s="3">
-        <v>386100</v>
+        <v>175900</v>
       </c>
       <c r="G26" s="3">
-        <v>20400</v>
+        <v>387400</v>
       </c>
       <c r="H26" s="3">
-        <v>378400</v>
+        <v>-11700</v>
       </c>
       <c r="I26" s="3">
-        <v>497900</v>
+        <v>379700</v>
       </c>
       <c r="J26" s="3">
+        <v>499600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-122700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>445800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>297300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>562700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>124900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>709300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>13100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>527100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1649500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>298500</v>
+        <v>515300</v>
       </c>
       <c r="E27" s="3">
-        <v>56700</v>
+        <v>299600</v>
       </c>
       <c r="F27" s="3">
-        <v>283300</v>
+        <v>56900</v>
       </c>
       <c r="G27" s="3">
-        <v>-75600</v>
+        <v>284300</v>
       </c>
       <c r="H27" s="3">
-        <v>294800</v>
+        <v>-106900</v>
       </c>
       <c r="I27" s="3">
-        <v>395800</v>
+        <v>295800</v>
       </c>
       <c r="J27" s="3">
+        <v>397100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-160200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>370200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>208100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>484100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>46100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>623500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-79500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>441500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1282600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-93500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,61 +1814,67 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>201000</v>
+        <v>-2800</v>
       </c>
       <c r="E29" s="3">
-        <v>22000</v>
+        <v>201700</v>
       </c>
       <c r="F29" s="3">
-        <v>-88200</v>
+        <v>22100</v>
       </c>
       <c r="G29" s="3">
-        <v>1000</v>
+        <v>-88500</v>
       </c>
       <c r="H29" s="3">
-        <v>27300</v>
+        <v>30000</v>
       </c>
       <c r="I29" s="3">
-        <v>35300</v>
+        <v>27400</v>
       </c>
       <c r="J29" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K29" s="3">
         <v>297100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>231400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>62500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>26600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>211500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>42800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>60200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>72400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-933600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-501000</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-124700</v>
+        <v>-55600</v>
       </c>
       <c r="E32" s="3">
-        <v>385700</v>
+        <v>-125100</v>
       </c>
       <c r="F32" s="3">
-        <v>-86900</v>
+        <v>387100</v>
       </c>
       <c r="G32" s="3">
-        <v>189200</v>
+        <v>-87200</v>
       </c>
       <c r="H32" s="3">
+        <v>190000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-6900</v>
       </c>
-      <c r="I32" s="3">
-        <v>-62600</v>
-      </c>
       <c r="J32" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="K32" s="3">
         <v>258100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>124000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-233900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>45200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-211800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-102900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>323500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>499600</v>
+        <v>512500</v>
       </c>
       <c r="E33" s="3">
-        <v>78700</v>
+        <v>501300</v>
       </c>
       <c r="F33" s="3">
-        <v>195100</v>
+        <v>79000</v>
       </c>
       <c r="G33" s="3">
-        <v>-74600</v>
+        <v>195700</v>
       </c>
       <c r="H33" s="3">
-        <v>322100</v>
+        <v>-76900</v>
       </c>
       <c r="I33" s="3">
-        <v>431100</v>
+        <v>323200</v>
       </c>
       <c r="J33" s="3">
+        <v>432600</v>
+      </c>
+      <c r="K33" s="3">
         <v>136900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>601600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>270600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>510700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>257600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>666400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>513900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>348900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>499600</v>
+        <v>512500</v>
       </c>
       <c r="E35" s="3">
-        <v>78700</v>
+        <v>501300</v>
       </c>
       <c r="F35" s="3">
-        <v>195100</v>
+        <v>79000</v>
       </c>
       <c r="G35" s="3">
-        <v>-74600</v>
+        <v>195700</v>
       </c>
       <c r="H35" s="3">
-        <v>322100</v>
+        <v>-76900</v>
       </c>
       <c r="I35" s="3">
-        <v>431100</v>
+        <v>323200</v>
       </c>
       <c r="J35" s="3">
+        <v>432600</v>
+      </c>
+      <c r="K35" s="3">
         <v>136900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>601600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>270600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>510700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>257600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>666400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>513900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>348900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,220 +2313,233 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1884000</v>
+        <v>1979300</v>
       </c>
       <c r="E41" s="3">
-        <v>2038000</v>
+        <v>1890500</v>
       </c>
       <c r="F41" s="3">
-        <v>1564500</v>
+        <v>2045000</v>
       </c>
       <c r="G41" s="3">
-        <v>3600700</v>
+        <v>1569900</v>
       </c>
       <c r="H41" s="3">
-        <v>4780500</v>
+        <v>3613100</v>
       </c>
       <c r="I41" s="3">
-        <v>1564500</v>
+        <v>4797000</v>
       </c>
       <c r="J41" s="3">
+        <v>1569900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2086300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3345800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1900500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2144100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2610600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3448500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2389300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3222400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2846400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3399800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>66500</v>
+        <v>60900</v>
       </c>
       <c r="E42" s="3">
-        <v>95100</v>
+        <v>66700</v>
       </c>
       <c r="F42" s="3">
-        <v>102700</v>
+        <v>95400</v>
       </c>
       <c r="G42" s="3">
-        <v>75600</v>
+        <v>103000</v>
       </c>
       <c r="H42" s="3">
-        <v>94900</v>
+        <v>75900</v>
       </c>
       <c r="I42" s="3">
-        <v>102700</v>
+        <v>95200</v>
       </c>
       <c r="J42" s="3">
+        <v>103000</v>
+      </c>
+      <c r="K42" s="3">
         <v>76500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>93200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>83200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>69000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>187800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>189300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>192000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>297900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>306900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>261000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3181000</v>
+        <v>3121800</v>
       </c>
       <c r="E43" s="3">
-        <v>3291600</v>
+        <v>3192000</v>
       </c>
       <c r="F43" s="3">
-        <v>3058200</v>
+        <v>3303000</v>
       </c>
       <c r="G43" s="3">
-        <v>3200100</v>
+        <v>3068800</v>
       </c>
       <c r="H43" s="3">
-        <v>2448600</v>
+        <v>3207500</v>
       </c>
       <c r="I43" s="3">
-        <v>3058200</v>
+        <v>2457100</v>
       </c>
       <c r="J43" s="3">
+        <v>3068800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2537200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2310300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2155700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2118400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2990300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2713200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2991200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3085500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3158100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2854000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>144700</v>
+        <v>142100</v>
       </c>
       <c r="E44" s="3">
-        <v>175300</v>
+        <v>145200</v>
       </c>
       <c r="F44" s="3">
-        <v>167500</v>
+        <v>175900</v>
       </c>
       <c r="G44" s="3">
-        <v>153200</v>
+        <v>168100</v>
       </c>
       <c r="H44" s="3">
-        <v>130200</v>
+        <v>153700</v>
       </c>
       <c r="I44" s="3">
-        <v>167500</v>
+        <v>130600</v>
       </c>
       <c r="J44" s="3">
+        <v>168100</v>
+      </c>
+      <c r="K44" s="3">
         <v>192100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>101800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>115000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>149800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>205300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>174100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>200000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>210800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>222200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>175900</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,264 +2547,279 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>417200</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>393600</v>
+        <v>418700</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
+        <v>395000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
-        <v>393600</v>
-      </c>
       <c r="J45" s="3">
+        <v>395000</v>
+      </c>
+      <c r="K45" s="3">
         <v>101800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>439600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2973600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3045100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>197100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>178000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>117900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>438000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5276100</v>
+        <v>5304000</v>
       </c>
       <c r="E46" s="3">
-        <v>6017300</v>
+        <v>5294400</v>
       </c>
       <c r="F46" s="3">
-        <v>5286500</v>
+        <v>6038100</v>
       </c>
       <c r="G46" s="3">
-        <v>7029600</v>
+        <v>5304800</v>
       </c>
       <c r="H46" s="3">
-        <v>7454100</v>
+        <v>7050200</v>
       </c>
       <c r="I46" s="3">
-        <v>5286500</v>
+        <v>7479900</v>
       </c>
       <c r="J46" s="3">
+        <v>5304800</v>
+      </c>
+      <c r="K46" s="3">
         <v>4993900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6290700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7227900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7526400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6191100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6703100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5890400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7254600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6533800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6691100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>860900</v>
+        <v>923100</v>
       </c>
       <c r="E47" s="3">
-        <v>552300</v>
+        <v>863900</v>
       </c>
       <c r="F47" s="3">
-        <v>485000</v>
+        <v>554200</v>
       </c>
       <c r="G47" s="3">
-        <v>255000</v>
+        <v>486700</v>
       </c>
       <c r="H47" s="3">
-        <v>247500</v>
+        <v>255900</v>
       </c>
       <c r="I47" s="3">
-        <v>485000</v>
+        <v>248400</v>
       </c>
       <c r="J47" s="3">
+        <v>486700</v>
+      </c>
+      <c r="K47" s="3">
         <v>268700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>52000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>53500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>53300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>55600</v>
-      </c>
-      <c r="O47" s="3">
-        <v>51200</v>
       </c>
       <c r="P47" s="3">
         <v>51200</v>
       </c>
       <c r="Q47" s="3">
+        <v>51200</v>
+      </c>
+      <c r="R47" s="3">
         <v>1738500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1944800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16798700</v>
+        <v>16446800</v>
       </c>
       <c r="E48" s="3">
-        <v>17564400</v>
+        <v>16856700</v>
       </c>
       <c r="F48" s="3">
-        <v>16083600</v>
+        <v>17625100</v>
       </c>
       <c r="G48" s="3">
-        <v>15882200</v>
+        <v>16139200</v>
       </c>
       <c r="H48" s="3">
-        <v>14191100</v>
+        <v>15985500</v>
       </c>
       <c r="I48" s="3">
-        <v>16083600</v>
+        <v>14240100</v>
       </c>
       <c r="J48" s="3">
+        <v>16139200</v>
+      </c>
+      <c r="K48" s="3">
         <v>8276600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7060600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7104000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6984200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8748700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8271800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8497000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9027500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8879600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8405100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4714900</v>
+        <v>4735500</v>
       </c>
       <c r="E49" s="3">
-        <v>4914800</v>
+        <v>4731200</v>
       </c>
       <c r="F49" s="3">
-        <v>4379800</v>
+        <v>4931800</v>
       </c>
       <c r="G49" s="3">
-        <v>4802100</v>
+        <v>4394900</v>
       </c>
       <c r="H49" s="3">
-        <v>2304500</v>
+        <v>4818700</v>
       </c>
       <c r="I49" s="3">
-        <v>4379800</v>
+        <v>2312400</v>
       </c>
       <c r="J49" s="3">
+        <v>4394900</v>
+      </c>
+      <c r="K49" s="3">
         <v>5728300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3698000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3864400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4002500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6605500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6627500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6847600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6962500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7099100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7250400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2177900</v>
+        <v>2097700</v>
       </c>
       <c r="E52" s="3">
-        <v>2269700</v>
+        <v>2185400</v>
       </c>
       <c r="F52" s="3">
-        <v>1845800</v>
+        <v>2277600</v>
       </c>
       <c r="G52" s="3">
-        <v>2333100</v>
+        <v>1852200</v>
       </c>
       <c r="H52" s="3">
-        <v>2232800</v>
+        <v>2336700</v>
       </c>
       <c r="I52" s="3">
-        <v>1846000</v>
+        <v>2240500</v>
       </c>
       <c r="J52" s="3">
+        <v>1852300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2311800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1982900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1485500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1533000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1761500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1790700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2147400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>850000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>981800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>874400</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29828500</v>
+        <v>29507100</v>
       </c>
       <c r="E54" s="3">
-        <v>31318400</v>
+        <v>29931600</v>
       </c>
       <c r="F54" s="3">
-        <v>28080800</v>
+        <v>31426600</v>
       </c>
       <c r="G54" s="3">
-        <v>30302000</v>
+        <v>28177900</v>
       </c>
       <c r="H54" s="3">
-        <v>26430000</v>
+        <v>30446700</v>
       </c>
       <c r="I54" s="3">
-        <v>28080800</v>
+        <v>26521400</v>
       </c>
       <c r="J54" s="3">
+        <v>28177900</v>
+      </c>
+      <c r="K54" s="3">
         <v>21579300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19084400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19735400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20099400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>23362400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23444200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23433600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25833200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25439100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>24911800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3893400</v>
+        <v>3738100</v>
       </c>
       <c r="E57" s="3">
-        <v>4153100</v>
+        <v>3906900</v>
       </c>
       <c r="F57" s="3">
-        <v>4026700</v>
+        <v>4167500</v>
       </c>
       <c r="G57" s="3">
-        <v>4109200</v>
+        <v>4040600</v>
       </c>
       <c r="H57" s="3">
-        <v>3703300</v>
+        <v>4122900</v>
       </c>
       <c r="I57" s="3">
-        <v>4026700</v>
+        <v>3716100</v>
       </c>
       <c r="J57" s="3">
+        <v>4040600</v>
+      </c>
+      <c r="K57" s="3">
         <v>4256500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3576100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3484800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3486000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4665800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4258800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4539200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4887000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5288300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4924500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2504300</v>
+        <v>2104600</v>
       </c>
       <c r="E58" s="3">
-        <v>2101500</v>
+        <v>2512900</v>
       </c>
       <c r="F58" s="3">
-        <v>2714000</v>
+        <v>2108800</v>
       </c>
       <c r="G58" s="3">
-        <v>3911800</v>
+        <v>2723400</v>
       </c>
       <c r="H58" s="3">
-        <v>3369100</v>
+        <v>3918200</v>
       </c>
       <c r="I58" s="3">
-        <v>2714000</v>
+        <v>3380800</v>
       </c>
       <c r="J58" s="3">
+        <v>2723400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1775800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1588700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2615700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2051000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2629600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2984700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3083000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4001300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3202100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3174000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1958000</v>
+        <v>1832100</v>
       </c>
       <c r="E59" s="3">
-        <v>1277800</v>
+        <v>1964800</v>
       </c>
       <c r="F59" s="3">
-        <v>1498800</v>
+        <v>1282200</v>
       </c>
       <c r="G59" s="3">
-        <v>2179300</v>
+        <v>1504000</v>
       </c>
       <c r="H59" s="3">
-        <v>2106900</v>
+        <v>2186900</v>
       </c>
       <c r="I59" s="3">
-        <v>1498900</v>
+        <v>2114200</v>
       </c>
       <c r="J59" s="3">
+        <v>1504100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1578100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2654800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2280400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1583800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2214000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2207700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1558500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1079900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1033600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8355700</v>
+        <v>7674700</v>
       </c>
       <c r="E60" s="3">
-        <v>7532400</v>
+        <v>8384600</v>
       </c>
       <c r="F60" s="3">
-        <v>8239500</v>
+        <v>7558500</v>
       </c>
       <c r="G60" s="3">
-        <v>10200400</v>
+        <v>8268000</v>
       </c>
       <c r="H60" s="3">
-        <v>9179400</v>
+        <v>10228000</v>
       </c>
       <c r="I60" s="3">
-        <v>8239500</v>
+        <v>9211100</v>
       </c>
       <c r="J60" s="3">
+        <v>8268000</v>
+      </c>
+      <c r="K60" s="3">
         <v>7610400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7819600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8380900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7437000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8879100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9457500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9829900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10446800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9570300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9132100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15506900</v>
+        <v>15521200</v>
       </c>
       <c r="E61" s="3">
-        <v>16118100</v>
+        <v>15560500</v>
       </c>
       <c r="F61" s="3">
-        <v>13085900</v>
+        <v>16173900</v>
       </c>
       <c r="G61" s="3">
-        <v>13596300</v>
+        <v>13131100</v>
       </c>
       <c r="H61" s="3">
-        <v>10867200</v>
+        <v>13671500</v>
       </c>
       <c r="I61" s="3">
-        <v>13085900</v>
+        <v>10904700</v>
       </c>
       <c r="J61" s="3">
+        <v>13131100</v>
+      </c>
+      <c r="K61" s="3">
         <v>6309600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4548900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4739300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4852400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5973300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5762600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5949300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6540000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7446200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7214000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2125500</v>
+        <v>2001000</v>
       </c>
       <c r="E62" s="3">
-        <v>2262300</v>
+        <v>2132900</v>
       </c>
       <c r="F62" s="3">
-        <v>1865900</v>
+        <v>2270100</v>
       </c>
       <c r="G62" s="3">
-        <v>1839500</v>
+        <v>1872400</v>
       </c>
       <c r="H62" s="3">
-        <v>1373800</v>
+        <v>1845700</v>
       </c>
       <c r="I62" s="3">
-        <v>1865800</v>
+        <v>1378600</v>
       </c>
       <c r="J62" s="3">
+        <v>1872300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1515700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1260900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1244500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1065200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1292200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1284700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1223900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1479700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1592300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1503800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26689700</v>
+        <v>25825100</v>
       </c>
       <c r="E66" s="3">
-        <v>26619700</v>
+        <v>26782000</v>
       </c>
       <c r="F66" s="3">
-        <v>23787600</v>
+        <v>26711700</v>
       </c>
       <c r="G66" s="3">
-        <v>26172500</v>
+        <v>23869900</v>
       </c>
       <c r="H66" s="3">
-        <v>21973800</v>
+        <v>26290100</v>
       </c>
       <c r="I66" s="3">
-        <v>23787600</v>
+        <v>22049800</v>
       </c>
       <c r="J66" s="3">
+        <v>23869900</v>
+      </c>
+      <c r="K66" s="3">
         <v>16000800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14120200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14910200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13911100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16704900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17006400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17551000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19074800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19165800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18363900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2287500</v>
+        <v>2812000</v>
       </c>
       <c r="E72" s="3">
-        <v>3606600</v>
+        <v>2295400</v>
       </c>
       <c r="F72" s="3">
-        <v>3631700</v>
+        <v>3619100</v>
       </c>
       <c r="G72" s="3">
-        <v>3407500</v>
+        <v>3644200</v>
       </c>
       <c r="H72" s="3">
-        <v>3868400</v>
+        <v>3430700</v>
       </c>
       <c r="I72" s="3">
-        <v>5177500</v>
+        <v>3881700</v>
       </c>
       <c r="J72" s="3">
+        <v>5195400</v>
+      </c>
+      <c r="K72" s="3">
         <v>4828000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4471800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4521900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5777800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6005900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5929300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5278900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5612000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5136300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5466800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3138800</v>
+        <v>3681900</v>
       </c>
       <c r="E76" s="3">
-        <v>4698700</v>
+        <v>3149600</v>
       </c>
       <c r="F76" s="3">
-        <v>4293100</v>
+        <v>4715000</v>
       </c>
       <c r="G76" s="3">
-        <v>4129400</v>
+        <v>4308000</v>
       </c>
       <c r="H76" s="3">
-        <v>4456200</v>
+        <v>4156600</v>
       </c>
       <c r="I76" s="3">
-        <v>4293100</v>
+        <v>4471600</v>
       </c>
       <c r="J76" s="3">
+        <v>4308000</v>
+      </c>
+      <c r="K76" s="3">
         <v>5578500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4964200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4825200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6188300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6657500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6437800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5882600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6758400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6273400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6547800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>499600</v>
+        <v>512500</v>
       </c>
       <c r="E81" s="3">
-        <v>78700</v>
+        <v>501300</v>
       </c>
       <c r="F81" s="3">
-        <v>195100</v>
+        <v>79000</v>
       </c>
       <c r="G81" s="3">
-        <v>-74600</v>
+        <v>195700</v>
       </c>
       <c r="H81" s="3">
-        <v>322100</v>
+        <v>-76900</v>
       </c>
       <c r="I81" s="3">
-        <v>431100</v>
+        <v>323200</v>
       </c>
       <c r="J81" s="3">
+        <v>432600</v>
+      </c>
+      <c r="K81" s="3">
         <v>136900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>601600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>270600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>510700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>257600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>666400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>513900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>348900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>855200</v>
+        <v>807400</v>
       </c>
       <c r="E83" s="3">
-        <v>807700</v>
+        <v>858100</v>
       </c>
       <c r="F83" s="3">
-        <v>783600</v>
+        <v>810500</v>
       </c>
       <c r="G83" s="3">
-        <v>704700</v>
+        <v>782100</v>
       </c>
       <c r="H83" s="3">
-        <v>650400</v>
+        <v>711400</v>
       </c>
       <c r="I83" s="3">
-        <v>639500</v>
+        <v>652700</v>
       </c>
       <c r="J83" s="3">
+        <v>641700</v>
+      </c>
+      <c r="K83" s="3">
         <v>437000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>571000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>567700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>597600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>701200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>610700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>662200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>630900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3456500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1136300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1265600</v>
+        <v>1236900</v>
       </c>
       <c r="E89" s="3">
-        <v>1169900</v>
+        <v>1270000</v>
       </c>
       <c r="F89" s="3">
-        <v>792400</v>
+        <v>1174000</v>
       </c>
       <c r="G89" s="3">
-        <v>1314200</v>
+        <v>792000</v>
       </c>
       <c r="H89" s="3">
-        <v>686400</v>
+        <v>1322000</v>
       </c>
       <c r="I89" s="3">
-        <v>1068000</v>
+        <v>688800</v>
       </c>
       <c r="J89" s="3">
+        <v>1071600</v>
+      </c>
+      <c r="K89" s="3">
         <v>926100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1107200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>895600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>880500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1064600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1399400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1343300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1129900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4904600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1293700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>580000</v>
+        <v>-1560000</v>
       </c>
       <c r="E91" s="3">
-        <v>-619800</v>
+        <v>582000</v>
       </c>
       <c r="F91" s="3">
+        <v>-622000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-8800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>900</v>
       </c>
-      <c r="H91" s="3">
-        <v>31700</v>
-      </c>
       <c r="I91" s="3">
-        <v>-101400</v>
+        <v>31800</v>
       </c>
       <c r="J91" s="3">
+        <v>-101800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-827500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1315200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>484600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-568500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-523100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-449500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-530800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1393000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2925500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-571100</v>
+        <v>-390300</v>
       </c>
       <c r="E94" s="3">
-        <v>-506800</v>
+        <v>-573100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1467600</v>
+        <v>-508500</v>
       </c>
       <c r="G94" s="3">
-        <v>-2357500</v>
+        <v>-1472600</v>
       </c>
       <c r="H94" s="3">
-        <v>-522700</v>
+        <v>-2365600</v>
       </c>
       <c r="I94" s="3">
-        <v>-562900</v>
+        <v>-524500</v>
       </c>
       <c r="J94" s="3">
+        <v>-564800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-906400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1771500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-448800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-563600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-511600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-41700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>50900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-662400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2602200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-706300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-708700</v>
       </c>
       <c r="F96" s="3">
-        <v>-643600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-645900</v>
       </c>
       <c r="H96" s="3">
-        <v>-723900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-726400</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1368800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-639200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-606500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-747500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-30800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1386600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-32100</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-907400</v>
+        <v>-730100</v>
       </c>
       <c r="E100" s="3">
-        <v>-306900</v>
+        <v>-910500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1272900</v>
+        <v>-307900</v>
       </c>
       <c r="G100" s="3">
-        <v>-237400</v>
+        <v>-1277300</v>
       </c>
       <c r="H100" s="3">
-        <v>1790800</v>
+        <v>-238200</v>
       </c>
       <c r="I100" s="3">
-        <v>208300</v>
+        <v>1797000</v>
       </c>
       <c r="J100" s="3">
+        <v>209000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1683300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1548700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-652600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-311900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1372300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-107900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1948200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1114300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>503100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-39400</v>
+        <v>-41300</v>
       </c>
       <c r="E101" s="3">
-        <v>156400</v>
+        <v>-39500</v>
       </c>
       <c r="F101" s="3">
+        <v>156900</v>
+      </c>
+      <c r="G101" s="3">
         <v>10600</v>
       </c>
-      <c r="G101" s="3">
-        <v>87200</v>
-      </c>
       <c r="H101" s="3">
-        <v>-21400</v>
+        <v>87500</v>
       </c>
       <c r="I101" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="J101" s="3">
         <v>-4100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>10700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-29500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>72600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-60200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>15500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>26300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-55000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-70700</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-252300</v>
+        <v>75200</v>
       </c>
       <c r="E102" s="3">
-        <v>512700</v>
+        <v>-253100</v>
       </c>
       <c r="F102" s="3">
-        <v>-1937500</v>
+        <v>514400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1189300</v>
+        <v>-1944200</v>
       </c>
       <c r="H102" s="3">
-        <v>1940600</v>
+        <v>-1193500</v>
       </c>
       <c r="I102" s="3">
-        <v>697700</v>
+        <v>1947300</v>
       </c>
       <c r="J102" s="3">
+        <v>700100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1652800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1326600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-211700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-24400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-864300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1083000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-642900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>373700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1133100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1819800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>TELNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3396900</v>
+        <v>3578600</v>
       </c>
       <c r="E8" s="3">
-        <v>3498500</v>
+        <v>3469500</v>
       </c>
       <c r="F8" s="3">
-        <v>3504200</v>
+        <v>3573300</v>
       </c>
       <c r="G8" s="3">
-        <v>3237500</v>
+        <v>3579100</v>
       </c>
       <c r="H8" s="3">
-        <v>3217900</v>
+        <v>3306700</v>
       </c>
       <c r="I8" s="3">
-        <v>3047300</v>
+        <v>3286700</v>
       </c>
       <c r="J8" s="3">
+        <v>3112400</v>
+      </c>
+      <c r="K8" s="3">
         <v>3010000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2674300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2820000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2813600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2777400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2247000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3179900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3280600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3402600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15461200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3853000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>785500</v>
+        <v>955700</v>
       </c>
       <c r="E9" s="3">
-        <v>816400</v>
+        <v>802200</v>
       </c>
       <c r="F9" s="3">
-        <v>832500</v>
+        <v>833800</v>
       </c>
       <c r="G9" s="3">
-        <v>803100</v>
+        <v>850300</v>
       </c>
       <c r="H9" s="3">
-        <v>767700</v>
+        <v>820300</v>
       </c>
       <c r="I9" s="3">
-        <v>709900</v>
+        <v>784100</v>
       </c>
       <c r="J9" s="3">
+        <v>725100</v>
+      </c>
+      <c r="K9" s="3">
         <v>700800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>588400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>619800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>662700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>632900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>523300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>725500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>760900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1192600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5577700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1329500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2611400</v>
+        <v>2623000</v>
       </c>
       <c r="E10" s="3">
-        <v>2682200</v>
+        <v>2667200</v>
       </c>
       <c r="F10" s="3">
-        <v>2671600</v>
+        <v>2739500</v>
       </c>
       <c r="G10" s="3">
-        <v>2434400</v>
+        <v>2728800</v>
       </c>
       <c r="H10" s="3">
-        <v>2450200</v>
+        <v>2486400</v>
       </c>
       <c r="I10" s="3">
-        <v>2337300</v>
+        <v>2502600</v>
       </c>
       <c r="J10" s="3">
+        <v>2387300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2309300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2085900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2200200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2150900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2144500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1723800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2454400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2519700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2210000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9883500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2523500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>12200</v>
+        <v>17500</v>
       </c>
       <c r="E14" s="3">
-        <v>150600</v>
+        <v>12500</v>
       </c>
       <c r="F14" s="3">
-        <v>37900</v>
+        <v>153800</v>
       </c>
       <c r="G14" s="3">
-        <v>37900</v>
+        <v>38700</v>
       </c>
       <c r="H14" s="3">
-        <v>4900</v>
+        <v>38700</v>
       </c>
       <c r="I14" s="3">
-        <v>26400</v>
+        <v>5000</v>
       </c>
       <c r="J14" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K14" s="3">
         <v>20700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>268700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>25500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>26600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>18600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>59900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>55600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>718100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-82400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>158900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>707900</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>807400</v>
+        <v>831400</v>
       </c>
       <c r="E15" s="3">
-        <v>858000</v>
+        <v>824700</v>
       </c>
       <c r="F15" s="3">
-        <v>809700</v>
+        <v>876400</v>
       </c>
       <c r="G15" s="3">
-        <v>773500</v>
+        <v>827000</v>
       </c>
       <c r="H15" s="3">
-        <v>712100</v>
+        <v>790000</v>
       </c>
       <c r="I15" s="3">
-        <v>652900</v>
+        <v>727300</v>
       </c>
       <c r="J15" s="3">
+        <v>666800</v>
+      </c>
+      <c r="K15" s="3">
         <v>637800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>462800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>553400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>529200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>547800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>457600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>556300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>570100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>581900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2414600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2469600</v>
+        <v>2499600</v>
       </c>
       <c r="E17" s="3">
-        <v>2888100</v>
+        <v>2522400</v>
       </c>
       <c r="F17" s="3">
-        <v>2752800</v>
+        <v>2949800</v>
       </c>
       <c r="G17" s="3">
-        <v>2608500</v>
+        <v>2811700</v>
       </c>
       <c r="H17" s="3">
-        <v>2457100</v>
+        <v>2664200</v>
       </c>
       <c r="I17" s="3">
-        <v>2348200</v>
+        <v>2509600</v>
       </c>
       <c r="J17" s="3">
+        <v>2398400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2269400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2378100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2132300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2221000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2183200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1893900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2354800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3111300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2705400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12375000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3663500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>927300</v>
+        <v>1079100</v>
       </c>
       <c r="E18" s="3">
-        <v>610400</v>
+        <v>947100</v>
       </c>
       <c r="F18" s="3">
-        <v>751400</v>
+        <v>623500</v>
       </c>
       <c r="G18" s="3">
-        <v>629000</v>
+        <v>767400</v>
       </c>
       <c r="H18" s="3">
-        <v>760800</v>
+        <v>642400</v>
       </c>
       <c r="I18" s="3">
-        <v>699100</v>
+        <v>777000</v>
       </c>
       <c r="J18" s="3">
+        <v>714000</v>
+      </c>
+      <c r="K18" s="3">
         <v>740600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>296200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>687700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>592500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>594300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>353200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>825100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>169300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>697100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3086200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>189500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>55600</v>
+        <v>217700</v>
       </c>
       <c r="E20" s="3">
-        <v>125100</v>
+        <v>56800</v>
       </c>
       <c r="F20" s="3">
-        <v>-387100</v>
+        <v>127800</v>
       </c>
       <c r="G20" s="3">
-        <v>87200</v>
+        <v>-395300</v>
       </c>
       <c r="H20" s="3">
-        <v>-190000</v>
+        <v>89000</v>
       </c>
       <c r="I20" s="3">
-        <v>6900</v>
+        <v>-194000</v>
       </c>
       <c r="J20" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K20" s="3">
         <v>62800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-258100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-124000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>233900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-45200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>211800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>102900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-323500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>90900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1790300</v>
+        <v>2128400</v>
       </c>
       <c r="E21" s="3">
-        <v>1593700</v>
+        <v>1828600</v>
       </c>
       <c r="F21" s="3">
-        <v>1174800</v>
+        <v>1627700</v>
       </c>
       <c r="G21" s="3">
-        <v>1498200</v>
+        <v>1199900</v>
       </c>
       <c r="H21" s="3">
-        <v>1282200</v>
+        <v>1530200</v>
       </c>
       <c r="I21" s="3">
-        <v>1358600</v>
+        <v>1309600</v>
       </c>
       <c r="J21" s="3">
+        <v>1387700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1445100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>516500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1252700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1017600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1422600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1009200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1647600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>934400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1428400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6219100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1416700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>120000</v>
+        <v>122000</v>
       </c>
       <c r="E22" s="3">
-        <v>102900</v>
+        <v>122600</v>
       </c>
       <c r="F22" s="3">
-        <v>107100</v>
+        <v>105100</v>
       </c>
       <c r="G22" s="3">
-        <v>177900</v>
+        <v>109400</v>
       </c>
       <c r="H22" s="3">
-        <v>127400</v>
+        <v>181700</v>
       </c>
       <c r="I22" s="3">
-        <v>114700</v>
+        <v>130100</v>
       </c>
       <c r="J22" s="3">
+        <v>117100</v>
+      </c>
+      <c r="K22" s="3">
         <v>100900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>104900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>45900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>46200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>30500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>105800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>54700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>72700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>72500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>382700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>862900</v>
+        <v>1174800</v>
       </c>
       <c r="E23" s="3">
-        <v>632600</v>
+        <v>881300</v>
       </c>
       <c r="F23" s="3">
-        <v>257200</v>
+        <v>646100</v>
       </c>
       <c r="G23" s="3">
-        <v>538300</v>
+        <v>262700</v>
       </c>
       <c r="H23" s="3">
-        <v>443400</v>
+        <v>549800</v>
       </c>
       <c r="I23" s="3">
-        <v>591300</v>
+        <v>452900</v>
       </c>
       <c r="J23" s="3">
+        <v>603900</v>
+      </c>
+      <c r="K23" s="3">
         <v>702600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-66900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>651500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>422300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>797600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>202200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>982200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>199500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>725000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2379900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>243100</v>
+        <v>195400</v>
       </c>
       <c r="E24" s="3">
-        <v>228800</v>
+        <v>248300</v>
       </c>
       <c r="F24" s="3">
-        <v>81300</v>
+        <v>233700</v>
       </c>
       <c r="G24" s="3">
-        <v>150900</v>
+        <v>83000</v>
       </c>
       <c r="H24" s="3">
-        <v>455100</v>
+        <v>154100</v>
       </c>
       <c r="I24" s="3">
-        <v>211600</v>
+        <v>464800</v>
       </c>
       <c r="J24" s="3">
+        <v>216100</v>
+      </c>
+      <c r="K24" s="3">
         <v>203000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>55800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>205700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>125000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>235000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>77200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>272900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>186400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>197900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>730400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>619800</v>
+        <v>979400</v>
       </c>
       <c r="E26" s="3">
-        <v>403800</v>
+        <v>633100</v>
       </c>
       <c r="F26" s="3">
-        <v>175900</v>
+        <v>412500</v>
       </c>
       <c r="G26" s="3">
-        <v>387400</v>
+        <v>179700</v>
       </c>
       <c r="H26" s="3">
-        <v>-11700</v>
+        <v>395700</v>
       </c>
       <c r="I26" s="3">
-        <v>379700</v>
+        <v>-11900</v>
       </c>
       <c r="J26" s="3">
+        <v>387800</v>
+      </c>
+      <c r="K26" s="3">
         <v>499600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-122700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>445800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>297300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>562700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>124900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>709300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>13100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>527100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1649500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>515300</v>
+        <v>884100</v>
       </c>
       <c r="E27" s="3">
-        <v>299600</v>
+        <v>526300</v>
       </c>
       <c r="F27" s="3">
-        <v>56900</v>
+        <v>306000</v>
       </c>
       <c r="G27" s="3">
-        <v>284300</v>
+        <v>58200</v>
       </c>
       <c r="H27" s="3">
-        <v>-106900</v>
+        <v>290300</v>
       </c>
       <c r="I27" s="3">
-        <v>295800</v>
+        <v>-109200</v>
       </c>
       <c r="J27" s="3">
+        <v>302100</v>
+      </c>
+      <c r="K27" s="3">
         <v>397100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-160200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>370200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>208100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>484100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>46100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>623500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-79500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>441500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1282600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-93500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,64 +1874,70 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-2800</v>
+        <v>5000</v>
       </c>
       <c r="E29" s="3">
-        <v>201700</v>
+        <v>-2900</v>
       </c>
       <c r="F29" s="3">
-        <v>22100</v>
+        <v>206100</v>
       </c>
       <c r="G29" s="3">
-        <v>-88500</v>
+        <v>22500</v>
       </c>
       <c r="H29" s="3">
-        <v>30000</v>
+        <v>-90400</v>
       </c>
       <c r="I29" s="3">
-        <v>27400</v>
+        <v>30600</v>
       </c>
       <c r="J29" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K29" s="3">
         <v>35400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>297100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>231400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>62500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>26600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>211500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>42800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>60200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>72400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-933600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-501000</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-55600</v>
+        <v>-217700</v>
       </c>
       <c r="E32" s="3">
-        <v>-125100</v>
+        <v>-56800</v>
       </c>
       <c r="F32" s="3">
-        <v>387100</v>
+        <v>-127800</v>
       </c>
       <c r="G32" s="3">
-        <v>-87200</v>
+        <v>395300</v>
       </c>
       <c r="H32" s="3">
-        <v>190000</v>
+        <v>-89000</v>
       </c>
       <c r="I32" s="3">
-        <v>-6900</v>
+        <v>194000</v>
       </c>
       <c r="J32" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-62800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>258100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>124000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-233900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>45200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-211800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-102900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>323500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>512500</v>
+        <v>889100</v>
       </c>
       <c r="E33" s="3">
-        <v>501300</v>
+        <v>523500</v>
       </c>
       <c r="F33" s="3">
-        <v>79000</v>
+        <v>512000</v>
       </c>
       <c r="G33" s="3">
-        <v>195700</v>
+        <v>80700</v>
       </c>
       <c r="H33" s="3">
-        <v>-76900</v>
+        <v>199900</v>
       </c>
       <c r="I33" s="3">
-        <v>323200</v>
+        <v>-78500</v>
       </c>
       <c r="J33" s="3">
+        <v>330100</v>
+      </c>
+      <c r="K33" s="3">
         <v>432600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>136900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>601600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>270600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>510700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>257600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>666400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-19300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>513900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>348900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>512500</v>
+        <v>889100</v>
       </c>
       <c r="E35" s="3">
-        <v>501300</v>
+        <v>523500</v>
       </c>
       <c r="F35" s="3">
-        <v>79000</v>
+        <v>512000</v>
       </c>
       <c r="G35" s="3">
-        <v>195700</v>
+        <v>80700</v>
       </c>
       <c r="H35" s="3">
-        <v>-76900</v>
+        <v>199900</v>
       </c>
       <c r="I35" s="3">
-        <v>323200</v>
+        <v>-78500</v>
       </c>
       <c r="J35" s="3">
+        <v>330100</v>
+      </c>
+      <c r="K35" s="3">
         <v>432600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>136900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>601600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>270600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>510700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>257600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>666400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-19300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>513900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>348900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2399,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1979300</v>
+        <v>2379300</v>
       </c>
       <c r="E41" s="3">
-        <v>1890500</v>
+        <v>2021600</v>
       </c>
       <c r="F41" s="3">
-        <v>2045000</v>
+        <v>1930900</v>
       </c>
       <c r="G41" s="3">
+        <v>2088700</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1603400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>3690300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4899600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1569900</v>
       </c>
-      <c r="H41" s="3">
-        <v>3613100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>4797000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1569900</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2086300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3345800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1900500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2144100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2610600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3448500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2389300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3222400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2846400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3399800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>60900</v>
+        <v>66600</v>
       </c>
       <c r="E42" s="3">
-        <v>66700</v>
+        <v>62200</v>
       </c>
       <c r="F42" s="3">
-        <v>95400</v>
+        <v>68100</v>
       </c>
       <c r="G42" s="3">
+        <v>97500</v>
+      </c>
+      <c r="H42" s="3">
+        <v>105200</v>
+      </c>
+      <c r="I42" s="3">
+        <v>77500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>97200</v>
+      </c>
+      <c r="K42" s="3">
         <v>103000</v>
       </c>
-      <c r="H42" s="3">
-        <v>75900</v>
-      </c>
-      <c r="I42" s="3">
-        <v>95200</v>
-      </c>
-      <c r="J42" s="3">
-        <v>103000</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>76500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>93200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>83200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>69000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>187800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>189300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>192000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>297900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>306900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>261000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3121800</v>
+        <v>3191200</v>
       </c>
       <c r="E43" s="3">
-        <v>3192000</v>
+        <v>3188500</v>
       </c>
       <c r="F43" s="3">
-        <v>3303000</v>
+        <v>3260200</v>
       </c>
       <c r="G43" s="3">
+        <v>3373600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>3134400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3276000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2509600</v>
+      </c>
+      <c r="K43" s="3">
         <v>3068800</v>
       </c>
-      <c r="H43" s="3">
-        <v>3207500</v>
-      </c>
-      <c r="I43" s="3">
-        <v>2457100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>3068800</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2537200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2310300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2155700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2118400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2990300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2713200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2991200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3085500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3158100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2854000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>142100</v>
+        <v>151800</v>
       </c>
       <c r="E44" s="3">
-        <v>145200</v>
+        <v>145100</v>
       </c>
       <c r="F44" s="3">
+        <v>148400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>179700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>171700</v>
+      </c>
+      <c r="I44" s="3">
+        <v>157000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>133400</v>
+      </c>
+      <c r="K44" s="3">
+        <v>168100</v>
+      </c>
+      <c r="L44" s="3">
+        <v>192100</v>
+      </c>
+      <c r="M44" s="3">
+        <v>101800</v>
+      </c>
+      <c r="N44" s="3">
+        <v>115000</v>
+      </c>
+      <c r="O44" s="3">
+        <v>149800</v>
+      </c>
+      <c r="P44" s="3">
+        <v>205300</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>174100</v>
+      </c>
+      <c r="R44" s="3">
+        <v>200000</v>
+      </c>
+      <c r="S44" s="3">
+        <v>210800</v>
+      </c>
+      <c r="T44" s="3">
+        <v>222200</v>
+      </c>
+      <c r="U44" s="3">
         <v>175900</v>
       </c>
-      <c r="G44" s="3">
-        <v>168100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>153700</v>
-      </c>
-      <c r="I44" s="3">
-        <v>130600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>168100</v>
-      </c>
-      <c r="K44" s="3">
-        <v>192100</v>
-      </c>
-      <c r="L44" s="3">
-        <v>101800</v>
-      </c>
-      <c r="M44" s="3">
-        <v>115000</v>
-      </c>
-      <c r="N44" s="3">
-        <v>149800</v>
-      </c>
-      <c r="O44" s="3">
-        <v>205300</v>
-      </c>
-      <c r="P44" s="3">
-        <v>174100</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>200000</v>
-      </c>
-      <c r="R44" s="3">
-        <v>210800</v>
-      </c>
-      <c r="S44" s="3">
-        <v>222200</v>
-      </c>
-      <c r="T44" s="3">
-        <v>175900</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>418700</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>427600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>403400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>395000</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3">
-        <v>395000</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>101800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>439600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2973600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3045100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>197100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>178000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>117900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>438000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5304000</v>
+        <v>5789000</v>
       </c>
       <c r="E46" s="3">
-        <v>5294400</v>
+        <v>5417400</v>
       </c>
       <c r="F46" s="3">
-        <v>6038100</v>
+        <v>5407600</v>
       </c>
       <c r="G46" s="3">
+        <v>6167100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>5418200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>7200900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>7639800</v>
+      </c>
+      <c r="K46" s="3">
         <v>5304800</v>
       </c>
-      <c r="H46" s="3">
-        <v>7050200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>7479900</v>
-      </c>
-      <c r="J46" s="3">
-        <v>5304800</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4993900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6290700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7227900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7526400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6191100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6703100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5890400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7254600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6533800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6691100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>923100</v>
+        <v>742000</v>
       </c>
       <c r="E47" s="3">
-        <v>863900</v>
+        <v>942800</v>
       </c>
       <c r="F47" s="3">
-        <v>554200</v>
+        <v>882400</v>
       </c>
       <c r="G47" s="3">
+        <v>566000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>497100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>261300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>253700</v>
+      </c>
+      <c r="K47" s="3">
         <v>486700</v>
       </c>
-      <c r="H47" s="3">
-        <v>255900</v>
-      </c>
-      <c r="I47" s="3">
-        <v>248400</v>
-      </c>
-      <c r="J47" s="3">
-        <v>486700</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>268700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>52000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>53500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>53300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>55600</v>
-      </c>
-      <c r="P47" s="3">
-        <v>51200</v>
       </c>
       <c r="Q47" s="3">
         <v>51200</v>
       </c>
       <c r="R47" s="3">
+        <v>51200</v>
+      </c>
+      <c r="S47" s="3">
         <v>1738500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1944800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16446800</v>
+        <v>16440300</v>
       </c>
       <c r="E48" s="3">
-        <v>16856700</v>
+        <v>16798400</v>
       </c>
       <c r="F48" s="3">
-        <v>17625100</v>
+        <v>17217100</v>
       </c>
       <c r="G48" s="3">
+        <v>18001900</v>
+      </c>
+      <c r="H48" s="3">
+        <v>16484200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>16327200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>14544500</v>
+      </c>
+      <c r="K48" s="3">
         <v>16139200</v>
       </c>
-      <c r="H48" s="3">
-        <v>15985500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>14240100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>16139200</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8276600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7060600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7104000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6984200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8748700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8271800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8497000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9027500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8879600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8405100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4735500</v>
+        <v>4644700</v>
       </c>
       <c r="E49" s="3">
-        <v>4731200</v>
+        <v>4836700</v>
       </c>
       <c r="F49" s="3">
-        <v>4931800</v>
+        <v>4832300</v>
       </c>
       <c r="G49" s="3">
+        <v>5037200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4488900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4921700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2361900</v>
+      </c>
+      <c r="K49" s="3">
         <v>4394900</v>
       </c>
-      <c r="H49" s="3">
-        <v>4818700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2312400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4394900</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5728300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3698000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3864400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4002500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6605500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6627500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6847600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6962500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7099100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7250400</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2097700</v>
+        <v>2046400</v>
       </c>
       <c r="E52" s="3">
-        <v>2185400</v>
+        <v>2142500</v>
       </c>
       <c r="F52" s="3">
-        <v>2277600</v>
+        <v>2232100</v>
       </c>
       <c r="G52" s="3">
-        <v>1852200</v>
+        <v>2326200</v>
       </c>
       <c r="H52" s="3">
-        <v>2336700</v>
+        <v>1891800</v>
       </c>
       <c r="I52" s="3">
-        <v>2240500</v>
+        <v>2386600</v>
       </c>
       <c r="J52" s="3">
+        <v>2288400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1852300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2311800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1982900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1485500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1533000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1761500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1790700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2147400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>850000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>981800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>874400</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29507100</v>
+        <v>29662400</v>
       </c>
       <c r="E54" s="3">
-        <v>29931600</v>
+        <v>30137800</v>
       </c>
       <c r="F54" s="3">
-        <v>31426600</v>
+        <v>30571400</v>
       </c>
       <c r="G54" s="3">
+        <v>32098400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>28780200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>31097500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>27088300</v>
+      </c>
+      <c r="K54" s="3">
         <v>28177900</v>
       </c>
-      <c r="H54" s="3">
-        <v>30446700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>26521400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>28177900</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21579300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19084400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19735400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20099400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23362400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23444200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23433600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25833200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25439100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>24911800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3738100</v>
+        <v>3918800</v>
       </c>
       <c r="E57" s="3">
-        <v>3906900</v>
+        <v>3818000</v>
       </c>
       <c r="F57" s="3">
-        <v>4167500</v>
+        <v>3990400</v>
       </c>
       <c r="G57" s="3">
+        <v>4256600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>4127000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>4211000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3795600</v>
+      </c>
+      <c r="K57" s="3">
         <v>4040600</v>
       </c>
-      <c r="H57" s="3">
-        <v>4122900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3716100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>4040600</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4256500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3576100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3484800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3486000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4665800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4258800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4539200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4887000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5288300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4924500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2104600</v>
+        <v>1918800</v>
       </c>
       <c r="E58" s="3">
-        <v>2512900</v>
+        <v>2149600</v>
       </c>
       <c r="F58" s="3">
-        <v>2108800</v>
+        <v>2566600</v>
       </c>
       <c r="G58" s="3">
+        <v>2153800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2781600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>4002000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3453100</v>
+      </c>
+      <c r="K58" s="3">
         <v>2723400</v>
       </c>
-      <c r="H58" s="3">
-        <v>3918200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>3380800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2723400</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1775800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1588700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2615700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2051000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2629600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2984700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3083000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4001300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3202100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3174000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1832100</v>
+        <v>1162200</v>
       </c>
       <c r="E59" s="3">
-        <v>1964800</v>
+        <v>1871200</v>
       </c>
       <c r="F59" s="3">
-        <v>1282200</v>
+        <v>2006800</v>
       </c>
       <c r="G59" s="3">
-        <v>1504000</v>
+        <v>1309600</v>
       </c>
       <c r="H59" s="3">
-        <v>2186900</v>
+        <v>1536100</v>
       </c>
       <c r="I59" s="3">
-        <v>2114200</v>
+        <v>2233600</v>
       </c>
       <c r="J59" s="3">
+        <v>2159400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1504100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1578100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2654800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2280400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1900000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1583800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2214000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2207700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1558500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1079900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1033600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7674700</v>
+        <v>6999800</v>
       </c>
       <c r="E60" s="3">
-        <v>8384600</v>
+        <v>7838800</v>
       </c>
       <c r="F60" s="3">
-        <v>7558500</v>
+        <v>8563800</v>
       </c>
       <c r="G60" s="3">
+        <v>7720000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>8444700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>10446600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>9408000</v>
+      </c>
+      <c r="K60" s="3">
         <v>8268000</v>
       </c>
-      <c r="H60" s="3">
-        <v>10228000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>9211100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>8268000</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7610400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7819600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8380900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7437000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8879100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9457500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9829900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10446800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9570300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9132100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15521200</v>
+        <v>15518800</v>
       </c>
       <c r="E61" s="3">
-        <v>15560500</v>
+        <v>15853000</v>
       </c>
       <c r="F61" s="3">
-        <v>16173900</v>
+        <v>15893100</v>
       </c>
       <c r="G61" s="3">
+        <v>16519600</v>
+      </c>
+      <c r="H61" s="3">
+        <v>13411800</v>
+      </c>
+      <c r="I61" s="3">
+        <v>13963700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>11137800</v>
+      </c>
+      <c r="K61" s="3">
         <v>13131100</v>
       </c>
-      <c r="H61" s="3">
-        <v>13671500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>10904700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>13131100</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6309600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4548900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4739300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4852400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5973300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5762600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5949300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6540000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7446200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7214000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2001000</v>
+        <v>2065600</v>
       </c>
       <c r="E62" s="3">
-        <v>2132900</v>
+        <v>2043800</v>
       </c>
       <c r="F62" s="3">
-        <v>2270100</v>
+        <v>2178500</v>
       </c>
       <c r="G62" s="3">
-        <v>1872400</v>
+        <v>2318600</v>
       </c>
       <c r="H62" s="3">
-        <v>1845700</v>
+        <v>1912400</v>
       </c>
       <c r="I62" s="3">
-        <v>1378600</v>
+        <v>1885100</v>
       </c>
       <c r="J62" s="3">
+        <v>1408000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1872300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1515700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1260900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1244500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1065200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1292200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1284700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1223900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1479700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1592300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1503800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25825100</v>
+        <v>25231000</v>
       </c>
       <c r="E66" s="3">
-        <v>26782000</v>
+        <v>26377200</v>
       </c>
       <c r="F66" s="3">
-        <v>26711700</v>
+        <v>27354500</v>
       </c>
       <c r="G66" s="3">
+        <v>27282700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>24380100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>26852100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>22521100</v>
+      </c>
+      <c r="K66" s="3">
         <v>23869900</v>
       </c>
-      <c r="H66" s="3">
-        <v>26290100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>22049800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>23869900</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16000800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14120200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14910200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13911100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16704900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17006400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17551000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19074800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19165800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>18363900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>2812000</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>2295400</v>
+        <v>2872100</v>
       </c>
       <c r="F72" s="3">
-        <v>3619100</v>
+        <v>2344500</v>
       </c>
       <c r="G72" s="3">
-        <v>3644200</v>
+        <v>3696500</v>
       </c>
       <c r="H72" s="3">
-        <v>3430700</v>
+        <v>3722100</v>
       </c>
       <c r="I72" s="3">
-        <v>3881700</v>
+        <v>3504100</v>
       </c>
       <c r="J72" s="3">
+        <v>3964700</v>
+      </c>
+      <c r="K72" s="3">
         <v>5195400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4828000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4471800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4521900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5777800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6005900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5929300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5278900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5612000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5136300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5466800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3681900</v>
+        <v>4431400</v>
       </c>
       <c r="E76" s="3">
-        <v>3149600</v>
+        <v>3760600</v>
       </c>
       <c r="F76" s="3">
-        <v>4715000</v>
+        <v>3216900</v>
       </c>
       <c r="G76" s="3">
+        <v>4815800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>4400100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>4245500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4567200</v>
+      </c>
+      <c r="K76" s="3">
         <v>4308000</v>
       </c>
-      <c r="H76" s="3">
-        <v>4156600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>4471600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>4308000</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5578500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4964200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4825200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6188300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6657500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6437800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5882600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6758400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6273400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6547800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>512500</v>
+        <v>889100</v>
       </c>
       <c r="E81" s="3">
-        <v>501300</v>
+        <v>523500</v>
       </c>
       <c r="F81" s="3">
-        <v>79000</v>
+        <v>512000</v>
       </c>
       <c r="G81" s="3">
-        <v>195700</v>
+        <v>80700</v>
       </c>
       <c r="H81" s="3">
-        <v>-76900</v>
+        <v>199900</v>
       </c>
       <c r="I81" s="3">
-        <v>323200</v>
+        <v>-78500</v>
       </c>
       <c r="J81" s="3">
+        <v>330100</v>
+      </c>
+      <c r="K81" s="3">
         <v>432600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>136900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>601600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>270600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>510700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>257600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>666400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-19300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>513900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>348900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>807400</v>
+        <v>831600</v>
       </c>
       <c r="E83" s="3">
-        <v>858100</v>
+        <v>824700</v>
       </c>
       <c r="F83" s="3">
-        <v>810500</v>
+        <v>876500</v>
       </c>
       <c r="G83" s="3">
-        <v>782100</v>
+        <v>827800</v>
       </c>
       <c r="H83" s="3">
-        <v>711400</v>
+        <v>798800</v>
       </c>
       <c r="I83" s="3">
-        <v>652700</v>
+        <v>726600</v>
       </c>
       <c r="J83" s="3">
+        <v>666600</v>
+      </c>
+      <c r="K83" s="3">
         <v>641700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>437000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>571000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>567700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>597600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>701200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>610700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>662200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>630900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3456500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1136300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1236900</v>
+        <v>1307200</v>
       </c>
       <c r="E89" s="3">
-        <v>1270000</v>
+        <v>1263400</v>
       </c>
       <c r="F89" s="3">
-        <v>1174000</v>
+        <v>1297100</v>
       </c>
       <c r="G89" s="3">
-        <v>792000</v>
+        <v>1199100</v>
       </c>
       <c r="H89" s="3">
-        <v>1322000</v>
+        <v>808900</v>
       </c>
       <c r="I89" s="3">
-        <v>688800</v>
+        <v>1350200</v>
       </c>
       <c r="J89" s="3">
+        <v>703500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1071600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>926100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1107200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>895600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>880500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1064600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1399400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1343300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1129900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4904600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1293700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1560000</v>
+        <v>-562800</v>
       </c>
       <c r="E91" s="3">
-        <v>582000</v>
+        <v>-1593400</v>
       </c>
       <c r="F91" s="3">
-        <v>-622000</v>
+        <v>594500</v>
       </c>
       <c r="G91" s="3">
-        <v>-8800</v>
+        <v>-635300</v>
       </c>
       <c r="H91" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="I91" s="3">
         <v>900</v>
       </c>
-      <c r="I91" s="3">
-        <v>31800</v>
-      </c>
       <c r="J91" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-101800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-827500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1315200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>484600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-568500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-523100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-449500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-530800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1393000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2925500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-500200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-390300</v>
+        <v>281800</v>
       </c>
       <c r="E94" s="3">
-        <v>-573100</v>
+        <v>-398700</v>
       </c>
       <c r="F94" s="3">
-        <v>-508500</v>
+        <v>-585300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1472600</v>
+        <v>-519400</v>
       </c>
       <c r="H94" s="3">
-        <v>-2365600</v>
+        <v>-1504100</v>
       </c>
       <c r="I94" s="3">
-        <v>-524500</v>
+        <v>-2416200</v>
       </c>
       <c r="J94" s="3">
+        <v>-535700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-564800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-906400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1771500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-448800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-563600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-511600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-41700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>50900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-662400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2602200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-695700</v>
       </c>
       <c r="E96" s="3">
-        <v>-708700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-723800</v>
       </c>
       <c r="G96" s="3">
-        <v>-645900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-659700</v>
       </c>
       <c r="I96" s="3">
-        <v>-726400</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-741900</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1368800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-639200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-606500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-747500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-30800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1386600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-32100</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-730100</v>
+        <v>-1199200</v>
       </c>
       <c r="E100" s="3">
-        <v>-910500</v>
+        <v>-745700</v>
       </c>
       <c r="F100" s="3">
-        <v>-307900</v>
+        <v>-930000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1277300</v>
+        <v>-314500</v>
       </c>
       <c r="H100" s="3">
-        <v>-238200</v>
+        <v>-1304700</v>
       </c>
       <c r="I100" s="3">
-        <v>1797000</v>
+        <v>-243300</v>
       </c>
       <c r="J100" s="3">
+        <v>1835400</v>
+      </c>
+      <c r="K100" s="3">
         <v>209000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1683300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1548700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-652600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-311900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1372300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-107900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1948200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-15300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1114300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>503100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-41300</v>
+        <v>-29100</v>
       </c>
       <c r="E101" s="3">
-        <v>-39500</v>
+        <v>-42200</v>
       </c>
       <c r="F101" s="3">
-        <v>156900</v>
+        <v>-40400</v>
       </c>
       <c r="G101" s="3">
-        <v>10600</v>
+        <v>160300</v>
       </c>
       <c r="H101" s="3">
-        <v>87500</v>
+        <v>10900</v>
       </c>
       <c r="I101" s="3">
-        <v>-21500</v>
+        <v>89400</v>
       </c>
       <c r="J101" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-29500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>72600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-60200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>15500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>26300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-55000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-70700</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>75200</v>
+        <v>360600</v>
       </c>
       <c r="E102" s="3">
-        <v>-253100</v>
+        <v>76800</v>
       </c>
       <c r="F102" s="3">
-        <v>514400</v>
+        <v>-258500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1944200</v>
+        <v>525400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1193500</v>
+        <v>-1985700</v>
       </c>
       <c r="I102" s="3">
-        <v>1947300</v>
+        <v>-1219000</v>
       </c>
       <c r="J102" s="3">
+        <v>1989000</v>
+      </c>
+      <c r="K102" s="3">
         <v>700100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1652800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1326600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-211700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-24400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-864300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1083000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-642900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>373700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1133100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1819800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3578600</v>
+        <v>3475200</v>
       </c>
       <c r="E8" s="3">
-        <v>3469500</v>
+        <v>3725000</v>
       </c>
       <c r="F8" s="3">
-        <v>3573300</v>
+        <v>3611400</v>
       </c>
       <c r="G8" s="3">
-        <v>3579100</v>
+        <v>3719500</v>
       </c>
       <c r="H8" s="3">
-        <v>3306700</v>
+        <v>3725500</v>
       </c>
       <c r="I8" s="3">
-        <v>3286700</v>
+        <v>3441900</v>
       </c>
       <c r="J8" s="3">
+        <v>3421100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3112400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3010000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2674300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2820000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2813600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2777400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2247000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3179900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3280600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3402600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>15461200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3853000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>955700</v>
+        <v>899900</v>
       </c>
       <c r="E9" s="3">
-        <v>802200</v>
+        <v>994800</v>
       </c>
       <c r="F9" s="3">
-        <v>833800</v>
+        <v>835100</v>
       </c>
       <c r="G9" s="3">
-        <v>850300</v>
+        <v>867900</v>
       </c>
       <c r="H9" s="3">
-        <v>820300</v>
+        <v>885100</v>
       </c>
       <c r="I9" s="3">
-        <v>784100</v>
+        <v>853800</v>
       </c>
       <c r="J9" s="3">
+        <v>816200</v>
+      </c>
+      <c r="K9" s="3">
         <v>725100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>700800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>588400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>619800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>662700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>632900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>523300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>725500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>760900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1192600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5577700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1329500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2623000</v>
+        <v>2575200</v>
       </c>
       <c r="E10" s="3">
-        <v>2667200</v>
+        <v>2730200</v>
       </c>
       <c r="F10" s="3">
-        <v>2739500</v>
+        <v>2776300</v>
       </c>
       <c r="G10" s="3">
-        <v>2728800</v>
+        <v>2851600</v>
       </c>
       <c r="H10" s="3">
-        <v>2486400</v>
+        <v>2840400</v>
       </c>
       <c r="I10" s="3">
-        <v>2502600</v>
+        <v>2588100</v>
       </c>
       <c r="J10" s="3">
+        <v>2605000</v>
+      </c>
+      <c r="K10" s="3">
         <v>2387300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2309300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2085900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2200200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2150900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2144500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1723800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2454400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2519700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2210000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>9883500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2523500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>17500</v>
+        <v>798300</v>
       </c>
       <c r="E14" s="3">
-        <v>12500</v>
+        <v>18200</v>
       </c>
       <c r="F14" s="3">
-        <v>153800</v>
+        <v>13000</v>
       </c>
       <c r="G14" s="3">
-        <v>38700</v>
+        <v>160100</v>
       </c>
       <c r="H14" s="3">
-        <v>38700</v>
+        <v>40300</v>
       </c>
       <c r="I14" s="3">
-        <v>5000</v>
+        <v>40300</v>
       </c>
       <c r="J14" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K14" s="3">
         <v>26900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>20700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>268700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>25500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>26600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>18600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>59900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>55600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>718100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-82400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>158900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>707900</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>831400</v>
+        <v>839400</v>
       </c>
       <c r="E15" s="3">
-        <v>824700</v>
+        <v>865400</v>
       </c>
       <c r="F15" s="3">
-        <v>876400</v>
+        <v>858400</v>
       </c>
       <c r="G15" s="3">
-        <v>827000</v>
+        <v>912200</v>
       </c>
       <c r="H15" s="3">
-        <v>790000</v>
+        <v>860800</v>
       </c>
       <c r="I15" s="3">
-        <v>727300</v>
+        <v>822300</v>
       </c>
       <c r="J15" s="3">
+        <v>757100</v>
+      </c>
+      <c r="K15" s="3">
         <v>666800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>637800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>462800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>553400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>529200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>547800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>457600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>556300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>570100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>581900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2414600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2499600</v>
+        <v>3550700</v>
       </c>
       <c r="E17" s="3">
-        <v>2522400</v>
+        <v>2601800</v>
       </c>
       <c r="F17" s="3">
-        <v>2949800</v>
+        <v>2625500</v>
       </c>
       <c r="G17" s="3">
-        <v>2811700</v>
+        <v>3070500</v>
       </c>
       <c r="H17" s="3">
-        <v>2664200</v>
+        <v>2926700</v>
       </c>
       <c r="I17" s="3">
-        <v>2509600</v>
+        <v>2773200</v>
       </c>
       <c r="J17" s="3">
+        <v>2612300</v>
+      </c>
+      <c r="K17" s="3">
         <v>2398400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2269400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2378100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2132300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2221000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2183200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1893900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2354800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3111300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2705400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12375000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3663500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1079100</v>
+        <v>-75600</v>
       </c>
       <c r="E18" s="3">
-        <v>947100</v>
+        <v>1123200</v>
       </c>
       <c r="F18" s="3">
-        <v>623500</v>
+        <v>985900</v>
       </c>
       <c r="G18" s="3">
-        <v>767400</v>
+        <v>649000</v>
       </c>
       <c r="H18" s="3">
-        <v>642400</v>
+        <v>798800</v>
       </c>
       <c r="I18" s="3">
-        <v>777000</v>
+        <v>668700</v>
       </c>
       <c r="J18" s="3">
+        <v>808800</v>
+      </c>
+      <c r="K18" s="3">
         <v>714000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>740600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>296200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>687700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>592500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>594300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>353200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>825100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>169300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>697100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3086200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>189500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>217700</v>
+        <v>3000</v>
       </c>
       <c r="E20" s="3">
-        <v>56800</v>
+        <v>226600</v>
       </c>
       <c r="F20" s="3">
-        <v>127800</v>
+        <v>59100</v>
       </c>
       <c r="G20" s="3">
-        <v>-395300</v>
+        <v>133000</v>
       </c>
       <c r="H20" s="3">
-        <v>89000</v>
+        <v>-411500</v>
       </c>
       <c r="I20" s="3">
-        <v>-194000</v>
+        <v>92700</v>
       </c>
       <c r="J20" s="3">
+        <v>-202000</v>
+      </c>
+      <c r="K20" s="3">
         <v>7100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>62800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-258100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-124000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>233900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-45200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>211800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>102900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-323500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>90900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2128400</v>
+        <v>1551700</v>
       </c>
       <c r="E21" s="3">
-        <v>1828600</v>
+        <v>2215500</v>
       </c>
       <c r="F21" s="3">
-        <v>1627700</v>
+        <v>1903400</v>
       </c>
       <c r="G21" s="3">
-        <v>1199900</v>
+        <v>1694300</v>
       </c>
       <c r="H21" s="3">
-        <v>1530200</v>
+        <v>1249000</v>
       </c>
       <c r="I21" s="3">
-        <v>1309600</v>
+        <v>1592800</v>
       </c>
       <c r="J21" s="3">
+        <v>1363200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1387700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1445100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>516500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1252700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1017600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1422600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1009200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1647600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>934400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1428400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6219100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1416700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>122000</v>
+        <v>90500</v>
       </c>
       <c r="E22" s="3">
-        <v>122600</v>
+        <v>127000</v>
       </c>
       <c r="F22" s="3">
-        <v>105100</v>
+        <v>127600</v>
       </c>
       <c r="G22" s="3">
         <v>109400</v>
       </c>
       <c r="H22" s="3">
-        <v>181700</v>
+        <v>113900</v>
       </c>
       <c r="I22" s="3">
-        <v>130100</v>
+        <v>189100</v>
       </c>
       <c r="J22" s="3">
+        <v>135400</v>
+      </c>
+      <c r="K22" s="3">
         <v>117100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>104900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>45900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>46200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>30500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>105800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>54700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>72700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>72500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>382700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1174800</v>
+        <v>-163100</v>
       </c>
       <c r="E23" s="3">
-        <v>881300</v>
+        <v>1222900</v>
       </c>
       <c r="F23" s="3">
-        <v>646100</v>
+        <v>917400</v>
       </c>
       <c r="G23" s="3">
-        <v>262700</v>
+        <v>672600</v>
       </c>
       <c r="H23" s="3">
-        <v>549800</v>
+        <v>273500</v>
       </c>
       <c r="I23" s="3">
-        <v>452900</v>
+        <v>572300</v>
       </c>
       <c r="J23" s="3">
+        <v>471500</v>
+      </c>
+      <c r="K23" s="3">
         <v>603900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>702600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-66900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>651500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>422300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>797600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>202200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>982200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>199500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>725000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2379900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>195400</v>
+        <v>196700</v>
       </c>
       <c r="E24" s="3">
-        <v>248300</v>
+        <v>203400</v>
       </c>
       <c r="F24" s="3">
-        <v>233700</v>
+        <v>258400</v>
       </c>
       <c r="G24" s="3">
-        <v>83000</v>
+        <v>243200</v>
       </c>
       <c r="H24" s="3">
-        <v>154100</v>
+        <v>86400</v>
       </c>
       <c r="I24" s="3">
-        <v>464800</v>
+        <v>160400</v>
       </c>
       <c r="J24" s="3">
+        <v>483800</v>
+      </c>
+      <c r="K24" s="3">
         <v>216100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>203000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>55800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>205700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>125000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>235000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>77200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>272900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>186400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>197900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>730400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>979400</v>
+        <v>-359800</v>
       </c>
       <c r="E26" s="3">
-        <v>633100</v>
+        <v>1019400</v>
       </c>
       <c r="F26" s="3">
-        <v>412500</v>
+        <v>659000</v>
       </c>
       <c r="G26" s="3">
-        <v>179700</v>
+        <v>429300</v>
       </c>
       <c r="H26" s="3">
-        <v>395700</v>
+        <v>187000</v>
       </c>
       <c r="I26" s="3">
-        <v>-11900</v>
+        <v>411900</v>
       </c>
       <c r="J26" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="K26" s="3">
         <v>387800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>499600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-122700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>445800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>297300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>562700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>124900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>709300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>13100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>527100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1649500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>884100</v>
+        <v>-450700</v>
       </c>
       <c r="E27" s="3">
-        <v>526300</v>
+        <v>920300</v>
       </c>
       <c r="F27" s="3">
-        <v>306000</v>
+        <v>547900</v>
       </c>
       <c r="G27" s="3">
-        <v>58200</v>
+        <v>318500</v>
       </c>
       <c r="H27" s="3">
-        <v>290300</v>
+        <v>60500</v>
       </c>
       <c r="I27" s="3">
-        <v>-109200</v>
+        <v>302200</v>
       </c>
       <c r="J27" s="3">
+        <v>-113600</v>
+      </c>
+      <c r="K27" s="3">
         <v>302100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>397100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-160200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>370200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>208100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>484100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>46100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>623500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-79500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>441500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1282600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-93500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,67 +1935,73 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>5000</v>
+        <v>-17300</v>
       </c>
       <c r="E29" s="3">
-        <v>-2900</v>
+        <v>5200</v>
       </c>
       <c r="F29" s="3">
-        <v>206100</v>
+        <v>-3000</v>
       </c>
       <c r="G29" s="3">
-        <v>22500</v>
+        <v>214500</v>
       </c>
       <c r="H29" s="3">
-        <v>-90400</v>
+        <v>23500</v>
       </c>
       <c r="I29" s="3">
-        <v>30600</v>
+        <v>-94100</v>
       </c>
       <c r="J29" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K29" s="3">
         <v>28000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>35400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>297100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>231400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>62500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>26600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>211500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>42800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>60200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>72400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-933600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-501000</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-217700</v>
+        <v>-3000</v>
       </c>
       <c r="E32" s="3">
-        <v>-56800</v>
+        <v>-226600</v>
       </c>
       <c r="F32" s="3">
-        <v>-127800</v>
+        <v>-59100</v>
       </c>
       <c r="G32" s="3">
-        <v>395300</v>
+        <v>-133000</v>
       </c>
       <c r="H32" s="3">
-        <v>-89000</v>
+        <v>411500</v>
       </c>
       <c r="I32" s="3">
-        <v>194000</v>
+        <v>-92700</v>
       </c>
       <c r="J32" s="3">
+        <v>202000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-62800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>258100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>124000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-233900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>45200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-211800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-102900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>323500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>889100</v>
+        <v>-468100</v>
       </c>
       <c r="E33" s="3">
-        <v>523500</v>
+        <v>925400</v>
       </c>
       <c r="F33" s="3">
-        <v>512000</v>
+        <v>544900</v>
       </c>
       <c r="G33" s="3">
-        <v>80700</v>
+        <v>533000</v>
       </c>
       <c r="H33" s="3">
-        <v>199900</v>
+        <v>84000</v>
       </c>
       <c r="I33" s="3">
-        <v>-78500</v>
+        <v>208100</v>
       </c>
       <c r="J33" s="3">
+        <v>-81700</v>
+      </c>
+      <c r="K33" s="3">
         <v>330100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>432600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>136900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>601600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>270600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>510700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>257600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>666400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-19300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>513900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>348900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>889100</v>
+        <v>-468100</v>
       </c>
       <c r="E35" s="3">
-        <v>523500</v>
+        <v>925400</v>
       </c>
       <c r="F35" s="3">
-        <v>512000</v>
+        <v>544900</v>
       </c>
       <c r="G35" s="3">
-        <v>80700</v>
+        <v>533000</v>
       </c>
       <c r="H35" s="3">
-        <v>199900</v>
+        <v>84000</v>
       </c>
       <c r="I35" s="3">
-        <v>-78500</v>
+        <v>208100</v>
       </c>
       <c r="J35" s="3">
+        <v>-81700</v>
+      </c>
+      <c r="K35" s="3">
         <v>330100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>432600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>136900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>601600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>270600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>510700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>257600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>666400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-19300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>513900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>348900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,244 +2486,257 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2379300</v>
+        <v>2742400</v>
       </c>
       <c r="E41" s="3">
-        <v>2021600</v>
+        <v>2476600</v>
       </c>
       <c r="F41" s="3">
-        <v>1930900</v>
+        <v>2104300</v>
       </c>
       <c r="G41" s="3">
-        <v>2088700</v>
+        <v>2009900</v>
       </c>
       <c r="H41" s="3">
-        <v>1603400</v>
+        <v>2174200</v>
       </c>
       <c r="I41" s="3">
-        <v>3690300</v>
+        <v>1669000</v>
       </c>
       <c r="J41" s="3">
+        <v>3841300</v>
+      </c>
+      <c r="K41" s="3">
         <v>4899600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1569900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2086300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3345800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1900500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2144100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2610600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3448500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2389300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3222400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2846400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3399800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>66600</v>
+        <v>69600</v>
       </c>
       <c r="E42" s="3">
-        <v>62200</v>
+        <v>69300</v>
       </c>
       <c r="F42" s="3">
-        <v>68100</v>
+        <v>64800</v>
       </c>
       <c r="G42" s="3">
-        <v>97500</v>
+        <v>70900</v>
       </c>
       <c r="H42" s="3">
-        <v>105200</v>
+        <v>101500</v>
       </c>
       <c r="I42" s="3">
-        <v>77500</v>
+        <v>109500</v>
       </c>
       <c r="J42" s="3">
+        <v>80600</v>
+      </c>
+      <c r="K42" s="3">
         <v>97200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>103000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>76500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>93200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>83200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>69000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>187800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>189300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>192000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>297900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>306900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>261000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3191200</v>
+        <v>3021500</v>
       </c>
       <c r="E43" s="3">
-        <v>3188500</v>
+        <v>3321700</v>
       </c>
       <c r="F43" s="3">
-        <v>3260200</v>
+        <v>3318900</v>
       </c>
       <c r="G43" s="3">
-        <v>3373600</v>
+        <v>3393600</v>
       </c>
       <c r="H43" s="3">
-        <v>3134400</v>
+        <v>3511600</v>
       </c>
       <c r="I43" s="3">
-        <v>3276000</v>
+        <v>3262600</v>
       </c>
       <c r="J43" s="3">
+        <v>3410000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2509600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3068800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2537200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2310300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2155700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2118400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2990300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2713200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2991200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3085500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3158100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2854000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>151800</v>
+        <v>191400</v>
       </c>
       <c r="E44" s="3">
-        <v>145100</v>
+        <v>158000</v>
       </c>
       <c r="F44" s="3">
-        <v>148400</v>
+        <v>151100</v>
       </c>
       <c r="G44" s="3">
-        <v>179700</v>
+        <v>154400</v>
       </c>
       <c r="H44" s="3">
-        <v>171700</v>
+        <v>187000</v>
       </c>
       <c r="I44" s="3">
-        <v>157000</v>
+        <v>178700</v>
       </c>
       <c r="J44" s="3">
+        <v>163400</v>
+      </c>
+      <c r="K44" s="3">
         <v>133400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>168100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>192100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>101800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>115000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>149800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>205300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>174100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>200000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>210800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>222200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>175900</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2645,294 +2744,309 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>427600</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>403400</v>
+        <v>445100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
+        <v>419900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>395000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>101800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>439600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2973600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3045100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>197100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>178000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>117900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>438000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5789000</v>
+        <v>6025000</v>
       </c>
       <c r="E46" s="3">
-        <v>5417400</v>
+        <v>6025800</v>
       </c>
       <c r="F46" s="3">
-        <v>5407600</v>
+        <v>5639000</v>
       </c>
       <c r="G46" s="3">
-        <v>6167100</v>
+        <v>5628800</v>
       </c>
       <c r="H46" s="3">
-        <v>5418200</v>
+        <v>6419400</v>
       </c>
       <c r="I46" s="3">
-        <v>7200900</v>
+        <v>5639800</v>
       </c>
       <c r="J46" s="3">
+        <v>7495400</v>
+      </c>
+      <c r="K46" s="3">
         <v>7639800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5304800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4993900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6290700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7227900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7526400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6191100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6703100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5890400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7254600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6533800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6691100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>742000</v>
+        <v>752600</v>
       </c>
       <c r="E47" s="3">
-        <v>942800</v>
+        <v>772400</v>
       </c>
       <c r="F47" s="3">
-        <v>882400</v>
+        <v>981400</v>
       </c>
       <c r="G47" s="3">
-        <v>566000</v>
+        <v>918500</v>
       </c>
       <c r="H47" s="3">
-        <v>497100</v>
+        <v>589200</v>
       </c>
       <c r="I47" s="3">
-        <v>261300</v>
+        <v>517400</v>
       </c>
       <c r="J47" s="3">
+        <v>272000</v>
+      </c>
+      <c r="K47" s="3">
         <v>253700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>486700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>268700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>52000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>53500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>53300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>55600</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>51200</v>
       </c>
       <c r="R47" s="3">
         <v>51200</v>
       </c>
       <c r="S47" s="3">
+        <v>51200</v>
+      </c>
+      <c r="T47" s="3">
         <v>1738500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1944800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16440300</v>
+        <v>15332500</v>
       </c>
       <c r="E48" s="3">
-        <v>16798400</v>
+        <v>17112800</v>
       </c>
       <c r="F48" s="3">
-        <v>17217100</v>
+        <v>17485500</v>
       </c>
       <c r="G48" s="3">
-        <v>18001900</v>
+        <v>17921400</v>
       </c>
       <c r="H48" s="3">
-        <v>16484200</v>
+        <v>18738200</v>
       </c>
       <c r="I48" s="3">
-        <v>16327200</v>
+        <v>17158500</v>
       </c>
       <c r="J48" s="3">
+        <v>16995100</v>
+      </c>
+      <c r="K48" s="3">
         <v>14544500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16139200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8276600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7060600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7104000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6984200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8748700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8271800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8497000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9027500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8879600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8405100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4644700</v>
+        <v>4583100</v>
       </c>
       <c r="E49" s="3">
-        <v>4836700</v>
+        <v>4834700</v>
       </c>
       <c r="F49" s="3">
-        <v>4832300</v>
+        <v>5034500</v>
       </c>
       <c r="G49" s="3">
-        <v>5037200</v>
+        <v>5030000</v>
       </c>
       <c r="H49" s="3">
-        <v>4488900</v>
+        <v>5243200</v>
       </c>
       <c r="I49" s="3">
-        <v>4921700</v>
+        <v>4672500</v>
       </c>
       <c r="J49" s="3">
+        <v>5123000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2361900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4394900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5728300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3698000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3864400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4002500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6605500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6627500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6847600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6962500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7099100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7250400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2046400</v>
+        <v>1934300</v>
       </c>
       <c r="E52" s="3">
-        <v>2142500</v>
+        <v>2130100</v>
       </c>
       <c r="F52" s="3">
-        <v>2232100</v>
+        <v>2230200</v>
       </c>
       <c r="G52" s="3">
-        <v>2326200</v>
+        <v>2323400</v>
       </c>
       <c r="H52" s="3">
-        <v>1891800</v>
+        <v>2662100</v>
       </c>
       <c r="I52" s="3">
-        <v>2386600</v>
+        <v>1969200</v>
       </c>
       <c r="J52" s="3">
+        <v>2484200</v>
+      </c>
+      <c r="K52" s="3">
         <v>2288400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1852300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2311800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1982900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1485500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1533000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1761500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1790700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2147400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>850000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>981800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>874400</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29662400</v>
+        <v>28627500</v>
       </c>
       <c r="E54" s="3">
-        <v>30137800</v>
+        <v>30875800</v>
       </c>
       <c r="F54" s="3">
-        <v>30571400</v>
+        <v>31370600</v>
       </c>
       <c r="G54" s="3">
-        <v>32098400</v>
+        <v>31822000</v>
       </c>
       <c r="H54" s="3">
-        <v>28780200</v>
+        <v>33652200</v>
       </c>
       <c r="I54" s="3">
-        <v>31097500</v>
+        <v>29957500</v>
       </c>
       <c r="J54" s="3">
+        <v>32369600</v>
+      </c>
+      <c r="K54" s="3">
         <v>27088300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28177900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21579300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19084400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19735400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20099400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23362400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23444200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23433600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25833200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>25439100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>24911800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3918800</v>
+        <v>3823100</v>
       </c>
       <c r="E57" s="3">
-        <v>3818000</v>
+        <v>4079100</v>
       </c>
       <c r="F57" s="3">
-        <v>3990400</v>
+        <v>3974200</v>
       </c>
       <c r="G57" s="3">
-        <v>4256600</v>
+        <v>4153600</v>
       </c>
       <c r="H57" s="3">
-        <v>4127000</v>
+        <v>4430700</v>
       </c>
       <c r="I57" s="3">
-        <v>4211000</v>
+        <v>4295800</v>
       </c>
       <c r="J57" s="3">
+        <v>4383300</v>
+      </c>
+      <c r="K57" s="3">
         <v>3795600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4040600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4256500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3576100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3484800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3486000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4665800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4258800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4539200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4887000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5288300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4924500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1918800</v>
+        <v>1874000</v>
       </c>
       <c r="E58" s="3">
-        <v>2149600</v>
+        <v>1997300</v>
       </c>
       <c r="F58" s="3">
-        <v>2566600</v>
+        <v>2237500</v>
       </c>
       <c r="G58" s="3">
-        <v>2153800</v>
+        <v>2671600</v>
       </c>
       <c r="H58" s="3">
-        <v>2781600</v>
+        <v>2241900</v>
       </c>
       <c r="I58" s="3">
-        <v>4002000</v>
+        <v>2895400</v>
       </c>
       <c r="J58" s="3">
+        <v>4165700</v>
+      </c>
+      <c r="K58" s="3">
         <v>3453100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2723400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1775800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1588700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2615700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2051000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2629600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2984700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3083000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4001300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3202100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3174000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1162200</v>
+        <v>1288500</v>
       </c>
       <c r="E59" s="3">
-        <v>1871200</v>
+        <v>1209700</v>
       </c>
       <c r="F59" s="3">
-        <v>2006800</v>
+        <v>1947800</v>
       </c>
       <c r="G59" s="3">
-        <v>1309600</v>
+        <v>2088800</v>
       </c>
       <c r="H59" s="3">
-        <v>1536100</v>
+        <v>1603900</v>
       </c>
       <c r="I59" s="3">
-        <v>2233600</v>
+        <v>1599000</v>
       </c>
       <c r="J59" s="3">
+        <v>2325000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2159400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1504100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1578100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2654800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2280400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1900000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1583800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2214000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2207700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1558500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1079900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1033600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6999800</v>
+        <v>6985600</v>
       </c>
       <c r="E60" s="3">
-        <v>7838800</v>
+        <v>7286100</v>
       </c>
       <c r="F60" s="3">
-        <v>8563800</v>
+        <v>8159400</v>
       </c>
       <c r="G60" s="3">
-        <v>7720000</v>
+        <v>8914100</v>
       </c>
       <c r="H60" s="3">
-        <v>8444700</v>
+        <v>8276600</v>
       </c>
       <c r="I60" s="3">
-        <v>10446600</v>
+        <v>8790100</v>
       </c>
       <c r="J60" s="3">
+        <v>10873900</v>
+      </c>
+      <c r="K60" s="3">
         <v>9408000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8268000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7610400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7819600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8380900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7437000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8879100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9457500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9829900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10446800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9570300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9132100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15518800</v>
+        <v>14864700</v>
       </c>
       <c r="E61" s="3">
-        <v>15853000</v>
+        <v>16153600</v>
       </c>
       <c r="F61" s="3">
-        <v>15893100</v>
+        <v>16501500</v>
       </c>
       <c r="G61" s="3">
-        <v>16519600</v>
+        <v>16543200</v>
       </c>
       <c r="H61" s="3">
-        <v>13411800</v>
+        <v>17195400</v>
       </c>
       <c r="I61" s="3">
-        <v>13963700</v>
+        <v>13960400</v>
       </c>
       <c r="J61" s="3">
+        <v>14534900</v>
+      </c>
+      <c r="K61" s="3">
         <v>11137800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13131100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6309600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4548900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4739300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4852400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5973300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5762600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5949300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6540000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7446200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7214000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2065600</v>
+        <v>2024900</v>
       </c>
       <c r="E62" s="3">
-        <v>2043800</v>
+        <v>2150100</v>
       </c>
       <c r="F62" s="3">
-        <v>2178500</v>
+        <v>2127400</v>
       </c>
       <c r="G62" s="3">
-        <v>2318600</v>
+        <v>2267600</v>
       </c>
       <c r="H62" s="3">
-        <v>1912400</v>
+        <v>2413500</v>
       </c>
       <c r="I62" s="3">
-        <v>1885100</v>
+        <v>1990600</v>
       </c>
       <c r="J62" s="3">
+        <v>1962200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1408000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1872300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1515700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1260900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1244500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1065200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1292200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1284700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1223900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1479700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1592300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1503800</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25231000</v>
+        <v>24527400</v>
       </c>
       <c r="E66" s="3">
-        <v>26377200</v>
+        <v>26263200</v>
       </c>
       <c r="F66" s="3">
-        <v>27354500</v>
+        <v>27456200</v>
       </c>
       <c r="G66" s="3">
-        <v>27282700</v>
+        <v>28473400</v>
       </c>
       <c r="H66" s="3">
-        <v>24380100</v>
+        <v>28639400</v>
       </c>
       <c r="I66" s="3">
-        <v>26852100</v>
+        <v>25377400</v>
       </c>
       <c r="J66" s="3">
+        <v>27950500</v>
+      </c>
+      <c r="K66" s="3">
         <v>22521100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23869900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16000800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14120200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14910200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13911100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16704900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17006400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17551000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19074800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19165800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>18363900</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>3578700</v>
       </c>
       <c r="E72" s="3">
-        <v>2872100</v>
+        <v>3976100</v>
       </c>
       <c r="F72" s="3">
-        <v>2344500</v>
+        <v>2989600</v>
       </c>
       <c r="G72" s="3">
-        <v>3696500</v>
+        <v>2440400</v>
       </c>
       <c r="H72" s="3">
-        <v>3722100</v>
+        <v>3847700</v>
       </c>
       <c r="I72" s="3">
-        <v>3504100</v>
+        <v>3874400</v>
       </c>
       <c r="J72" s="3">
+        <v>3647400</v>
+      </c>
+      <c r="K72" s="3">
         <v>3964700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5195400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4828000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4471800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4521900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5777800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6005900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5929300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5278900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5612000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5136300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5466800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4431400</v>
+        <v>4100100</v>
       </c>
       <c r="E76" s="3">
-        <v>3760600</v>
+        <v>4612700</v>
       </c>
       <c r="F76" s="3">
-        <v>3216900</v>
+        <v>3914500</v>
       </c>
       <c r="G76" s="3">
-        <v>4815800</v>
+        <v>3348500</v>
       </c>
       <c r="H76" s="3">
-        <v>4400100</v>
+        <v>5012800</v>
       </c>
       <c r="I76" s="3">
-        <v>4245500</v>
+        <v>4580100</v>
       </c>
       <c r="J76" s="3">
+        <v>4419100</v>
+      </c>
+      <c r="K76" s="3">
         <v>4567200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4308000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5578500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4964200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4825200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6188300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6657500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6437800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5882600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6758400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6273400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6547800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>889100</v>
+        <v>-468100</v>
       </c>
       <c r="E81" s="3">
-        <v>523500</v>
+        <v>925400</v>
       </c>
       <c r="F81" s="3">
-        <v>512000</v>
+        <v>544900</v>
       </c>
       <c r="G81" s="3">
-        <v>80700</v>
+        <v>533000</v>
       </c>
       <c r="H81" s="3">
-        <v>199900</v>
+        <v>84000</v>
       </c>
       <c r="I81" s="3">
-        <v>-78500</v>
+        <v>208100</v>
       </c>
       <c r="J81" s="3">
+        <v>-81700</v>
+      </c>
+      <c r="K81" s="3">
         <v>330100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>432600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>136900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>601600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>270600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>510700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>257600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>666400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-19300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>513900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>348900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>831600</v>
+        <v>1624300</v>
       </c>
       <c r="E83" s="3">
-        <v>824700</v>
+        <v>865600</v>
       </c>
       <c r="F83" s="3">
-        <v>876500</v>
+        <v>858400</v>
       </c>
       <c r="G83" s="3">
-        <v>827800</v>
+        <v>912300</v>
       </c>
       <c r="H83" s="3">
-        <v>798800</v>
+        <v>861700</v>
       </c>
       <c r="I83" s="3">
-        <v>726600</v>
+        <v>831400</v>
       </c>
       <c r="J83" s="3">
+        <v>756300</v>
+      </c>
+      <c r="K83" s="3">
         <v>666600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>641700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>437000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>571000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>567700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>597600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>701200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>610700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>662200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>630900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3456500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1136300</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1307200</v>
+        <v>1304000</v>
       </c>
       <c r="E89" s="3">
-        <v>1263400</v>
+        <v>1360700</v>
       </c>
       <c r="F89" s="3">
-        <v>1297100</v>
+        <v>1315100</v>
       </c>
       <c r="G89" s="3">
-        <v>1199100</v>
+        <v>1350200</v>
       </c>
       <c r="H89" s="3">
-        <v>808900</v>
+        <v>1248100</v>
       </c>
       <c r="I89" s="3">
-        <v>1350200</v>
+        <v>842000</v>
       </c>
       <c r="J89" s="3">
+        <v>1405400</v>
+      </c>
+      <c r="K89" s="3">
         <v>703500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1071600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>926100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1107200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>895600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>880500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1064600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1399400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1343300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1129900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4904600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1293700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-562800</v>
+        <v>-686300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1593400</v>
+        <v>-585800</v>
       </c>
       <c r="F91" s="3">
-        <v>594500</v>
+        <v>-1658600</v>
       </c>
       <c r="G91" s="3">
-        <v>-635300</v>
+        <v>618800</v>
       </c>
       <c r="H91" s="3">
-        <v>-9000</v>
+        <v>-661300</v>
       </c>
       <c r="I91" s="3">
-        <v>900</v>
+        <v>-9400</v>
       </c>
       <c r="J91" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K91" s="3">
         <v>32500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-101800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-827500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1315200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>484600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-568500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-523100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-449500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-530800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1393000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2925500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-500200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>281800</v>
+        <v>-567900</v>
       </c>
       <c r="E94" s="3">
-        <v>-398700</v>
+        <v>293300</v>
       </c>
       <c r="F94" s="3">
-        <v>-585300</v>
+        <v>-415000</v>
       </c>
       <c r="G94" s="3">
-        <v>-519400</v>
+        <v>-609300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1504100</v>
+        <v>-540700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2416200</v>
+        <v>-1565600</v>
       </c>
       <c r="J94" s="3">
+        <v>-2515000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-535700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-564800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-906400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1771500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-448800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-563600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-511600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-41700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>50900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-662400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2602200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-695700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-724200</v>
       </c>
       <c r="F96" s="3">
-        <v>-723800</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-753500</v>
       </c>
       <c r="H96" s="3">
-        <v>-659700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-686700</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-741900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1368800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-639200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-606500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-747500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-30800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1386600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-32100</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1199200</v>
+        <v>-399100</v>
       </c>
       <c r="E100" s="3">
-        <v>-745700</v>
+        <v>-1248300</v>
       </c>
       <c r="F100" s="3">
-        <v>-930000</v>
+        <v>-776200</v>
       </c>
       <c r="G100" s="3">
-        <v>-314500</v>
+        <v>-968100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1304700</v>
+        <v>-327400</v>
       </c>
       <c r="I100" s="3">
-        <v>-243300</v>
+        <v>-1358000</v>
       </c>
       <c r="J100" s="3">
+        <v>-253200</v>
+      </c>
+      <c r="K100" s="3">
         <v>1835400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>209000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1683300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1548700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-652600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-311900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1372300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-107900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1948200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1114300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>503100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-29100</v>
+        <v>-31200</v>
       </c>
       <c r="E101" s="3">
-        <v>-42200</v>
+        <v>-30300</v>
       </c>
       <c r="F101" s="3">
-        <v>-40400</v>
+        <v>-43900</v>
       </c>
       <c r="G101" s="3">
-        <v>160300</v>
+        <v>-42000</v>
       </c>
       <c r="H101" s="3">
-        <v>10900</v>
+        <v>166800</v>
       </c>
       <c r="I101" s="3">
-        <v>89400</v>
+        <v>11300</v>
       </c>
       <c r="J101" s="3">
+        <v>93000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-22000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-29500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>72600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-60200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>15500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>26300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-55000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-70700</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>360600</v>
+        <v>305800</v>
       </c>
       <c r="E102" s="3">
-        <v>76800</v>
+        <v>375400</v>
       </c>
       <c r="F102" s="3">
-        <v>-258500</v>
+        <v>79900</v>
       </c>
       <c r="G102" s="3">
-        <v>525400</v>
+        <v>-269100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1985700</v>
+        <v>546900</v>
       </c>
       <c r="I102" s="3">
-        <v>-1219000</v>
+        <v>-2066900</v>
       </c>
       <c r="J102" s="3">
+        <v>-1268800</v>
+      </c>
+      <c r="K102" s="3">
         <v>1989000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1652800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1326600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-211700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-24400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-864300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1083000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-642900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>373700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1133100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1819800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>TELNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3475200</v>
+        <v>3005800</v>
       </c>
       <c r="E8" s="3">
-        <v>3725000</v>
+        <v>3045600</v>
       </c>
       <c r="F8" s="3">
-        <v>3611400</v>
+        <v>2653800</v>
       </c>
       <c r="G8" s="3">
-        <v>3719500</v>
+        <v>3321000</v>
       </c>
       <c r="H8" s="3">
-        <v>3725500</v>
+        <v>3207300</v>
       </c>
       <c r="I8" s="3">
-        <v>3441900</v>
+        <v>3224200</v>
       </c>
       <c r="J8" s="3">
+        <v>3165100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3421100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3112400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3010000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2674300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2820000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2813600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2777400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2247000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3179900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3280600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3402600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>15461200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3853000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>899900</v>
+        <v>762900</v>
       </c>
       <c r="E9" s="3">
-        <v>994800</v>
+        <v>809100</v>
       </c>
       <c r="F9" s="3">
-        <v>835100</v>
+        <v>833900</v>
       </c>
       <c r="G9" s="3">
-        <v>867900</v>
+        <v>767900</v>
       </c>
       <c r="H9" s="3">
-        <v>885100</v>
+        <v>777300</v>
       </c>
       <c r="I9" s="3">
-        <v>853800</v>
+        <v>792900</v>
       </c>
       <c r="J9" s="3">
+        <v>785200</v>
+      </c>
+      <c r="K9" s="3">
         <v>816200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>725100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>700800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>588400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>619800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>662700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>632900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>523300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>725500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>760900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1192600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5577700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1329500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2575200</v>
+        <v>2242900</v>
       </c>
       <c r="E10" s="3">
-        <v>2730200</v>
+        <v>2236500</v>
       </c>
       <c r="F10" s="3">
-        <v>2776300</v>
+        <v>1819900</v>
       </c>
       <c r="G10" s="3">
-        <v>2851600</v>
+        <v>2553100</v>
       </c>
       <c r="H10" s="3">
-        <v>2840400</v>
+        <v>2430000</v>
       </c>
       <c r="I10" s="3">
-        <v>2588100</v>
+        <v>2431300</v>
       </c>
       <c r="J10" s="3">
+        <v>2380000</v>
+      </c>
+      <c r="K10" s="3">
         <v>2605000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2387300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2309300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2085900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2200200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2150900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2144500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1723800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2454400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2519700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2210000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>9883500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2523500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1104,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>798300</v>
+        <v>16200</v>
       </c>
       <c r="E14" s="3">
-        <v>18200</v>
+        <v>12300</v>
       </c>
       <c r="F14" s="3">
-        <v>13000</v>
+        <v>16400</v>
       </c>
       <c r="G14" s="3">
-        <v>160100</v>
+        <v>12000</v>
       </c>
       <c r="H14" s="3">
-        <v>40300</v>
+        <v>147200</v>
       </c>
       <c r="I14" s="3">
-        <v>40300</v>
+        <v>36900</v>
       </c>
       <c r="J14" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K14" s="3">
         <v>5200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>26900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>20700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>268700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>25500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>26600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>18600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>59900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>55600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>718100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-82400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>158900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>707900</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>839400</v>
+        <v>710800</v>
       </c>
       <c r="E15" s="3">
-        <v>865400</v>
+        <v>706100</v>
       </c>
       <c r="F15" s="3">
-        <v>858400</v>
+        <v>490900</v>
       </c>
       <c r="G15" s="3">
-        <v>912200</v>
+        <v>789400</v>
       </c>
       <c r="H15" s="3">
-        <v>860800</v>
+        <v>758300</v>
       </c>
       <c r="I15" s="3">
-        <v>822300</v>
+        <v>719300</v>
       </c>
       <c r="J15" s="3">
+        <v>756200</v>
+      </c>
+      <c r="K15" s="3">
         <v>757100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>666800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>637800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>462800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>553400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>529200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>547800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>457600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>556300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>570100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>581900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2414600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3550700</v>
+        <v>2378200</v>
       </c>
       <c r="E17" s="3">
-        <v>2601800</v>
+        <v>2416400</v>
       </c>
       <c r="F17" s="3">
-        <v>2625500</v>
+        <v>1794600</v>
       </c>
       <c r="G17" s="3">
-        <v>3070500</v>
+        <v>2414400</v>
       </c>
       <c r="H17" s="3">
-        <v>2926700</v>
+        <v>2654300</v>
       </c>
       <c r="I17" s="3">
-        <v>2773200</v>
+        <v>2537300</v>
       </c>
       <c r="J17" s="3">
+        <v>2550200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2612300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2398400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2269400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2378100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2132300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2221000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2183200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1893900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2354800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3111300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2705400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12375000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3663500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-75600</v>
+        <v>627700</v>
       </c>
       <c r="E18" s="3">
-        <v>1123200</v>
+        <v>629200</v>
       </c>
       <c r="F18" s="3">
-        <v>985900</v>
+        <v>859200</v>
       </c>
       <c r="G18" s="3">
-        <v>649000</v>
+        <v>906600</v>
       </c>
       <c r="H18" s="3">
-        <v>798800</v>
+        <v>553000</v>
       </c>
       <c r="I18" s="3">
-        <v>668700</v>
+        <v>686900</v>
       </c>
       <c r="J18" s="3">
+        <v>614900</v>
+      </c>
+      <c r="K18" s="3">
         <v>808800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>714000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>740600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>296200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>687700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>592500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>594300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>353200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>825100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>169300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>697100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3086200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>189500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3000</v>
+        <v>-70200</v>
       </c>
       <c r="E20" s="3">
-        <v>226600</v>
+        <v>22900</v>
       </c>
       <c r="F20" s="3">
-        <v>59100</v>
+        <v>234500</v>
       </c>
       <c r="G20" s="3">
-        <v>133000</v>
+        <v>54300</v>
       </c>
       <c r="H20" s="3">
-        <v>-411500</v>
+        <v>119800</v>
       </c>
       <c r="I20" s="3">
-        <v>92700</v>
+        <v>-402800</v>
       </c>
       <c r="J20" s="3">
+        <v>85200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-202000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>62800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-258100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-124000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>233900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-45200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>211800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>102900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-323500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>90900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1551700</v>
+        <v>1306000</v>
       </c>
       <c r="E21" s="3">
-        <v>2215500</v>
+        <v>2145800</v>
       </c>
       <c r="F21" s="3">
-        <v>1903400</v>
+        <v>1889800</v>
       </c>
       <c r="G21" s="3">
-        <v>1694300</v>
+        <v>1750300</v>
       </c>
       <c r="H21" s="3">
-        <v>1249000</v>
+        <v>1511700</v>
       </c>
       <c r="I21" s="3">
-        <v>1592800</v>
+        <v>1076500</v>
       </c>
       <c r="J21" s="3">
+        <v>1464700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1363200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1387700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1445100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>516500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1252700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1017600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1422600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1009200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1647600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>934400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1428400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6219100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1416700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>90500</v>
+        <v>72600</v>
       </c>
       <c r="E22" s="3">
-        <v>127000</v>
+        <v>71500</v>
       </c>
       <c r="F22" s="3">
-        <v>127600</v>
+        <v>118500</v>
       </c>
       <c r="G22" s="3">
-        <v>109400</v>
+        <v>117300</v>
       </c>
       <c r="H22" s="3">
-        <v>113900</v>
+        <v>85100</v>
       </c>
       <c r="I22" s="3">
-        <v>189100</v>
+        <v>89400</v>
       </c>
       <c r="J22" s="3">
+        <v>173900</v>
+      </c>
+      <c r="K22" s="3">
         <v>135400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>117100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>104900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>45900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>46200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>30500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>105800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>54700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>72700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>72500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>382700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-163100</v>
+        <v>484900</v>
       </c>
       <c r="E23" s="3">
-        <v>1222900</v>
+        <v>580600</v>
       </c>
       <c r="F23" s="3">
-        <v>917400</v>
+        <v>975200</v>
       </c>
       <c r="G23" s="3">
-        <v>672600</v>
+        <v>843600</v>
       </c>
       <c r="H23" s="3">
-        <v>273500</v>
+        <v>587600</v>
       </c>
       <c r="I23" s="3">
-        <v>572300</v>
+        <v>194700</v>
       </c>
       <c r="J23" s="3">
+        <v>526300</v>
+      </c>
+      <c r="K23" s="3">
         <v>471500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>603900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>702600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-66900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>651500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>422300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>797600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>202200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>982200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>199500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>725000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2379900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>196700</v>
+        <v>162800</v>
       </c>
       <c r="E24" s="3">
-        <v>203400</v>
+        <v>182600</v>
       </c>
       <c r="F24" s="3">
-        <v>258400</v>
+        <v>169600</v>
       </c>
       <c r="G24" s="3">
-        <v>243200</v>
+        <v>237600</v>
       </c>
       <c r="H24" s="3">
-        <v>86400</v>
+        <v>220500</v>
       </c>
       <c r="I24" s="3">
-        <v>160400</v>
+        <v>68800</v>
       </c>
       <c r="J24" s="3">
+        <v>147500</v>
+      </c>
+      <c r="K24" s="3">
         <v>483800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>216100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>203000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>55800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>205700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>125000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>235000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>77200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>272900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>186400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>197900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>730400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-359800</v>
+        <v>322100</v>
       </c>
       <c r="E26" s="3">
-        <v>1019400</v>
+        <v>398000</v>
       </c>
       <c r="F26" s="3">
-        <v>659000</v>
+        <v>805600</v>
       </c>
       <c r="G26" s="3">
-        <v>429300</v>
+        <v>606000</v>
       </c>
       <c r="H26" s="3">
-        <v>187000</v>
+        <v>367100</v>
       </c>
       <c r="I26" s="3">
-        <v>411900</v>
+        <v>125800</v>
       </c>
       <c r="J26" s="3">
+        <v>378700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-12400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>387800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>499600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-122700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>445800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>297300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>562700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>124900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>709300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>13100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>527100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1649500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-450700</v>
+        <v>233200</v>
       </c>
       <c r="E27" s="3">
-        <v>920300</v>
+        <v>314200</v>
       </c>
       <c r="F27" s="3">
-        <v>547900</v>
+        <v>714400</v>
       </c>
       <c r="G27" s="3">
-        <v>318500</v>
+        <v>503800</v>
       </c>
       <c r="H27" s="3">
-        <v>60500</v>
+        <v>265200</v>
       </c>
       <c r="I27" s="3">
-        <v>302200</v>
+        <v>9500</v>
       </c>
       <c r="J27" s="3">
+        <v>277900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-113600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>302100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>397100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-160200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>370200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>208100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>484100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>46100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>623500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-79500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>441500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1282600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-93500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,70 +1996,76 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-17300</v>
+        <v>9000</v>
       </c>
       <c r="E29" s="3">
-        <v>5200</v>
+        <v>-744700</v>
       </c>
       <c r="F29" s="3">
-        <v>-3000</v>
+        <v>136600</v>
       </c>
       <c r="G29" s="3">
-        <v>214500</v>
+        <v>-2800</v>
       </c>
       <c r="H29" s="3">
-        <v>23500</v>
+        <v>224800</v>
       </c>
       <c r="I29" s="3">
-        <v>-94100</v>
+        <v>67600</v>
       </c>
       <c r="J29" s="3">
+        <v>-86600</v>
+      </c>
+      <c r="K29" s="3">
         <v>31900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>28000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>35400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>297100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>231400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>62500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>26600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>211500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>42800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>60200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>72400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-933600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-501000</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3000</v>
+        <v>70200</v>
       </c>
       <c r="E32" s="3">
-        <v>-226600</v>
+        <v>-22900</v>
       </c>
       <c r="F32" s="3">
-        <v>-59100</v>
+        <v>-234500</v>
       </c>
       <c r="G32" s="3">
-        <v>-133000</v>
+        <v>-54300</v>
       </c>
       <c r="H32" s="3">
-        <v>411500</v>
+        <v>-119800</v>
       </c>
       <c r="I32" s="3">
-        <v>-92700</v>
+        <v>402800</v>
       </c>
       <c r="J32" s="3">
+        <v>-85200</v>
+      </c>
+      <c r="K32" s="3">
         <v>202000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-62800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>258100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>124000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-233900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>45200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-211800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-102900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>323500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-468100</v>
+        <v>242200</v>
       </c>
       <c r="E33" s="3">
-        <v>925400</v>
+        <v>-430400</v>
       </c>
       <c r="F33" s="3">
-        <v>544900</v>
+        <v>851000</v>
       </c>
       <c r="G33" s="3">
-        <v>533000</v>
+        <v>501000</v>
       </c>
       <c r="H33" s="3">
-        <v>84000</v>
+        <v>490000</v>
       </c>
       <c r="I33" s="3">
-        <v>208100</v>
+        <v>77100</v>
       </c>
       <c r="J33" s="3">
+        <v>191400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-81700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>330100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>432600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>136900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>601600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>270600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>510700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>257600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>666400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-19300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>513900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>348900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-468100</v>
+        <v>242200</v>
       </c>
       <c r="E35" s="3">
-        <v>925400</v>
+        <v>-430400</v>
       </c>
       <c r="F35" s="3">
-        <v>544900</v>
+        <v>851000</v>
       </c>
       <c r="G35" s="3">
-        <v>533000</v>
+        <v>501000</v>
       </c>
       <c r="H35" s="3">
-        <v>84000</v>
+        <v>490000</v>
       </c>
       <c r="I35" s="3">
-        <v>208100</v>
+        <v>77100</v>
       </c>
       <c r="J35" s="3">
+        <v>191400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-81700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>330100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>432600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>136900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>601600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>270600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>510700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>257600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>666400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-19300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>513900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>348900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,566 +2573,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2742400</v>
+        <v>2184000</v>
       </c>
       <c r="E41" s="3">
-        <v>2476600</v>
+        <v>2521800</v>
       </c>
       <c r="F41" s="3">
-        <v>2104300</v>
+        <v>2277500</v>
       </c>
       <c r="G41" s="3">
-        <v>2009900</v>
+        <v>1935000</v>
       </c>
       <c r="H41" s="3">
-        <v>2174200</v>
+        <v>1848200</v>
       </c>
       <c r="I41" s="3">
-        <v>1669000</v>
+        <v>1999300</v>
       </c>
       <c r="J41" s="3">
+        <v>1534800</v>
+      </c>
+      <c r="K41" s="3">
         <v>3841300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4899600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1569900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2086300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3345800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1900500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2144100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2610600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3448500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2389300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3222400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2846400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3399800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>69600</v>
+        <v>84200</v>
       </c>
       <c r="E42" s="3">
-        <v>69300</v>
+        <v>64000</v>
       </c>
       <c r="F42" s="3">
-        <v>64800</v>
+        <v>63800</v>
       </c>
       <c r="G42" s="3">
-        <v>70900</v>
+        <v>59500</v>
       </c>
       <c r="H42" s="3">
-        <v>101500</v>
+        <v>65200</v>
       </c>
       <c r="I42" s="3">
-        <v>109500</v>
+        <v>93300</v>
       </c>
       <c r="J42" s="3">
+        <v>100700</v>
+      </c>
+      <c r="K42" s="3">
         <v>80600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>97200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>103000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>76500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>93200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>83200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>69000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>187800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>189300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>192000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>297900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>306900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>261000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3021500</v>
+        <v>2784800</v>
       </c>
       <c r="E43" s="3">
-        <v>3321700</v>
+        <v>2778500</v>
       </c>
       <c r="F43" s="3">
-        <v>3318900</v>
+        <v>3054500</v>
       </c>
       <c r="G43" s="3">
-        <v>3393600</v>
+        <v>3052000</v>
       </c>
       <c r="H43" s="3">
-        <v>3511600</v>
+        <v>3120600</v>
       </c>
       <c r="I43" s="3">
-        <v>3262600</v>
+        <v>3229200</v>
       </c>
       <c r="J43" s="3">
+        <v>3000200</v>
+      </c>
+      <c r="K43" s="3">
         <v>3410000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2509600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3068800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2537200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2310300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2155700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2118400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2990300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2713200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2991200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3085500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3158100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2854000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>191400</v>
+        <v>143200</v>
       </c>
       <c r="E44" s="3">
-        <v>158000</v>
+        <v>176000</v>
       </c>
       <c r="F44" s="3">
-        <v>151100</v>
+        <v>145300</v>
       </c>
       <c r="G44" s="3">
-        <v>154400</v>
+        <v>138900</v>
       </c>
       <c r="H44" s="3">
-        <v>187000</v>
+        <v>142000</v>
       </c>
       <c r="I44" s="3">
-        <v>178700</v>
+        <v>172000</v>
       </c>
       <c r="J44" s="3">
+        <v>164400</v>
+      </c>
+      <c r="K44" s="3">
         <v>163400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>133400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>168100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>192100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>101800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>115000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>149800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>205300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>174100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>200000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>210800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>222200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>175900</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>279200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>445100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>419900</v>
+        <v>409300</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
+        <v>386200</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>395000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>101800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>439600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2973600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3045100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>197100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>178000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>117900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>438000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6025000</v>
+        <v>5475600</v>
       </c>
       <c r="E46" s="3">
-        <v>6025800</v>
+        <v>5540400</v>
       </c>
       <c r="F46" s="3">
-        <v>5639000</v>
+        <v>5541200</v>
       </c>
       <c r="G46" s="3">
-        <v>5628800</v>
+        <v>5185500</v>
       </c>
       <c r="H46" s="3">
-        <v>6419400</v>
+        <v>5176100</v>
       </c>
       <c r="I46" s="3">
-        <v>5639800</v>
+        <v>5903100</v>
       </c>
       <c r="J46" s="3">
+        <v>5186200</v>
+      </c>
+      <c r="K46" s="3">
         <v>7495400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7639800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5304800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4993900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6290700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7227900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7526400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6191100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6703100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5890400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7254600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6533800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6691100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>752600</v>
+        <v>666300</v>
       </c>
       <c r="E47" s="3">
-        <v>772400</v>
+        <v>692100</v>
       </c>
       <c r="F47" s="3">
-        <v>981400</v>
+        <v>710200</v>
       </c>
       <c r="G47" s="3">
-        <v>918500</v>
+        <v>902500</v>
       </c>
       <c r="H47" s="3">
-        <v>589200</v>
+        <v>844600</v>
       </c>
       <c r="I47" s="3">
-        <v>517400</v>
+        <v>541800</v>
       </c>
       <c r="J47" s="3">
+        <v>475800</v>
+      </c>
+      <c r="K47" s="3">
         <v>272000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>253700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>486700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>268700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>52000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>53500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>53300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>55600</v>
-      </c>
-      <c r="R47" s="3">
-        <v>51200</v>
       </c>
       <c r="S47" s="3">
         <v>51200</v>
       </c>
       <c r="T47" s="3">
+        <v>51200</v>
+      </c>
+      <c r="U47" s="3">
         <v>1738500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1944800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15332500</v>
+        <v>14002300</v>
       </c>
       <c r="E48" s="3">
-        <v>17112800</v>
+        <v>14099400</v>
       </c>
       <c r="F48" s="3">
-        <v>17485500</v>
+        <v>15736500</v>
       </c>
       <c r="G48" s="3">
-        <v>17921400</v>
+        <v>16079300</v>
       </c>
       <c r="H48" s="3">
-        <v>18738200</v>
+        <v>16480000</v>
       </c>
       <c r="I48" s="3">
-        <v>17158500</v>
+        <v>17231200</v>
       </c>
       <c r="J48" s="3">
+        <v>15778500</v>
+      </c>
+      <c r="K48" s="3">
         <v>16995100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14544500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16139200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8276600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7060600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7104000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6984200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8748700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8271800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8497000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9027500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8879600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8405100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4583100</v>
+        <v>4255200</v>
       </c>
       <c r="E49" s="3">
-        <v>4834700</v>
+        <v>4214500</v>
       </c>
       <c r="F49" s="3">
-        <v>5034500</v>
+        <v>4445900</v>
       </c>
       <c r="G49" s="3">
-        <v>5030000</v>
+        <v>4629600</v>
       </c>
       <c r="H49" s="3">
-        <v>5243200</v>
+        <v>4625400</v>
       </c>
       <c r="I49" s="3">
-        <v>4672500</v>
+        <v>4821600</v>
       </c>
       <c r="J49" s="3">
+        <v>4296700</v>
+      </c>
+      <c r="K49" s="3">
         <v>5123000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2361900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4394900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5728300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3698000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3864400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4002500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6605500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6627500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6847600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6962500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7099100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7250400</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1934300</v>
+        <v>1713700</v>
       </c>
       <c r="E52" s="3">
-        <v>2130100</v>
+        <v>1778700</v>
       </c>
       <c r="F52" s="3">
-        <v>2230200</v>
+        <v>1958800</v>
       </c>
       <c r="G52" s="3">
-        <v>2323400</v>
+        <v>2050800</v>
       </c>
       <c r="H52" s="3">
-        <v>2662100</v>
+        <v>2136600</v>
       </c>
       <c r="I52" s="3">
-        <v>1969200</v>
+        <v>2448000</v>
       </c>
       <c r="J52" s="3">
+        <v>1810800</v>
+      </c>
+      <c r="K52" s="3">
         <v>2484200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2288400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1852300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2311800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1982900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1485500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1533000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1761500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1790700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2147400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>850000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>981800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>874400</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28627500</v>
+        <v>26113100</v>
       </c>
       <c r="E54" s="3">
-        <v>30875800</v>
+        <v>26325100</v>
       </c>
       <c r="F54" s="3">
-        <v>31370600</v>
+        <v>28392600</v>
       </c>
       <c r="G54" s="3">
-        <v>31822000</v>
+        <v>28847600</v>
       </c>
       <c r="H54" s="3">
-        <v>33652200</v>
+        <v>29262700</v>
       </c>
       <c r="I54" s="3">
-        <v>29957500</v>
+        <v>30945700</v>
       </c>
       <c r="J54" s="3">
+        <v>27548100</v>
+      </c>
+      <c r="K54" s="3">
         <v>32369600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27088300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28177900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21579300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19084400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>19735400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20099400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23362400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23444200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>23433600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>25833200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>25439100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>24911800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3823100</v>
+        <v>3326900</v>
       </c>
       <c r="E57" s="3">
-        <v>4079100</v>
+        <v>3515600</v>
       </c>
       <c r="F57" s="3">
-        <v>3974200</v>
+        <v>3751100</v>
       </c>
       <c r="G57" s="3">
-        <v>4153600</v>
+        <v>3654500</v>
       </c>
       <c r="H57" s="3">
-        <v>4430700</v>
+        <v>3819600</v>
       </c>
       <c r="I57" s="3">
-        <v>4295800</v>
+        <v>4074400</v>
       </c>
       <c r="J57" s="3">
+        <v>3950300</v>
+      </c>
+      <c r="K57" s="3">
         <v>4383300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3795600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4040600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4256500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3576100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3484800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3486000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4665800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4258800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4539200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4887000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5288300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4924500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1874000</v>
+        <v>2449500</v>
       </c>
       <c r="E58" s="3">
-        <v>1997300</v>
+        <v>1723300</v>
       </c>
       <c r="F58" s="3">
-        <v>2237500</v>
+        <v>1836600</v>
       </c>
       <c r="G58" s="3">
-        <v>2671600</v>
+        <v>2057500</v>
       </c>
       <c r="H58" s="3">
-        <v>2241900</v>
+        <v>2456800</v>
       </c>
       <c r="I58" s="3">
-        <v>2895400</v>
+        <v>2061600</v>
       </c>
       <c r="J58" s="3">
+        <v>2662500</v>
+      </c>
+      <c r="K58" s="3">
         <v>4165700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3453100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2723400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1775800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1588700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2615700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2051000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2629600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2984700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3083000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4001300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3202100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3174000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1288500</v>
+        <v>2077500</v>
       </c>
       <c r="E59" s="3">
-        <v>1209700</v>
+        <v>1184800</v>
       </c>
       <c r="F59" s="3">
-        <v>1947800</v>
+        <v>1112400</v>
       </c>
       <c r="G59" s="3">
-        <v>2088800</v>
+        <v>1791100</v>
       </c>
       <c r="H59" s="3">
-        <v>1603900</v>
+        <v>1920900</v>
       </c>
       <c r="I59" s="3">
-        <v>1599000</v>
+        <v>1474900</v>
       </c>
       <c r="J59" s="3">
+        <v>1470400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2325000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2159400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1504100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1578100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2654800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2280400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1900000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1583800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2214000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2207700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1558500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1079900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1033600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6985600</v>
+        <v>7853900</v>
       </c>
       <c r="E60" s="3">
-        <v>7286100</v>
+        <v>6423800</v>
       </c>
       <c r="F60" s="3">
-        <v>8159400</v>
+        <v>6700100</v>
       </c>
       <c r="G60" s="3">
-        <v>8914100</v>
+        <v>7503200</v>
       </c>
       <c r="H60" s="3">
-        <v>8276600</v>
+        <v>8197200</v>
       </c>
       <c r="I60" s="3">
-        <v>8790100</v>
+        <v>7610900</v>
       </c>
       <c r="J60" s="3">
+        <v>8083200</v>
+      </c>
+      <c r="K60" s="3">
         <v>10873900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9408000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8268000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7610400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7819600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8380900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7437000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8879100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9457500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9829900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10446800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9570300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9132100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14864700</v>
+        <v>13244100</v>
       </c>
       <c r="E61" s="3">
-        <v>16153600</v>
+        <v>13669200</v>
       </c>
       <c r="F61" s="3">
-        <v>16501500</v>
+        <v>14854500</v>
       </c>
       <c r="G61" s="3">
-        <v>16543200</v>
+        <v>15174300</v>
       </c>
       <c r="H61" s="3">
-        <v>17195400</v>
+        <v>15212700</v>
       </c>
       <c r="I61" s="3">
-        <v>13960400</v>
+        <v>15812400</v>
       </c>
       <c r="J61" s="3">
+        <v>12837700</v>
+      </c>
+      <c r="K61" s="3">
         <v>14534900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11137800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13131100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6309600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4548900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4739300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4852400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5973300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5762600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5949300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6540000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7446200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7214000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2024900</v>
+        <v>1838900</v>
       </c>
       <c r="E62" s="3">
-        <v>2150100</v>
+        <v>1862100</v>
       </c>
       <c r="F62" s="3">
-        <v>2127400</v>
+        <v>1977200</v>
       </c>
       <c r="G62" s="3">
-        <v>2267600</v>
+        <v>1956300</v>
       </c>
       <c r="H62" s="3">
-        <v>2413500</v>
+        <v>2085200</v>
       </c>
       <c r="I62" s="3">
-        <v>1990600</v>
+        <v>2219400</v>
       </c>
       <c r="J62" s="3">
+        <v>1830500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1962200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1408000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1872300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1515700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1260900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1244500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1065200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1292200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1284700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1223900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1479700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1592300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1503800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24527400</v>
+        <v>23495700</v>
       </c>
       <c r="E66" s="3">
-        <v>26263200</v>
+        <v>22554800</v>
       </c>
       <c r="F66" s="3">
-        <v>27456200</v>
+        <v>24150900</v>
       </c>
       <c r="G66" s="3">
-        <v>28473400</v>
+        <v>25248000</v>
       </c>
       <c r="H66" s="3">
-        <v>28639400</v>
+        <v>26183500</v>
       </c>
       <c r="I66" s="3">
-        <v>25377400</v>
+        <v>26336100</v>
       </c>
       <c r="J66" s="3">
+        <v>23336400</v>
+      </c>
+      <c r="K66" s="3">
         <v>27950500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22521100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23869900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16000800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14120200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14910200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13911100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16704900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17006400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17551000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19074800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19165800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>18363900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3578700</v>
+        <v>2126200</v>
       </c>
       <c r="E72" s="3">
-        <v>3976100</v>
+        <v>3290800</v>
       </c>
       <c r="F72" s="3">
-        <v>2989600</v>
+        <v>3656300</v>
       </c>
       <c r="G72" s="3">
-        <v>2440400</v>
+        <v>2749200</v>
       </c>
       <c r="H72" s="3">
-        <v>3847700</v>
+        <v>2244100</v>
       </c>
       <c r="I72" s="3">
-        <v>3874400</v>
+        <v>3538200</v>
       </c>
       <c r="J72" s="3">
+        <v>3562800</v>
+      </c>
+      <c r="K72" s="3">
         <v>3647400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3964700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5195400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4828000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4471800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4521900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5777800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6005900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5929300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5278900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5612000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5136300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5466800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4100100</v>
+        <v>2617400</v>
       </c>
       <c r="E76" s="3">
-        <v>4612700</v>
+        <v>3770300</v>
       </c>
       <c r="F76" s="3">
-        <v>3914500</v>
+        <v>4241700</v>
       </c>
       <c r="G76" s="3">
-        <v>3348500</v>
+        <v>3599600</v>
       </c>
       <c r="H76" s="3">
-        <v>5012800</v>
+        <v>3079200</v>
       </c>
       <c r="I76" s="3">
-        <v>4580100</v>
+        <v>4609600</v>
       </c>
       <c r="J76" s="3">
+        <v>4211700</v>
+      </c>
+      <c r="K76" s="3">
         <v>4419100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4567200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4308000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5578500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4964200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4825200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6188300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6657500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6437800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5882600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6758400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6273400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6547800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-468100</v>
+        <v>242200</v>
       </c>
       <c r="E81" s="3">
-        <v>925400</v>
+        <v>-430400</v>
       </c>
       <c r="F81" s="3">
-        <v>544900</v>
+        <v>851000</v>
       </c>
       <c r="G81" s="3">
-        <v>533000</v>
+        <v>501000</v>
       </c>
       <c r="H81" s="3">
-        <v>84000</v>
+        <v>490000</v>
       </c>
       <c r="I81" s="3">
-        <v>208100</v>
+        <v>77100</v>
       </c>
       <c r="J81" s="3">
+        <v>191400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-81700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>330100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>432600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>136900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>601600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>270600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>510700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>257600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>666400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-19300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>513900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>348900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1624300</v>
+        <v>748500</v>
       </c>
       <c r="E83" s="3">
-        <v>865600</v>
+        <v>1493600</v>
       </c>
       <c r="F83" s="3">
-        <v>858400</v>
+        <v>796000</v>
       </c>
       <c r="G83" s="3">
-        <v>912300</v>
+        <v>789400</v>
       </c>
       <c r="H83" s="3">
-        <v>861700</v>
+        <v>839000</v>
       </c>
       <c r="I83" s="3">
-        <v>831400</v>
+        <v>792400</v>
       </c>
       <c r="J83" s="3">
+        <v>764600</v>
+      </c>
+      <c r="K83" s="3">
         <v>756300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>666600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>641700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>437000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>571000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>567700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>597600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>701200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>610700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>662200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>630900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3456500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1136300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1304000</v>
+        <v>1089600</v>
       </c>
       <c r="E89" s="3">
-        <v>1360700</v>
+        <v>1199100</v>
       </c>
       <c r="F89" s="3">
-        <v>1315100</v>
+        <v>1251200</v>
       </c>
       <c r="G89" s="3">
-        <v>1350200</v>
+        <v>1209300</v>
       </c>
       <c r="H89" s="3">
-        <v>1248100</v>
+        <v>1241600</v>
       </c>
       <c r="I89" s="3">
-        <v>842000</v>
+        <v>1147800</v>
       </c>
       <c r="J89" s="3">
+        <v>774300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1405400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>703500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1071600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>926100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1107200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>895600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>880500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1064600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1399400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1343300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1129900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4904600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1293700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-686300</v>
+        <v>-517400</v>
       </c>
       <c r="E91" s="3">
-        <v>-585800</v>
+        <v>-631100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1658600</v>
+        <v>-538700</v>
       </c>
       <c r="G91" s="3">
-        <v>618800</v>
+        <v>-1525200</v>
       </c>
       <c r="H91" s="3">
-        <v>-661300</v>
+        <v>569000</v>
       </c>
       <c r="I91" s="3">
-        <v>-9400</v>
+        <v>-608100</v>
       </c>
       <c r="J91" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="K91" s="3">
         <v>1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>32500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-101800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-827500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1315200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>484600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-568500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-523100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-449500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-530800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1393000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2925500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-500200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-567900</v>
+        <v>-511000</v>
       </c>
       <c r="E94" s="3">
-        <v>293300</v>
+        <v>-522200</v>
       </c>
       <c r="F94" s="3">
-        <v>-415000</v>
+        <v>269700</v>
       </c>
       <c r="G94" s="3">
-        <v>-609300</v>
+        <v>-381600</v>
       </c>
       <c r="H94" s="3">
-        <v>-540700</v>
+        <v>-560300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1565600</v>
+        <v>-497200</v>
       </c>
       <c r="J94" s="3">
+        <v>-1439700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2515000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-535700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-564800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-906400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1771500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-448800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-563600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-511600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-41700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>50900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-662400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2602200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-746200</v>
       </c>
       <c r="E96" s="3">
-        <v>-724200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-666000</v>
       </c>
       <c r="G96" s="3">
-        <v>-753500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-692900</v>
       </c>
       <c r="I96" s="3">
-        <v>-686700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-631400</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-741900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1368800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-639200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-606500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-747500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-30800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1386600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-32100</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-399100</v>
+        <v>-855800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1248300</v>
+        <v>-367000</v>
       </c>
       <c r="F100" s="3">
-        <v>-776200</v>
+        <v>-1147900</v>
       </c>
       <c r="G100" s="3">
-        <v>-968100</v>
+        <v>-713800</v>
       </c>
       <c r="H100" s="3">
-        <v>-327400</v>
+        <v>-890200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1358000</v>
+        <v>-301000</v>
       </c>
       <c r="J100" s="3">
+        <v>-1248800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-253200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1835400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>209000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1683300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1548700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-652600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-311900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1372300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-107900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1948200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-15300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1114300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>503100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-31200</v>
+        <v>23700</v>
       </c>
       <c r="E101" s="3">
-        <v>-30300</v>
+        <v>-28700</v>
       </c>
       <c r="F101" s="3">
-        <v>-43900</v>
+        <v>-27900</v>
       </c>
       <c r="G101" s="3">
-        <v>-42000</v>
+        <v>-40400</v>
       </c>
       <c r="H101" s="3">
-        <v>166800</v>
+        <v>-38600</v>
       </c>
       <c r="I101" s="3">
-        <v>11300</v>
+        <v>153400</v>
       </c>
       <c r="J101" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K101" s="3">
         <v>93000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-22000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-29500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>72600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-60200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>15500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>26300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-55000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-70700</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>305800</v>
+        <v>-253500</v>
       </c>
       <c r="E102" s="3">
-        <v>375400</v>
+        <v>281200</v>
       </c>
       <c r="F102" s="3">
-        <v>79900</v>
+        <v>345200</v>
       </c>
       <c r="G102" s="3">
-        <v>-269100</v>
+        <v>73500</v>
       </c>
       <c r="H102" s="3">
-        <v>546900</v>
+        <v>-247500</v>
       </c>
       <c r="I102" s="3">
-        <v>-2066900</v>
+        <v>502900</v>
       </c>
       <c r="J102" s="3">
+        <v>-1900700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1268800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1989000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>700100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1652800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1326600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-211700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-864300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1083000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-642900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>373700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1133100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1819800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>TELNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3005800</v>
+        <v>3041500</v>
       </c>
       <c r="E8" s="3">
-        <v>3045600</v>
+        <v>3013500</v>
       </c>
       <c r="F8" s="3">
-        <v>2653800</v>
+        <v>3053300</v>
       </c>
       <c r="G8" s="3">
-        <v>3321000</v>
+        <v>2660500</v>
       </c>
       <c r="H8" s="3">
-        <v>3207300</v>
+        <v>3329400</v>
       </c>
       <c r="I8" s="3">
-        <v>3224200</v>
+        <v>3215400</v>
       </c>
       <c r="J8" s="3">
+        <v>3232400</v>
+      </c>
+      <c r="K8" s="3">
         <v>3165100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3421100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3112400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3010000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2674300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2820000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2813600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2777400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2247000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3179900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3280600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3402600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>15461200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3853000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>762900</v>
+        <v>760300</v>
       </c>
       <c r="E9" s="3">
-        <v>809100</v>
+        <v>764800</v>
       </c>
       <c r="F9" s="3">
-        <v>833900</v>
+        <v>811100</v>
       </c>
       <c r="G9" s="3">
-        <v>767900</v>
+        <v>836000</v>
       </c>
       <c r="H9" s="3">
-        <v>777300</v>
+        <v>769800</v>
       </c>
       <c r="I9" s="3">
-        <v>792900</v>
+        <v>779300</v>
       </c>
       <c r="J9" s="3">
+        <v>794900</v>
+      </c>
+      <c r="K9" s="3">
         <v>785200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>816200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>725100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>700800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>588400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>619800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>662700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>632900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>523300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>725500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>760900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1192600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5577700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1329500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2242900</v>
+        <v>2281200</v>
       </c>
       <c r="E10" s="3">
-        <v>2236500</v>
+        <v>2248600</v>
       </c>
       <c r="F10" s="3">
-        <v>1819900</v>
+        <v>2242200</v>
       </c>
       <c r="G10" s="3">
-        <v>2553100</v>
+        <v>1824500</v>
       </c>
       <c r="H10" s="3">
-        <v>2430000</v>
+        <v>2559500</v>
       </c>
       <c r="I10" s="3">
-        <v>2431300</v>
+        <v>2436100</v>
       </c>
       <c r="J10" s="3">
+        <v>2437500</v>
+      </c>
+      <c r="K10" s="3">
         <v>2380000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2605000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2387300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2309300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2085900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2200200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2150900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2144500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1723800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2454400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2519700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2210000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>9883500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2523500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,138 +1124,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E14" s="3">
         <v>16200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>16400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12000</v>
       </c>
-      <c r="H14" s="3">
-        <v>147200</v>
-      </c>
       <c r="I14" s="3">
+        <v>147600</v>
+      </c>
+      <c r="J14" s="3">
         <v>36900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>37100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>26900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>20700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>268700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>25500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>26600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>18600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>59900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>55600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>718100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-82400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>158900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>707900</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>710800</v>
+        <v>734200</v>
       </c>
       <c r="E15" s="3">
-        <v>706100</v>
+        <v>712600</v>
       </c>
       <c r="F15" s="3">
-        <v>490900</v>
+        <v>707900</v>
       </c>
       <c r="G15" s="3">
-        <v>789400</v>
+        <v>492100</v>
       </c>
       <c r="H15" s="3">
-        <v>758300</v>
+        <v>791400</v>
       </c>
       <c r="I15" s="3">
-        <v>719300</v>
+        <v>760200</v>
       </c>
       <c r="J15" s="3">
+        <v>721100</v>
+      </c>
+      <c r="K15" s="3">
         <v>756200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>757100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>666800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>637800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>462800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>553400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>529200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>547800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>457600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>556300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>570100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>581900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2414600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2378200</v>
+        <v>2365600</v>
       </c>
       <c r="E17" s="3">
-        <v>2416400</v>
+        <v>2384200</v>
       </c>
       <c r="F17" s="3">
-        <v>1794600</v>
+        <v>2422500</v>
       </c>
       <c r="G17" s="3">
-        <v>2414400</v>
+        <v>1799100</v>
       </c>
       <c r="H17" s="3">
-        <v>2654300</v>
+        <v>2420500</v>
       </c>
       <c r="I17" s="3">
-        <v>2537300</v>
+        <v>2661000</v>
       </c>
       <c r="J17" s="3">
+        <v>2543800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2550200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2612300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2398400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2269400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2378100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2132300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2221000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2183200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1893900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2354800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3111300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2705400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>12375000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3663500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>627700</v>
+        <v>676000</v>
       </c>
       <c r="E18" s="3">
-        <v>629200</v>
+        <v>629300</v>
       </c>
       <c r="F18" s="3">
-        <v>859200</v>
+        <v>630800</v>
       </c>
       <c r="G18" s="3">
-        <v>906600</v>
+        <v>861400</v>
       </c>
       <c r="H18" s="3">
-        <v>553000</v>
+        <v>908900</v>
       </c>
       <c r="I18" s="3">
-        <v>686900</v>
+        <v>554400</v>
       </c>
       <c r="J18" s="3">
+        <v>688600</v>
+      </c>
+      <c r="K18" s="3">
         <v>614900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>808800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>714000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>740600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>296200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>687700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>592500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>594300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>353200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>825100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>169300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>697100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3086200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>189500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-70200</v>
+        <v>-104900</v>
       </c>
       <c r="E20" s="3">
-        <v>22900</v>
+        <v>-70300</v>
       </c>
       <c r="F20" s="3">
-        <v>234500</v>
+        <v>23000</v>
       </c>
       <c r="G20" s="3">
-        <v>54300</v>
+        <v>235100</v>
       </c>
       <c r="H20" s="3">
-        <v>119800</v>
+        <v>54500</v>
       </c>
       <c r="I20" s="3">
-        <v>-402800</v>
+        <v>120100</v>
       </c>
       <c r="J20" s="3">
+        <v>-403800</v>
+      </c>
+      <c r="K20" s="3">
         <v>85200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-202000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>62800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-258100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-124000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>233900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-45200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>211800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>102900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-323500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>90900</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1306000</v>
+        <v>1310400</v>
       </c>
       <c r="E21" s="3">
-        <v>2145800</v>
+        <v>1309300</v>
       </c>
       <c r="F21" s="3">
-        <v>1889800</v>
+        <v>2151200</v>
       </c>
       <c r="G21" s="3">
-        <v>1750300</v>
+        <v>1894500</v>
       </c>
       <c r="H21" s="3">
-        <v>1511700</v>
+        <v>1754700</v>
       </c>
       <c r="I21" s="3">
-        <v>1076500</v>
+        <v>1515500</v>
       </c>
       <c r="J21" s="3">
+        <v>1079200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1464700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1363200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1387700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1445100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>516500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1252700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1017600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1422600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1009200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1647600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>934400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1428400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6219100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1416700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>72600</v>
+        <v>73800</v>
       </c>
       <c r="E22" s="3">
-        <v>71500</v>
+        <v>72800</v>
       </c>
       <c r="F22" s="3">
-        <v>118500</v>
+        <v>71700</v>
       </c>
       <c r="G22" s="3">
-        <v>117300</v>
+        <v>118800</v>
       </c>
       <c r="H22" s="3">
-        <v>85100</v>
+        <v>117600</v>
       </c>
       <c r="I22" s="3">
-        <v>89400</v>
+        <v>85300</v>
       </c>
       <c r="J22" s="3">
+        <v>89700</v>
+      </c>
+      <c r="K22" s="3">
         <v>173900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>135400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>117100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>104900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>45900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>46200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>30500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>105800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>54700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>72700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>72500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>382700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>484900</v>
+        <v>497300</v>
       </c>
       <c r="E23" s="3">
-        <v>580600</v>
+        <v>486100</v>
       </c>
       <c r="F23" s="3">
-        <v>975200</v>
+        <v>582100</v>
       </c>
       <c r="G23" s="3">
-        <v>843600</v>
+        <v>977700</v>
       </c>
       <c r="H23" s="3">
-        <v>587600</v>
+        <v>845700</v>
       </c>
       <c r="I23" s="3">
-        <v>194700</v>
+        <v>589100</v>
       </c>
       <c r="J23" s="3">
+        <v>195200</v>
+      </c>
+      <c r="K23" s="3">
         <v>526300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>471500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>603900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>702600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-66900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>651500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>422300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>797600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>202200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>982200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>199500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>725000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2379900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>162800</v>
+        <v>162400</v>
       </c>
       <c r="E24" s="3">
-        <v>182600</v>
+        <v>163200</v>
       </c>
       <c r="F24" s="3">
-        <v>169600</v>
+        <v>183100</v>
       </c>
       <c r="G24" s="3">
-        <v>237600</v>
+        <v>170000</v>
       </c>
       <c r="H24" s="3">
-        <v>220500</v>
+        <v>238200</v>
       </c>
       <c r="I24" s="3">
-        <v>68800</v>
+        <v>221000</v>
       </c>
       <c r="J24" s="3">
+        <v>69000</v>
+      </c>
+      <c r="K24" s="3">
         <v>147500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>483800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>216100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>203000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>55800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>205700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>125000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>235000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>77200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>272900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>186400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>197900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>730400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>322100</v>
+        <v>334900</v>
       </c>
       <c r="E26" s="3">
-        <v>398000</v>
+        <v>322900</v>
       </c>
       <c r="F26" s="3">
-        <v>805600</v>
+        <v>399000</v>
       </c>
       <c r="G26" s="3">
-        <v>606000</v>
+        <v>807700</v>
       </c>
       <c r="H26" s="3">
-        <v>367100</v>
+        <v>607500</v>
       </c>
       <c r="I26" s="3">
-        <v>125800</v>
+        <v>368100</v>
       </c>
       <c r="J26" s="3">
+        <v>126200</v>
+      </c>
+      <c r="K26" s="3">
         <v>378700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>387800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>499600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-122700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>445800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>297300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>562700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>124900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>709300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>13100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>527100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1649500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>233200</v>
+        <v>245800</v>
       </c>
       <c r="E27" s="3">
-        <v>314200</v>
+        <v>233800</v>
       </c>
       <c r="F27" s="3">
-        <v>714400</v>
+        <v>315000</v>
       </c>
       <c r="G27" s="3">
-        <v>503800</v>
+        <v>716200</v>
       </c>
       <c r="H27" s="3">
-        <v>265200</v>
+        <v>505100</v>
       </c>
       <c r="I27" s="3">
+        <v>265900</v>
+      </c>
+      <c r="J27" s="3">
         <v>9500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>277900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-113600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>302100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>397100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-160200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>370200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>208100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>484100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>46100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>623500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-79500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>441500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1282600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-93500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,73 +2057,79 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E29" s="3">
         <v>9000</v>
       </c>
-      <c r="E29" s="3">
-        <v>-744700</v>
-      </c>
       <c r="F29" s="3">
-        <v>136600</v>
+        <v>-746500</v>
       </c>
       <c r="G29" s="3">
+        <v>136900</v>
+      </c>
+      <c r="H29" s="3">
         <v>-2800</v>
       </c>
-      <c r="H29" s="3">
-        <v>224800</v>
-      </c>
       <c r="I29" s="3">
-        <v>67600</v>
+        <v>225400</v>
       </c>
       <c r="J29" s="3">
+        <v>67800</v>
+      </c>
+      <c r="K29" s="3">
         <v>-86600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>31900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>28000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>35400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>297100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>231400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>62500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>26600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>211500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>42800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>60200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>72400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-933600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-501000</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>70200</v>
+        <v>104900</v>
       </c>
       <c r="E32" s="3">
-        <v>-22900</v>
+        <v>70300</v>
       </c>
       <c r="F32" s="3">
-        <v>-234500</v>
+        <v>-23000</v>
       </c>
       <c r="G32" s="3">
-        <v>-54300</v>
+        <v>-235100</v>
       </c>
       <c r="H32" s="3">
-        <v>-119800</v>
+        <v>-54500</v>
       </c>
       <c r="I32" s="3">
-        <v>402800</v>
+        <v>-120100</v>
       </c>
       <c r="J32" s="3">
+        <v>403800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-85200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>202000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-62800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>258100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>124000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-233900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>45200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-211800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-102900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>323500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>242200</v>
+        <v>293200</v>
       </c>
       <c r="E33" s="3">
-        <v>-430400</v>
+        <v>242800</v>
       </c>
       <c r="F33" s="3">
-        <v>851000</v>
+        <v>-431500</v>
       </c>
       <c r="G33" s="3">
-        <v>501000</v>
+        <v>853200</v>
       </c>
       <c r="H33" s="3">
-        <v>490000</v>
+        <v>502300</v>
       </c>
       <c r="I33" s="3">
-        <v>77100</v>
+        <v>491200</v>
       </c>
       <c r="J33" s="3">
+        <v>77300</v>
+      </c>
+      <c r="K33" s="3">
         <v>191400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-81700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>330100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>432600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>136900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>601600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>270600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>510700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>257600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>666400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-19300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>513900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>348900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>242200</v>
+        <v>293200</v>
       </c>
       <c r="E35" s="3">
-        <v>-430400</v>
+        <v>242800</v>
       </c>
       <c r="F35" s="3">
-        <v>851000</v>
+        <v>-431500</v>
       </c>
       <c r="G35" s="3">
-        <v>501000</v>
+        <v>853200</v>
       </c>
       <c r="H35" s="3">
-        <v>490000</v>
+        <v>502300</v>
       </c>
       <c r="I35" s="3">
-        <v>77100</v>
+        <v>491200</v>
       </c>
       <c r="J35" s="3">
+        <v>77300</v>
+      </c>
+      <c r="K35" s="3">
         <v>191400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-81700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>330100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>432600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>136900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>601600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>270600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>510700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>257600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>666400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-19300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>513900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>348900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2184000</v>
+        <v>2440800</v>
       </c>
       <c r="E41" s="3">
-        <v>2521800</v>
+        <v>2189600</v>
       </c>
       <c r="F41" s="3">
-        <v>2277500</v>
+        <v>2528200</v>
       </c>
       <c r="G41" s="3">
-        <v>1935000</v>
+        <v>2283200</v>
       </c>
       <c r="H41" s="3">
-        <v>1848200</v>
+        <v>1939900</v>
       </c>
       <c r="I41" s="3">
-        <v>1999300</v>
+        <v>1852900</v>
       </c>
       <c r="J41" s="3">
+        <v>2004400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1534800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3841300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4899600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1569900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2086300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3345800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1900500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2144100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2610600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3448500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2389300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3222400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2846400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3399800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>84200</v>
+        <v>112500</v>
       </c>
       <c r="E42" s="3">
-        <v>64000</v>
+        <v>84400</v>
       </c>
       <c r="F42" s="3">
-        <v>63800</v>
+        <v>64100</v>
       </c>
       <c r="G42" s="3">
-        <v>59500</v>
+        <v>63900</v>
       </c>
       <c r="H42" s="3">
-        <v>65200</v>
+        <v>59700</v>
       </c>
       <c r="I42" s="3">
-        <v>93300</v>
+        <v>65400</v>
       </c>
       <c r="J42" s="3">
+        <v>93500</v>
+      </c>
+      <c r="K42" s="3">
         <v>100700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>80600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>97200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>103000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>76500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>93200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>83200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>69000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>187800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>189300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>192000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>297900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>306900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>261000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2784800</v>
+        <v>2779700</v>
       </c>
       <c r="E43" s="3">
-        <v>2778500</v>
+        <v>2791900</v>
       </c>
       <c r="F43" s="3">
-        <v>3054500</v>
+        <v>2785500</v>
       </c>
       <c r="G43" s="3">
-        <v>3052000</v>
+        <v>3062300</v>
       </c>
       <c r="H43" s="3">
-        <v>3120600</v>
+        <v>3059700</v>
       </c>
       <c r="I43" s="3">
-        <v>3229200</v>
+        <v>3128500</v>
       </c>
       <c r="J43" s="3">
+        <v>3237400</v>
+      </c>
+      <c r="K43" s="3">
         <v>3000200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3410000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2509600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3068800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2537200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2310300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2155700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2118400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2990300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2713200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2991200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3085500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3158100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2854000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>143200</v>
+        <v>125100</v>
       </c>
       <c r="E44" s="3">
-        <v>176000</v>
+        <v>143600</v>
       </c>
       <c r="F44" s="3">
-        <v>145300</v>
+        <v>176400</v>
       </c>
       <c r="G44" s="3">
-        <v>138900</v>
+        <v>145700</v>
       </c>
       <c r="H44" s="3">
-        <v>142000</v>
+        <v>139300</v>
       </c>
       <c r="I44" s="3">
-        <v>172000</v>
+        <v>142400</v>
       </c>
       <c r="J44" s="3">
+        <v>172400</v>
+      </c>
+      <c r="K44" s="3">
         <v>164400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>163400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>133400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>168100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>192100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>101800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>115000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>149800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>205300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>174100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>200000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>210800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>222200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>175900</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>279200</v>
+        <v>304100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>280000</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>409300</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>410300</v>
+      </c>
+      <c r="K45" s="3">
         <v>386200</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>395000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>101800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>439600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2973600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3045100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>197100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>178000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>117900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>438000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5475600</v>
+        <v>5762200</v>
       </c>
       <c r="E46" s="3">
-        <v>5540400</v>
+        <v>5489400</v>
       </c>
       <c r="F46" s="3">
-        <v>5541200</v>
+        <v>5554400</v>
       </c>
       <c r="G46" s="3">
-        <v>5185500</v>
+        <v>5555200</v>
       </c>
       <c r="H46" s="3">
-        <v>5176100</v>
+        <v>5198600</v>
       </c>
       <c r="I46" s="3">
-        <v>5903100</v>
+        <v>5189200</v>
       </c>
       <c r="J46" s="3">
+        <v>5918100</v>
+      </c>
+      <c r="K46" s="3">
         <v>5186200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7495400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7639800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5304800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4993900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6290700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7227900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7526400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6191100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6703100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5890400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7254600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6533800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6691100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>666300</v>
+        <v>644900</v>
       </c>
       <c r="E47" s="3">
-        <v>692100</v>
+        <v>668000</v>
       </c>
       <c r="F47" s="3">
-        <v>710200</v>
+        <v>693800</v>
       </c>
       <c r="G47" s="3">
-        <v>902500</v>
+        <v>712000</v>
       </c>
       <c r="H47" s="3">
-        <v>844600</v>
+        <v>904800</v>
       </c>
       <c r="I47" s="3">
-        <v>541800</v>
+        <v>846700</v>
       </c>
       <c r="J47" s="3">
+        <v>543100</v>
+      </c>
+      <c r="K47" s="3">
         <v>475800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>272000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>253700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>486700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>268700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>52000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>53500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>53300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>55600</v>
-      </c>
-      <c r="S47" s="3">
-        <v>51200</v>
       </c>
       <c r="T47" s="3">
         <v>51200</v>
       </c>
       <c r="U47" s="3">
+        <v>51200</v>
+      </c>
+      <c r="V47" s="3">
         <v>1738500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1944800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14002300</v>
+        <v>13729100</v>
       </c>
       <c r="E48" s="3">
-        <v>14099400</v>
+        <v>14037800</v>
       </c>
       <c r="F48" s="3">
-        <v>15736500</v>
+        <v>14135100</v>
       </c>
       <c r="G48" s="3">
-        <v>16079300</v>
+        <v>15776300</v>
       </c>
       <c r="H48" s="3">
-        <v>16480000</v>
+        <v>16119900</v>
       </c>
       <c r="I48" s="3">
-        <v>17231200</v>
+        <v>16521700</v>
       </c>
       <c r="J48" s="3">
+        <v>17274800</v>
+      </c>
+      <c r="K48" s="3">
         <v>15778500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16995100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14544500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16139200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8276600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7060600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7104000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6984200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8748700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8271800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8497000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>9027500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8879600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8405100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4255200</v>
+        <v>4234900</v>
       </c>
       <c r="E49" s="3">
-        <v>4214500</v>
+        <v>4266000</v>
       </c>
       <c r="F49" s="3">
-        <v>4445900</v>
+        <v>4225100</v>
       </c>
       <c r="G49" s="3">
-        <v>4629600</v>
+        <v>4457200</v>
       </c>
       <c r="H49" s="3">
-        <v>4625400</v>
+        <v>4641300</v>
       </c>
       <c r="I49" s="3">
-        <v>4821600</v>
+        <v>4637100</v>
       </c>
       <c r="J49" s="3">
+        <v>4833800</v>
+      </c>
+      <c r="K49" s="3">
         <v>4296700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5123000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2361900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4394900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5728300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3698000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3864400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4002500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6605500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6627500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6847600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6962500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7099100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7250400</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1713700</v>
+        <v>1554200</v>
       </c>
       <c r="E52" s="3">
-        <v>1778700</v>
+        <v>1718000</v>
       </c>
       <c r="F52" s="3">
-        <v>1958800</v>
+        <v>1783200</v>
       </c>
       <c r="G52" s="3">
-        <v>2050800</v>
+        <v>1963800</v>
       </c>
       <c r="H52" s="3">
-        <v>2136600</v>
+        <v>2056000</v>
       </c>
       <c r="I52" s="3">
-        <v>2448000</v>
+        <v>2142000</v>
       </c>
       <c r="J52" s="3">
+        <v>2454200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1810800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2484200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2288400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1852300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2311800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1982900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1485500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1533000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1761500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1790700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2147400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>850000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>981800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>874400</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26113100</v>
+        <v>25925200</v>
       </c>
       <c r="E54" s="3">
-        <v>26325100</v>
+        <v>26179100</v>
       </c>
       <c r="F54" s="3">
-        <v>28392600</v>
+        <v>26391700</v>
       </c>
       <c r="G54" s="3">
-        <v>28847600</v>
+        <v>28464500</v>
       </c>
       <c r="H54" s="3">
-        <v>29262700</v>
+        <v>28920600</v>
       </c>
       <c r="I54" s="3">
-        <v>30945700</v>
+        <v>29336700</v>
       </c>
       <c r="J54" s="3">
+        <v>31024000</v>
+      </c>
+      <c r="K54" s="3">
         <v>27548100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32369600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27088300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28177900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>21579300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>19084400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19735400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20099400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23362400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>23444200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>23433600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>25833200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>25439100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>24911800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3326900</v>
+        <v>3407800</v>
       </c>
       <c r="E57" s="3">
-        <v>3515600</v>
+        <v>3335300</v>
       </c>
       <c r="F57" s="3">
-        <v>3751100</v>
+        <v>3524500</v>
       </c>
       <c r="G57" s="3">
-        <v>3654500</v>
+        <v>3760500</v>
       </c>
       <c r="H57" s="3">
-        <v>3819600</v>
+        <v>3663800</v>
       </c>
       <c r="I57" s="3">
-        <v>4074400</v>
+        <v>3829200</v>
       </c>
       <c r="J57" s="3">
+        <v>4084700</v>
+      </c>
+      <c r="K57" s="3">
         <v>3950300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4383300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3795600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4040600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4256500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3576100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3484800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3486000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4665800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4258800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4539200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4887000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5288300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4924500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2449500</v>
+        <v>2013400</v>
       </c>
       <c r="E58" s="3">
-        <v>1723300</v>
+        <v>2455700</v>
       </c>
       <c r="F58" s="3">
-        <v>1836600</v>
+        <v>1727600</v>
       </c>
       <c r="G58" s="3">
-        <v>2057500</v>
+        <v>1841300</v>
       </c>
       <c r="H58" s="3">
-        <v>2456800</v>
+        <v>2062700</v>
       </c>
       <c r="I58" s="3">
-        <v>2061600</v>
+        <v>2463000</v>
       </c>
       <c r="J58" s="3">
+        <v>2066900</v>
+      </c>
+      <c r="K58" s="3">
         <v>2662500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4165700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3453100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2723400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1775800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1588700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2615700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2051000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2629600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2984700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3083000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4001300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3202100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3174000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2077500</v>
+        <v>2090700</v>
       </c>
       <c r="E59" s="3">
-        <v>1184800</v>
+        <v>2082700</v>
       </c>
       <c r="F59" s="3">
-        <v>1112400</v>
+        <v>1187800</v>
       </c>
       <c r="G59" s="3">
-        <v>1791100</v>
+        <v>1115300</v>
       </c>
       <c r="H59" s="3">
-        <v>1920900</v>
+        <v>1795700</v>
       </c>
       <c r="I59" s="3">
-        <v>1474900</v>
+        <v>1925700</v>
       </c>
       <c r="J59" s="3">
+        <v>1478700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1470400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2325000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2159400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1504100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1578100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2654800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2280400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1900000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1583800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2214000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2207700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1558500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1079900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1033600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7853900</v>
+        <v>7511900</v>
       </c>
       <c r="E60" s="3">
-        <v>6423800</v>
+        <v>7873700</v>
       </c>
       <c r="F60" s="3">
-        <v>6700100</v>
+        <v>6440000</v>
       </c>
       <c r="G60" s="3">
-        <v>7503200</v>
+        <v>6717100</v>
       </c>
       <c r="H60" s="3">
-        <v>8197200</v>
+        <v>7522200</v>
       </c>
       <c r="I60" s="3">
-        <v>7610900</v>
+        <v>8217900</v>
       </c>
       <c r="J60" s="3">
+        <v>7630200</v>
+      </c>
+      <c r="K60" s="3">
         <v>8083200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10873900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9408000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8268000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7610400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7819600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8380900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7437000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8879100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9457500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9829900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10446800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9570300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9132100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13244100</v>
+        <v>13151800</v>
       </c>
       <c r="E61" s="3">
-        <v>13669200</v>
+        <v>13277600</v>
       </c>
       <c r="F61" s="3">
-        <v>14854500</v>
+        <v>13703800</v>
       </c>
       <c r="G61" s="3">
-        <v>15174300</v>
+        <v>14892100</v>
       </c>
       <c r="H61" s="3">
         <v>15212700</v>
       </c>
       <c r="I61" s="3">
-        <v>15812400</v>
+        <v>15251200</v>
       </c>
       <c r="J61" s="3">
+        <v>15852400</v>
+      </c>
+      <c r="K61" s="3">
         <v>12837700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14534900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11137800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13131100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6309600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4548900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4739300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4852400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5973300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5762600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5949300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6540000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7446200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7214000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1838900</v>
+        <v>1826700</v>
       </c>
       <c r="E62" s="3">
-        <v>1862100</v>
+        <v>1843600</v>
       </c>
       <c r="F62" s="3">
-        <v>1977200</v>
+        <v>1866800</v>
       </c>
       <c r="G62" s="3">
-        <v>1956300</v>
+        <v>1982200</v>
       </c>
       <c r="H62" s="3">
-        <v>2085200</v>
+        <v>1961200</v>
       </c>
       <c r="I62" s="3">
-        <v>2219400</v>
+        <v>2090500</v>
       </c>
       <c r="J62" s="3">
+        <v>2225000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1830500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1962200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1408000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1872300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1515700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1260900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1244500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1065200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1292200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1284700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1223900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1479700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1592300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1503800</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23495700</v>
+        <v>23020400</v>
       </c>
       <c r="E66" s="3">
-        <v>22554800</v>
+        <v>23555100</v>
       </c>
       <c r="F66" s="3">
-        <v>24150900</v>
+        <v>22611900</v>
       </c>
       <c r="G66" s="3">
-        <v>25248000</v>
+        <v>24212000</v>
       </c>
       <c r="H66" s="3">
-        <v>26183500</v>
+        <v>25311900</v>
       </c>
       <c r="I66" s="3">
-        <v>26336100</v>
+        <v>26249700</v>
       </c>
       <c r="J66" s="3">
+        <v>26402700</v>
+      </c>
+      <c r="K66" s="3">
         <v>23336400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27950500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22521100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23869900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16000800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14120200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14910200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13911100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16704900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17006400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17551000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19074800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19165800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>18363900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2126200</v>
+        <v>2455400</v>
       </c>
       <c r="E72" s="3">
-        <v>3290800</v>
+        <v>2131500</v>
       </c>
       <c r="F72" s="3">
-        <v>3656300</v>
+        <v>3299200</v>
       </c>
       <c r="G72" s="3">
-        <v>2749200</v>
+        <v>3665600</v>
       </c>
       <c r="H72" s="3">
-        <v>2244100</v>
+        <v>2756100</v>
       </c>
       <c r="I72" s="3">
-        <v>3538200</v>
+        <v>2249800</v>
       </c>
       <c r="J72" s="3">
+        <v>3547200</v>
+      </c>
+      <c r="K72" s="3">
         <v>3562800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3647400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3964700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5195400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4828000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4471800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4521900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5777800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6005900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5929300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5278900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5612000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5136300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5466800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2617400</v>
+        <v>2904800</v>
       </c>
       <c r="E76" s="3">
-        <v>3770300</v>
+        <v>2624000</v>
       </c>
       <c r="F76" s="3">
-        <v>4241700</v>
+        <v>3779900</v>
       </c>
       <c r="G76" s="3">
-        <v>3599600</v>
+        <v>4252400</v>
       </c>
       <c r="H76" s="3">
-        <v>3079200</v>
+        <v>3608800</v>
       </c>
       <c r="I76" s="3">
-        <v>4609600</v>
+        <v>3087000</v>
       </c>
       <c r="J76" s="3">
+        <v>4621300</v>
+      </c>
+      <c r="K76" s="3">
         <v>4211700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4419100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4567200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4308000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5578500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4964200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4825200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6188300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6657500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6437800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5882600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6758400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6273400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6547800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>242200</v>
+        <v>293200</v>
       </c>
       <c r="E81" s="3">
-        <v>-430400</v>
+        <v>242800</v>
       </c>
       <c r="F81" s="3">
-        <v>851000</v>
+        <v>-431500</v>
       </c>
       <c r="G81" s="3">
-        <v>501000</v>
+        <v>853200</v>
       </c>
       <c r="H81" s="3">
-        <v>490000</v>
+        <v>502300</v>
       </c>
       <c r="I81" s="3">
-        <v>77100</v>
+        <v>491200</v>
       </c>
       <c r="J81" s="3">
+        <v>77300</v>
+      </c>
+      <c r="K81" s="3">
         <v>191400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-81700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>330100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>432600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>136900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>601600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>270600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>510700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>257600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>666400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-19300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>513900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>348900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>748500</v>
+        <v>739300</v>
       </c>
       <c r="E83" s="3">
-        <v>1493600</v>
+        <v>750400</v>
       </c>
       <c r="F83" s="3">
-        <v>796000</v>
+        <v>1497400</v>
       </c>
       <c r="G83" s="3">
-        <v>789400</v>
+        <v>798000</v>
       </c>
       <c r="H83" s="3">
-        <v>839000</v>
+        <v>791400</v>
       </c>
       <c r="I83" s="3">
-        <v>792400</v>
+        <v>841100</v>
       </c>
       <c r="J83" s="3">
+        <v>794400</v>
+      </c>
+      <c r="K83" s="3">
         <v>764600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>756300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>666600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>641700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>437000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>571000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>567700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>597600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>701200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>610700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>662200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>630900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3456500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1136300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1089600</v>
+        <v>1450400</v>
       </c>
       <c r="E89" s="3">
-        <v>1199100</v>
+        <v>1092400</v>
       </c>
       <c r="F89" s="3">
-        <v>1251200</v>
+        <v>1202100</v>
       </c>
       <c r="G89" s="3">
-        <v>1209300</v>
+        <v>1254400</v>
       </c>
       <c r="H89" s="3">
-        <v>1241600</v>
+        <v>1212300</v>
       </c>
       <c r="I89" s="3">
-        <v>1147800</v>
+        <v>1244700</v>
       </c>
       <c r="J89" s="3">
+        <v>1150700</v>
+      </c>
+      <c r="K89" s="3">
         <v>774300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1405400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>703500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1071600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>926100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1107200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>895600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>880500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1064600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1399400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1343300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1129900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4904600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1293700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-517400</v>
+        <v>-458700</v>
       </c>
       <c r="E91" s="3">
-        <v>-631100</v>
+        <v>-518700</v>
       </c>
       <c r="F91" s="3">
-        <v>-538700</v>
+        <v>-632700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1525200</v>
+        <v>-540000</v>
       </c>
       <c r="H91" s="3">
-        <v>569000</v>
+        <v>-1529000</v>
       </c>
       <c r="I91" s="3">
-        <v>-608100</v>
+        <v>570400</v>
       </c>
       <c r="J91" s="3">
+        <v>-609600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>32500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-101800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-827500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1315200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>484600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-568500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-523100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-449500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-530800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1393000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2925500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-500200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-511000</v>
+        <v>-322000</v>
       </c>
       <c r="E94" s="3">
-        <v>-522200</v>
+        <v>-512300</v>
       </c>
       <c r="F94" s="3">
-        <v>269700</v>
+        <v>-523500</v>
       </c>
       <c r="G94" s="3">
-        <v>-381600</v>
+        <v>270400</v>
       </c>
       <c r="H94" s="3">
-        <v>-560300</v>
+        <v>-382600</v>
       </c>
       <c r="I94" s="3">
-        <v>-497200</v>
+        <v>-561700</v>
       </c>
       <c r="J94" s="3">
+        <v>-498400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1439700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2515000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-535700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-564800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-906400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1771500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-448800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-563600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-511600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-41700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>50900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-662400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2602200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-746200</v>
+        <v>-28300</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-748100</v>
       </c>
       <c r="F96" s="3">
-        <v>-666000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-667600</v>
       </c>
       <c r="H96" s="3">
-        <v>-692900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-694600</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-631400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-741900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1368800</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-639200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-606500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-747500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-30800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1386600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-32100</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-855800</v>
+        <v>-769200</v>
       </c>
       <c r="E100" s="3">
-        <v>-367000</v>
+        <v>-857900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1147900</v>
+        <v>-367900</v>
       </c>
       <c r="G100" s="3">
-        <v>-713800</v>
+        <v>-1150800</v>
       </c>
       <c r="H100" s="3">
-        <v>-890200</v>
+        <v>-715600</v>
       </c>
       <c r="I100" s="3">
-        <v>-301000</v>
+        <v>-892500</v>
       </c>
       <c r="J100" s="3">
+        <v>-301800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1248800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-253200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1835400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>209000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1683300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1548700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-652600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-311900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1372300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-107900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1948200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-15300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1114300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>503100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E101" s="3">
         <v>23700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-28700</v>
       </c>
-      <c r="F101" s="3">
-        <v>-27900</v>
-      </c>
       <c r="G101" s="3">
-        <v>-40400</v>
+        <v>-28000</v>
       </c>
       <c r="H101" s="3">
-        <v>-38600</v>
+        <v>-40500</v>
       </c>
       <c r="I101" s="3">
-        <v>153400</v>
+        <v>-38700</v>
       </c>
       <c r="J101" s="3">
+        <v>153800</v>
+      </c>
+      <c r="K101" s="3">
         <v>10400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>93000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-22000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-29500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>72600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-60200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>15500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>26300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-55000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-70700</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-253500</v>
+        <v>313900</v>
       </c>
       <c r="E102" s="3">
-        <v>281200</v>
+        <v>-254100</v>
       </c>
       <c r="F102" s="3">
-        <v>345200</v>
+        <v>281900</v>
       </c>
       <c r="G102" s="3">
-        <v>73500</v>
+        <v>346100</v>
       </c>
       <c r="H102" s="3">
-        <v>-247500</v>
+        <v>73700</v>
       </c>
       <c r="I102" s="3">
-        <v>502900</v>
+        <v>-248100</v>
       </c>
       <c r="J102" s="3">
+        <v>504200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1900700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1268800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1989000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>700100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1652800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1326600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-211700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-24400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-864300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1083000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-642900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>373700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1133100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1819800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3041500</v>
+        <v>3045400</v>
       </c>
       <c r="E8" s="3">
-        <v>3013500</v>
+        <v>3017300</v>
       </c>
       <c r="F8" s="3">
-        <v>3053300</v>
+        <v>3057100</v>
       </c>
       <c r="G8" s="3">
-        <v>2660500</v>
+        <v>2663800</v>
       </c>
       <c r="H8" s="3">
-        <v>3329400</v>
+        <v>3333600</v>
       </c>
       <c r="I8" s="3">
-        <v>3215400</v>
+        <v>3219500</v>
       </c>
       <c r="J8" s="3">
-        <v>3232400</v>
+        <v>3236500</v>
       </c>
       <c r="K8" s="3">
         <v>3165100</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>760300</v>
+        <v>761300</v>
       </c>
       <c r="E9" s="3">
-        <v>764800</v>
+        <v>765800</v>
       </c>
       <c r="F9" s="3">
-        <v>811100</v>
+        <v>812100</v>
       </c>
       <c r="G9" s="3">
-        <v>836000</v>
+        <v>837000</v>
       </c>
       <c r="H9" s="3">
-        <v>769800</v>
+        <v>770800</v>
       </c>
       <c r="I9" s="3">
-        <v>779300</v>
+        <v>780300</v>
       </c>
       <c r="J9" s="3">
-        <v>794900</v>
+        <v>795900</v>
       </c>
       <c r="K9" s="3">
         <v>785200</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2281200</v>
+        <v>2284100</v>
       </c>
       <c r="E10" s="3">
-        <v>2248600</v>
+        <v>2251400</v>
       </c>
       <c r="F10" s="3">
-        <v>2242200</v>
+        <v>2245000</v>
       </c>
       <c r="G10" s="3">
-        <v>1824500</v>
+        <v>1826800</v>
       </c>
       <c r="H10" s="3">
-        <v>2559500</v>
+        <v>2562700</v>
       </c>
       <c r="I10" s="3">
-        <v>2436100</v>
+        <v>2439200</v>
       </c>
       <c r="J10" s="3">
-        <v>2437500</v>
+        <v>2440500</v>
       </c>
       <c r="K10" s="3">
         <v>2380000</v>
@@ -1148,10 +1148,10 @@
         <v>12000</v>
       </c>
       <c r="I14" s="3">
-        <v>147600</v>
+        <v>147800</v>
       </c>
       <c r="J14" s="3">
-        <v>36900</v>
+        <v>37000</v>
       </c>
       <c r="K14" s="3">
         <v>37100</v>
@@ -1201,25 +1201,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>734200</v>
+        <v>735100</v>
       </c>
       <c r="E15" s="3">
-        <v>712600</v>
+        <v>713500</v>
       </c>
       <c r="F15" s="3">
-        <v>707900</v>
+        <v>708800</v>
       </c>
       <c r="G15" s="3">
-        <v>492100</v>
+        <v>492700</v>
       </c>
       <c r="H15" s="3">
-        <v>791400</v>
+        <v>792400</v>
       </c>
       <c r="I15" s="3">
-        <v>760200</v>
+        <v>761100</v>
       </c>
       <c r="J15" s="3">
-        <v>721100</v>
+        <v>722000</v>
       </c>
       <c r="K15" s="3">
         <v>756200</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2365600</v>
+        <v>2368500</v>
       </c>
       <c r="E17" s="3">
-        <v>2384200</v>
+        <v>2387200</v>
       </c>
       <c r="F17" s="3">
-        <v>2422500</v>
+        <v>2425500</v>
       </c>
       <c r="G17" s="3">
-        <v>1799100</v>
+        <v>1801400</v>
       </c>
       <c r="H17" s="3">
-        <v>2420500</v>
+        <v>2423500</v>
       </c>
       <c r="I17" s="3">
-        <v>2661000</v>
+        <v>2664400</v>
       </c>
       <c r="J17" s="3">
-        <v>2543800</v>
+        <v>2547000</v>
       </c>
       <c r="K17" s="3">
         <v>2550200</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>676000</v>
+        <v>676800</v>
       </c>
       <c r="E18" s="3">
-        <v>629300</v>
+        <v>630000</v>
       </c>
       <c r="F18" s="3">
-        <v>630800</v>
+        <v>631600</v>
       </c>
       <c r="G18" s="3">
-        <v>861400</v>
+        <v>862500</v>
       </c>
       <c r="H18" s="3">
-        <v>908900</v>
+        <v>910000</v>
       </c>
       <c r="I18" s="3">
-        <v>554400</v>
+        <v>555100</v>
       </c>
       <c r="J18" s="3">
-        <v>688600</v>
+        <v>689500</v>
       </c>
       <c r="K18" s="3">
         <v>614900</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-104900</v>
+        <v>-105000</v>
       </c>
       <c r="E20" s="3">
-        <v>-70300</v>
+        <v>-70400</v>
       </c>
       <c r="F20" s="3">
         <v>23000</v>
       </c>
       <c r="G20" s="3">
-        <v>235100</v>
+        <v>235400</v>
       </c>
       <c r="H20" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="I20" s="3">
-        <v>120100</v>
+        <v>120200</v>
       </c>
       <c r="J20" s="3">
-        <v>-403800</v>
+        <v>-404300</v>
       </c>
       <c r="K20" s="3">
         <v>85200</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1310400</v>
+        <v>1312100</v>
       </c>
       <c r="E21" s="3">
-        <v>1309300</v>
+        <v>1311000</v>
       </c>
       <c r="F21" s="3">
-        <v>2151200</v>
+        <v>2153900</v>
       </c>
       <c r="G21" s="3">
-        <v>1894500</v>
+        <v>1896900</v>
       </c>
       <c r="H21" s="3">
-        <v>1754700</v>
+        <v>1756900</v>
       </c>
       <c r="I21" s="3">
-        <v>1515500</v>
+        <v>1517400</v>
       </c>
       <c r="J21" s="3">
-        <v>1079200</v>
+        <v>1080600</v>
       </c>
       <c r="K21" s="3">
         <v>1464700</v>
@@ -1590,25 +1590,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>73800</v>
+        <v>73900</v>
       </c>
       <c r="E22" s="3">
-        <v>72800</v>
+        <v>72900</v>
       </c>
       <c r="F22" s="3">
-        <v>71700</v>
+        <v>71800</v>
       </c>
       <c r="G22" s="3">
-        <v>118800</v>
+        <v>119000</v>
       </c>
       <c r="H22" s="3">
-        <v>117600</v>
+        <v>117800</v>
       </c>
       <c r="I22" s="3">
-        <v>85300</v>
+        <v>85400</v>
       </c>
       <c r="J22" s="3">
-        <v>89700</v>
+        <v>89800</v>
       </c>
       <c r="K22" s="3">
         <v>173900</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>497300</v>
+        <v>498000</v>
       </c>
       <c r="E23" s="3">
-        <v>486100</v>
+        <v>486700</v>
       </c>
       <c r="F23" s="3">
-        <v>582100</v>
+        <v>582800</v>
       </c>
       <c r="G23" s="3">
-        <v>977700</v>
+        <v>978900</v>
       </c>
       <c r="H23" s="3">
-        <v>845700</v>
+        <v>846800</v>
       </c>
       <c r="I23" s="3">
-        <v>589100</v>
+        <v>589800</v>
       </c>
       <c r="J23" s="3">
-        <v>195200</v>
+        <v>195400</v>
       </c>
       <c r="K23" s="3">
         <v>526300</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>162400</v>
+        <v>162700</v>
       </c>
       <c r="E24" s="3">
-        <v>163200</v>
+        <v>163400</v>
       </c>
       <c r="F24" s="3">
-        <v>183100</v>
+        <v>183300</v>
       </c>
       <c r="G24" s="3">
-        <v>170000</v>
+        <v>170200</v>
       </c>
       <c r="H24" s="3">
-        <v>238200</v>
+        <v>238500</v>
       </c>
       <c r="I24" s="3">
-        <v>221000</v>
+        <v>221300</v>
       </c>
       <c r="J24" s="3">
-        <v>69000</v>
+        <v>69100</v>
       </c>
       <c r="K24" s="3">
         <v>147500</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>334900</v>
+        <v>335300</v>
       </c>
       <c r="E26" s="3">
-        <v>322900</v>
+        <v>323300</v>
       </c>
       <c r="F26" s="3">
-        <v>399000</v>
+        <v>399500</v>
       </c>
       <c r="G26" s="3">
-        <v>807700</v>
+        <v>808700</v>
       </c>
       <c r="H26" s="3">
-        <v>607500</v>
+        <v>608300</v>
       </c>
       <c r="I26" s="3">
-        <v>368100</v>
+        <v>368500</v>
       </c>
       <c r="J26" s="3">
-        <v>126200</v>
+        <v>126300</v>
       </c>
       <c r="K26" s="3">
         <v>378700</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>245800</v>
+        <v>246100</v>
       </c>
       <c r="E27" s="3">
-        <v>233800</v>
+        <v>234100</v>
       </c>
       <c r="F27" s="3">
-        <v>315000</v>
+        <v>315400</v>
       </c>
       <c r="G27" s="3">
-        <v>716200</v>
+        <v>717200</v>
       </c>
       <c r="H27" s="3">
-        <v>505100</v>
+        <v>505700</v>
       </c>
       <c r="I27" s="3">
-        <v>265900</v>
+        <v>266200</v>
       </c>
       <c r="J27" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="K27" s="3">
         <v>277900</v>
@@ -2072,19 +2072,19 @@
         <v>9000</v>
       </c>
       <c r="F29" s="3">
-        <v>-746500</v>
+        <v>-747500</v>
       </c>
       <c r="G29" s="3">
-        <v>136900</v>
+        <v>137100</v>
       </c>
       <c r="H29" s="3">
         <v>-2800</v>
       </c>
       <c r="I29" s="3">
-        <v>225400</v>
+        <v>225600</v>
       </c>
       <c r="J29" s="3">
-        <v>67800</v>
+        <v>67900</v>
       </c>
       <c r="K29" s="3">
         <v>-86600</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>104900</v>
+        <v>105000</v>
       </c>
       <c r="E32" s="3">
-        <v>70300</v>
+        <v>70400</v>
       </c>
       <c r="F32" s="3">
         <v>-23000</v>
       </c>
       <c r="G32" s="3">
-        <v>-235100</v>
+        <v>-235400</v>
       </c>
       <c r="H32" s="3">
-        <v>-54500</v>
+        <v>-54600</v>
       </c>
       <c r="I32" s="3">
-        <v>-120100</v>
+        <v>-120200</v>
       </c>
       <c r="J32" s="3">
-        <v>403800</v>
+        <v>404300</v>
       </c>
       <c r="K32" s="3">
         <v>-85200</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>293200</v>
+        <v>293500</v>
       </c>
       <c r="E33" s="3">
-        <v>242800</v>
+        <v>243100</v>
       </c>
       <c r="F33" s="3">
-        <v>-431500</v>
+        <v>-432100</v>
       </c>
       <c r="G33" s="3">
-        <v>853200</v>
+        <v>854200</v>
       </c>
       <c r="H33" s="3">
-        <v>502300</v>
+        <v>502900</v>
       </c>
       <c r="I33" s="3">
-        <v>491200</v>
+        <v>491800</v>
       </c>
       <c r="J33" s="3">
-        <v>77300</v>
+        <v>77400</v>
       </c>
       <c r="K33" s="3">
         <v>191400</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>293200</v>
+        <v>293500</v>
       </c>
       <c r="E35" s="3">
-        <v>242800</v>
+        <v>243100</v>
       </c>
       <c r="F35" s="3">
-        <v>-431500</v>
+        <v>-432100</v>
       </c>
       <c r="G35" s="3">
-        <v>853200</v>
+        <v>854200</v>
       </c>
       <c r="H35" s="3">
-        <v>502300</v>
+        <v>502900</v>
       </c>
       <c r="I35" s="3">
-        <v>491200</v>
+        <v>491800</v>
       </c>
       <c r="J35" s="3">
-        <v>77300</v>
+        <v>77400</v>
       </c>
       <c r="K35" s="3">
         <v>191400</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2440800</v>
+        <v>2443900</v>
       </c>
       <c r="E41" s="3">
-        <v>2189600</v>
+        <v>2192300</v>
       </c>
       <c r="F41" s="3">
-        <v>2528200</v>
+        <v>2531400</v>
       </c>
       <c r="G41" s="3">
-        <v>2283200</v>
+        <v>2286100</v>
       </c>
       <c r="H41" s="3">
-        <v>1939900</v>
+        <v>1942400</v>
       </c>
       <c r="I41" s="3">
-        <v>1852900</v>
+        <v>1855300</v>
       </c>
       <c r="J41" s="3">
-        <v>2004400</v>
+        <v>2006900</v>
       </c>
       <c r="K41" s="3">
         <v>1534800</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>112500</v>
+        <v>112700</v>
       </c>
       <c r="E42" s="3">
-        <v>84400</v>
+        <v>84500</v>
       </c>
       <c r="F42" s="3">
-        <v>64100</v>
+        <v>64200</v>
       </c>
       <c r="G42" s="3">
-        <v>63900</v>
+        <v>64000</v>
       </c>
       <c r="H42" s="3">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="I42" s="3">
         <v>65400</v>
       </c>
       <c r="J42" s="3">
-        <v>93500</v>
+        <v>93700</v>
       </c>
       <c r="K42" s="3">
         <v>100700</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2779700</v>
+        <v>2581700</v>
       </c>
       <c r="E43" s="3">
-        <v>2791900</v>
+        <v>2619300</v>
       </c>
       <c r="F43" s="3">
-        <v>2785500</v>
+        <v>2619300</v>
       </c>
       <c r="G43" s="3">
-        <v>3062300</v>
+        <v>2928500</v>
       </c>
       <c r="H43" s="3">
-        <v>3059700</v>
+        <v>2908700</v>
       </c>
       <c r="I43" s="3">
-        <v>3128500</v>
+        <v>2945000</v>
       </c>
       <c r="J43" s="3">
-        <v>3237400</v>
+        <v>3052900</v>
       </c>
       <c r="K43" s="3">
         <v>3000200</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>125100</v>
+        <v>125200</v>
       </c>
       <c r="E44" s="3">
-        <v>143600</v>
+        <v>143800</v>
       </c>
       <c r="F44" s="3">
-        <v>176400</v>
+        <v>176600</v>
       </c>
       <c r="G44" s="3">
-        <v>145700</v>
+        <v>145900</v>
       </c>
       <c r="H44" s="3">
-        <v>139300</v>
+        <v>139400</v>
       </c>
       <c r="I44" s="3">
-        <v>142400</v>
+        <v>142500</v>
       </c>
       <c r="J44" s="3">
-        <v>172400</v>
+        <v>172600</v>
       </c>
       <c r="K44" s="3">
         <v>164400</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>304100</v>
+        <v>505900</v>
       </c>
       <c r="E45" s="3">
-        <v>280000</v>
+        <v>456400</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>169900</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>137800</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>154900</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>187400</v>
       </c>
       <c r="J45" s="3">
-        <v>410300</v>
+        <v>599400</v>
       </c>
       <c r="K45" s="3">
         <v>386200</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5762200</v>
+        <v>5769400</v>
       </c>
       <c r="E46" s="3">
-        <v>5489400</v>
+        <v>5496300</v>
       </c>
       <c r="F46" s="3">
-        <v>5554400</v>
+        <v>5561400</v>
       </c>
       <c r="G46" s="3">
-        <v>5555200</v>
+        <v>5562200</v>
       </c>
       <c r="H46" s="3">
-        <v>5198600</v>
+        <v>5205100</v>
       </c>
       <c r="I46" s="3">
-        <v>5189200</v>
+        <v>5195700</v>
       </c>
       <c r="J46" s="3">
-        <v>5918100</v>
+        <v>5925500</v>
       </c>
       <c r="K46" s="3">
         <v>5186200</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>644900</v>
+        <v>645700</v>
       </c>
       <c r="E47" s="3">
-        <v>668000</v>
+        <v>668800</v>
       </c>
       <c r="F47" s="3">
-        <v>693800</v>
+        <v>694700</v>
       </c>
       <c r="G47" s="3">
-        <v>712000</v>
+        <v>712900</v>
       </c>
       <c r="H47" s="3">
-        <v>904800</v>
+        <v>905900</v>
       </c>
       <c r="I47" s="3">
-        <v>846700</v>
+        <v>847800</v>
       </c>
       <c r="J47" s="3">
-        <v>543100</v>
+        <v>543800</v>
       </c>
       <c r="K47" s="3">
         <v>475800</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13729100</v>
+        <v>13746400</v>
       </c>
       <c r="E48" s="3">
-        <v>14037800</v>
+        <v>14055500</v>
       </c>
       <c r="F48" s="3">
-        <v>14135100</v>
+        <v>14152900</v>
       </c>
       <c r="G48" s="3">
-        <v>15776300</v>
+        <v>15796200</v>
       </c>
       <c r="H48" s="3">
-        <v>16119900</v>
+        <v>16140300</v>
       </c>
       <c r="I48" s="3">
-        <v>16521700</v>
+        <v>16542600</v>
       </c>
       <c r="J48" s="3">
-        <v>17274800</v>
+        <v>17296600</v>
       </c>
       <c r="K48" s="3">
         <v>15778500</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4234900</v>
+        <v>4240200</v>
       </c>
       <c r="E49" s="3">
-        <v>4266000</v>
+        <v>4271400</v>
       </c>
       <c r="F49" s="3">
-        <v>4225100</v>
+        <v>4230500</v>
       </c>
       <c r="G49" s="3">
-        <v>4457200</v>
+        <v>4462800</v>
       </c>
       <c r="H49" s="3">
-        <v>4641300</v>
+        <v>4647200</v>
       </c>
       <c r="I49" s="3">
-        <v>4637100</v>
+        <v>4643000</v>
       </c>
       <c r="J49" s="3">
-        <v>4833800</v>
+        <v>4839800</v>
       </c>
       <c r="K49" s="3">
         <v>4296700</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1554200</v>
+        <v>1556200</v>
       </c>
       <c r="E52" s="3">
-        <v>1718000</v>
+        <v>1720200</v>
       </c>
       <c r="F52" s="3">
-        <v>1783200</v>
+        <v>1785500</v>
       </c>
       <c r="G52" s="3">
-        <v>1963800</v>
+        <v>1966200</v>
       </c>
       <c r="H52" s="3">
-        <v>2056000</v>
+        <v>2058600</v>
       </c>
       <c r="I52" s="3">
-        <v>2142000</v>
+        <v>2144700</v>
       </c>
       <c r="J52" s="3">
-        <v>2454200</v>
+        <v>2457300</v>
       </c>
       <c r="K52" s="3">
         <v>1810800</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25925200</v>
+        <v>25958000</v>
       </c>
       <c r="E54" s="3">
-        <v>26179100</v>
+        <v>26212200</v>
       </c>
       <c r="F54" s="3">
-        <v>26391700</v>
+        <v>26425000</v>
       </c>
       <c r="G54" s="3">
-        <v>28464500</v>
+        <v>28500400</v>
       </c>
       <c r="H54" s="3">
-        <v>28920600</v>
+        <v>28957100</v>
       </c>
       <c r="I54" s="3">
-        <v>29336700</v>
+        <v>29373700</v>
       </c>
       <c r="J54" s="3">
-        <v>31024000</v>
+        <v>31063100</v>
       </c>
       <c r="K54" s="3">
         <v>27548100</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3407800</v>
+        <v>3412100</v>
       </c>
       <c r="E57" s="3">
-        <v>3335300</v>
+        <v>3339600</v>
       </c>
       <c r="F57" s="3">
-        <v>3524500</v>
+        <v>3529000</v>
       </c>
       <c r="G57" s="3">
-        <v>3760500</v>
+        <v>3765300</v>
       </c>
       <c r="H57" s="3">
-        <v>3663800</v>
+        <v>3668400</v>
       </c>
       <c r="I57" s="3">
-        <v>3829200</v>
+        <v>3834100</v>
       </c>
       <c r="J57" s="3">
-        <v>4084700</v>
+        <v>4089800</v>
       </c>
       <c r="K57" s="3">
         <v>3950300</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2013400</v>
+        <v>2015900</v>
       </c>
       <c r="E58" s="3">
-        <v>2455700</v>
+        <v>2458800</v>
       </c>
       <c r="F58" s="3">
-        <v>1727600</v>
+        <v>1729800</v>
       </c>
       <c r="G58" s="3">
-        <v>1841300</v>
+        <v>1843600</v>
       </c>
       <c r="H58" s="3">
-        <v>2062700</v>
+        <v>2065300</v>
       </c>
       <c r="I58" s="3">
-        <v>2463000</v>
+        <v>2466100</v>
       </c>
       <c r="J58" s="3">
-        <v>2066900</v>
+        <v>2069500</v>
       </c>
       <c r="K58" s="3">
         <v>2662500</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2090700</v>
+        <v>2093300</v>
       </c>
       <c r="E59" s="3">
-        <v>2082700</v>
+        <v>2085300</v>
       </c>
       <c r="F59" s="3">
-        <v>1187800</v>
+        <v>1189300</v>
       </c>
       <c r="G59" s="3">
-        <v>1115300</v>
+        <v>1116700</v>
       </c>
       <c r="H59" s="3">
-        <v>1795700</v>
+        <v>1797900</v>
       </c>
       <c r="I59" s="3">
-        <v>1925700</v>
+        <v>1928100</v>
       </c>
       <c r="J59" s="3">
-        <v>1478700</v>
+        <v>1480500</v>
       </c>
       <c r="K59" s="3">
         <v>1470400</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7511900</v>
+        <v>7521400</v>
       </c>
       <c r="E60" s="3">
-        <v>7873700</v>
+        <v>7883700</v>
       </c>
       <c r="F60" s="3">
-        <v>6440000</v>
+        <v>6448100</v>
       </c>
       <c r="G60" s="3">
-        <v>6717100</v>
+        <v>6725500</v>
       </c>
       <c r="H60" s="3">
-        <v>7522200</v>
+        <v>7531700</v>
       </c>
       <c r="I60" s="3">
-        <v>8217900</v>
+        <v>8228300</v>
       </c>
       <c r="J60" s="3">
-        <v>7630200</v>
+        <v>7639800</v>
       </c>
       <c r="K60" s="3">
         <v>8083200</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13151800</v>
+        <v>13168300</v>
       </c>
       <c r="E61" s="3">
-        <v>13277600</v>
+        <v>13294300</v>
       </c>
       <c r="F61" s="3">
-        <v>13703800</v>
+        <v>13721100</v>
       </c>
       <c r="G61" s="3">
-        <v>14892100</v>
+        <v>14910800</v>
       </c>
       <c r="H61" s="3">
-        <v>15212700</v>
+        <v>15231900</v>
       </c>
       <c r="I61" s="3">
-        <v>15251200</v>
+        <v>15270500</v>
       </c>
       <c r="J61" s="3">
-        <v>15852400</v>
+        <v>15872400</v>
       </c>
       <c r="K61" s="3">
         <v>12837700</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1826700</v>
+        <v>1829000</v>
       </c>
       <c r="E62" s="3">
-        <v>1843600</v>
+        <v>1845900</v>
       </c>
       <c r="F62" s="3">
-        <v>1866800</v>
+        <v>1869100</v>
       </c>
       <c r="G62" s="3">
-        <v>1982200</v>
+        <v>1984700</v>
       </c>
       <c r="H62" s="3">
-        <v>1961200</v>
+        <v>1963700</v>
       </c>
       <c r="I62" s="3">
-        <v>2090500</v>
+        <v>2093100</v>
       </c>
       <c r="J62" s="3">
-        <v>2225000</v>
+        <v>2227800</v>
       </c>
       <c r="K62" s="3">
         <v>1830500</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23020400</v>
+        <v>23049500</v>
       </c>
       <c r="E66" s="3">
-        <v>23555100</v>
+        <v>23584900</v>
       </c>
       <c r="F66" s="3">
-        <v>22611900</v>
+        <v>22640400</v>
       </c>
       <c r="G66" s="3">
-        <v>24212000</v>
+        <v>24242600</v>
       </c>
       <c r="H66" s="3">
-        <v>25311900</v>
+        <v>25343800</v>
       </c>
       <c r="I66" s="3">
-        <v>26249700</v>
+        <v>26282800</v>
       </c>
       <c r="J66" s="3">
-        <v>26402700</v>
+        <v>26436000</v>
       </c>
       <c r="K66" s="3">
         <v>23336400</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2455400</v>
+        <v>2458500</v>
       </c>
       <c r="E72" s="3">
-        <v>2131500</v>
+        <v>2134200</v>
       </c>
       <c r="F72" s="3">
-        <v>3299200</v>
+        <v>3303300</v>
       </c>
       <c r="G72" s="3">
-        <v>3665600</v>
+        <v>3670200</v>
       </c>
       <c r="H72" s="3">
-        <v>2756100</v>
+        <v>2759600</v>
       </c>
       <c r="I72" s="3">
-        <v>2249800</v>
+        <v>2252700</v>
       </c>
       <c r="J72" s="3">
-        <v>3547200</v>
+        <v>3551600</v>
       </c>
       <c r="K72" s="3">
         <v>3562800</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2904800</v>
+        <v>2908500</v>
       </c>
       <c r="E76" s="3">
-        <v>2624000</v>
+        <v>2627300</v>
       </c>
       <c r="F76" s="3">
-        <v>3779900</v>
+        <v>3784600</v>
       </c>
       <c r="G76" s="3">
-        <v>4252400</v>
+        <v>4257800</v>
       </c>
       <c r="H76" s="3">
-        <v>3608800</v>
+        <v>3613300</v>
       </c>
       <c r="I76" s="3">
-        <v>3087000</v>
+        <v>3090900</v>
       </c>
       <c r="J76" s="3">
-        <v>4621300</v>
+        <v>4627100</v>
       </c>
       <c r="K76" s="3">
         <v>4211700</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>293200</v>
+        <v>293500</v>
       </c>
       <c r="E81" s="3">
-        <v>242800</v>
+        <v>243100</v>
       </c>
       <c r="F81" s="3">
-        <v>-431500</v>
+        <v>-432100</v>
       </c>
       <c r="G81" s="3">
-        <v>853200</v>
+        <v>854200</v>
       </c>
       <c r="H81" s="3">
-        <v>502300</v>
+        <v>502900</v>
       </c>
       <c r="I81" s="3">
-        <v>491200</v>
+        <v>491800</v>
       </c>
       <c r="J81" s="3">
-        <v>77300</v>
+        <v>77400</v>
       </c>
       <c r="K81" s="3">
         <v>191400</v>
@@ -5224,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>739300</v>
+        <v>740300</v>
       </c>
       <c r="E83" s="3">
-        <v>750400</v>
+        <v>751400</v>
       </c>
       <c r="F83" s="3">
-        <v>1497400</v>
+        <v>1499300</v>
       </c>
       <c r="G83" s="3">
-        <v>798000</v>
+        <v>799000</v>
       </c>
       <c r="H83" s="3">
-        <v>791400</v>
+        <v>792400</v>
       </c>
       <c r="I83" s="3">
-        <v>841100</v>
+        <v>842100</v>
       </c>
       <c r="J83" s="3">
-        <v>794400</v>
+        <v>795400</v>
       </c>
       <c r="K83" s="3">
         <v>764600</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1450400</v>
+        <v>1452200</v>
       </c>
       <c r="E89" s="3">
-        <v>1092400</v>
+        <v>1093800</v>
       </c>
       <c r="F89" s="3">
-        <v>1202100</v>
+        <v>1203700</v>
       </c>
       <c r="G89" s="3">
-        <v>1254400</v>
+        <v>1256000</v>
       </c>
       <c r="H89" s="3">
-        <v>1212300</v>
+        <v>1213900</v>
       </c>
       <c r="I89" s="3">
-        <v>1244700</v>
+        <v>1246300</v>
       </c>
       <c r="J89" s="3">
-        <v>1150700</v>
+        <v>1152100</v>
       </c>
       <c r="K89" s="3">
         <v>774300</v>
@@ -5726,25 +5726,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-458700</v>
+        <v>-459300</v>
       </c>
       <c r="E91" s="3">
-        <v>-518700</v>
+        <v>-519400</v>
       </c>
       <c r="F91" s="3">
-        <v>-632700</v>
+        <v>-633500</v>
       </c>
       <c r="G91" s="3">
-        <v>-540000</v>
+        <v>-540700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1529000</v>
+        <v>-1531000</v>
       </c>
       <c r="I91" s="3">
-        <v>570400</v>
+        <v>571200</v>
       </c>
       <c r="J91" s="3">
-        <v>-609600</v>
+        <v>-610400</v>
       </c>
       <c r="K91" s="3">
         <v>-8600</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-322000</v>
+        <v>-322400</v>
       </c>
       <c r="E94" s="3">
-        <v>-512300</v>
+        <v>-512900</v>
       </c>
       <c r="F94" s="3">
-        <v>-523500</v>
+        <v>-524200</v>
       </c>
       <c r="G94" s="3">
-        <v>270400</v>
+        <v>270800</v>
       </c>
       <c r="H94" s="3">
-        <v>-382600</v>
+        <v>-383100</v>
       </c>
       <c r="I94" s="3">
-        <v>-561700</v>
+        <v>-562400</v>
       </c>
       <c r="J94" s="3">
-        <v>-498400</v>
+        <v>-499100</v>
       </c>
       <c r="K94" s="3">
         <v>-1439700</v>
@@ -6027,19 +6027,19 @@
         <v>-28300</v>
       </c>
       <c r="E96" s="3">
-        <v>-748100</v>
+        <v>-749000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-667600</v>
+        <v>-668500</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-694600</v>
+        <v>-695500</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-769200</v>
+        <v>-770100</v>
       </c>
       <c r="E100" s="3">
-        <v>-857900</v>
+        <v>-859000</v>
       </c>
       <c r="F100" s="3">
-        <v>-367900</v>
+        <v>-368400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1150800</v>
+        <v>-1152200</v>
       </c>
       <c r="H100" s="3">
-        <v>-715600</v>
+        <v>-716500</v>
       </c>
       <c r="I100" s="3">
-        <v>-892500</v>
+        <v>-893600</v>
       </c>
       <c r="J100" s="3">
-        <v>-301800</v>
+        <v>-302200</v>
       </c>
       <c r="K100" s="3">
         <v>-1248800</v>
@@ -6367,22 +6367,22 @@
         <v>-45300</v>
       </c>
       <c r="E101" s="3">
-        <v>23700</v>
+        <v>23800</v>
       </c>
       <c r="F101" s="3">
-        <v>-28700</v>
+        <v>-28800</v>
       </c>
       <c r="G101" s="3">
         <v>-28000</v>
       </c>
       <c r="H101" s="3">
-        <v>-40500</v>
+        <v>-40600</v>
       </c>
       <c r="I101" s="3">
-        <v>-38700</v>
+        <v>-38800</v>
       </c>
       <c r="J101" s="3">
-        <v>153800</v>
+        <v>154000</v>
       </c>
       <c r="K101" s="3">
         <v>10400</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>313900</v>
+        <v>314300</v>
       </c>
       <c r="E102" s="3">
-        <v>-254100</v>
+        <v>-254400</v>
       </c>
       <c r="F102" s="3">
-        <v>281900</v>
+        <v>282300</v>
       </c>
       <c r="G102" s="3">
-        <v>346100</v>
+        <v>346500</v>
       </c>
       <c r="H102" s="3">
-        <v>73700</v>
+        <v>73800</v>
       </c>
       <c r="I102" s="3">
-        <v>-248100</v>
+        <v>-248400</v>
       </c>
       <c r="J102" s="3">
-        <v>504200</v>
+        <v>504800</v>
       </c>
       <c r="K102" s="3">
         <v>-1900700</v>

--- a/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>TELNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,333 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3045400</v>
+        <v>2736000</v>
       </c>
       <c r="E8" s="3">
-        <v>3017300</v>
+        <v>2852000</v>
       </c>
       <c r="F8" s="3">
-        <v>3057100</v>
+        <v>2776700</v>
       </c>
       <c r="G8" s="3">
-        <v>2663800</v>
+        <v>2751100</v>
       </c>
       <c r="H8" s="3">
-        <v>3333600</v>
+        <v>2787600</v>
       </c>
       <c r="I8" s="3">
+        <v>2428900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3039500</v>
+      </c>
+      <c r="K8" s="3">
         <v>3219500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3236500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3165100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3421100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3112400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3010000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2674300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2820000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2813600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2777400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2247000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3179900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>3280600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>3402600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>15461200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>3853000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>761300</v>
+        <v>726600</v>
       </c>
       <c r="E9" s="3">
-        <v>765800</v>
+        <v>822600</v>
       </c>
       <c r="F9" s="3">
-        <v>812100</v>
+        <v>694100</v>
       </c>
       <c r="G9" s="3">
-        <v>837000</v>
+        <v>698300</v>
       </c>
       <c r="H9" s="3">
-        <v>770800</v>
+        <v>740500</v>
       </c>
       <c r="I9" s="3">
+        <v>763200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>702800</v>
+      </c>
+      <c r="K9" s="3">
         <v>780300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>795900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>785200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>816200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>725100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>700800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>588400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>619800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>662700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>632900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>523300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>725500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>760900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1192600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>5577700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1329500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2284100</v>
+        <v>2009400</v>
       </c>
       <c r="E10" s="3">
-        <v>2251400</v>
+        <v>2029400</v>
       </c>
       <c r="F10" s="3">
-        <v>2245000</v>
+        <v>2082600</v>
       </c>
       <c r="G10" s="3">
-        <v>1826800</v>
+        <v>2052800</v>
       </c>
       <c r="H10" s="3">
-        <v>2562700</v>
+        <v>2047100</v>
       </c>
       <c r="I10" s="3">
+        <v>1665700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2336700</v>
+      </c>
+      <c r="K10" s="3">
         <v>2439200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2440500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2380000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2605000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2387300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2309300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2085900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2200200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2150900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2144500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1723800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2454400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>2519700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>2210000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>9883500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>2523500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,144 +1160,162 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>20400</v>
+        <v>18000</v>
       </c>
       <c r="E14" s="3">
-        <v>16200</v>
+        <v>100700</v>
       </c>
       <c r="F14" s="3">
-        <v>12300</v>
+        <v>18600</v>
       </c>
       <c r="G14" s="3">
-        <v>16400</v>
+        <v>14800</v>
       </c>
       <c r="H14" s="3">
-        <v>12000</v>
+        <v>11100</v>
       </c>
       <c r="I14" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K14" s="3">
         <v>147800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>37000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>37100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>5200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>26900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>20700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>268700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>25500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>26600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>18600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>59900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>55600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>718100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>-82400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>158900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>707900</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>735100</v>
+        <v>644300</v>
       </c>
       <c r="E15" s="3">
-        <v>713500</v>
+        <v>653300</v>
       </c>
       <c r="F15" s="3">
-        <v>708800</v>
+        <v>670300</v>
       </c>
       <c r="G15" s="3">
-        <v>492700</v>
+        <v>650500</v>
       </c>
       <c r="H15" s="3">
-        <v>792400</v>
+        <v>646300</v>
       </c>
       <c r="I15" s="3">
+        <v>449300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>722500</v>
+      </c>
+      <c r="K15" s="3">
         <v>761100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>722000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>756200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>757100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>666800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>637800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>462800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>553400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>529200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>547800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>457600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>556300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>570100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>581900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>2414600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2368500</v>
+        <v>2042300</v>
       </c>
       <c r="E17" s="3">
-        <v>2387200</v>
+        <v>2438100</v>
       </c>
       <c r="F17" s="3">
-        <v>2425500</v>
+        <v>2159600</v>
       </c>
       <c r="G17" s="3">
-        <v>1801400</v>
+        <v>2176600</v>
       </c>
       <c r="H17" s="3">
-        <v>2423500</v>
+        <v>2211800</v>
       </c>
       <c r="I17" s="3">
+        <v>1642500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2209800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2664400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2547000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2550200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2612300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2398400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2269400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2378100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2132300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2221000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2183200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1893900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2354800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3111300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2705400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>12375000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>3663500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>676800</v>
+        <v>693700</v>
       </c>
       <c r="E18" s="3">
-        <v>630000</v>
+        <v>413900</v>
       </c>
       <c r="F18" s="3">
-        <v>631600</v>
+        <v>617100</v>
       </c>
       <c r="G18" s="3">
-        <v>862500</v>
+        <v>574500</v>
       </c>
       <c r="H18" s="3">
-        <v>910000</v>
+        <v>575800</v>
       </c>
       <c r="I18" s="3">
+        <v>786400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>829700</v>
+      </c>
+      <c r="K18" s="3">
         <v>555100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>689500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>614900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>808800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>714000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>740600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>296200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>687700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>592500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>594300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>353200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>825100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>169300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>697100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>3086200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>189500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1513,380 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-105000</v>
+        <v>16800</v>
       </c>
       <c r="E20" s="3">
-        <v>-70400</v>
+        <v>-8000</v>
       </c>
       <c r="F20" s="3">
-        <v>23000</v>
+        <v>-95700</v>
       </c>
       <c r="G20" s="3">
-        <v>235400</v>
+        <v>-64200</v>
       </c>
       <c r="H20" s="3">
-        <v>54600</v>
+        <v>21100</v>
       </c>
       <c r="I20" s="3">
+        <v>214700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>49700</v>
+      </c>
+      <c r="K20" s="3">
         <v>120200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-404300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>85200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-202000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>7100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>62800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-258100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>9800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-124000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>233900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-45200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>211800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>102900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>100400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-323500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>90900</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1312100</v>
+        <v>1354800</v>
       </c>
       <c r="E21" s="3">
-        <v>1311000</v>
+        <v>1159800</v>
       </c>
       <c r="F21" s="3">
-        <v>2153900</v>
+        <v>1196400</v>
       </c>
       <c r="G21" s="3">
-        <v>1896900</v>
+        <v>1195300</v>
       </c>
       <c r="H21" s="3">
-        <v>1756900</v>
+        <v>1963900</v>
       </c>
       <c r="I21" s="3">
+        <v>1729600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1602000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1517400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1080600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1464700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1363200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1387700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1445100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>516500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1252700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1017600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1422600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1009200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1647600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>934400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1428400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>6219100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1416700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>73900</v>
+        <v>48300</v>
       </c>
       <c r="E22" s="3">
-        <v>72900</v>
+        <v>104500</v>
       </c>
       <c r="F22" s="3">
-        <v>71800</v>
+        <v>67400</v>
       </c>
       <c r="G22" s="3">
-        <v>119000</v>
+        <v>66500</v>
       </c>
       <c r="H22" s="3">
-        <v>117800</v>
+        <v>65400</v>
       </c>
       <c r="I22" s="3">
+        <v>108500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>107400</v>
+      </c>
+      <c r="K22" s="3">
         <v>85400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>89800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>173900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>135400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>117100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>100900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>104900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>45900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>46200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>30500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>105800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>54700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>72700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>72500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>382700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>498000</v>
+        <v>662200</v>
       </c>
       <c r="E23" s="3">
-        <v>486700</v>
+        <v>301400</v>
       </c>
       <c r="F23" s="3">
-        <v>582800</v>
+        <v>454000</v>
       </c>
       <c r="G23" s="3">
-        <v>978900</v>
+        <v>443800</v>
       </c>
       <c r="H23" s="3">
-        <v>846800</v>
+        <v>531400</v>
       </c>
       <c r="I23" s="3">
+        <v>892600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>772100</v>
+      </c>
+      <c r="K23" s="3">
         <v>589800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>195400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>526300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>471500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>603900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>702600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-66900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>651500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>422300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>797600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>202200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>982200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>199500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>725000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>2379900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>162700</v>
+        <v>-107300</v>
       </c>
       <c r="E24" s="3">
-        <v>163400</v>
+        <v>117000</v>
       </c>
       <c r="F24" s="3">
-        <v>183300</v>
+        <v>148300</v>
       </c>
       <c r="G24" s="3">
-        <v>170200</v>
+        <v>149000</v>
       </c>
       <c r="H24" s="3">
-        <v>238500</v>
+        <v>167100</v>
       </c>
       <c r="I24" s="3">
+        <v>155200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>217500</v>
+      </c>
+      <c r="K24" s="3">
         <v>221300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>69100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>147500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>483800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>216100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>203000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>55800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>205700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>125000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>235000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>77200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>272900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>186400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>197900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>730400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>335300</v>
+        <v>769500</v>
       </c>
       <c r="E26" s="3">
-        <v>323300</v>
+        <v>184400</v>
       </c>
       <c r="F26" s="3">
-        <v>399500</v>
+        <v>305700</v>
       </c>
       <c r="G26" s="3">
-        <v>808700</v>
+        <v>294800</v>
       </c>
       <c r="H26" s="3">
-        <v>608300</v>
+        <v>364300</v>
       </c>
       <c r="I26" s="3">
+        <v>737400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>554600</v>
+      </c>
+      <c r="K26" s="3">
         <v>368500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>126300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>378700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-12400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>387800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>499600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-122700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>445800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>297300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>562700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>124900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>709300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>13100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>527100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1649500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>246100</v>
+        <v>700500</v>
       </c>
       <c r="E27" s="3">
-        <v>234100</v>
+        <v>113400</v>
       </c>
       <c r="F27" s="3">
-        <v>315400</v>
+        <v>224400</v>
       </c>
       <c r="G27" s="3">
-        <v>717200</v>
+        <v>213400</v>
       </c>
       <c r="H27" s="3">
-        <v>505700</v>
+        <v>287500</v>
       </c>
       <c r="I27" s="3">
+        <v>653900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>461100</v>
+      </c>
+      <c r="K27" s="3">
         <v>266200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>9600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>277900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-113600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>302100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>397100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-160200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>370200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>208100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>484100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>46100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>623500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-79500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>441500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1282600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-93500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,76 +2175,88 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>47400</v>
+        <v>-34900</v>
       </c>
       <c r="E29" s="3">
-        <v>9000</v>
+        <v>-54000</v>
       </c>
       <c r="F29" s="3">
-        <v>-747500</v>
+        <v>43300</v>
       </c>
       <c r="G29" s="3">
-        <v>137100</v>
+        <v>8200</v>
       </c>
       <c r="H29" s="3">
-        <v>-2800</v>
+        <v>-681500</v>
       </c>
       <c r="I29" s="3">
+        <v>125000</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K29" s="3">
         <v>225600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>67900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-86600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>31900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>28000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>35400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>297100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>231400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>62500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>26600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>211500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>42800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>60200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>72400</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>-933600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>-501000</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2397,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>105000</v>
+        <v>-16800</v>
       </c>
       <c r="E32" s="3">
-        <v>70400</v>
+        <v>8000</v>
       </c>
       <c r="F32" s="3">
-        <v>-23000</v>
+        <v>95700</v>
       </c>
       <c r="G32" s="3">
-        <v>-235400</v>
+        <v>64200</v>
       </c>
       <c r="H32" s="3">
-        <v>-54600</v>
+        <v>-21100</v>
       </c>
       <c r="I32" s="3">
+        <v>-214700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-120200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>404300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-85200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>202000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-7100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-62800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>258100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>124000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-233900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>45200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-211800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-102900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-100400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>323500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>293500</v>
+        <v>665500</v>
       </c>
       <c r="E33" s="3">
-        <v>243100</v>
+        <v>59400</v>
       </c>
       <c r="F33" s="3">
-        <v>-432100</v>
+        <v>267600</v>
       </c>
       <c r="G33" s="3">
-        <v>854200</v>
+        <v>221600</v>
       </c>
       <c r="H33" s="3">
-        <v>502900</v>
+        <v>-394100</v>
       </c>
       <c r="I33" s="3">
+        <v>778900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>458600</v>
+      </c>
+      <c r="K33" s="3">
         <v>491800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>77400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>191400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-81700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>330100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>432600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>136900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>601600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>270600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>510700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>257600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>666400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-19300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>513900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>348900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>293500</v>
+        <v>665500</v>
       </c>
       <c r="E35" s="3">
-        <v>243100</v>
+        <v>59400</v>
       </c>
       <c r="F35" s="3">
-        <v>-432100</v>
+        <v>267600</v>
       </c>
       <c r="G35" s="3">
-        <v>854200</v>
+        <v>221600</v>
       </c>
       <c r="H35" s="3">
-        <v>502900</v>
+        <v>-394100</v>
       </c>
       <c r="I35" s="3">
+        <v>778900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>458600</v>
+      </c>
+      <c r="K35" s="3">
         <v>491800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>77400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>191400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-81700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>330100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>432600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>136900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>601600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>270600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>510700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>257600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>666400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-19300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>513900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>348900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2832,676 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2443900</v>
+        <v>2106800</v>
       </c>
       <c r="E41" s="3">
-        <v>2192300</v>
+        <v>1542100</v>
       </c>
       <c r="F41" s="3">
-        <v>2531400</v>
+        <v>2228300</v>
       </c>
       <c r="G41" s="3">
-        <v>2286100</v>
+        <v>1999000</v>
       </c>
       <c r="H41" s="3">
-        <v>1942400</v>
+        <v>2308100</v>
       </c>
       <c r="I41" s="3">
+        <v>2084500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1771000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1855300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2006900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1534800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3841300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4899600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1569900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2086300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3345800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1900500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2144100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2610600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3448500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2389300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>3222400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2846400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>3399800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>112700</v>
+        <v>66300</v>
       </c>
       <c r="E42" s="3">
-        <v>84500</v>
+        <v>85000</v>
       </c>
       <c r="F42" s="3">
-        <v>64200</v>
+        <v>102700</v>
       </c>
       <c r="G42" s="3">
-        <v>64000</v>
+        <v>77100</v>
       </c>
       <c r="H42" s="3">
-        <v>59800</v>
+        <v>58600</v>
       </c>
       <c r="I42" s="3">
+        <v>58300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>54500</v>
+      </c>
+      <c r="K42" s="3">
         <v>65400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>93700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>100700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>80600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>97200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>103000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>76500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>93200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>83200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>69000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>187800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>189300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>192000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>297900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>306900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>261000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2581700</v>
+        <v>2163200</v>
       </c>
       <c r="E43" s="3">
-        <v>2619300</v>
+        <v>2202200</v>
       </c>
       <c r="F43" s="3">
-        <v>2619300</v>
+        <v>2354000</v>
       </c>
       <c r="G43" s="3">
-        <v>2928500</v>
+        <v>2388200</v>
       </c>
       <c r="H43" s="3">
-        <v>2908700</v>
+        <v>2388200</v>
       </c>
       <c r="I43" s="3">
+        <v>2670200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2652100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2945000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3052900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3000200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3410000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2509600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3068800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2537200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2310300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2155700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2118400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2990300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2713200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2991200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>3085500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>3158100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>2854000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>125200</v>
+        <v>158200</v>
       </c>
       <c r="E44" s="3">
-        <v>143800</v>
+        <v>158300</v>
       </c>
       <c r="F44" s="3">
-        <v>176600</v>
+        <v>114200</v>
       </c>
       <c r="G44" s="3">
-        <v>145900</v>
+        <v>131100</v>
       </c>
       <c r="H44" s="3">
-        <v>139400</v>
+        <v>161100</v>
       </c>
       <c r="I44" s="3">
+        <v>133000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>127100</v>
+      </c>
+      <c r="K44" s="3">
         <v>142500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>172600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>164400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>163400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>133400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>168100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>192100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>101800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>115000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>149800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>205300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>174100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>200000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>210800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>222200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>175900</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>505900</v>
+        <v>150400</v>
       </c>
       <c r="E45" s="3">
-        <v>456400</v>
+        <v>453700</v>
       </c>
       <c r="F45" s="3">
-        <v>169900</v>
+        <v>461300</v>
       </c>
       <c r="G45" s="3">
-        <v>137800</v>
+        <v>416100</v>
       </c>
       <c r="H45" s="3">
         <v>154900</v>
       </c>
       <c r="I45" s="3">
+        <v>125600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>141200</v>
+      </c>
+      <c r="K45" s="3">
         <v>187400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>599400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>386200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>395000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>101800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>439600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2973600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>3045100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>197100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>178000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>117900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>438000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5769400</v>
+        <v>4644900</v>
       </c>
       <c r="E46" s="3">
-        <v>5496300</v>
+        <v>4441300</v>
       </c>
       <c r="F46" s="3">
-        <v>5561400</v>
+        <v>5260500</v>
       </c>
       <c r="G46" s="3">
-        <v>5562200</v>
+        <v>5011500</v>
       </c>
       <c r="H46" s="3">
-        <v>5205100</v>
+        <v>5070900</v>
       </c>
       <c r="I46" s="3">
+        <v>5071600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4746000</v>
+      </c>
+      <c r="K46" s="3">
         <v>5195700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5925500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5186200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7495400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>7639800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5304800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4993900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>6290700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>7227900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>7526400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>6191100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>6703100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>5890400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>7254600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>6533800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>6691100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>645700</v>
+        <v>568300</v>
       </c>
       <c r="E47" s="3">
-        <v>668800</v>
+        <v>575700</v>
       </c>
       <c r="F47" s="3">
-        <v>694700</v>
+        <v>588800</v>
       </c>
       <c r="G47" s="3">
-        <v>712900</v>
+        <v>609800</v>
       </c>
       <c r="H47" s="3">
-        <v>905900</v>
+        <v>633400</v>
       </c>
       <c r="I47" s="3">
+        <v>650000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>826000</v>
+      </c>
+      <c r="K47" s="3">
         <v>847800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>543800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>475800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>272000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>253700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>486700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>268700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>52000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>53500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>53300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>55600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>51200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>51200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>1738500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>1944800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13746400</v>
+        <v>12419900</v>
       </c>
       <c r="E48" s="3">
-        <v>14055500</v>
+        <v>12594800</v>
       </c>
       <c r="F48" s="3">
-        <v>14152900</v>
+        <v>12533800</v>
       </c>
       <c r="G48" s="3">
-        <v>15796200</v>
+        <v>12815700</v>
       </c>
       <c r="H48" s="3">
-        <v>16140300</v>
+        <v>12904500</v>
       </c>
       <c r="I48" s="3">
+        <v>14402800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>14716600</v>
+      </c>
+      <c r="K48" s="3">
         <v>16542600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>17296600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>15778500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>16995100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>14544500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>16139200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>8276600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>7060600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>7104000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>6984200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>8748700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>8271800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>8497000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>9027500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>8879600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>8405100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4240200</v>
+        <v>3654800</v>
       </c>
       <c r="E49" s="3">
-        <v>4271400</v>
+        <v>3813200</v>
       </c>
       <c r="F49" s="3">
-        <v>4230500</v>
+        <v>3866200</v>
       </c>
       <c r="G49" s="3">
-        <v>4462800</v>
+        <v>3894600</v>
       </c>
       <c r="H49" s="3">
-        <v>4647200</v>
+        <v>3857300</v>
       </c>
       <c r="I49" s="3">
+        <v>4069100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4237300</v>
+      </c>
+      <c r="K49" s="3">
         <v>4643000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4839800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4296700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5123000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2361900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4394900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5728300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3698000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>3864400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>4002500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>6605500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>6627500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>6847600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>6962500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>7099100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>7250400</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3642,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1556200</v>
+        <v>1670700</v>
       </c>
       <c r="E52" s="3">
-        <v>1720200</v>
+        <v>1442400</v>
       </c>
       <c r="F52" s="3">
-        <v>1785500</v>
+        <v>1418900</v>
       </c>
       <c r="G52" s="3">
-        <v>1966200</v>
+        <v>1568400</v>
       </c>
       <c r="H52" s="3">
-        <v>2058600</v>
+        <v>1628000</v>
       </c>
       <c r="I52" s="3">
+        <v>1792800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1877000</v>
+      </c>
+      <c r="K52" s="3">
         <v>2144700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2457300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1810800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2484200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2288400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1852300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2311800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1982900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1485500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1533000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1761500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1790700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>2147400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>850000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>981800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>874400</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25958000</v>
+        <v>22958600</v>
       </c>
       <c r="E54" s="3">
-        <v>26212200</v>
+        <v>22867500</v>
       </c>
       <c r="F54" s="3">
-        <v>26425000</v>
+        <v>23668200</v>
       </c>
       <c r="G54" s="3">
-        <v>28500400</v>
+        <v>23900000</v>
       </c>
       <c r="H54" s="3">
-        <v>28957100</v>
+        <v>24094100</v>
       </c>
       <c r="I54" s="3">
+        <v>25986400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>26402800</v>
+      </c>
+      <c r="K54" s="3">
         <v>29373700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>31063100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>27548100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>32369600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>27088300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>28177900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>21579300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>19084400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>19735400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>20099400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>23362400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>23444200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>23433600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>25833200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>25439100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>24911800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3924,454 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3412100</v>
+        <v>3126000</v>
       </c>
       <c r="E57" s="3">
-        <v>3339600</v>
+        <v>3274000</v>
       </c>
       <c r="F57" s="3">
-        <v>3529000</v>
+        <v>3111100</v>
       </c>
       <c r="G57" s="3">
-        <v>3765300</v>
+        <v>3045000</v>
       </c>
       <c r="H57" s="3">
-        <v>3668400</v>
+        <v>3217700</v>
       </c>
       <c r="I57" s="3">
+        <v>3433200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3344800</v>
+      </c>
+      <c r="K57" s="3">
         <v>3834100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4089800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3950300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4383300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3795600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4040600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4256500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3576100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3484800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3486000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4665800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4258800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>4539200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>4887000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>5288300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>4924500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2015900</v>
+        <v>1587300</v>
       </c>
       <c r="E58" s="3">
-        <v>2458800</v>
+        <v>1646400</v>
       </c>
       <c r="F58" s="3">
-        <v>1729800</v>
+        <v>1838100</v>
       </c>
       <c r="G58" s="3">
-        <v>1843600</v>
+        <v>2241900</v>
       </c>
       <c r="H58" s="3">
-        <v>2065300</v>
+        <v>1577200</v>
       </c>
       <c r="I58" s="3">
+        <v>1681000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1883200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2466100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2069500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2662500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4165700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3453100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2723400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1775800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1588700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2615700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2051000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2629600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>2984700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>3083000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>4001300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>3202100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>3174000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2093300</v>
+        <v>1210100</v>
       </c>
       <c r="E59" s="3">
-        <v>2085300</v>
+        <v>1377100</v>
       </c>
       <c r="F59" s="3">
-        <v>1189300</v>
+        <v>1908700</v>
       </c>
       <c r="G59" s="3">
-        <v>1116700</v>
+        <v>1901400</v>
       </c>
       <c r="H59" s="3">
-        <v>1797900</v>
+        <v>1084400</v>
       </c>
       <c r="I59" s="3">
+        <v>1018200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1639300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1928100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1480500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1470400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2325000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2159400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1504100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1578100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2654800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2280400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1900000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1583800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2214000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2207700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1558500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1079900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1033600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7521400</v>
+        <v>5923400</v>
       </c>
       <c r="E60" s="3">
-        <v>7883700</v>
+        <v>6297500</v>
       </c>
       <c r="F60" s="3">
-        <v>6448100</v>
+        <v>6857900</v>
       </c>
       <c r="G60" s="3">
-        <v>6725500</v>
+        <v>7188200</v>
       </c>
       <c r="H60" s="3">
-        <v>7531700</v>
+        <v>5879400</v>
       </c>
       <c r="I60" s="3">
+        <v>6132300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>6867300</v>
+      </c>
+      <c r="K60" s="3">
         <v>8228300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7639800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8083200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>10873900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9408000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8268000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7610400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7819600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>8380900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>7437000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>8879100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>9457500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>9829900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>10446800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>9570300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>9132100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13168300</v>
+        <v>11462400</v>
       </c>
       <c r="E61" s="3">
-        <v>13294300</v>
+        <v>11741900</v>
       </c>
       <c r="F61" s="3">
-        <v>13721100</v>
+        <v>12006800</v>
       </c>
       <c r="G61" s="3">
-        <v>14910800</v>
+        <v>12121700</v>
       </c>
       <c r="H61" s="3">
-        <v>15231900</v>
+        <v>12510800</v>
       </c>
       <c r="I61" s="3">
+        <v>13595600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>13888300</v>
+      </c>
+      <c r="K61" s="3">
         <v>15270500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>15872400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>12837700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>14534900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>11137800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>13131100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>6309600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4548900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4739300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>4852400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5973300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>5762600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>5949300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>6540000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>7446200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>7214000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1829000</v>
+        <v>1581800</v>
       </c>
       <c r="E62" s="3">
-        <v>1845900</v>
+        <v>1637100</v>
       </c>
       <c r="F62" s="3">
-        <v>1869100</v>
+        <v>1667700</v>
       </c>
       <c r="G62" s="3">
-        <v>1984700</v>
+        <v>1683100</v>
       </c>
       <c r="H62" s="3">
-        <v>1963700</v>
+        <v>1704300</v>
       </c>
       <c r="I62" s="3">
+        <v>1809600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1790500</v>
+      </c>
+      <c r="K62" s="3">
         <v>2093100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2227800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1830500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1962200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1408000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1872300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1515700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1260900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1244500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1065200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1292200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1284700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1223900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1479700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1592300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1503800</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23049500</v>
+        <v>19524100</v>
       </c>
       <c r="E66" s="3">
-        <v>23584900</v>
+        <v>20203900</v>
       </c>
       <c r="F66" s="3">
-        <v>22640400</v>
+        <v>21016300</v>
       </c>
       <c r="G66" s="3">
-        <v>24242600</v>
+        <v>21504500</v>
       </c>
       <c r="H66" s="3">
-        <v>25343800</v>
+        <v>20643300</v>
       </c>
       <c r="I66" s="3">
+        <v>22104200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>23108300</v>
+      </c>
+      <c r="K66" s="3">
         <v>26282800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>26436000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>23336400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>27950500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>22521100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>23869900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>16000800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>14120200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>14910200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>13911100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>16704900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>17006400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>17551000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>19074800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>19165800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>18363900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2458500</v>
+        <v>3041000</v>
       </c>
       <c r="E72" s="3">
-        <v>2134200</v>
+        <v>2274300</v>
       </c>
       <c r="F72" s="3">
-        <v>3303300</v>
+        <v>2241700</v>
       </c>
       <c r="G72" s="3">
-        <v>3670200</v>
+        <v>1946000</v>
       </c>
       <c r="H72" s="3">
-        <v>2759600</v>
+        <v>3012000</v>
       </c>
       <c r="I72" s="3">
+        <v>3346400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2516200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2252700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>3551600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>3562800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>3647400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3964700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>5195400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>4828000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>4471800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>4521900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>5777800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>6005900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>5929300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>5278900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>5612000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>5136300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>5466800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2908500</v>
+        <v>3434600</v>
       </c>
       <c r="E76" s="3">
-        <v>2627300</v>
+        <v>2663600</v>
       </c>
       <c r="F76" s="3">
-        <v>3784600</v>
+        <v>2651900</v>
       </c>
       <c r="G76" s="3">
-        <v>4257800</v>
+        <v>2395500</v>
       </c>
       <c r="H76" s="3">
-        <v>3613300</v>
+        <v>3450800</v>
       </c>
       <c r="I76" s="3">
+        <v>3882200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3294600</v>
+      </c>
+      <c r="K76" s="3">
         <v>3090900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4627100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4211700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4419100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4567200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4308000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5578500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4964200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4825200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>6188300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>6657500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>6437800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>5882600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>6758400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>6273400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>6547800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>293500</v>
+        <v>665500</v>
       </c>
       <c r="E81" s="3">
-        <v>243100</v>
+        <v>59400</v>
       </c>
       <c r="F81" s="3">
-        <v>-432100</v>
+        <v>267600</v>
       </c>
       <c r="G81" s="3">
-        <v>854200</v>
+        <v>221600</v>
       </c>
       <c r="H81" s="3">
-        <v>502900</v>
+        <v>-394100</v>
       </c>
       <c r="I81" s="3">
+        <v>778900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>458600</v>
+      </c>
+      <c r="K81" s="3">
         <v>491800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>77400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>191400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-81700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>330100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>432600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>136900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>601600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>270600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>510700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>257600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>666400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-19300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>513900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>348900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5613,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>740300</v>
+        <v>644300</v>
       </c>
       <c r="E83" s="3">
-        <v>751400</v>
+        <v>753900</v>
       </c>
       <c r="F83" s="3">
-        <v>1499300</v>
+        <v>675000</v>
       </c>
       <c r="G83" s="3">
-        <v>799000</v>
+        <v>685100</v>
       </c>
       <c r="H83" s="3">
-        <v>792400</v>
+        <v>1367000</v>
       </c>
       <c r="I83" s="3">
+        <v>728500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>722500</v>
+      </c>
+      <c r="K83" s="3">
         <v>842100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>795400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>764600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>756300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>666600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>641700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>437000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>571000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>567700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>597600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>701200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>610700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>662200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>630900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>3456500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>1136300</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1452200</v>
+        <v>953600</v>
       </c>
       <c r="E89" s="3">
-        <v>1093800</v>
+        <v>863400</v>
       </c>
       <c r="F89" s="3">
-        <v>1203700</v>
+        <v>1324100</v>
       </c>
       <c r="G89" s="3">
-        <v>1256000</v>
+        <v>997300</v>
       </c>
       <c r="H89" s="3">
-        <v>1213900</v>
+        <v>1097500</v>
       </c>
       <c r="I89" s="3">
+        <v>1145200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1106800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1246300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1152100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>774300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1405400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>703500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1071600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>926100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1107200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>895600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>880500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1064600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1399400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1343300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1129900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>4904600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>1293700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6159,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-459300</v>
+        <v>-454900</v>
       </c>
       <c r="E91" s="3">
-        <v>-519400</v>
+        <v>-500000</v>
       </c>
       <c r="F91" s="3">
-        <v>-633500</v>
+        <v>-418800</v>
       </c>
       <c r="G91" s="3">
-        <v>-540700</v>
+        <v>-473600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1531000</v>
+        <v>-577600</v>
       </c>
       <c r="I91" s="3">
+        <v>-493000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1395900</v>
+      </c>
+      <c r="K91" s="3">
         <v>571200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-610400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-8600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>32500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-101800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-827500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1315200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>484600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-568500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-523100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-449500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-530800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-1393000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-2925500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-500200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6377,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-322400</v>
+        <v>-312600</v>
       </c>
       <c r="E94" s="3">
-        <v>-512900</v>
+        <v>-505600</v>
       </c>
       <c r="F94" s="3">
-        <v>-524200</v>
+        <v>-294000</v>
       </c>
       <c r="G94" s="3">
-        <v>270800</v>
+        <v>-467700</v>
       </c>
       <c r="H94" s="3">
-        <v>-383100</v>
+        <v>-477900</v>
       </c>
       <c r="I94" s="3">
+        <v>246900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-349300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-562400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-499100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1439700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2515000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-535700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-564800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-906400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>1771500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-448800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-563600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-511600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-41700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>50900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-662400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-2602200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6483,84 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-28300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-749000</v>
+        <v>-567100</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-25800</v>
       </c>
       <c r="G96" s="3">
-        <v>-668500</v>
+        <v>-683000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>-609500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-695500</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-631400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-741900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1368800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-639200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-606500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-747500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-30800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-1386600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-32100</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6775,232 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-770100</v>
+        <v>-272900</v>
       </c>
       <c r="E100" s="3">
-        <v>-859000</v>
+        <v>-1005200</v>
       </c>
       <c r="F100" s="3">
-        <v>-368400</v>
+        <v>-702200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1152200</v>
+        <v>-783300</v>
       </c>
       <c r="H100" s="3">
-        <v>-716500</v>
+        <v>-335900</v>
       </c>
       <c r="I100" s="3">
+        <v>-1050600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-653300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-893600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-302200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1248800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-253200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1835400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>209000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1683300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1548700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-652600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-311900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1372300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-107900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1948200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-15300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-1114300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>503100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-45300</v>
+        <v>-14300</v>
       </c>
       <c r="E101" s="3">
-        <v>23800</v>
+        <v>21100</v>
       </c>
       <c r="F101" s="3">
-        <v>-28800</v>
+        <v>-41300</v>
       </c>
       <c r="G101" s="3">
-        <v>-28000</v>
+        <v>21700</v>
       </c>
       <c r="H101" s="3">
-        <v>-40600</v>
+        <v>-26200</v>
       </c>
       <c r="I101" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-38800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>154000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>10400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>93000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-22000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-4100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>10700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-5900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-29500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>72600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-60200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>15500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>26300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-55000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-70700</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>314300</v>
+        <v>353800</v>
       </c>
       <c r="E102" s="3">
-        <v>-254400</v>
+        <v>-626300</v>
       </c>
       <c r="F102" s="3">
-        <v>282300</v>
+        <v>286600</v>
       </c>
       <c r="G102" s="3">
-        <v>346500</v>
+        <v>-232000</v>
       </c>
       <c r="H102" s="3">
-        <v>73800</v>
+        <v>257400</v>
       </c>
       <c r="I102" s="3">
+        <v>316000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-248400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>504800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1900700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1268800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1989000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>700100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1652800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1326600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-211700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-24400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-864300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1083000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-642900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>373700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1133100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>1819800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>TELNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2736000</v>
+        <v>2904000</v>
       </c>
       <c r="E8" s="3">
-        <v>2852000</v>
+        <v>2797600</v>
       </c>
       <c r="F8" s="3">
-        <v>2776700</v>
+        <v>2916200</v>
       </c>
       <c r="G8" s="3">
-        <v>2751100</v>
+        <v>2839200</v>
       </c>
       <c r="H8" s="3">
-        <v>2787600</v>
+        <v>2813000</v>
       </c>
       <c r="I8" s="3">
-        <v>2428900</v>
+        <v>2850300</v>
       </c>
       <c r="J8" s="3">
+        <v>2483500</v>
+      </c>
+      <c r="K8" s="3">
         <v>3039500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3219500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3236500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3165100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3421100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3112400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3010000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2674300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2820000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2813600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2777400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2247000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3179900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3280600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3402600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>15461200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3853000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>726600</v>
+        <v>760800</v>
       </c>
       <c r="E9" s="3">
-        <v>822600</v>
+        <v>743000</v>
       </c>
       <c r="F9" s="3">
-        <v>694100</v>
+        <v>841100</v>
       </c>
       <c r="G9" s="3">
-        <v>698300</v>
+        <v>709700</v>
       </c>
       <c r="H9" s="3">
-        <v>740500</v>
+        <v>714000</v>
       </c>
       <c r="I9" s="3">
-        <v>763200</v>
+        <v>757200</v>
       </c>
       <c r="J9" s="3">
+        <v>780400</v>
+      </c>
+      <c r="K9" s="3">
         <v>702800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>780300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>795900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>785200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>816200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>725100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>700800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>588400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>619800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>662700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>632900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>523300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>725500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>760900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1192600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5577700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1329500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2009400</v>
+        <v>2143200</v>
       </c>
       <c r="E10" s="3">
-        <v>2029400</v>
+        <v>2054600</v>
       </c>
       <c r="F10" s="3">
-        <v>2082600</v>
+        <v>2075100</v>
       </c>
       <c r="G10" s="3">
-        <v>2052800</v>
+        <v>2129500</v>
       </c>
       <c r="H10" s="3">
-        <v>2047100</v>
+        <v>2099000</v>
       </c>
       <c r="I10" s="3">
-        <v>1665700</v>
+        <v>2093100</v>
       </c>
       <c r="J10" s="3">
+        <v>1703200</v>
+      </c>
+      <c r="K10" s="3">
         <v>2336700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2439200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2440500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2380000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2605000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2387300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2309300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2085900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2200200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2150900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2144500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1723800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2454400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2519700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2210000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>9883500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2523500</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,156 +1183,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>18000</v>
+        <v>283700</v>
       </c>
       <c r="E14" s="3">
-        <v>100700</v>
+        <v>18400</v>
       </c>
       <c r="F14" s="3">
+        <v>103000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>19100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>15100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>11400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K14" s="3">
+        <v>10900</v>
+      </c>
+      <c r="L14" s="3">
+        <v>147800</v>
+      </c>
+      <c r="M14" s="3">
+        <v>37000</v>
+      </c>
+      <c r="N14" s="3">
+        <v>37100</v>
+      </c>
+      <c r="O14" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P14" s="3">
+        <v>26900</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>20700</v>
+      </c>
+      <c r="R14" s="3">
+        <v>268700</v>
+      </c>
+      <c r="S14" s="3">
+        <v>25500</v>
+      </c>
+      <c r="T14" s="3">
+        <v>26600</v>
+      </c>
+      <c r="U14" s="3">
         <v>18600</v>
       </c>
-      <c r="G14" s="3">
-        <v>14800</v>
-      </c>
-      <c r="H14" s="3">
-        <v>11100</v>
-      </c>
-      <c r="I14" s="3">
-        <v>15000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>10900</v>
-      </c>
-      <c r="K14" s="3">
-        <v>147800</v>
-      </c>
-      <c r="L14" s="3">
-        <v>37000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>37100</v>
-      </c>
-      <c r="N14" s="3">
-        <v>5200</v>
-      </c>
-      <c r="O14" s="3">
-        <v>26900</v>
-      </c>
-      <c r="P14" s="3">
-        <v>20700</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>268700</v>
-      </c>
-      <c r="R14" s="3">
-        <v>25500</v>
-      </c>
-      <c r="S14" s="3">
-        <v>26600</v>
-      </c>
-      <c r="T14" s="3">
-        <v>18600</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>59900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>55600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>718100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-82400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>158900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>707900</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>644300</v>
+        <v>679200</v>
       </c>
       <c r="E15" s="3">
-        <v>653300</v>
+        <v>658800</v>
       </c>
       <c r="F15" s="3">
-        <v>670300</v>
+        <v>668000</v>
       </c>
       <c r="G15" s="3">
-        <v>650500</v>
+        <v>685400</v>
       </c>
       <c r="H15" s="3">
-        <v>646300</v>
+        <v>665200</v>
       </c>
       <c r="I15" s="3">
-        <v>449300</v>
+        <v>660800</v>
       </c>
       <c r="J15" s="3">
+        <v>459400</v>
+      </c>
+      <c r="K15" s="3">
         <v>722500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>761100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>722000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>756200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>757100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>666800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>637800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>462800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>553400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>529200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>547800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>457600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>556300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>570100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>581900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>2414600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2042300</v>
+        <v>2586200</v>
       </c>
       <c r="E17" s="3">
-        <v>2438100</v>
+        <v>2088300</v>
       </c>
       <c r="F17" s="3">
-        <v>2159600</v>
+        <v>2493000</v>
       </c>
       <c r="G17" s="3">
-        <v>2176600</v>
+        <v>2208200</v>
       </c>
       <c r="H17" s="3">
-        <v>2211800</v>
+        <v>2225600</v>
       </c>
       <c r="I17" s="3">
-        <v>1642500</v>
+        <v>2261600</v>
       </c>
       <c r="J17" s="3">
+        <v>1679400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2209800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2664400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2547000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2550200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2612300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2398400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2269400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2378100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2132300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2221000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2183200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1893900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2354800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3111300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2705400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>12375000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3663500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>693700</v>
+        <v>317800</v>
       </c>
       <c r="E18" s="3">
-        <v>413900</v>
+        <v>709300</v>
       </c>
       <c r="F18" s="3">
-        <v>617100</v>
+        <v>423200</v>
       </c>
       <c r="G18" s="3">
-        <v>574500</v>
+        <v>631000</v>
       </c>
       <c r="H18" s="3">
-        <v>575800</v>
+        <v>587400</v>
       </c>
       <c r="I18" s="3">
-        <v>786400</v>
+        <v>588700</v>
       </c>
       <c r="J18" s="3">
+        <v>804100</v>
+      </c>
+      <c r="K18" s="3">
         <v>829700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>555100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>689500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>614900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>808800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>714000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>740600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>296200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>687700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>592500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>594300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>353200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>825100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>169300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>697100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3086200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>189500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16800</v>
+        <v>-230700</v>
       </c>
       <c r="E20" s="3">
-        <v>-8000</v>
+        <v>17200</v>
       </c>
       <c r="F20" s="3">
-        <v>-95700</v>
+        <v>-8200</v>
       </c>
       <c r="G20" s="3">
-        <v>-64200</v>
+        <v>-97900</v>
       </c>
       <c r="H20" s="3">
-        <v>21100</v>
+        <v>-65700</v>
       </c>
       <c r="I20" s="3">
-        <v>214700</v>
+        <v>21500</v>
       </c>
       <c r="J20" s="3">
+        <v>219500</v>
+      </c>
+      <c r="K20" s="3">
         <v>49700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>120200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-404300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>85200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-202000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>62800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-258100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-124000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>233900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-45200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>211800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>102900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-323500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>90900</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1354800</v>
+        <v>1025200</v>
       </c>
       <c r="E21" s="3">
-        <v>1159800</v>
+        <v>1385300</v>
       </c>
       <c r="F21" s="3">
-        <v>1196400</v>
+        <v>1185900</v>
       </c>
       <c r="G21" s="3">
-        <v>1195300</v>
+        <v>1223300</v>
       </c>
       <c r="H21" s="3">
-        <v>1963900</v>
+        <v>1222200</v>
       </c>
       <c r="I21" s="3">
-        <v>1729600</v>
+        <v>2008100</v>
       </c>
       <c r="J21" s="3">
+        <v>1768500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1602000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1517400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1080600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1464700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1363200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1387700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1445100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>516500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1252700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1017600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1422600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1009200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1647600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>934400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1428400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>6219100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1416700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>48300</v>
+        <v>64100</v>
       </c>
       <c r="E22" s="3">
-        <v>104500</v>
+        <v>49400</v>
       </c>
       <c r="F22" s="3">
-        <v>67400</v>
+        <v>106900</v>
       </c>
       <c r="G22" s="3">
-        <v>66500</v>
+        <v>68900</v>
       </c>
       <c r="H22" s="3">
-        <v>65400</v>
+        <v>67900</v>
       </c>
       <c r="I22" s="3">
-        <v>108500</v>
+        <v>66900</v>
       </c>
       <c r="J22" s="3">
+        <v>110900</v>
+      </c>
+      <c r="K22" s="3">
         <v>107400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>85400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>89800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>173900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>135400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>117100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>104900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>45900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>46200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>30500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>105800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>54700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>72700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>72500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>382700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>662200</v>
+        <v>23000</v>
       </c>
       <c r="E23" s="3">
-        <v>301400</v>
+        <v>677100</v>
       </c>
       <c r="F23" s="3">
-        <v>454000</v>
+        <v>308200</v>
       </c>
       <c r="G23" s="3">
-        <v>443800</v>
+        <v>464200</v>
       </c>
       <c r="H23" s="3">
-        <v>531400</v>
+        <v>453800</v>
       </c>
       <c r="I23" s="3">
-        <v>892600</v>
+        <v>543400</v>
       </c>
       <c r="J23" s="3">
+        <v>912600</v>
+      </c>
+      <c r="K23" s="3">
         <v>772100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>589800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>195400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>526300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>471500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>603900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>702600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-66900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>651500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>422300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>797600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>202200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>982200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>199500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>725000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2379900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-107300</v>
+        <v>-39700</v>
       </c>
       <c r="E24" s="3">
-        <v>117000</v>
+        <v>-109700</v>
       </c>
       <c r="F24" s="3">
-        <v>148300</v>
+        <v>119600</v>
       </c>
       <c r="G24" s="3">
-        <v>149000</v>
+        <v>151600</v>
       </c>
       <c r="H24" s="3">
-        <v>167100</v>
+        <v>152400</v>
       </c>
       <c r="I24" s="3">
-        <v>155200</v>
+        <v>170900</v>
       </c>
       <c r="J24" s="3">
+        <v>158700</v>
+      </c>
+      <c r="K24" s="3">
         <v>217500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>221300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>69100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>147500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>483800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>216100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>203000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>55800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>205700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>125000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>235000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>77200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>272900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>186400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>197900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>730400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>769500</v>
+        <v>62700</v>
       </c>
       <c r="E26" s="3">
-        <v>184400</v>
+        <v>786800</v>
       </c>
       <c r="F26" s="3">
-        <v>305700</v>
+        <v>188500</v>
       </c>
       <c r="G26" s="3">
-        <v>294800</v>
+        <v>312600</v>
       </c>
       <c r="H26" s="3">
-        <v>364300</v>
+        <v>301400</v>
       </c>
       <c r="I26" s="3">
-        <v>737400</v>
+        <v>372500</v>
       </c>
       <c r="J26" s="3">
+        <v>754000</v>
+      </c>
+      <c r="K26" s="3">
         <v>554600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>368500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>126300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>378700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>387800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>499600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-122700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>445800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>297300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>562700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>124900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>709300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>13100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>527100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1649500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>700500</v>
+        <v>-17600</v>
       </c>
       <c r="E27" s="3">
-        <v>113400</v>
+        <v>716300</v>
       </c>
       <c r="F27" s="3">
-        <v>224400</v>
+        <v>115900</v>
       </c>
       <c r="G27" s="3">
-        <v>213400</v>
+        <v>229400</v>
       </c>
       <c r="H27" s="3">
-        <v>287500</v>
+        <v>218200</v>
       </c>
       <c r="I27" s="3">
-        <v>653900</v>
+        <v>294000</v>
       </c>
       <c r="J27" s="3">
+        <v>668600</v>
+      </c>
+      <c r="K27" s="3">
         <v>461100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>266200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>277900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-113600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>302100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>397100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-160200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>370200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>208100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>484100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>46100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>623500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-79500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>441500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1282600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-93500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,82 +2239,88 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-34900</v>
+        <v>-97700</v>
       </c>
       <c r="E29" s="3">
-        <v>-54000</v>
+        <v>-35700</v>
       </c>
       <c r="F29" s="3">
-        <v>43300</v>
+        <v>-55200</v>
       </c>
       <c r="G29" s="3">
-        <v>8200</v>
+        <v>44200</v>
       </c>
       <c r="H29" s="3">
-        <v>-681500</v>
+        <v>8400</v>
       </c>
       <c r="I29" s="3">
-        <v>125000</v>
+        <v>-696900</v>
       </c>
       <c r="J29" s="3">
+        <v>127800</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>225600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>67900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-86600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>31900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>28000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>35400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>297100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>231400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>62500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>26600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>211500</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>42800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>60200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>72400</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-933600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-501000</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16800</v>
+        <v>230700</v>
       </c>
       <c r="E32" s="3">
-        <v>8000</v>
+        <v>-17200</v>
       </c>
       <c r="F32" s="3">
-        <v>95700</v>
+        <v>8200</v>
       </c>
       <c r="G32" s="3">
-        <v>64200</v>
+        <v>97900</v>
       </c>
       <c r="H32" s="3">
-        <v>-21100</v>
+        <v>65700</v>
       </c>
       <c r="I32" s="3">
-        <v>-214700</v>
+        <v>-21500</v>
       </c>
       <c r="J32" s="3">
+        <v>-219500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-49700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-120200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>404300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-85200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>202000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-62800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>258100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>124000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-233900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>45200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-211800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-102900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>323500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>665500</v>
+        <v>-115300</v>
       </c>
       <c r="E33" s="3">
-        <v>59400</v>
+        <v>680500</v>
       </c>
       <c r="F33" s="3">
-        <v>267600</v>
+        <v>60700</v>
       </c>
       <c r="G33" s="3">
-        <v>221600</v>
+        <v>273700</v>
       </c>
       <c r="H33" s="3">
-        <v>-394100</v>
+        <v>226600</v>
       </c>
       <c r="I33" s="3">
-        <v>778900</v>
+        <v>-402900</v>
       </c>
       <c r="J33" s="3">
+        <v>796400</v>
+      </c>
+      <c r="K33" s="3">
         <v>458600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>491800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>77400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>191400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-81700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>330100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>432600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>136900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>601600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>270600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>510700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>257600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>666400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-19300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>513900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>348900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>665500</v>
+        <v>-115300</v>
       </c>
       <c r="E35" s="3">
-        <v>59400</v>
+        <v>680500</v>
       </c>
       <c r="F35" s="3">
-        <v>267600</v>
+        <v>60700</v>
       </c>
       <c r="G35" s="3">
-        <v>221600</v>
+        <v>273700</v>
       </c>
       <c r="H35" s="3">
-        <v>-394100</v>
+        <v>226600</v>
       </c>
       <c r="I35" s="3">
-        <v>778900</v>
+        <v>-402900</v>
       </c>
       <c r="J35" s="3">
+        <v>796400</v>
+      </c>
+      <c r="K35" s="3">
         <v>458600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>491800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>77400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>191400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-81700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>330100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>432600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>136900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>601600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>270600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>510700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>257600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>666400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-19300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>513900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>348900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,674 +2920,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2106800</v>
+        <v>974900</v>
       </c>
       <c r="E41" s="3">
-        <v>1542100</v>
+        <v>2154300</v>
       </c>
       <c r="F41" s="3">
-        <v>2228300</v>
+        <v>1576800</v>
       </c>
       <c r="G41" s="3">
-        <v>1999000</v>
+        <v>2278400</v>
       </c>
       <c r="H41" s="3">
-        <v>2308100</v>
+        <v>2043900</v>
       </c>
       <c r="I41" s="3">
-        <v>2084500</v>
+        <v>2360100</v>
       </c>
       <c r="J41" s="3">
+        <v>2131400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1771000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1855300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2006900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1534800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3841300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4899600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1569900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2086300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3345800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1900500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2144100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2610600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3448500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2389300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3222400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2846400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3399800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>66300</v>
+        <v>62800</v>
       </c>
       <c r="E42" s="3">
-        <v>85000</v>
+        <v>67700</v>
       </c>
       <c r="F42" s="3">
-        <v>102700</v>
+        <v>86900</v>
       </c>
       <c r="G42" s="3">
-        <v>77100</v>
+        <v>105000</v>
       </c>
       <c r="H42" s="3">
-        <v>58600</v>
+        <v>78800</v>
       </c>
       <c r="I42" s="3">
-        <v>58300</v>
+        <v>59900</v>
       </c>
       <c r="J42" s="3">
+        <v>59700</v>
+      </c>
+      <c r="K42" s="3">
         <v>54500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>65400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>93700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>100700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>80600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>97200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>103000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>76500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>93200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>83200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>69000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>187800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>189300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>192000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>297900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>306900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>261000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2163200</v>
+        <v>2366900</v>
       </c>
       <c r="E43" s="3">
-        <v>2202200</v>
+        <v>2211800</v>
       </c>
       <c r="F43" s="3">
-        <v>2354000</v>
+        <v>2251700</v>
       </c>
       <c r="G43" s="3">
-        <v>2388200</v>
+        <v>2407000</v>
       </c>
       <c r="H43" s="3">
-        <v>2388200</v>
+        <v>2442000</v>
       </c>
       <c r="I43" s="3">
-        <v>2670200</v>
+        <v>2442000</v>
       </c>
       <c r="J43" s="3">
+        <v>2730300</v>
+      </c>
+      <c r="K43" s="3">
         <v>2652100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2945000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3052900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3000200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3410000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2509600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3068800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2537200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2310300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2155700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2118400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2990300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2713200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2991200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3085500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3158100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2854000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>158200</v>
+        <v>173200</v>
       </c>
       <c r="E44" s="3">
-        <v>158300</v>
+        <v>161800</v>
       </c>
       <c r="F44" s="3">
-        <v>114200</v>
+        <v>161900</v>
       </c>
       <c r="G44" s="3">
-        <v>131100</v>
+        <v>116700</v>
       </c>
       <c r="H44" s="3">
-        <v>161100</v>
+        <v>134000</v>
       </c>
       <c r="I44" s="3">
-        <v>133000</v>
+        <v>164700</v>
       </c>
       <c r="J44" s="3">
+        <v>136000</v>
+      </c>
+      <c r="K44" s="3">
         <v>127100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>142500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>172600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>164400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>163400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>133400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>168100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>192100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>101800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>115000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>149800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>205300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>174100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>200000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>210800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>222200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>175900</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>150400</v>
+        <v>169100</v>
       </c>
       <c r="E45" s="3">
-        <v>453700</v>
+        <v>153800</v>
       </c>
       <c r="F45" s="3">
-        <v>461300</v>
+        <v>463900</v>
       </c>
       <c r="G45" s="3">
-        <v>416100</v>
+        <v>471700</v>
       </c>
       <c r="H45" s="3">
-        <v>154900</v>
+        <v>425500</v>
       </c>
       <c r="I45" s="3">
-        <v>125600</v>
+        <v>158400</v>
       </c>
       <c r="J45" s="3">
+        <v>128400</v>
+      </c>
+      <c r="K45" s="3">
         <v>141200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>187400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>599400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>386200</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>395000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>101800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>439600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2973600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3045100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>197100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>178000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>117900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>438000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4644900</v>
+        <v>3746900</v>
       </c>
       <c r="E46" s="3">
-        <v>4441300</v>
+        <v>4749500</v>
       </c>
       <c r="F46" s="3">
-        <v>5260500</v>
+        <v>4541300</v>
       </c>
       <c r="G46" s="3">
-        <v>5011500</v>
+        <v>5378900</v>
       </c>
       <c r="H46" s="3">
-        <v>5070900</v>
+        <v>5124300</v>
       </c>
       <c r="I46" s="3">
-        <v>5071600</v>
+        <v>5185000</v>
       </c>
       <c r="J46" s="3">
+        <v>5185700</v>
+      </c>
+      <c r="K46" s="3">
         <v>4746000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5195700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5925500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5186200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7495400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7639800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5304800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4993900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6290700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7227900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7526400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6191100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6703100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5890400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7254600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6533800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6691100</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>568300</v>
+        <v>609800</v>
       </c>
       <c r="E47" s="3">
-        <v>575700</v>
+        <v>581100</v>
       </c>
       <c r="F47" s="3">
-        <v>588800</v>
+        <v>588600</v>
       </c>
       <c r="G47" s="3">
-        <v>609800</v>
+        <v>602000</v>
       </c>
       <c r="H47" s="3">
-        <v>633400</v>
+        <v>623600</v>
       </c>
       <c r="I47" s="3">
-        <v>650000</v>
+        <v>647700</v>
       </c>
       <c r="J47" s="3">
+        <v>664700</v>
+      </c>
+      <c r="K47" s="3">
         <v>826000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>847800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>543800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>475800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>272000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>253700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>486700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>268700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>52000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>53500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>53300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>55600</v>
-      </c>
-      <c r="V47" s="3">
-        <v>51200</v>
       </c>
       <c r="W47" s="3">
         <v>51200</v>
       </c>
       <c r="X47" s="3">
+        <v>51200</v>
+      </c>
+      <c r="Y47" s="3">
         <v>1738500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1944800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12419900</v>
+        <v>13001100</v>
       </c>
       <c r="E48" s="3">
-        <v>12594800</v>
+        <v>12699400</v>
       </c>
       <c r="F48" s="3">
-        <v>12533800</v>
+        <v>12878300</v>
       </c>
       <c r="G48" s="3">
-        <v>12815700</v>
+        <v>12816000</v>
       </c>
       <c r="H48" s="3">
-        <v>12904500</v>
+        <v>13104100</v>
       </c>
       <c r="I48" s="3">
-        <v>14402800</v>
+        <v>13195000</v>
       </c>
       <c r="J48" s="3">
+        <v>14727000</v>
+      </c>
+      <c r="K48" s="3">
         <v>14716600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16542600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17296600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15778500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16995100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14544500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16139200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8276600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7060600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7104000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6984200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8748700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8271800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8497000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>9027500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>8879600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>8405100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3654800</v>
+        <v>3934800</v>
       </c>
       <c r="E49" s="3">
-        <v>3813200</v>
+        <v>3737100</v>
       </c>
       <c r="F49" s="3">
-        <v>3866200</v>
+        <v>3899100</v>
       </c>
       <c r="G49" s="3">
-        <v>3894600</v>
+        <v>3953200</v>
       </c>
       <c r="H49" s="3">
-        <v>3857300</v>
+        <v>3982200</v>
       </c>
       <c r="I49" s="3">
-        <v>4069100</v>
+        <v>3944100</v>
       </c>
       <c r="J49" s="3">
+        <v>4160700</v>
+      </c>
+      <c r="K49" s="3">
         <v>4237300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4643000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4839800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4296700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5123000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2361900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4394900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5728300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3698000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3864400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4002500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6605500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6627500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6847600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6962500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7099100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7250400</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1670700</v>
+        <v>1935400</v>
       </c>
       <c r="E52" s="3">
-        <v>1442400</v>
+        <v>1708300</v>
       </c>
       <c r="F52" s="3">
-        <v>1418900</v>
+        <v>1474900</v>
       </c>
       <c r="G52" s="3">
-        <v>1568400</v>
+        <v>1450800</v>
       </c>
       <c r="H52" s="3">
-        <v>1628000</v>
+        <v>1603700</v>
       </c>
       <c r="I52" s="3">
-        <v>1792800</v>
+        <v>1664600</v>
       </c>
       <c r="J52" s="3">
+        <v>1833200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1877000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2144700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2457300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1810800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2484200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2288400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1852300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2311800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1982900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1485500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1533000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1761500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1790700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2147400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>850000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>981800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>874400</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22958600</v>
+        <v>23227900</v>
       </c>
       <c r="E54" s="3">
-        <v>22867500</v>
+        <v>23475400</v>
       </c>
       <c r="F54" s="3">
-        <v>23668200</v>
+        <v>23382100</v>
       </c>
       <c r="G54" s="3">
-        <v>23900000</v>
+        <v>24200900</v>
       </c>
       <c r="H54" s="3">
-        <v>24094100</v>
+        <v>24437900</v>
       </c>
       <c r="I54" s="3">
-        <v>25986400</v>
+        <v>24636400</v>
       </c>
       <c r="J54" s="3">
+        <v>26571300</v>
+      </c>
+      <c r="K54" s="3">
         <v>26402800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29373700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31063100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27548100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32369600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27088300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28177900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>21579300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>19084400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>19735400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>20099400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>23362400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>23444200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>23433600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>25833200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>25439100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>24911800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3126000</v>
+        <v>3226400</v>
       </c>
       <c r="E57" s="3">
-        <v>3274000</v>
+        <v>3196400</v>
       </c>
       <c r="F57" s="3">
-        <v>3111100</v>
+        <v>3347700</v>
       </c>
       <c r="G57" s="3">
-        <v>3045000</v>
+        <v>3181100</v>
       </c>
       <c r="H57" s="3">
-        <v>3217700</v>
+        <v>3113500</v>
       </c>
       <c r="I57" s="3">
-        <v>3433200</v>
+        <v>3290100</v>
       </c>
       <c r="J57" s="3">
+        <v>3510400</v>
+      </c>
+      <c r="K57" s="3">
         <v>3344800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3834100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4089800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3950300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4383300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3795600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4040600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4256500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3576100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3484800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3486000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4665800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4258800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4539200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4887000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5288300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4924500</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1587300</v>
+        <v>1352400</v>
       </c>
       <c r="E58" s="3">
-        <v>1646400</v>
+        <v>1623000</v>
       </c>
       <c r="F58" s="3">
-        <v>1838100</v>
+        <v>1683500</v>
       </c>
       <c r="G58" s="3">
-        <v>2241900</v>
+        <v>1879500</v>
       </c>
       <c r="H58" s="3">
-        <v>1577200</v>
+        <v>2292300</v>
       </c>
       <c r="I58" s="3">
-        <v>1681000</v>
+        <v>1612700</v>
       </c>
       <c r="J58" s="3">
+        <v>1718800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1883200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2466100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2069500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2662500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4165700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3453100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2723400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1775800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1588700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2615700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2051000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2629600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2984700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3083000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4001300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3202100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3174000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1210100</v>
+        <v>1771100</v>
       </c>
       <c r="E59" s="3">
-        <v>1377100</v>
+        <v>1237400</v>
       </c>
       <c r="F59" s="3">
-        <v>1908700</v>
+        <v>1408100</v>
       </c>
       <c r="G59" s="3">
-        <v>1901400</v>
+        <v>1951700</v>
       </c>
       <c r="H59" s="3">
-        <v>1084400</v>
+        <v>1944200</v>
       </c>
       <c r="I59" s="3">
-        <v>1018200</v>
+        <v>1108800</v>
       </c>
       <c r="J59" s="3">
+        <v>1041100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1639300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1928100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1480500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1470400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2325000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2159400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1504100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1578100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2654800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2280400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1900000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1583800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2214000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2207700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1558500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1079900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1033600</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5923400</v>
+        <v>6350000</v>
       </c>
       <c r="E60" s="3">
-        <v>6297500</v>
+        <v>6056700</v>
       </c>
       <c r="F60" s="3">
-        <v>6857900</v>
+        <v>6439300</v>
       </c>
       <c r="G60" s="3">
-        <v>7188200</v>
+        <v>7012300</v>
       </c>
       <c r="H60" s="3">
-        <v>5879400</v>
+        <v>7350000</v>
       </c>
       <c r="I60" s="3">
-        <v>6132300</v>
+        <v>6011700</v>
       </c>
       <c r="J60" s="3">
+        <v>6270300</v>
+      </c>
+      <c r="K60" s="3">
         <v>6867300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8228300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7639800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8083200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10873900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9408000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8268000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7610400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7819600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8380900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7437000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8879100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9457500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9829900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>10446800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9570300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9132100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11462400</v>
+        <v>12369300</v>
       </c>
       <c r="E61" s="3">
-        <v>11741900</v>
+        <v>11720400</v>
       </c>
       <c r="F61" s="3">
-        <v>12006800</v>
+        <v>12006200</v>
       </c>
       <c r="G61" s="3">
-        <v>12121700</v>
+        <v>12277000</v>
       </c>
       <c r="H61" s="3">
-        <v>12510800</v>
+        <v>12394500</v>
       </c>
       <c r="I61" s="3">
-        <v>13595600</v>
+        <v>12792300</v>
       </c>
       <c r="J61" s="3">
+        <v>13901600</v>
+      </c>
+      <c r="K61" s="3">
         <v>13888300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15270500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15872400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12837700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14534900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11137800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13131100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6309600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4548900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4739300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4852400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5973300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5762600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5949300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6540000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7446200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7214000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1581800</v>
+        <v>1705700</v>
       </c>
       <c r="E62" s="3">
-        <v>1637100</v>
+        <v>1617400</v>
       </c>
       <c r="F62" s="3">
-        <v>1667700</v>
+        <v>1674000</v>
       </c>
       <c r="G62" s="3">
-        <v>1683100</v>
+        <v>1705200</v>
       </c>
       <c r="H62" s="3">
-        <v>1704300</v>
+        <v>1721000</v>
       </c>
       <c r="I62" s="3">
-        <v>1809600</v>
+        <v>1742600</v>
       </c>
       <c r="J62" s="3">
+        <v>1850400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1790500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2093100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2227800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1830500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1962200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1408000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1872300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1515700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1260900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1244500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1065200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1292200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1284700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1223900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1479700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1592300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1503800</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19524100</v>
+        <v>20972300</v>
       </c>
       <c r="E66" s="3">
-        <v>20203900</v>
+        <v>19963500</v>
       </c>
       <c r="F66" s="3">
-        <v>21016300</v>
+        <v>20658600</v>
       </c>
       <c r="G66" s="3">
-        <v>21504500</v>
+        <v>21489300</v>
       </c>
       <c r="H66" s="3">
-        <v>20643300</v>
+        <v>21988500</v>
       </c>
       <c r="I66" s="3">
-        <v>22104200</v>
+        <v>21107900</v>
       </c>
       <c r="J66" s="3">
+        <v>22601700</v>
+      </c>
+      <c r="K66" s="3">
         <v>23108300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26282800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26436000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23336400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>27950500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22521100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23869900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16000800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14120200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14910200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13911100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16704900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>17006400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>17551000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>19074800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>19165800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>18363900</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3041000</v>
+        <v>1692300</v>
       </c>
       <c r="E72" s="3">
-        <v>2274300</v>
+        <v>3109500</v>
       </c>
       <c r="F72" s="3">
-        <v>2241700</v>
+        <v>2325500</v>
       </c>
       <c r="G72" s="3">
-        <v>1946000</v>
+        <v>2292100</v>
       </c>
       <c r="H72" s="3">
-        <v>3012000</v>
+        <v>1989800</v>
       </c>
       <c r="I72" s="3">
-        <v>3346400</v>
+        <v>3079700</v>
       </c>
       <c r="J72" s="3">
+        <v>3421800</v>
+      </c>
+      <c r="K72" s="3">
         <v>2516200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2252700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3551600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3562800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3647400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3964700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5195400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4828000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4471800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4521900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5777800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6005900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5929300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5278900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5612000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5136300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>5466800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3434600</v>
+        <v>2255700</v>
       </c>
       <c r="E76" s="3">
-        <v>2663600</v>
+        <v>3511900</v>
       </c>
       <c r="F76" s="3">
-        <v>2651900</v>
+        <v>2723500</v>
       </c>
       <c r="G76" s="3">
-        <v>2395500</v>
+        <v>2711600</v>
       </c>
       <c r="H76" s="3">
-        <v>3450800</v>
+        <v>2449500</v>
       </c>
       <c r="I76" s="3">
-        <v>3882200</v>
+        <v>3528500</v>
       </c>
       <c r="J76" s="3">
+        <v>3969600</v>
+      </c>
+      <c r="K76" s="3">
         <v>3294600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3090900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4627100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4211700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4419100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4567200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4308000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5578500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4964200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4825200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6188300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6657500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6437800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5882600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6758400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6273400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6547800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>665500</v>
+        <v>-115300</v>
       </c>
       <c r="E81" s="3">
-        <v>59400</v>
+        <v>680500</v>
       </c>
       <c r="F81" s="3">
-        <v>267600</v>
+        <v>60700</v>
       </c>
       <c r="G81" s="3">
-        <v>221600</v>
+        <v>273700</v>
       </c>
       <c r="H81" s="3">
-        <v>-394100</v>
+        <v>226600</v>
       </c>
       <c r="I81" s="3">
-        <v>778900</v>
+        <v>-402900</v>
       </c>
       <c r="J81" s="3">
+        <v>796400</v>
+      </c>
+      <c r="K81" s="3">
         <v>458600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>491800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>77400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>191400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-81700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>330100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>432600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>136900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>601600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>270600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>510700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>257600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>666400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-19300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>513900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>348900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>644300</v>
+        <v>938100</v>
       </c>
       <c r="E83" s="3">
-        <v>753900</v>
+        <v>658800</v>
       </c>
       <c r="F83" s="3">
-        <v>675000</v>
+        <v>770800</v>
       </c>
       <c r="G83" s="3">
-        <v>685100</v>
+        <v>690200</v>
       </c>
       <c r="H83" s="3">
-        <v>1367000</v>
+        <v>700500</v>
       </c>
       <c r="I83" s="3">
-        <v>728500</v>
+        <v>1397800</v>
       </c>
       <c r="J83" s="3">
+        <v>744900</v>
+      </c>
+      <c r="K83" s="3">
         <v>722500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>842100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>795400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>764600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>756300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>666600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>641700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>437000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>571000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>567700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>597600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>701200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>610700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>662200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>630900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3456500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1136300</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>953600</v>
+        <v>993200</v>
       </c>
       <c r="E89" s="3">
-        <v>863400</v>
+        <v>975100</v>
       </c>
       <c r="F89" s="3">
-        <v>1324100</v>
+        <v>882800</v>
       </c>
       <c r="G89" s="3">
-        <v>997300</v>
+        <v>1353900</v>
       </c>
       <c r="H89" s="3">
-        <v>1097500</v>
+        <v>1019700</v>
       </c>
       <c r="I89" s="3">
-        <v>1145200</v>
+        <v>1122200</v>
       </c>
       <c r="J89" s="3">
+        <v>1171000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1106800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1246300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1152100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>774300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1405400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>703500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1071600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>926100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1107200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>895600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>880500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1064600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1399400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1343300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1129900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4904600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1293700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-454900</v>
+        <v>-586800</v>
       </c>
       <c r="E91" s="3">
-        <v>-500000</v>
+        <v>-465200</v>
       </c>
       <c r="F91" s="3">
-        <v>-418800</v>
+        <v>-511300</v>
       </c>
       <c r="G91" s="3">
-        <v>-473600</v>
+        <v>-428200</v>
       </c>
       <c r="H91" s="3">
-        <v>-577600</v>
+        <v>-484200</v>
       </c>
       <c r="I91" s="3">
-        <v>-493000</v>
+        <v>-590600</v>
       </c>
       <c r="J91" s="3">
+        <v>-504100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1395900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>571200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-610400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>32500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-101800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-827500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1315200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>484600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-568500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-523100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-449500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-530800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1393000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2925500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-500200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-312600</v>
+        <v>-568900</v>
       </c>
       <c r="E94" s="3">
-        <v>-505600</v>
+        <v>-319600</v>
       </c>
       <c r="F94" s="3">
-        <v>-294000</v>
+        <v>-517000</v>
       </c>
       <c r="G94" s="3">
-        <v>-467700</v>
+        <v>-300600</v>
       </c>
       <c r="H94" s="3">
-        <v>-477900</v>
+        <v>-478200</v>
       </c>
       <c r="I94" s="3">
-        <v>246900</v>
+        <v>-488700</v>
       </c>
       <c r="J94" s="3">
+        <v>252400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-349300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-562400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-499100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1439700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2515000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-535700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-564800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-906400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1771500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-448800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-563600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-511600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-41700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>50900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-662400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2602200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-724700</v>
       </c>
       <c r="E96" s="3">
-        <v>-567100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-25800</v>
+        <v>-579800</v>
       </c>
       <c r="G96" s="3">
-        <v>-683000</v>
+        <v>-26400</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-698300</v>
       </c>
       <c r="I96" s="3">
-        <v>-609500</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-623200</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-695500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-631400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-741900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1368800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-639200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-606500</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-747500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-30800</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1386600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-32100</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-272900</v>
+        <v>-1608300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1005200</v>
+        <v>-279000</v>
       </c>
       <c r="F100" s="3">
-        <v>-702200</v>
+        <v>-1027800</v>
       </c>
       <c r="G100" s="3">
-        <v>-783300</v>
+        <v>-718000</v>
       </c>
       <c r="H100" s="3">
-        <v>-335900</v>
+        <v>-800900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1050600</v>
+        <v>-343500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1074200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-653300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-893600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-302200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1248800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-253200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1835400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>209000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1683300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1548700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-652600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-311900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1372300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-107900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1948200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-15300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1114300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>503100</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-14300</v>
+        <v>22900</v>
       </c>
       <c r="E101" s="3">
-        <v>21100</v>
+        <v>-14600</v>
       </c>
       <c r="F101" s="3">
-        <v>-41300</v>
+        <v>21500</v>
       </c>
       <c r="G101" s="3">
-        <v>21700</v>
+        <v>-42300</v>
       </c>
       <c r="H101" s="3">
-        <v>-26200</v>
+        <v>22200</v>
       </c>
       <c r="I101" s="3">
-        <v>-25500</v>
+        <v>-26800</v>
       </c>
       <c r="J101" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-37000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-38800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>154000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>93000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-22000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-29500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>72600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-60200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>15500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>26300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-55000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-70700</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>353800</v>
+        <v>-1161000</v>
       </c>
       <c r="E102" s="3">
-        <v>-626300</v>
+        <v>361800</v>
       </c>
       <c r="F102" s="3">
-        <v>286600</v>
+        <v>-640400</v>
       </c>
       <c r="G102" s="3">
-        <v>-232000</v>
+        <v>293000</v>
       </c>
       <c r="H102" s="3">
-        <v>257400</v>
+        <v>-237200</v>
       </c>
       <c r="I102" s="3">
-        <v>316000</v>
+        <v>263200</v>
       </c>
       <c r="J102" s="3">
+        <v>323100</v>
+      </c>
+      <c r="K102" s="3">
         <v>67300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-248400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>504800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1900700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1268800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1989000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1652800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1326600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-211700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-24400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-864300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1083000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-642900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>373700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1133100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1819800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>TELNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2904000</v>
+        <v>2820300</v>
       </c>
       <c r="E8" s="3">
-        <v>2797600</v>
+        <v>2781500</v>
       </c>
       <c r="F8" s="3">
-        <v>2916200</v>
+        <v>2679600</v>
       </c>
       <c r="G8" s="3">
-        <v>2839200</v>
+        <v>2793200</v>
       </c>
       <c r="H8" s="3">
-        <v>2813000</v>
+        <v>2719400</v>
       </c>
       <c r="I8" s="3">
-        <v>2850300</v>
+        <v>2694300</v>
       </c>
       <c r="J8" s="3">
+        <v>2730100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2483500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3039500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3219500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3236500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3165100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3421100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3112400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3010000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2674300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2820000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2813600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2777400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2247000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3179900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3280600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3402600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>15461200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3853000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>760800</v>
+        <v>721000</v>
       </c>
       <c r="E9" s="3">
-        <v>743000</v>
+        <v>728700</v>
       </c>
       <c r="F9" s="3">
-        <v>841100</v>
+        <v>711600</v>
       </c>
       <c r="G9" s="3">
-        <v>709700</v>
+        <v>805600</v>
       </c>
       <c r="H9" s="3">
-        <v>714000</v>
+        <v>679800</v>
       </c>
       <c r="I9" s="3">
-        <v>757200</v>
+        <v>683900</v>
       </c>
       <c r="J9" s="3">
+        <v>725200</v>
+      </c>
+      <c r="K9" s="3">
         <v>780400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>702800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>780300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>795900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>785200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>816200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>725100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>700800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>588400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>619800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>662700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>632900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>523300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>725500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>760900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1192600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5577700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1329500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2143200</v>
+        <v>2099400</v>
       </c>
       <c r="E10" s="3">
-        <v>2054600</v>
+        <v>2052800</v>
       </c>
       <c r="F10" s="3">
-        <v>2075100</v>
+        <v>1967900</v>
       </c>
       <c r="G10" s="3">
-        <v>2129500</v>
+        <v>1987600</v>
       </c>
       <c r="H10" s="3">
-        <v>2099000</v>
+        <v>2039700</v>
       </c>
       <c r="I10" s="3">
-        <v>2093100</v>
+        <v>2010500</v>
       </c>
       <c r="J10" s="3">
+        <v>2004800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1703200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2336700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2439200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2440500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2380000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2605000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2387300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2309300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2085900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2200200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2150900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2144500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1723800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2454400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2519700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2210000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>9883500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2523500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,162 +1203,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>283700</v>
+        <v>11300</v>
       </c>
       <c r="E14" s="3">
-        <v>18400</v>
+        <v>271700</v>
       </c>
       <c r="F14" s="3">
-        <v>103000</v>
+        <v>17700</v>
       </c>
       <c r="G14" s="3">
-        <v>19100</v>
+        <v>98600</v>
       </c>
       <c r="H14" s="3">
-        <v>15100</v>
+        <v>18300</v>
       </c>
       <c r="I14" s="3">
-        <v>11400</v>
+        <v>14500</v>
       </c>
       <c r="J14" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K14" s="3">
         <v>15300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>147800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>37000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>37100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>26900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>20700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>268700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>25500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>26600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>18600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>59900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>55600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>718100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-82400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>158900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>707900</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>679200</v>
+        <v>640800</v>
       </c>
       <c r="E15" s="3">
-        <v>658800</v>
+        <v>650500</v>
       </c>
       <c r="F15" s="3">
-        <v>668000</v>
+        <v>631000</v>
       </c>
       <c r="G15" s="3">
-        <v>685400</v>
+        <v>639800</v>
       </c>
       <c r="H15" s="3">
-        <v>665200</v>
+        <v>656500</v>
       </c>
       <c r="I15" s="3">
-        <v>660800</v>
+        <v>637100</v>
       </c>
       <c r="J15" s="3">
+        <v>633000</v>
+      </c>
+      <c r="K15" s="3">
         <v>459400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>722500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>761100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>722000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>756200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>757100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>666800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>637800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>462800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>553400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>529200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>547800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>457600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>556300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>570100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>581900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>2414600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2586200</v>
+        <v>2180100</v>
       </c>
       <c r="E17" s="3">
-        <v>2088300</v>
+        <v>2477100</v>
       </c>
       <c r="F17" s="3">
-        <v>2493000</v>
+        <v>2000200</v>
       </c>
       <c r="G17" s="3">
-        <v>2208200</v>
+        <v>2387800</v>
       </c>
       <c r="H17" s="3">
-        <v>2225600</v>
+        <v>2115100</v>
       </c>
       <c r="I17" s="3">
-        <v>2261600</v>
+        <v>2131700</v>
       </c>
       <c r="J17" s="3">
+        <v>2166200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1679400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2209800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2664400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2547000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2550200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2612300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2398400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2269400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2378100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2132300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2221000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2183200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1893900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2354800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3111300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2705400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>12375000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3663500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>317800</v>
+        <v>640200</v>
       </c>
       <c r="E18" s="3">
-        <v>709300</v>
+        <v>304400</v>
       </c>
       <c r="F18" s="3">
-        <v>423200</v>
+        <v>679400</v>
       </c>
       <c r="G18" s="3">
-        <v>631000</v>
+        <v>405400</v>
       </c>
       <c r="H18" s="3">
-        <v>587400</v>
+        <v>604400</v>
       </c>
       <c r="I18" s="3">
-        <v>588700</v>
+        <v>562600</v>
       </c>
       <c r="J18" s="3">
+        <v>563900</v>
+      </c>
+      <c r="K18" s="3">
         <v>804100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>829700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>555100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>689500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>614900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>808800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>714000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>740600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>296200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>687700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>592500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>594300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>353200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>825100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>169300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>697100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3086200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>189500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-230700</v>
+        <v>-240700</v>
       </c>
       <c r="E20" s="3">
-        <v>17200</v>
+        <v>-220900</v>
       </c>
       <c r="F20" s="3">
-        <v>-8200</v>
+        <v>16500</v>
       </c>
       <c r="G20" s="3">
-        <v>-97900</v>
+        <v>-7800</v>
       </c>
       <c r="H20" s="3">
-        <v>-65700</v>
+        <v>-93800</v>
       </c>
       <c r="I20" s="3">
-        <v>21500</v>
+        <v>-62900</v>
       </c>
       <c r="J20" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K20" s="3">
         <v>219500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>49700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>120200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-404300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>85200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-202000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>62800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-258100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-124000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>233900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-45200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>211800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>102900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>100400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-323500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>90900</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1025200</v>
+        <v>1038200</v>
       </c>
       <c r="E21" s="3">
-        <v>1385300</v>
+        <v>982000</v>
       </c>
       <c r="F21" s="3">
-        <v>1185900</v>
+        <v>1326800</v>
       </c>
       <c r="G21" s="3">
-        <v>1223300</v>
+        <v>1135900</v>
       </c>
       <c r="H21" s="3">
-        <v>1222200</v>
+        <v>1171700</v>
       </c>
       <c r="I21" s="3">
-        <v>2008100</v>
+        <v>1170700</v>
       </c>
       <c r="J21" s="3">
+        <v>1923400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1768500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1602000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1517400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1080600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1464700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1363200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1387700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1445100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>516500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1252700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1017600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1422600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1009200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1647600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>934400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1428400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>6219100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1416700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>61400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>47300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>102400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>65100</v>
+      </c>
+      <c r="J22" s="3">
         <v>64100</v>
       </c>
-      <c r="E22" s="3">
-        <v>49400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>106900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>68900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>67900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>66900</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>110900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>107400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>85400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>89800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>173900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>135400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>117100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>104900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>45900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>46200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>30500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>105800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>54700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>72700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>72500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>382700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>23000</v>
+        <v>323000</v>
       </c>
       <c r="E23" s="3">
-        <v>677100</v>
+        <v>22000</v>
       </c>
       <c r="F23" s="3">
-        <v>308200</v>
+        <v>648500</v>
       </c>
       <c r="G23" s="3">
-        <v>464200</v>
+        <v>295100</v>
       </c>
       <c r="H23" s="3">
-        <v>453800</v>
+        <v>444700</v>
       </c>
       <c r="I23" s="3">
-        <v>543400</v>
+        <v>434600</v>
       </c>
       <c r="J23" s="3">
+        <v>520500</v>
+      </c>
+      <c r="K23" s="3">
         <v>912600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>772100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>589800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>195400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>526300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>471500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>603900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>702600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-66900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>651500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>422300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>797600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>202200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>982200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>199500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>725000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2379900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-39700</v>
+        <v>107100</v>
       </c>
       <c r="E24" s="3">
-        <v>-109700</v>
+        <v>-38000</v>
       </c>
       <c r="F24" s="3">
-        <v>119600</v>
+        <v>-105100</v>
       </c>
       <c r="G24" s="3">
-        <v>151600</v>
+        <v>114600</v>
       </c>
       <c r="H24" s="3">
-        <v>152400</v>
+        <v>145200</v>
       </c>
       <c r="I24" s="3">
-        <v>170900</v>
+        <v>145900</v>
       </c>
       <c r="J24" s="3">
+        <v>163700</v>
+      </c>
+      <c r="K24" s="3">
         <v>158700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>217500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>221300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>69100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>147500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>483800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>216100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>203000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>55800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>205700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>125000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>235000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>77200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>272900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>186400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>197900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>730400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>62700</v>
+        <v>215900</v>
       </c>
       <c r="E26" s="3">
-        <v>786800</v>
+        <v>60000</v>
       </c>
       <c r="F26" s="3">
-        <v>188500</v>
+        <v>753600</v>
       </c>
       <c r="G26" s="3">
-        <v>312600</v>
+        <v>180600</v>
       </c>
       <c r="H26" s="3">
-        <v>301400</v>
+        <v>299400</v>
       </c>
       <c r="I26" s="3">
-        <v>372500</v>
+        <v>288700</v>
       </c>
       <c r="J26" s="3">
+        <v>356800</v>
+      </c>
+      <c r="K26" s="3">
         <v>754000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>554600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>368500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>126300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>378700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>387800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>499600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-122700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>445800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>297300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>562700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>124900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>709300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>13100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>527100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1649500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-17600</v>
+        <v>139100</v>
       </c>
       <c r="E27" s="3">
-        <v>716300</v>
+        <v>-16900</v>
       </c>
       <c r="F27" s="3">
-        <v>115900</v>
+        <v>686000</v>
       </c>
       <c r="G27" s="3">
-        <v>229400</v>
+        <v>111000</v>
       </c>
       <c r="H27" s="3">
-        <v>218200</v>
+        <v>219800</v>
       </c>
       <c r="I27" s="3">
-        <v>294000</v>
+        <v>209000</v>
       </c>
       <c r="J27" s="3">
+        <v>281600</v>
+      </c>
+      <c r="K27" s="3">
         <v>668600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>461100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>266200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>277900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-113600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>302100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>397100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-160200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>370200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>208100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>484100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>46100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>623500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-79500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>441500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1282600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-93500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,85 +2300,91 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-97700</v>
+        <v>14600</v>
       </c>
       <c r="E29" s="3">
-        <v>-35700</v>
+        <v>-93600</v>
       </c>
       <c r="F29" s="3">
-        <v>-55200</v>
+        <v>-34200</v>
       </c>
       <c r="G29" s="3">
-        <v>44200</v>
+        <v>-52900</v>
       </c>
       <c r="H29" s="3">
-        <v>8400</v>
+        <v>42400</v>
       </c>
       <c r="I29" s="3">
-        <v>-696900</v>
+        <v>8000</v>
       </c>
       <c r="J29" s="3">
+        <v>-667500</v>
+      </c>
+      <c r="K29" s="3">
         <v>127800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-2500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>225600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>67900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-86600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>31900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>28000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>35400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>297100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>231400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>62500</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>26600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>211500</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>42800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>60200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>72400</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-933600</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-501000</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>230700</v>
+        <v>240700</v>
       </c>
       <c r="E32" s="3">
-        <v>-17200</v>
+        <v>220900</v>
       </c>
       <c r="F32" s="3">
-        <v>8200</v>
+        <v>-16500</v>
       </c>
       <c r="G32" s="3">
-        <v>97900</v>
+        <v>7800</v>
       </c>
       <c r="H32" s="3">
-        <v>65700</v>
+        <v>93800</v>
       </c>
       <c r="I32" s="3">
-        <v>-21500</v>
+        <v>62900</v>
       </c>
       <c r="J32" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-219500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-49700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-120200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>404300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-85200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>202000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-62800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>258100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>124000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-233900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>45200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-211800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-102900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-100400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>323500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-115300</v>
+        <v>153700</v>
       </c>
       <c r="E33" s="3">
-        <v>680500</v>
+        <v>-110400</v>
       </c>
       <c r="F33" s="3">
-        <v>60700</v>
+        <v>651800</v>
       </c>
       <c r="G33" s="3">
-        <v>273700</v>
+        <v>58100</v>
       </c>
       <c r="H33" s="3">
-        <v>226600</v>
+        <v>262100</v>
       </c>
       <c r="I33" s="3">
-        <v>-402900</v>
+        <v>217100</v>
       </c>
       <c r="J33" s="3">
+        <v>-385900</v>
+      </c>
+      <c r="K33" s="3">
         <v>796400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>458600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>491800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>77400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>191400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-81700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>330100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>432600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>136900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>601600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>270600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>510700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>257600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>666400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-19300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>513900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>348900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-115300</v>
+        <v>153700</v>
       </c>
       <c r="E35" s="3">
-        <v>680500</v>
+        <v>-110400</v>
       </c>
       <c r="F35" s="3">
-        <v>60700</v>
+        <v>651800</v>
       </c>
       <c r="G35" s="3">
-        <v>273700</v>
+        <v>58100</v>
       </c>
       <c r="H35" s="3">
-        <v>226600</v>
+        <v>262100</v>
       </c>
       <c r="I35" s="3">
-        <v>-402900</v>
+        <v>217100</v>
       </c>
       <c r="J35" s="3">
+        <v>-385900</v>
+      </c>
+      <c r="K35" s="3">
         <v>796400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>458600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>491800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>77400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>191400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-81700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>330100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>432600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>136900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>601600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>270600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>510700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>257600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>666400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-19300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>513900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>348900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3007,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>974900</v>
+        <v>1609600</v>
       </c>
       <c r="E41" s="3">
-        <v>2154300</v>
+        <v>933800</v>
       </c>
       <c r="F41" s="3">
-        <v>1576800</v>
+        <v>2063400</v>
       </c>
       <c r="G41" s="3">
-        <v>2278400</v>
+        <v>1510300</v>
       </c>
       <c r="H41" s="3">
-        <v>2043900</v>
+        <v>2182300</v>
       </c>
       <c r="I41" s="3">
-        <v>2360100</v>
+        <v>1957700</v>
       </c>
       <c r="J41" s="3">
+        <v>2260500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2131400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1771000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1855300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2006900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1534800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3841300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4899600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1569900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2086300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3345800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1900500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2144100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2610600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3448500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2389300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3222400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2846400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3399800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>62800</v>
+        <v>72900</v>
       </c>
       <c r="E42" s="3">
-        <v>67700</v>
+        <v>60100</v>
       </c>
       <c r="F42" s="3">
-        <v>86900</v>
+        <v>64900</v>
       </c>
       <c r="G42" s="3">
-        <v>105000</v>
+        <v>83200</v>
       </c>
       <c r="H42" s="3">
-        <v>78800</v>
+        <v>100600</v>
       </c>
       <c r="I42" s="3">
-        <v>59900</v>
+        <v>75500</v>
       </c>
       <c r="J42" s="3">
+        <v>57300</v>
+      </c>
+      <c r="K42" s="3">
         <v>59700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>54500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>65400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>93700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>100700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>80600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>97200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>103000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>76500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>93200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>83200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>69000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>187800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>189300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>192000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>297900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>306900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>261000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2366900</v>
+        <v>2250900</v>
       </c>
       <c r="E43" s="3">
-        <v>2211800</v>
+        <v>2267000</v>
       </c>
       <c r="F43" s="3">
-        <v>2251700</v>
+        <v>2118500</v>
       </c>
       <c r="G43" s="3">
-        <v>2407000</v>
+        <v>2156700</v>
       </c>
       <c r="H43" s="3">
-        <v>2442000</v>
+        <v>2305400</v>
       </c>
       <c r="I43" s="3">
-        <v>2442000</v>
+        <v>2339000</v>
       </c>
       <c r="J43" s="3">
+        <v>2339000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2730300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2652100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2945000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3052900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3000200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3410000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2509600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3068800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2537200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2310300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2155700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2118400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2990300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2713200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2991200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3085500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3158100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2854000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>173200</v>
+        <v>182500</v>
       </c>
       <c r="E44" s="3">
-        <v>161800</v>
+        <v>165900</v>
       </c>
       <c r="F44" s="3">
-        <v>161900</v>
+        <v>155000</v>
       </c>
       <c r="G44" s="3">
-        <v>116700</v>
+        <v>155100</v>
       </c>
       <c r="H44" s="3">
-        <v>134000</v>
+        <v>111800</v>
       </c>
       <c r="I44" s="3">
-        <v>164700</v>
+        <v>128400</v>
       </c>
       <c r="J44" s="3">
+        <v>157700</v>
+      </c>
+      <c r="K44" s="3">
         <v>136000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>127100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>142500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>172600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>164400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>163400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>133400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>168100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>192100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>101800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>115000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>149800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>205300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>174100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>200000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>210800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>222200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>175900</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>169100</v>
+        <v>148200</v>
       </c>
       <c r="E45" s="3">
-        <v>153800</v>
+        <v>162000</v>
       </c>
       <c r="F45" s="3">
-        <v>463900</v>
+        <v>147300</v>
       </c>
       <c r="G45" s="3">
-        <v>471700</v>
+        <v>444400</v>
       </c>
       <c r="H45" s="3">
-        <v>425500</v>
+        <v>451800</v>
       </c>
       <c r="I45" s="3">
-        <v>158400</v>
+        <v>407600</v>
       </c>
       <c r="J45" s="3">
+        <v>151700</v>
+      </c>
+      <c r="K45" s="3">
         <v>128400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>141200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>187400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>599400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>386200</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>395000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>101800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>439600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2973600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3045100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>197100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>178000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>117900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>438000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3746900</v>
+        <v>4264100</v>
       </c>
       <c r="E46" s="3">
-        <v>4749500</v>
+        <v>3588800</v>
       </c>
       <c r="F46" s="3">
-        <v>4541300</v>
+        <v>4549100</v>
       </c>
       <c r="G46" s="3">
-        <v>5378900</v>
+        <v>4349700</v>
       </c>
       <c r="H46" s="3">
-        <v>5124300</v>
+        <v>5152000</v>
       </c>
       <c r="I46" s="3">
-        <v>5185000</v>
+        <v>4908100</v>
       </c>
       <c r="J46" s="3">
+        <v>4966300</v>
+      </c>
+      <c r="K46" s="3">
         <v>5185700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4746000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5195700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5925500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5186200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7495400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7639800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5304800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4993900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6290700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7227900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7526400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6191100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6703100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5890400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7254600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6533800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6691100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>609800</v>
+        <v>605100</v>
       </c>
       <c r="E47" s="3">
-        <v>581100</v>
+        <v>584000</v>
       </c>
       <c r="F47" s="3">
-        <v>588600</v>
+        <v>556600</v>
       </c>
       <c r="G47" s="3">
-        <v>602000</v>
+        <v>563800</v>
       </c>
       <c r="H47" s="3">
-        <v>623600</v>
+        <v>576600</v>
       </c>
       <c r="I47" s="3">
-        <v>647700</v>
+        <v>597200</v>
       </c>
       <c r="J47" s="3">
+        <v>620400</v>
+      </c>
+      <c r="K47" s="3">
         <v>664700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>826000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>847800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>543800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>475800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>272000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>253700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>486700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>268700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>52000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>53500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>53300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>55600</v>
-      </c>
-      <c r="W47" s="3">
-        <v>51200</v>
       </c>
       <c r="X47" s="3">
         <v>51200</v>
       </c>
       <c r="Y47" s="3">
+        <v>51200</v>
+      </c>
+      <c r="Z47" s="3">
         <v>1738500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1944800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13001100</v>
+        <v>12573800</v>
       </c>
       <c r="E48" s="3">
-        <v>12699400</v>
+        <v>12452500</v>
       </c>
       <c r="F48" s="3">
-        <v>12878300</v>
+        <v>12163600</v>
       </c>
       <c r="G48" s="3">
-        <v>12816000</v>
+        <v>12335000</v>
       </c>
       <c r="H48" s="3">
-        <v>13104100</v>
+        <v>12275300</v>
       </c>
       <c r="I48" s="3">
-        <v>13195000</v>
+        <v>12551300</v>
       </c>
       <c r="J48" s="3">
+        <v>12638300</v>
+      </c>
+      <c r="K48" s="3">
         <v>14727000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14716600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16542600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17296600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15778500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16995100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14544500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16139200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8276600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7060600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7104000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6984200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8748700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8271800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8497000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>9027500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>8879600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>8405100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3934800</v>
+        <v>3853700</v>
       </c>
       <c r="E49" s="3">
-        <v>3737100</v>
+        <v>3768800</v>
       </c>
       <c r="F49" s="3">
-        <v>3899100</v>
+        <v>3579400</v>
       </c>
       <c r="G49" s="3">
-        <v>3953200</v>
+        <v>3734600</v>
       </c>
       <c r="H49" s="3">
-        <v>3982200</v>
+        <v>3786400</v>
       </c>
       <c r="I49" s="3">
-        <v>3944100</v>
+        <v>3814200</v>
       </c>
       <c r="J49" s="3">
+        <v>3777700</v>
+      </c>
+      <c r="K49" s="3">
         <v>4160700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4237300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4643000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4839800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4296700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5123000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2361900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4394900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5728300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3698000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3864400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4002500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6605500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6627500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6847600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6962500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7099100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>7250400</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1935400</v>
+        <v>1876800</v>
       </c>
       <c r="E52" s="3">
-        <v>1708300</v>
+        <v>1853700</v>
       </c>
       <c r="F52" s="3">
-        <v>1474900</v>
+        <v>1636300</v>
       </c>
       <c r="G52" s="3">
-        <v>1450800</v>
+        <v>1412700</v>
       </c>
       <c r="H52" s="3">
-        <v>1603700</v>
+        <v>1389600</v>
       </c>
       <c r="I52" s="3">
-        <v>1664600</v>
+        <v>1536100</v>
       </c>
       <c r="J52" s="3">
+        <v>1594400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1833200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1877000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2144700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2457300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1810800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2484200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2288400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1852300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2311800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1982900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1485500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1533000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1761500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1790700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2147400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>850000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>981800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>874400</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23227900</v>
+        <v>23173500</v>
       </c>
       <c r="E54" s="3">
-        <v>23475400</v>
+        <v>22247900</v>
       </c>
       <c r="F54" s="3">
-        <v>23382100</v>
+        <v>22485000</v>
       </c>
       <c r="G54" s="3">
-        <v>24200900</v>
+        <v>22395700</v>
       </c>
       <c r="H54" s="3">
-        <v>24437900</v>
+        <v>23179900</v>
       </c>
       <c r="I54" s="3">
-        <v>24636400</v>
+        <v>23406900</v>
       </c>
       <c r="J54" s="3">
+        <v>23597000</v>
+      </c>
+      <c r="K54" s="3">
         <v>26571300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26402800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29373700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31063100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27548100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32369600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27088300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28177900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>21579300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>19084400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>19735400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>20099400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>23362400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>23444200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>23433600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>25833200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>25439100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>24911800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3226400</v>
+        <v>3125700</v>
       </c>
       <c r="E57" s="3">
-        <v>3196400</v>
+        <v>3090300</v>
       </c>
       <c r="F57" s="3">
-        <v>3347700</v>
+        <v>3061500</v>
       </c>
       <c r="G57" s="3">
-        <v>3181100</v>
+        <v>3206500</v>
       </c>
       <c r="H57" s="3">
-        <v>3113500</v>
+        <v>3046900</v>
       </c>
       <c r="I57" s="3">
-        <v>3290100</v>
+        <v>2982200</v>
       </c>
       <c r="J57" s="3">
+        <v>3151300</v>
+      </c>
+      <c r="K57" s="3">
         <v>3510400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3344800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3834100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4089800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3950300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4383300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3795600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4040600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4256500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3576100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3484800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3486000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4665800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4258800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4539200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4887000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>5288300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4924500</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1352400</v>
+        <v>1761300</v>
       </c>
       <c r="E58" s="3">
-        <v>1623000</v>
+        <v>1295400</v>
       </c>
       <c r="F58" s="3">
-        <v>1683500</v>
+        <v>1554500</v>
       </c>
       <c r="G58" s="3">
-        <v>1879500</v>
+        <v>1612500</v>
       </c>
       <c r="H58" s="3">
-        <v>2292300</v>
+        <v>1800200</v>
       </c>
       <c r="I58" s="3">
-        <v>1612700</v>
+        <v>2195600</v>
       </c>
       <c r="J58" s="3">
+        <v>1544700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1718800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1883200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2466100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2069500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2662500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4165700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3453100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2723400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1775800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1588700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2615700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2051000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2629600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2984700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3083000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4001300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3202100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3174000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1771100</v>
+        <v>1765600</v>
       </c>
       <c r="E59" s="3">
-        <v>1237400</v>
+        <v>1696400</v>
       </c>
       <c r="F59" s="3">
-        <v>1408100</v>
+        <v>1185200</v>
       </c>
       <c r="G59" s="3">
-        <v>1951700</v>
+        <v>1348700</v>
       </c>
       <c r="H59" s="3">
-        <v>1944200</v>
+        <v>1869300</v>
       </c>
       <c r="I59" s="3">
-        <v>1108800</v>
+        <v>1862200</v>
       </c>
       <c r="J59" s="3">
+        <v>1062000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1041100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1639300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1928100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1480500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1470400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2325000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2159400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1504100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1578100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2654800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2280400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1900000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1583800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2214000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2207700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1558500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1079900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1033600</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6350000</v>
+        <v>6652600</v>
       </c>
       <c r="E60" s="3">
-        <v>6056700</v>
+        <v>6082100</v>
       </c>
       <c r="F60" s="3">
-        <v>6439300</v>
+        <v>5801200</v>
       </c>
       <c r="G60" s="3">
-        <v>7012300</v>
+        <v>6167600</v>
       </c>
       <c r="H60" s="3">
-        <v>7350000</v>
+        <v>6716400</v>
       </c>
       <c r="I60" s="3">
-        <v>6011700</v>
+        <v>7039900</v>
       </c>
       <c r="J60" s="3">
+        <v>5758000</v>
+      </c>
+      <c r="K60" s="3">
         <v>6270300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6867300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8228300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7639800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8083200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10873900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9408000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8268000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7610400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7819600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8380900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7437000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8879100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9457500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9829900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>10446800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9570300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>9132100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12369300</v>
+        <v>11805600</v>
       </c>
       <c r="E61" s="3">
-        <v>11720400</v>
+        <v>11847500</v>
       </c>
       <c r="F61" s="3">
-        <v>12006200</v>
+        <v>11225900</v>
       </c>
       <c r="G61" s="3">
-        <v>12277000</v>
+        <v>11499600</v>
       </c>
       <c r="H61" s="3">
-        <v>12394500</v>
+        <v>11759100</v>
       </c>
       <c r="I61" s="3">
-        <v>12792300</v>
+        <v>11871600</v>
       </c>
       <c r="J61" s="3">
+        <v>12252600</v>
+      </c>
+      <c r="K61" s="3">
         <v>13901600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13888300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15270500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15872400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12837700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14534900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11137800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13131100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6309600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4548900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4739300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4852400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5973300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5762600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5949300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6540000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7446200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7214000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1705700</v>
+        <v>1769000</v>
       </c>
       <c r="E62" s="3">
-        <v>1617400</v>
+        <v>1633700</v>
       </c>
       <c r="F62" s="3">
-        <v>1674000</v>
+        <v>1549200</v>
       </c>
       <c r="G62" s="3">
-        <v>1705200</v>
+        <v>1603300</v>
       </c>
       <c r="H62" s="3">
-        <v>1721000</v>
+        <v>1633300</v>
       </c>
       <c r="I62" s="3">
-        <v>1742600</v>
+        <v>1648400</v>
       </c>
       <c r="J62" s="3">
+        <v>1669100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1850400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1790500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2093100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2227800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1830500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1962200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1408000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1872300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1515700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1260900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1244500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1065200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1292200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1284700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1223900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1479700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1592300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1503800</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20972300</v>
+        <v>20720100</v>
       </c>
       <c r="E66" s="3">
-        <v>19963500</v>
+        <v>20087400</v>
       </c>
       <c r="F66" s="3">
-        <v>20658600</v>
+        <v>19121200</v>
       </c>
       <c r="G66" s="3">
-        <v>21489300</v>
+        <v>19787000</v>
       </c>
       <c r="H66" s="3">
-        <v>21988500</v>
+        <v>20582700</v>
       </c>
       <c r="I66" s="3">
-        <v>21107900</v>
+        <v>21060800</v>
       </c>
       <c r="J66" s="3">
+        <v>20217400</v>
+      </c>
+      <c r="K66" s="3">
         <v>22601700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23108300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26282800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26436000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23336400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>27950500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22521100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23869900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16000800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14120200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14910200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13911100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16704900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>17006400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>17551000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>19074800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>19165800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>18363900</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1692300</v>
+        <v>1814700</v>
       </c>
       <c r="E72" s="3">
-        <v>3109500</v>
+        <v>1620900</v>
       </c>
       <c r="F72" s="3">
-        <v>2325500</v>
+        <v>2978300</v>
       </c>
       <c r="G72" s="3">
-        <v>2292100</v>
+        <v>2227400</v>
       </c>
       <c r="H72" s="3">
-        <v>1989800</v>
+        <v>2195400</v>
       </c>
       <c r="I72" s="3">
-        <v>3079700</v>
+        <v>1905800</v>
       </c>
       <c r="J72" s="3">
+        <v>2949800</v>
+      </c>
+      <c r="K72" s="3">
         <v>3421800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2516200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2252700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3551600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3562800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3647400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3964700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5195400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4828000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4471800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4521900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5777800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6005900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5929300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5278900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5612000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>5136300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>5466800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2255700</v>
+        <v>2453400</v>
       </c>
       <c r="E76" s="3">
-        <v>3511900</v>
+        <v>2160500</v>
       </c>
       <c r="F76" s="3">
-        <v>2723500</v>
+        <v>3363700</v>
       </c>
       <c r="G76" s="3">
-        <v>2711600</v>
+        <v>2608600</v>
       </c>
       <c r="H76" s="3">
-        <v>2449500</v>
+        <v>2597200</v>
       </c>
       <c r="I76" s="3">
-        <v>3528500</v>
+        <v>2346100</v>
       </c>
       <c r="J76" s="3">
+        <v>3379600</v>
+      </c>
+      <c r="K76" s="3">
         <v>3969600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3294600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3090900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4627100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4211700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4419100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4567200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4308000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5578500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4964200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4825200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6188300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6657500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6437800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5882600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6758400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6273400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6547800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-115300</v>
+        <v>153700</v>
       </c>
       <c r="E81" s="3">
-        <v>680500</v>
+        <v>-110400</v>
       </c>
       <c r="F81" s="3">
-        <v>60700</v>
+        <v>651800</v>
       </c>
       <c r="G81" s="3">
-        <v>273700</v>
+        <v>58100</v>
       </c>
       <c r="H81" s="3">
-        <v>226600</v>
+        <v>262100</v>
       </c>
       <c r="I81" s="3">
-        <v>-402900</v>
+        <v>217100</v>
       </c>
       <c r="J81" s="3">
+        <v>-385900</v>
+      </c>
+      <c r="K81" s="3">
         <v>796400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>458600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>491800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>77400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>191400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-81700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>330100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>432600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>136900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>601600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>270600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>510700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>257600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>666400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-19300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>513900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>348900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>938100</v>
+        <v>638700</v>
       </c>
       <c r="E83" s="3">
-        <v>658800</v>
+        <v>898500</v>
       </c>
       <c r="F83" s="3">
-        <v>770800</v>
+        <v>631000</v>
       </c>
       <c r="G83" s="3">
-        <v>690200</v>
+        <v>738300</v>
       </c>
       <c r="H83" s="3">
-        <v>700500</v>
+        <v>661000</v>
       </c>
       <c r="I83" s="3">
-        <v>1397800</v>
+        <v>671000</v>
       </c>
       <c r="J83" s="3">
+        <v>1338800</v>
+      </c>
+      <c r="K83" s="3">
         <v>744900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>722500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>842100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>795400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>764600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>756300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>666600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>641700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>437000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>571000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>567700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>597600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>701200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>610700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>662200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>630900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>3456500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1136300</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>993200</v>
+        <v>1076800</v>
       </c>
       <c r="E89" s="3">
-        <v>975100</v>
+        <v>951300</v>
       </c>
       <c r="F89" s="3">
-        <v>882800</v>
+        <v>934000</v>
       </c>
       <c r="G89" s="3">
-        <v>1353900</v>
+        <v>845600</v>
       </c>
       <c r="H89" s="3">
-        <v>1019700</v>
+        <v>1296800</v>
       </c>
       <c r="I89" s="3">
-        <v>1122200</v>
+        <v>976700</v>
       </c>
       <c r="J89" s="3">
+        <v>1074800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1171000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1106800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1246300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1152100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>774300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1405400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>703500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1071600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>926100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1107200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>895600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>880500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1064600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1399400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1343300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1129900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4904600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1293700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-586800</v>
+        <v>-439300</v>
       </c>
       <c r="E91" s="3">
-        <v>-465200</v>
+        <v>-562000</v>
       </c>
       <c r="F91" s="3">
-        <v>-511300</v>
+        <v>-445600</v>
       </c>
       <c r="G91" s="3">
-        <v>-428200</v>
+        <v>-489700</v>
       </c>
       <c r="H91" s="3">
-        <v>-484200</v>
+        <v>-410100</v>
       </c>
       <c r="I91" s="3">
-        <v>-590600</v>
+        <v>-463800</v>
       </c>
       <c r="J91" s="3">
+        <v>-565700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-504100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1395900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>571200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-610400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>32500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-101800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-827500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1315200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>484600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-568500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-523100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-449500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-530800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1393000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2925500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-500200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-568900</v>
+        <v>-303200</v>
       </c>
       <c r="E94" s="3">
-        <v>-319600</v>
+        <v>-544900</v>
       </c>
       <c r="F94" s="3">
-        <v>-517000</v>
+        <v>-306200</v>
       </c>
       <c r="G94" s="3">
-        <v>-300600</v>
+        <v>-495200</v>
       </c>
       <c r="H94" s="3">
-        <v>-478200</v>
+        <v>-287900</v>
       </c>
       <c r="I94" s="3">
-        <v>-488700</v>
+        <v>-458100</v>
       </c>
       <c r="J94" s="3">
+        <v>-468100</v>
+      </c>
+      <c r="K94" s="3">
         <v>252400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-349300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-562400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-499100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1439700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2515000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-535700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-564800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-906400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1771500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-448800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-563600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-511600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-41700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>50900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-662400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2602200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-724700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-694200</v>
       </c>
       <c r="F96" s="3">
-        <v>-579800</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-26400</v>
+        <v>-555400</v>
       </c>
       <c r="H96" s="3">
-        <v>-698300</v>
+        <v>-25300</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-668900</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-623200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-695500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-631400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-741900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1368800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-639200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-606500</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-747500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-30800</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1386600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-32100</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1608300</v>
+        <v>-182900</v>
       </c>
       <c r="E100" s="3">
-        <v>-279000</v>
+        <v>-1540400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1027800</v>
+        <v>-267300</v>
       </c>
       <c r="G100" s="3">
-        <v>-718000</v>
+        <v>-984500</v>
       </c>
       <c r="H100" s="3">
-        <v>-800900</v>
+        <v>-687700</v>
       </c>
       <c r="I100" s="3">
-        <v>-343500</v>
+        <v>-767100</v>
       </c>
       <c r="J100" s="3">
+        <v>-329000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1074200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-653300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-893600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-302200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1248800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-253200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1835400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>209000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1683300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1548700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-652600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-311900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1372300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-107900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1948200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-15300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1114300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>503100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>22900</v>
+        <v>76800</v>
       </c>
       <c r="E101" s="3">
-        <v>-14600</v>
+        <v>21900</v>
       </c>
       <c r="F101" s="3">
-        <v>21500</v>
+        <v>-14000</v>
       </c>
       <c r="G101" s="3">
-        <v>-42300</v>
+        <v>20600</v>
       </c>
       <c r="H101" s="3">
-        <v>22200</v>
+        <v>-40500</v>
       </c>
       <c r="I101" s="3">
-        <v>-26800</v>
+        <v>21200</v>
       </c>
       <c r="J101" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-26100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-37000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-38800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>154000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>93000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-29500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>72600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-60200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>15500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>26300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-55000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-70700</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1161000</v>
+        <v>667600</v>
       </c>
       <c r="E102" s="3">
-        <v>361800</v>
+        <v>-1112000</v>
       </c>
       <c r="F102" s="3">
-        <v>-640400</v>
+        <v>346500</v>
       </c>
       <c r="G102" s="3">
-        <v>293000</v>
+        <v>-613400</v>
       </c>
       <c r="H102" s="3">
-        <v>-237200</v>
+        <v>280700</v>
       </c>
       <c r="I102" s="3">
-        <v>263200</v>
+        <v>-227200</v>
       </c>
       <c r="J102" s="3">
+        <v>252100</v>
+      </c>
+      <c r="K102" s="3">
         <v>323100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>67300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-248400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>504800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1900700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1268800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1989000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>700100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1652800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1326600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-211700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-24400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-864300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1083000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-642900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>373700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1133100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1819800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
@@ -782,25 +782,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2820300</v>
+        <v>6906400</v>
       </c>
       <c r="E8" s="3">
-        <v>2781500</v>
+        <v>2632600</v>
       </c>
       <c r="F8" s="3">
-        <v>2679600</v>
+        <v>2536100</v>
       </c>
       <c r="G8" s="3">
-        <v>2793200</v>
+        <v>2643700</v>
       </c>
       <c r="H8" s="3">
-        <v>2719400</v>
+        <v>2573900</v>
       </c>
       <c r="I8" s="3">
-        <v>2694300</v>
+        <v>2550100</v>
       </c>
       <c r="J8" s="3">
-        <v>2730100</v>
+        <v>2583900</v>
       </c>
       <c r="K8" s="3">
         <v>2483500</v>
@@ -862,25 +862,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>721000</v>
+        <v>1813500</v>
       </c>
       <c r="E9" s="3">
-        <v>728700</v>
+        <v>689700</v>
       </c>
       <c r="F9" s="3">
-        <v>711600</v>
+        <v>673500</v>
       </c>
       <c r="G9" s="3">
-        <v>805600</v>
+        <v>762500</v>
       </c>
       <c r="H9" s="3">
-        <v>679800</v>
+        <v>643400</v>
       </c>
       <c r="I9" s="3">
-        <v>683900</v>
+        <v>647300</v>
       </c>
       <c r="J9" s="3">
-        <v>725200</v>
+        <v>686400</v>
       </c>
       <c r="K9" s="3">
         <v>780400</v>
@@ -942,25 +942,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2099400</v>
+        <v>5092900</v>
       </c>
       <c r="E10" s="3">
-        <v>2052800</v>
+        <v>1942900</v>
       </c>
       <c r="F10" s="3">
-        <v>1967900</v>
+        <v>1862600</v>
       </c>
       <c r="G10" s="3">
-        <v>1987600</v>
+        <v>1881200</v>
       </c>
       <c r="H10" s="3">
-        <v>2039700</v>
+        <v>1930500</v>
       </c>
       <c r="I10" s="3">
-        <v>2010500</v>
+        <v>1902900</v>
       </c>
       <c r="J10" s="3">
-        <v>2004800</v>
+        <v>1897500</v>
       </c>
       <c r="K10" s="3">
         <v>1703200</v>
@@ -1212,25 +1212,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>11300</v>
+        <v>284600</v>
       </c>
       <c r="E14" s="3">
-        <v>271700</v>
+        <v>257200</v>
       </c>
       <c r="F14" s="3">
-        <v>17700</v>
+        <v>16700</v>
       </c>
       <c r="G14" s="3">
-        <v>98600</v>
+        <v>93300</v>
       </c>
       <c r="H14" s="3">
-        <v>18300</v>
+        <v>17300</v>
       </c>
       <c r="I14" s="3">
-        <v>14500</v>
+        <v>13700</v>
       </c>
       <c r="J14" s="3">
-        <v>10900</v>
+        <v>10300</v>
       </c>
       <c r="K14" s="3">
         <v>15300</v>
@@ -1292,25 +1292,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>640800</v>
+        <v>1633400</v>
       </c>
       <c r="E15" s="3">
-        <v>650500</v>
+        <v>615700</v>
       </c>
       <c r="F15" s="3">
-        <v>631000</v>
+        <v>597200</v>
       </c>
       <c r="G15" s="3">
-        <v>639800</v>
+        <v>605600</v>
       </c>
       <c r="H15" s="3">
-        <v>656500</v>
+        <v>621300</v>
       </c>
       <c r="I15" s="3">
-        <v>637100</v>
+        <v>603000</v>
       </c>
       <c r="J15" s="3">
-        <v>633000</v>
+        <v>599100</v>
       </c>
       <c r="K15" s="3">
         <v>459400</v>
@@ -1399,25 +1399,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2180100</v>
+        <v>5645100</v>
       </c>
       <c r="E17" s="3">
-        <v>2477100</v>
+        <v>2344500</v>
       </c>
       <c r="F17" s="3">
-        <v>2000200</v>
+        <v>1893100</v>
       </c>
       <c r="G17" s="3">
-        <v>2387800</v>
+        <v>2260000</v>
       </c>
       <c r="H17" s="3">
-        <v>2115100</v>
+        <v>2001900</v>
       </c>
       <c r="I17" s="3">
-        <v>2131700</v>
+        <v>2017600</v>
       </c>
       <c r="J17" s="3">
-        <v>2166200</v>
+        <v>2050200</v>
       </c>
       <c r="K17" s="3">
         <v>1679400</v>
@@ -1479,25 +1479,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>640200</v>
+        <v>1261400</v>
       </c>
       <c r="E18" s="3">
-        <v>304400</v>
+        <v>288100</v>
       </c>
       <c r="F18" s="3">
-        <v>679400</v>
+        <v>643000</v>
       </c>
       <c r="G18" s="3">
-        <v>405400</v>
+        <v>383700</v>
       </c>
       <c r="H18" s="3">
-        <v>604400</v>
+        <v>572000</v>
       </c>
       <c r="I18" s="3">
-        <v>562600</v>
+        <v>532500</v>
       </c>
       <c r="J18" s="3">
-        <v>563900</v>
+        <v>533700</v>
       </c>
       <c r="K18" s="3">
         <v>804100</v>
@@ -1589,25 +1589,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-240700</v>
+        <v>-344700</v>
       </c>
       <c r="E20" s="3">
-        <v>-220900</v>
+        <v>-209100</v>
       </c>
       <c r="F20" s="3">
-        <v>16500</v>
+        <v>15600</v>
       </c>
       <c r="G20" s="3">
-        <v>-7800</v>
+        <v>-7400</v>
       </c>
       <c r="H20" s="3">
-        <v>-93800</v>
+        <v>-88700</v>
       </c>
       <c r="I20" s="3">
-        <v>-62900</v>
+        <v>-59500</v>
       </c>
       <c r="J20" s="3">
-        <v>20600</v>
+        <v>19500</v>
       </c>
       <c r="K20" s="3">
         <v>219500</v>
@@ -1669,25 +1669,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1038200</v>
+        <v>2968800</v>
       </c>
       <c r="E21" s="3">
-        <v>982000</v>
+        <v>929400</v>
       </c>
       <c r="F21" s="3">
-        <v>1326800</v>
+        <v>1255800</v>
       </c>
       <c r="G21" s="3">
-        <v>1135900</v>
+        <v>1075100</v>
       </c>
       <c r="H21" s="3">
-        <v>1171700</v>
+        <v>1109000</v>
       </c>
       <c r="I21" s="3">
-        <v>1170700</v>
+        <v>1108000</v>
       </c>
       <c r="J21" s="3">
-        <v>1923400</v>
+        <v>1820400</v>
       </c>
       <c r="K21" s="3">
         <v>1768500</v>
@@ -1749,25 +1749,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>76500</v>
+        <v>217200</v>
       </c>
       <c r="E22" s="3">
-        <v>61400</v>
+        <v>58100</v>
       </c>
       <c r="F22" s="3">
-        <v>47300</v>
+        <v>44800</v>
       </c>
       <c r="G22" s="3">
-        <v>102400</v>
+        <v>96900</v>
       </c>
       <c r="H22" s="3">
-        <v>66000</v>
+        <v>62400</v>
       </c>
       <c r="I22" s="3">
-        <v>65100</v>
+        <v>61600</v>
       </c>
       <c r="J22" s="3">
-        <v>64100</v>
+        <v>60700</v>
       </c>
       <c r="K22" s="3">
         <v>110900</v>
@@ -1829,25 +1829,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>323000</v>
+        <v>699500</v>
       </c>
       <c r="E23" s="3">
-        <v>22000</v>
+        <v>20800</v>
       </c>
       <c r="F23" s="3">
-        <v>648500</v>
+        <v>613800</v>
       </c>
       <c r="G23" s="3">
-        <v>295100</v>
+        <v>279400</v>
       </c>
       <c r="H23" s="3">
-        <v>444700</v>
+        <v>420900</v>
       </c>
       <c r="I23" s="3">
-        <v>434600</v>
+        <v>411400</v>
       </c>
       <c r="J23" s="3">
-        <v>520500</v>
+        <v>492600</v>
       </c>
       <c r="K23" s="3">
         <v>912600</v>
@@ -1909,25 +1909,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>107100</v>
+        <v>-114600</v>
       </c>
       <c r="E24" s="3">
-        <v>-38000</v>
+        <v>-36000</v>
       </c>
       <c r="F24" s="3">
-        <v>-105100</v>
+        <v>-99400</v>
       </c>
       <c r="G24" s="3">
-        <v>114600</v>
+        <v>108500</v>
       </c>
       <c r="H24" s="3">
-        <v>145200</v>
+        <v>137500</v>
       </c>
       <c r="I24" s="3">
-        <v>145900</v>
+        <v>138100</v>
       </c>
       <c r="J24" s="3">
-        <v>163700</v>
+        <v>154900</v>
       </c>
       <c r="K24" s="3">
         <v>158700</v>
@@ -2069,25 +2069,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>215900</v>
+        <v>814000</v>
       </c>
       <c r="E26" s="3">
-        <v>60000</v>
+        <v>56800</v>
       </c>
       <c r="F26" s="3">
-        <v>753600</v>
+        <v>713300</v>
       </c>
       <c r="G26" s="3">
-        <v>180600</v>
+        <v>170900</v>
       </c>
       <c r="H26" s="3">
-        <v>299400</v>
+        <v>283400</v>
       </c>
       <c r="I26" s="3">
-        <v>288700</v>
+        <v>273200</v>
       </c>
       <c r="J26" s="3">
-        <v>356800</v>
+        <v>337700</v>
       </c>
       <c r="K26" s="3">
         <v>754000</v>
@@ -2149,25 +2149,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>139100</v>
+        <v>604600</v>
       </c>
       <c r="E27" s="3">
-        <v>-16900</v>
+        <v>-16000</v>
       </c>
       <c r="F27" s="3">
-        <v>686000</v>
+        <v>649300</v>
       </c>
       <c r="G27" s="3">
-        <v>111000</v>
+        <v>105100</v>
       </c>
       <c r="H27" s="3">
-        <v>219800</v>
+        <v>208000</v>
       </c>
       <c r="I27" s="3">
-        <v>209000</v>
+        <v>197800</v>
       </c>
       <c r="J27" s="3">
-        <v>281600</v>
+        <v>266500</v>
       </c>
       <c r="K27" s="3">
         <v>668600</v>
@@ -2309,25 +2309,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>14600</v>
+        <v>53300</v>
       </c>
       <c r="E29" s="3">
-        <v>-93600</v>
+        <v>-88500</v>
       </c>
       <c r="F29" s="3">
-        <v>-34200</v>
+        <v>-32400</v>
       </c>
       <c r="G29" s="3">
-        <v>-52900</v>
+        <v>-50000</v>
       </c>
       <c r="H29" s="3">
-        <v>42400</v>
+        <v>40100</v>
       </c>
       <c r="I29" s="3">
-        <v>8000</v>
+        <v>7600</v>
       </c>
       <c r="J29" s="3">
-        <v>-667500</v>
+        <v>-631800</v>
       </c>
       <c r="K29" s="3">
         <v>127800</v>
@@ -2549,25 +2549,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>240700</v>
+        <v>344700</v>
       </c>
       <c r="E32" s="3">
-        <v>220900</v>
+        <v>209100</v>
       </c>
       <c r="F32" s="3">
-        <v>-16500</v>
+        <v>-15600</v>
       </c>
       <c r="G32" s="3">
-        <v>7800</v>
+        <v>7400</v>
       </c>
       <c r="H32" s="3">
-        <v>93800</v>
+        <v>88700</v>
       </c>
       <c r="I32" s="3">
-        <v>62900</v>
+        <v>59500</v>
       </c>
       <c r="J32" s="3">
-        <v>-20600</v>
+        <v>-19500</v>
       </c>
       <c r="K32" s="3">
         <v>-219500</v>
@@ -2629,25 +2629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>153700</v>
+        <v>658000</v>
       </c>
       <c r="E33" s="3">
-        <v>-110400</v>
+        <v>-104500</v>
       </c>
       <c r="F33" s="3">
-        <v>651800</v>
+        <v>616900</v>
       </c>
       <c r="G33" s="3">
-        <v>58100</v>
+        <v>55000</v>
       </c>
       <c r="H33" s="3">
-        <v>262100</v>
+        <v>248100</v>
       </c>
       <c r="I33" s="3">
-        <v>217100</v>
+        <v>205500</v>
       </c>
       <c r="J33" s="3">
-        <v>-385900</v>
+        <v>-365300</v>
       </c>
       <c r="K33" s="3">
         <v>796400</v>
@@ -2789,25 +2789,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>153700</v>
+        <v>658000</v>
       </c>
       <c r="E35" s="3">
-        <v>-110400</v>
+        <v>-104500</v>
       </c>
       <c r="F35" s="3">
-        <v>651800</v>
+        <v>616900</v>
       </c>
       <c r="G35" s="3">
-        <v>58100</v>
+        <v>55000</v>
       </c>
       <c r="H35" s="3">
-        <v>262100</v>
+        <v>248100</v>
       </c>
       <c r="I35" s="3">
-        <v>217100</v>
+        <v>205500</v>
       </c>
       <c r="J35" s="3">
-        <v>-385900</v>
+        <v>-365300</v>
       </c>
       <c r="K35" s="3">
         <v>796400</v>
@@ -3014,25 +3014,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1609600</v>
+        <v>1523400</v>
       </c>
       <c r="E41" s="3">
-        <v>933800</v>
+        <v>883800</v>
       </c>
       <c r="F41" s="3">
-        <v>2063400</v>
+        <v>1952900</v>
       </c>
       <c r="G41" s="3">
-        <v>1510300</v>
+        <v>1429400</v>
       </c>
       <c r="H41" s="3">
-        <v>2182300</v>
+        <v>2065500</v>
       </c>
       <c r="I41" s="3">
-        <v>1957700</v>
+        <v>1852900</v>
       </c>
       <c r="J41" s="3">
-        <v>2260500</v>
+        <v>2139500</v>
       </c>
       <c r="K41" s="3">
         <v>2131400</v>
@@ -3094,25 +3094,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>72900</v>
+        <v>69000</v>
       </c>
       <c r="E42" s="3">
-        <v>60100</v>
+        <v>56900</v>
       </c>
       <c r="F42" s="3">
-        <v>64900</v>
+        <v>61400</v>
       </c>
       <c r="G42" s="3">
-        <v>83200</v>
+        <v>78800</v>
       </c>
       <c r="H42" s="3">
-        <v>100600</v>
+        <v>95200</v>
       </c>
       <c r="I42" s="3">
-        <v>75500</v>
+        <v>71500</v>
       </c>
       <c r="J42" s="3">
-        <v>57300</v>
+        <v>54300</v>
       </c>
       <c r="K42" s="3">
         <v>59700</v>
@@ -3174,25 +3174,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2250900</v>
+        <v>2130400</v>
       </c>
       <c r="E43" s="3">
-        <v>2267000</v>
+        <v>2145700</v>
       </c>
       <c r="F43" s="3">
-        <v>2118500</v>
+        <v>2005100</v>
       </c>
       <c r="G43" s="3">
-        <v>2156700</v>
+        <v>2041300</v>
       </c>
       <c r="H43" s="3">
-        <v>2305400</v>
+        <v>2182000</v>
       </c>
       <c r="I43" s="3">
-        <v>2339000</v>
+        <v>2213800</v>
       </c>
       <c r="J43" s="3">
-        <v>2339000</v>
+        <v>2213800</v>
       </c>
       <c r="K43" s="3">
         <v>2730300</v>
@@ -3254,25 +3254,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>182500</v>
+        <v>172800</v>
       </c>
       <c r="E44" s="3">
-        <v>165900</v>
+        <v>157000</v>
       </c>
       <c r="F44" s="3">
-        <v>155000</v>
+        <v>146700</v>
       </c>
       <c r="G44" s="3">
-        <v>155100</v>
+        <v>146800</v>
       </c>
       <c r="H44" s="3">
-        <v>111800</v>
+        <v>105800</v>
       </c>
       <c r="I44" s="3">
-        <v>128400</v>
+        <v>121500</v>
       </c>
       <c r="J44" s="3">
-        <v>157700</v>
+        <v>149300</v>
       </c>
       <c r="K44" s="3">
         <v>136000</v>
@@ -3334,25 +3334,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>148200</v>
+        <v>140300</v>
       </c>
       <c r="E45" s="3">
-        <v>162000</v>
+        <v>153300</v>
       </c>
       <c r="F45" s="3">
-        <v>147300</v>
+        <v>139400</v>
       </c>
       <c r="G45" s="3">
-        <v>444400</v>
+        <v>420600</v>
       </c>
       <c r="H45" s="3">
-        <v>451800</v>
+        <v>427600</v>
       </c>
       <c r="I45" s="3">
-        <v>407600</v>
+        <v>385700</v>
       </c>
       <c r="J45" s="3">
-        <v>151700</v>
+        <v>143600</v>
       </c>
       <c r="K45" s="3">
         <v>128400</v>
@@ -3414,25 +3414,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4264100</v>
+        <v>4035900</v>
       </c>
       <c r="E46" s="3">
-        <v>3588800</v>
+        <v>3396700</v>
       </c>
       <c r="F46" s="3">
-        <v>4549100</v>
+        <v>4305600</v>
       </c>
       <c r="G46" s="3">
-        <v>4349700</v>
+        <v>4116900</v>
       </c>
       <c r="H46" s="3">
-        <v>5152000</v>
+        <v>4876200</v>
       </c>
       <c r="I46" s="3">
-        <v>4908100</v>
+        <v>4645400</v>
       </c>
       <c r="J46" s="3">
-        <v>4966300</v>
+        <v>4700400</v>
       </c>
       <c r="K46" s="3">
         <v>5185700</v>
@@ -3494,25 +3494,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>605100</v>
+        <v>572700</v>
       </c>
       <c r="E47" s="3">
-        <v>584000</v>
+        <v>552800</v>
       </c>
       <c r="F47" s="3">
-        <v>556600</v>
+        <v>526800</v>
       </c>
       <c r="G47" s="3">
-        <v>563800</v>
+        <v>533600</v>
       </c>
       <c r="H47" s="3">
-        <v>576600</v>
+        <v>545700</v>
       </c>
       <c r="I47" s="3">
-        <v>597200</v>
+        <v>565300</v>
       </c>
       <c r="J47" s="3">
-        <v>620400</v>
+        <v>587200</v>
       </c>
       <c r="K47" s="3">
         <v>664700</v>
@@ -3574,25 +3574,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12573800</v>
+        <v>11900800</v>
       </c>
       <c r="E48" s="3">
-        <v>12452500</v>
+        <v>11786000</v>
       </c>
       <c r="F48" s="3">
-        <v>12163600</v>
+        <v>11512600</v>
       </c>
       <c r="G48" s="3">
-        <v>12335000</v>
+        <v>11674800</v>
       </c>
       <c r="H48" s="3">
-        <v>12275300</v>
+        <v>11618200</v>
       </c>
       <c r="I48" s="3">
-        <v>12551300</v>
+        <v>11879500</v>
       </c>
       <c r="J48" s="3">
-        <v>12638300</v>
+        <v>11961800</v>
       </c>
       <c r="K48" s="3">
         <v>14727000</v>
@@ -3654,25 +3654,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3853700</v>
+        <v>3647500</v>
       </c>
       <c r="E49" s="3">
-        <v>3768800</v>
+        <v>3567100</v>
       </c>
       <c r="F49" s="3">
-        <v>3579400</v>
+        <v>3387800</v>
       </c>
       <c r="G49" s="3">
-        <v>3734600</v>
+        <v>3534700</v>
       </c>
       <c r="H49" s="3">
-        <v>3786400</v>
+        <v>3583800</v>
       </c>
       <c r="I49" s="3">
-        <v>3814200</v>
+        <v>3610100</v>
       </c>
       <c r="J49" s="3">
-        <v>3777700</v>
+        <v>3575500</v>
       </c>
       <c r="K49" s="3">
         <v>4160700</v>
@@ -3894,25 +3894,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1876800</v>
+        <v>1776300</v>
       </c>
       <c r="E52" s="3">
-        <v>1853700</v>
+        <v>1754500</v>
       </c>
       <c r="F52" s="3">
-        <v>1636300</v>
+        <v>1548700</v>
       </c>
       <c r="G52" s="3">
-        <v>1412700</v>
+        <v>1337000</v>
       </c>
       <c r="H52" s="3">
-        <v>1389600</v>
+        <v>1315300</v>
       </c>
       <c r="I52" s="3">
-        <v>1536100</v>
+        <v>1453900</v>
       </c>
       <c r="J52" s="3">
-        <v>1594400</v>
+        <v>1509100</v>
       </c>
       <c r="K52" s="3">
         <v>1833200</v>
@@ -4054,25 +4054,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23173500</v>
+        <v>21933200</v>
       </c>
       <c r="E54" s="3">
-        <v>22247900</v>
+        <v>21057200</v>
       </c>
       <c r="F54" s="3">
-        <v>22485000</v>
+        <v>21281500</v>
       </c>
       <c r="G54" s="3">
-        <v>22395700</v>
+        <v>21197000</v>
       </c>
       <c r="H54" s="3">
-        <v>23179900</v>
+        <v>21939300</v>
       </c>
       <c r="I54" s="3">
-        <v>23406900</v>
+        <v>22154100</v>
       </c>
       <c r="J54" s="3">
-        <v>23597000</v>
+        <v>22334000</v>
       </c>
       <c r="K54" s="3">
         <v>26571300</v>
@@ -4194,25 +4194,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3125700</v>
+        <v>2958400</v>
       </c>
       <c r="E57" s="3">
-        <v>3090300</v>
+        <v>2924900</v>
       </c>
       <c r="F57" s="3">
-        <v>3061500</v>
+        <v>2897700</v>
       </c>
       <c r="G57" s="3">
-        <v>3206500</v>
+        <v>3034800</v>
       </c>
       <c r="H57" s="3">
-        <v>3046900</v>
+        <v>2883900</v>
       </c>
       <c r="I57" s="3">
-        <v>2982200</v>
+        <v>2822500</v>
       </c>
       <c r="J57" s="3">
-        <v>3151300</v>
+        <v>2982600</v>
       </c>
       <c r="K57" s="3">
         <v>3510400</v>
@@ -4274,25 +4274,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1761300</v>
+        <v>1667000</v>
       </c>
       <c r="E58" s="3">
-        <v>1295400</v>
+        <v>1226100</v>
       </c>
       <c r="F58" s="3">
-        <v>1554500</v>
+        <v>1471300</v>
       </c>
       <c r="G58" s="3">
-        <v>1612500</v>
+        <v>1526200</v>
       </c>
       <c r="H58" s="3">
-        <v>1800200</v>
+        <v>1703800</v>
       </c>
       <c r="I58" s="3">
-        <v>2195600</v>
+        <v>2078100</v>
       </c>
       <c r="J58" s="3">
-        <v>1544700</v>
+        <v>1462000</v>
       </c>
       <c r="K58" s="3">
         <v>1718800</v>
@@ -4354,25 +4354,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1765600</v>
+        <v>1671100</v>
       </c>
       <c r="E59" s="3">
-        <v>1696400</v>
+        <v>1605600</v>
       </c>
       <c r="F59" s="3">
-        <v>1185200</v>
+        <v>1121700</v>
       </c>
       <c r="G59" s="3">
-        <v>1348700</v>
+        <v>1276500</v>
       </c>
       <c r="H59" s="3">
-        <v>1869300</v>
+        <v>1769300</v>
       </c>
       <c r="I59" s="3">
-        <v>1862200</v>
+        <v>1762500</v>
       </c>
       <c r="J59" s="3">
-        <v>1062000</v>
+        <v>1005200</v>
       </c>
       <c r="K59" s="3">
         <v>1041100</v>
@@ -4434,25 +4434,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6652600</v>
+        <v>6296600</v>
       </c>
       <c r="E60" s="3">
-        <v>6082100</v>
+        <v>5756500</v>
       </c>
       <c r="F60" s="3">
-        <v>5801200</v>
+        <v>5490700</v>
       </c>
       <c r="G60" s="3">
-        <v>6167600</v>
+        <v>5837500</v>
       </c>
       <c r="H60" s="3">
-        <v>6716400</v>
+        <v>6356900</v>
       </c>
       <c r="I60" s="3">
-        <v>7039900</v>
+        <v>6663100</v>
       </c>
       <c r="J60" s="3">
-        <v>5758000</v>
+        <v>5449900</v>
       </c>
       <c r="K60" s="3">
         <v>6270300</v>
@@ -4514,25 +4514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11805600</v>
+        <v>11173700</v>
       </c>
       <c r="E61" s="3">
-        <v>11847500</v>
+        <v>11213400</v>
       </c>
       <c r="F61" s="3">
-        <v>11225900</v>
+        <v>10625100</v>
       </c>
       <c r="G61" s="3">
-        <v>11499600</v>
+        <v>10884100</v>
       </c>
       <c r="H61" s="3">
-        <v>11759100</v>
+        <v>11129700</v>
       </c>
       <c r="I61" s="3">
-        <v>11871600</v>
+        <v>11236200</v>
       </c>
       <c r="J61" s="3">
-        <v>12252600</v>
+        <v>11596800</v>
       </c>
       <c r="K61" s="3">
         <v>13901600</v>
@@ -4594,25 +4594,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1769000</v>
+        <v>1674300</v>
       </c>
       <c r="E62" s="3">
-        <v>1633700</v>
+        <v>1546300</v>
       </c>
       <c r="F62" s="3">
-        <v>1549200</v>
+        <v>1466200</v>
       </c>
       <c r="G62" s="3">
-        <v>1603300</v>
+        <v>1517500</v>
       </c>
       <c r="H62" s="3">
-        <v>1633300</v>
+        <v>1545900</v>
       </c>
       <c r="I62" s="3">
-        <v>1648400</v>
+        <v>1560100</v>
       </c>
       <c r="J62" s="3">
-        <v>1669100</v>
+        <v>1579800</v>
       </c>
       <c r="K62" s="3">
         <v>1850400</v>
@@ -4914,25 +4914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20720100</v>
+        <v>19611100</v>
       </c>
       <c r="E66" s="3">
-        <v>20087400</v>
+        <v>19012300</v>
       </c>
       <c r="F66" s="3">
-        <v>19121200</v>
+        <v>18097800</v>
       </c>
       <c r="G66" s="3">
-        <v>19787000</v>
+        <v>18728000</v>
       </c>
       <c r="H66" s="3">
-        <v>20582700</v>
+        <v>19481100</v>
       </c>
       <c r="I66" s="3">
-        <v>21060800</v>
+        <v>19933600</v>
       </c>
       <c r="J66" s="3">
-        <v>20217400</v>
+        <v>19135300</v>
       </c>
       <c r="K66" s="3">
         <v>22601700</v>
@@ -5344,25 +5344,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1814700</v>
+        <v>1717600</v>
       </c>
       <c r="E72" s="3">
-        <v>1620900</v>
+        <v>1534100</v>
       </c>
       <c r="F72" s="3">
-        <v>2978300</v>
+        <v>2818900</v>
       </c>
       <c r="G72" s="3">
-        <v>2227400</v>
+        <v>2108100</v>
       </c>
       <c r="H72" s="3">
-        <v>2195400</v>
+        <v>2077900</v>
       </c>
       <c r="I72" s="3">
-        <v>1905800</v>
+        <v>1803800</v>
       </c>
       <c r="J72" s="3">
-        <v>2949800</v>
+        <v>2791900</v>
       </c>
       <c r="K72" s="3">
         <v>3421800</v>
@@ -5664,25 +5664,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2453400</v>
+        <v>2322100</v>
       </c>
       <c r="E76" s="3">
-        <v>2160500</v>
+        <v>2044900</v>
       </c>
       <c r="F76" s="3">
-        <v>3363700</v>
+        <v>3183700</v>
       </c>
       <c r="G76" s="3">
-        <v>2608600</v>
+        <v>2469000</v>
       </c>
       <c r="H76" s="3">
-        <v>2597200</v>
+        <v>2458200</v>
       </c>
       <c r="I76" s="3">
-        <v>2346100</v>
+        <v>2220500</v>
       </c>
       <c r="J76" s="3">
-        <v>3379600</v>
+        <v>3198700</v>
       </c>
       <c r="K76" s="3">
         <v>3969600</v>
@@ -5909,25 +5909,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>153700</v>
+        <v>658000</v>
       </c>
       <c r="E81" s="3">
-        <v>-110400</v>
+        <v>-104500</v>
       </c>
       <c r="F81" s="3">
-        <v>651800</v>
+        <v>616900</v>
       </c>
       <c r="G81" s="3">
-        <v>58100</v>
+        <v>55000</v>
       </c>
       <c r="H81" s="3">
-        <v>262100</v>
+        <v>248100</v>
       </c>
       <c r="I81" s="3">
-        <v>217100</v>
+        <v>205500</v>
       </c>
       <c r="J81" s="3">
-        <v>-385900</v>
+        <v>-365300</v>
       </c>
       <c r="K81" s="3">
         <v>796400</v>
@@ -6019,25 +6019,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>638700</v>
+        <v>2052200</v>
       </c>
       <c r="E83" s="3">
-        <v>898500</v>
+        <v>850500</v>
       </c>
       <c r="F83" s="3">
-        <v>631000</v>
+        <v>597200</v>
       </c>
       <c r="G83" s="3">
-        <v>738300</v>
+        <v>698800</v>
       </c>
       <c r="H83" s="3">
-        <v>661000</v>
+        <v>625700</v>
       </c>
       <c r="I83" s="3">
-        <v>671000</v>
+        <v>635000</v>
       </c>
       <c r="J83" s="3">
-        <v>1338800</v>
+        <v>1267200</v>
       </c>
       <c r="K83" s="3">
         <v>744900</v>
@@ -6499,25 +6499,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1076800</v>
+        <v>2803600</v>
       </c>
       <c r="E89" s="3">
-        <v>951300</v>
+        <v>900400</v>
       </c>
       <c r="F89" s="3">
-        <v>934000</v>
+        <v>884000</v>
       </c>
       <c r="G89" s="3">
-        <v>845600</v>
+        <v>800300</v>
       </c>
       <c r="H89" s="3">
-        <v>1296800</v>
+        <v>1227400</v>
       </c>
       <c r="I89" s="3">
-        <v>976700</v>
+        <v>924400</v>
       </c>
       <c r="J89" s="3">
-        <v>1074800</v>
+        <v>1017300</v>
       </c>
       <c r="K89" s="3">
         <v>1171000</v>
@@ -6609,25 +6609,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-439300</v>
+        <v>-1369400</v>
       </c>
       <c r="E91" s="3">
-        <v>-562000</v>
+        <v>-531900</v>
       </c>
       <c r="F91" s="3">
-        <v>-445600</v>
+        <v>-421700</v>
       </c>
       <c r="G91" s="3">
-        <v>-489700</v>
+        <v>-463500</v>
       </c>
       <c r="H91" s="3">
-        <v>-410100</v>
+        <v>-388200</v>
       </c>
       <c r="I91" s="3">
-        <v>-463800</v>
+        <v>-439000</v>
       </c>
       <c r="J91" s="3">
-        <v>-565700</v>
+        <v>-535400</v>
       </c>
       <c r="K91" s="3">
         <v>-504100</v>
@@ -6849,25 +6849,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-303200</v>
+        <v>-1092400</v>
       </c>
       <c r="E94" s="3">
-        <v>-544900</v>
+        <v>-515700</v>
       </c>
       <c r="F94" s="3">
-        <v>-306200</v>
+        <v>-289800</v>
       </c>
       <c r="G94" s="3">
-        <v>-495200</v>
+        <v>-468700</v>
       </c>
       <c r="H94" s="3">
-        <v>-287900</v>
+        <v>-272500</v>
       </c>
       <c r="I94" s="3">
-        <v>-458100</v>
+        <v>-433500</v>
       </c>
       <c r="J94" s="3">
-        <v>-468100</v>
+        <v>-443000</v>
       </c>
       <c r="K94" s="3">
         <v>252400</v>
@@ -6959,22 +6959,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-657000</v>
       </c>
       <c r="E96" s="3">
-        <v>-694200</v>
+        <v>-657000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-555400</v>
+        <v>-525700</v>
       </c>
       <c r="H96" s="3">
-        <v>-25300</v>
+        <v>-23900</v>
       </c>
       <c r="I96" s="3">
-        <v>-668900</v>
+        <v>-633100</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -7279,25 +7279,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-182900</v>
+        <v>-1884000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1540400</v>
+        <v>-1458000</v>
       </c>
       <c r="F100" s="3">
-        <v>-267300</v>
+        <v>-253000</v>
       </c>
       <c r="G100" s="3">
-        <v>-984500</v>
+        <v>-931800</v>
       </c>
       <c r="H100" s="3">
-        <v>-687700</v>
+        <v>-650900</v>
       </c>
       <c r="I100" s="3">
-        <v>-767100</v>
+        <v>-726000</v>
       </c>
       <c r="J100" s="3">
-        <v>-329000</v>
+        <v>-311400</v>
       </c>
       <c r="K100" s="3">
         <v>-1074200</v>
@@ -7359,25 +7359,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>76800</v>
+        <v>80200</v>
       </c>
       <c r="E101" s="3">
-        <v>21900</v>
+        <v>20800</v>
       </c>
       <c r="F101" s="3">
-        <v>-14000</v>
+        <v>-13200</v>
       </c>
       <c r="G101" s="3">
-        <v>20600</v>
+        <v>19500</v>
       </c>
       <c r="H101" s="3">
-        <v>-40500</v>
+        <v>-38300</v>
       </c>
       <c r="I101" s="3">
-        <v>21200</v>
+        <v>20100</v>
       </c>
       <c r="J101" s="3">
-        <v>-25700</v>
+        <v>-24300</v>
       </c>
       <c r="K101" s="3">
         <v>-26100</v>
@@ -7439,25 +7439,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>667600</v>
+        <v>-92700</v>
       </c>
       <c r="E102" s="3">
-        <v>-1112000</v>
+        <v>-1052500</v>
       </c>
       <c r="F102" s="3">
-        <v>346500</v>
+        <v>328000</v>
       </c>
       <c r="G102" s="3">
-        <v>-613400</v>
+        <v>-580600</v>
       </c>
       <c r="H102" s="3">
-        <v>280700</v>
+        <v>265600</v>
       </c>
       <c r="I102" s="3">
-        <v>-227200</v>
+        <v>-215000</v>
       </c>
       <c r="J102" s="3">
-        <v>252100</v>
+        <v>238600</v>
       </c>
       <c r="K102" s="3">
         <v>323100</v>

--- a/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>TELNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,384 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6906400</v>
+        <v>1760400</v>
       </c>
       <c r="E8" s="3">
-        <v>2632600</v>
+        <v>1420300</v>
       </c>
       <c r="F8" s="3">
-        <v>2536100</v>
+        <v>2608300</v>
       </c>
       <c r="G8" s="3">
-        <v>2643700</v>
+        <v>2572300</v>
       </c>
       <c r="H8" s="3">
-        <v>2573900</v>
+        <v>2478100</v>
       </c>
       <c r="I8" s="3">
+        <v>1382300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2515000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2550100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2583900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2483500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3039500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3219500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3236500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3165100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3421100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3112400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3010000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2674300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2820000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2813600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2777400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2247000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>3179900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>3280600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>3402600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>15461200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>3853000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1813500</v>
+        <v>428300</v>
       </c>
       <c r="E9" s="3">
-        <v>689700</v>
+        <v>423800</v>
       </c>
       <c r="F9" s="3">
-        <v>673500</v>
+        <v>666700</v>
       </c>
       <c r="G9" s="3">
-        <v>762500</v>
+        <v>673900</v>
       </c>
       <c r="H9" s="3">
-        <v>643400</v>
+        <v>658100</v>
       </c>
       <c r="I9" s="3">
+        <v>416100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>628700</v>
+      </c>
+      <c r="K9" s="3">
         <v>647300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>686400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>780400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>702800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>780300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>795900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>785200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>816200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>725100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>700800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>588400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>619800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>662700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>632900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>523300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>725500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>760900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1192600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>5577700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>1329500</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5092900</v>
+        <v>1332100</v>
       </c>
       <c r="E10" s="3">
-        <v>1942900</v>
+        <v>996500</v>
       </c>
       <c r="F10" s="3">
-        <v>1862600</v>
+        <v>1941500</v>
       </c>
       <c r="G10" s="3">
-        <v>1881200</v>
+        <v>1898400</v>
       </c>
       <c r="H10" s="3">
-        <v>1930500</v>
+        <v>1820000</v>
       </c>
       <c r="I10" s="3">
+        <v>966200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1886300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1902900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1897500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1703200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2336700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2439200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2440500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2380000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2605000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2387300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2309300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2085900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2200200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>2150900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>2144500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1723800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>2454400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>2519700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>2210000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>9883500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>2523500</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,168 +1239,186 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>284600</v>
+        <v>16900</v>
       </c>
       <c r="E14" s="3">
-        <v>257200</v>
+        <v>31300</v>
       </c>
       <c r="F14" s="3">
-        <v>16700</v>
+        <v>10500</v>
       </c>
       <c r="G14" s="3">
-        <v>93300</v>
+        <v>251300</v>
       </c>
       <c r="H14" s="3">
-        <v>17300</v>
+        <v>16300</v>
       </c>
       <c r="I14" s="3">
+        <v>91300</v>
+      </c>
+      <c r="J14" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K14" s="3">
         <v>13700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>10300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>15300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>10900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>147800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>37000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>37100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>5200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>26900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>20700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>268700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>25500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>26600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>18600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>59900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>55600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>718100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>-82400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>158900</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>707900</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1633400</v>
+        <v>368700</v>
       </c>
       <c r="E15" s="3">
-        <v>615700</v>
+        <v>357300</v>
       </c>
       <c r="F15" s="3">
-        <v>597200</v>
+        <v>592600</v>
       </c>
       <c r="G15" s="3">
-        <v>605600</v>
+        <v>601600</v>
       </c>
       <c r="H15" s="3">
-        <v>621300</v>
+        <v>583500</v>
       </c>
       <c r="I15" s="3">
+        <v>351200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>607100</v>
+      </c>
+      <c r="K15" s="3">
         <v>603000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>599100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>459400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>722500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>761100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>722000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>756200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>757100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>666800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>637800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>462800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>553400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>529200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>547800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>457600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>556300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>570100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>581900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>2414600</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5645100</v>
+        <v>1408600</v>
       </c>
       <c r="E17" s="3">
-        <v>2344500</v>
+        <v>1336900</v>
       </c>
       <c r="F17" s="3">
-        <v>1893100</v>
+        <v>2016200</v>
       </c>
       <c r="G17" s="3">
-        <v>2260000</v>
+        <v>2290800</v>
       </c>
       <c r="H17" s="3">
-        <v>2001900</v>
+        <v>1849800</v>
       </c>
       <c r="I17" s="3">
+        <v>1360800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1956000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2017600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2050200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1679400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2209800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2664400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2547000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2550200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2612300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2398400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2269400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2378100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2132300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2221000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2183200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1893900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2354800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>3111300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2705400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>12375000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>3663500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1261400</v>
+        <v>351800</v>
       </c>
       <c r="E18" s="3">
-        <v>288100</v>
+        <v>83400</v>
       </c>
       <c r="F18" s="3">
-        <v>643000</v>
+        <v>592100</v>
       </c>
       <c r="G18" s="3">
-        <v>383700</v>
+        <v>281500</v>
       </c>
       <c r="H18" s="3">
-        <v>572000</v>
+        <v>628300</v>
       </c>
       <c r="I18" s="3">
+        <v>21500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>558900</v>
+      </c>
+      <c r="K18" s="3">
         <v>532500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>533700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>804100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>829700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>555100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>689500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>614900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>808800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>714000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>740600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>296200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>687700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>592500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>594300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>353200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>825100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>169300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>697100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>3086200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>189500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1648,440 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-344700</v>
+        <v>-313800</v>
       </c>
       <c r="E20" s="3">
-        <v>-209100</v>
+        <v>53300</v>
       </c>
       <c r="F20" s="3">
-        <v>15600</v>
+        <v>-222600</v>
       </c>
       <c r="G20" s="3">
-        <v>-7400</v>
+        <v>-204300</v>
       </c>
       <c r="H20" s="3">
-        <v>-88700</v>
+        <v>15200</v>
       </c>
       <c r="I20" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-86700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-59500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>19500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>219500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>49700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>120200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-404300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>85200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-202000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>7100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>62800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-258100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>9800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-124000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>233900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-45200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>211800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>102900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>100400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-323500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>90900</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2968800</v>
+        <v>495200</v>
       </c>
       <c r="E21" s="3">
-        <v>929400</v>
+        <v>720400</v>
       </c>
       <c r="F21" s="3">
-        <v>1255800</v>
+        <v>960200</v>
       </c>
       <c r="G21" s="3">
-        <v>1075100</v>
+        <v>908100</v>
       </c>
       <c r="H21" s="3">
-        <v>1109000</v>
+        <v>1227100</v>
       </c>
       <c r="I21" s="3">
+        <v>694900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1083600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1108000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1820400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1768500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1602000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1517400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1080600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1464700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1363200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1387700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1445100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>516500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1252700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1017600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1422600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1009200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1647600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>934400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>1428400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>6219100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>1416700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>217200</v>
+        <v>42600</v>
       </c>
       <c r="E22" s="3">
-        <v>58100</v>
+        <v>70900</v>
       </c>
       <c r="F22" s="3">
-        <v>44800</v>
+        <v>70700</v>
       </c>
       <c r="G22" s="3">
-        <v>96900</v>
+        <v>56800</v>
       </c>
       <c r="H22" s="3">
-        <v>62400</v>
+        <v>43800</v>
       </c>
       <c r="I22" s="3">
+        <v>47500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="K22" s="3">
         <v>61600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>60700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>110900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>107400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>85400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>89800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>173900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>135400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>117100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>100900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>104900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>45900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>46200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>30500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>105800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>54700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>72700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>72500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>382700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>699500</v>
+        <v>-4600</v>
       </c>
       <c r="E23" s="3">
-        <v>20800</v>
+        <v>65800</v>
       </c>
       <c r="F23" s="3">
-        <v>613800</v>
+        <v>298700</v>
       </c>
       <c r="G23" s="3">
-        <v>279400</v>
+        <v>20400</v>
       </c>
       <c r="H23" s="3">
-        <v>420900</v>
+        <v>599800</v>
       </c>
       <c r="I23" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>411200</v>
+      </c>
+      <c r="K23" s="3">
         <v>411400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>492600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>912600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>772100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>589800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>195400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>526300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>471500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>603900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>702600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-66900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>651500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>422300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>797600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>202200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>982200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>199500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>725000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>2379900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-114600</v>
+        <v>17300</v>
       </c>
       <c r="E24" s="3">
-        <v>-36000</v>
+        <v>-234100</v>
       </c>
       <c r="F24" s="3">
-        <v>-99400</v>
+        <v>99100</v>
       </c>
       <c r="G24" s="3">
-        <v>108500</v>
+        <v>-35100</v>
       </c>
       <c r="H24" s="3">
-        <v>137500</v>
+        <v>-97200</v>
       </c>
       <c r="I24" s="3">
+        <v>38800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>134300</v>
+      </c>
+      <c r="K24" s="3">
         <v>138100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>154900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>158700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>217500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>221300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>69100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>147500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>483800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>216100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>203000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>55800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>205700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>125000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>235000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>77200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>272900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>186400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>197900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>730400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>814000</v>
+        <v>-21900</v>
       </c>
       <c r="E26" s="3">
-        <v>56800</v>
+        <v>299900</v>
       </c>
       <c r="F26" s="3">
-        <v>713300</v>
+        <v>199600</v>
       </c>
       <c r="G26" s="3">
-        <v>170900</v>
+        <v>55500</v>
       </c>
       <c r="H26" s="3">
-        <v>283400</v>
+        <v>696900</v>
       </c>
       <c r="I26" s="3">
+        <v>-74200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>276900</v>
+      </c>
+      <c r="K26" s="3">
         <v>273200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>337700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>754000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>554600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>368500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>126300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>378700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>387800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>499600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-122700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>445800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>297300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>562700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>124900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>709300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>13100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>527100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>1649500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>604600</v>
+        <v>-56700</v>
       </c>
       <c r="E27" s="3">
-        <v>-16000</v>
+        <v>259900</v>
       </c>
       <c r="F27" s="3">
-        <v>649300</v>
+        <v>128600</v>
       </c>
       <c r="G27" s="3">
-        <v>105100</v>
+        <v>-15600</v>
       </c>
       <c r="H27" s="3">
-        <v>208000</v>
+        <v>634500</v>
       </c>
       <c r="I27" s="3">
+        <v>-138600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>203200</v>
+      </c>
+      <c r="K27" s="3">
         <v>197800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>266500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>668600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>461100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>266200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>9600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>277900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-113600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>302100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>397100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-160200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>370200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>208100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>484100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>46100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>623500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-79500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>441500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>1282600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-93500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,88 +2418,100 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>53300</v>
+        <v>1721600</v>
       </c>
       <c r="E29" s="3">
-        <v>-88500</v>
+        <v>3218000</v>
       </c>
       <c r="F29" s="3">
-        <v>-32400</v>
+        <v>13500</v>
       </c>
       <c r="G29" s="3">
-        <v>-50000</v>
+        <v>-86500</v>
       </c>
       <c r="H29" s="3">
-        <v>40100</v>
+        <v>-31700</v>
       </c>
       <c r="I29" s="3">
+        <v>143500</v>
+      </c>
+      <c r="J29" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K29" s="3">
         <v>7600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-631800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>127800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-2500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>225600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>67900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-86600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>31900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>28000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>35400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>297100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>231400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>62500</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>26600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>211500</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>42800</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>60200</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AB29" s="3">
         <v>72400</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AC29" s="3">
         <v>-933600</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AD29" s="3">
         <v>-501000</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2676,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>344700</v>
+        <v>313800</v>
       </c>
       <c r="E32" s="3">
-        <v>209100</v>
+        <v>-53300</v>
       </c>
       <c r="F32" s="3">
-        <v>-15600</v>
+        <v>222600</v>
       </c>
       <c r="G32" s="3">
-        <v>7400</v>
+        <v>204300</v>
       </c>
       <c r="H32" s="3">
-        <v>88700</v>
+        <v>-15200</v>
       </c>
       <c r="I32" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>86700</v>
+      </c>
+      <c r="K32" s="3">
         <v>59500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-19500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-219500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-49700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-120200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>404300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-85200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>202000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-7100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-62800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>258100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-9800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>124000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-233900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>45200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-211800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-102900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-100400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>323500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>658000</v>
+        <v>1664900</v>
       </c>
       <c r="E33" s="3">
-        <v>-104500</v>
+        <v>3478000</v>
       </c>
       <c r="F33" s="3">
-        <v>616900</v>
+        <v>142100</v>
       </c>
       <c r="G33" s="3">
-        <v>55000</v>
+        <v>-102100</v>
       </c>
       <c r="H33" s="3">
-        <v>248100</v>
+        <v>602800</v>
       </c>
       <c r="I33" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>242400</v>
+      </c>
+      <c r="K33" s="3">
         <v>205500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-365300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>796400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>458600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>491800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>77400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>191400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-81700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>330100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>432600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>136900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>601600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>270600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>510700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>257600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>666400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-19300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>513900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>348900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>658000</v>
+        <v>1664900</v>
       </c>
       <c r="E35" s="3">
-        <v>-104500</v>
+        <v>3478000</v>
       </c>
       <c r="F35" s="3">
-        <v>616900</v>
+        <v>142100</v>
       </c>
       <c r="G35" s="3">
-        <v>55000</v>
+        <v>-102100</v>
       </c>
       <c r="H35" s="3">
-        <v>248100</v>
+        <v>602800</v>
       </c>
       <c r="I35" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>242400</v>
+      </c>
+      <c r="K35" s="3">
         <v>205500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-365300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>796400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>458600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>491800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>77400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>191400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-81700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>330100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>432600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>136900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>601600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>270600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>510700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>257600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>666400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-19300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>513900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>348900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,728 +3179,784 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1523400</v>
+        <v>1316600</v>
       </c>
       <c r="E41" s="3">
-        <v>883800</v>
+        <v>911000</v>
       </c>
       <c r="F41" s="3">
-        <v>1952900</v>
+        <v>1488600</v>
       </c>
       <c r="G41" s="3">
-        <v>1429400</v>
+        <v>863600</v>
       </c>
       <c r="H41" s="3">
-        <v>2065500</v>
+        <v>1908200</v>
       </c>
       <c r="I41" s="3">
+        <v>1396700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2018200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1852900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2139500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2131400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1771000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1855300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2006900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1534800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3841300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4899600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1569900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2086300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3345800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1900500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2144100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2610600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>3448500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>2389300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>3222400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>2846400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>3399800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>33100</v>
+      </c>
+      <c r="F42" s="3">
+        <v>67400</v>
+      </c>
+      <c r="G42" s="3">
+        <v>55600</v>
+      </c>
+      <c r="H42" s="3">
+        <v>60000</v>
+      </c>
+      <c r="I42" s="3">
+        <v>77000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>93000</v>
+      </c>
+      <c r="K42" s="3">
+        <v>71500</v>
+      </c>
+      <c r="L42" s="3">
+        <v>54300</v>
+      </c>
+      <c r="M42" s="3">
+        <v>59700</v>
+      </c>
+      <c r="N42" s="3">
+        <v>54500</v>
+      </c>
+      <c r="O42" s="3">
+        <v>65400</v>
+      </c>
+      <c r="P42" s="3">
+        <v>93700</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>100700</v>
+      </c>
+      <c r="R42" s="3">
+        <v>80600</v>
+      </c>
+      <c r="S42" s="3">
+        <v>97200</v>
+      </c>
+      <c r="T42" s="3">
+        <v>103000</v>
+      </c>
+      <c r="U42" s="3">
+        <v>76500</v>
+      </c>
+      <c r="V42" s="3">
+        <v>93200</v>
+      </c>
+      <c r="W42" s="3">
+        <v>83200</v>
+      </c>
+      <c r="X42" s="3">
         <v>69000</v>
       </c>
-      <c r="E42" s="3">
-        <v>56900</v>
-      </c>
-      <c r="F42" s="3">
-        <v>61400</v>
-      </c>
-      <c r="G42" s="3">
-        <v>78800</v>
-      </c>
-      <c r="H42" s="3">
-        <v>95200</v>
-      </c>
-      <c r="I42" s="3">
-        <v>71500</v>
-      </c>
-      <c r="J42" s="3">
-        <v>54300</v>
-      </c>
-      <c r="K42" s="3">
-        <v>59700</v>
-      </c>
-      <c r="L42" s="3">
-        <v>54500</v>
-      </c>
-      <c r="M42" s="3">
-        <v>65400</v>
-      </c>
-      <c r="N42" s="3">
-        <v>93700</v>
-      </c>
-      <c r="O42" s="3">
-        <v>100700</v>
-      </c>
-      <c r="P42" s="3">
-        <v>80600</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>97200</v>
-      </c>
-      <c r="R42" s="3">
-        <v>103000</v>
-      </c>
-      <c r="S42" s="3">
-        <v>76500</v>
-      </c>
-      <c r="T42" s="3">
-        <v>93200</v>
-      </c>
-      <c r="U42" s="3">
-        <v>83200</v>
-      </c>
-      <c r="V42" s="3">
-        <v>69000</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>187800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>189300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>192000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>297900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>306900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>261000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2130400</v>
+        <v>1505300</v>
       </c>
       <c r="E43" s="3">
-        <v>2145700</v>
+        <v>1728800</v>
       </c>
       <c r="F43" s="3">
-        <v>2005100</v>
+        <v>2081600</v>
       </c>
       <c r="G43" s="3">
-        <v>2041300</v>
+        <v>2096600</v>
       </c>
       <c r="H43" s="3">
-        <v>2182000</v>
+        <v>1959200</v>
       </c>
       <c r="I43" s="3">
+        <v>1994600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2132100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2213800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2213800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2730300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2652100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2945000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3052900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3000200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3410000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2509600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3068800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2537200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2310300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2155700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>2118400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>2990300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>2713200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>2991200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>3085500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>3158100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>2854000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>172800</v>
+        <v>117700</v>
       </c>
       <c r="E44" s="3">
-        <v>157000</v>
+        <v>143000</v>
       </c>
       <c r="F44" s="3">
-        <v>146700</v>
+        <v>168800</v>
       </c>
       <c r="G44" s="3">
-        <v>146800</v>
+        <v>153400</v>
       </c>
       <c r="H44" s="3">
-        <v>105800</v>
+        <v>143300</v>
       </c>
       <c r="I44" s="3">
+        <v>143400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>103400</v>
+      </c>
+      <c r="K44" s="3">
         <v>121500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>149300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>136000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>127100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>142500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>172600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>164400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>163400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>133400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>168100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>192100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>101800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>115000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>149800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>205300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>174100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>200000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>210800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>222200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>175900</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>140300</v>
+        <v>49500</v>
       </c>
       <c r="E45" s="3">
-        <v>153300</v>
+        <v>136800</v>
       </c>
       <c r="F45" s="3">
-        <v>139400</v>
+        <v>137100</v>
       </c>
       <c r="G45" s="3">
-        <v>420600</v>
+        <v>149800</v>
       </c>
       <c r="H45" s="3">
-        <v>427600</v>
+        <v>136200</v>
       </c>
       <c r="I45" s="3">
+        <v>410900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>417800</v>
+      </c>
+      <c r="K45" s="3">
         <v>385700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>143600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>128400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>141200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>187400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>599400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>386200</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3" t="s">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>395000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>101800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>439600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>2973600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>3045100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>197100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>178000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>117900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>438000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4035900</v>
+        <v>3043200</v>
       </c>
       <c r="E46" s="3">
-        <v>3396700</v>
+        <v>2952700</v>
       </c>
       <c r="F46" s="3">
-        <v>4305600</v>
+        <v>3943500</v>
       </c>
       <c r="G46" s="3">
-        <v>4116900</v>
+        <v>3319000</v>
       </c>
       <c r="H46" s="3">
-        <v>4876200</v>
+        <v>4207000</v>
       </c>
       <c r="I46" s="3">
+        <v>4022600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4764600</v>
+      </c>
+      <c r="K46" s="3">
         <v>4645400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4700400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5185700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4746000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5195700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5925500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5186200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7495400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>7639800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>5304800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4993900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>6290700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>7227900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>7526400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>6191100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>6703100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>5890400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>7254600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>6533800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>6691100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>572700</v>
+        <v>5517800</v>
       </c>
       <c r="E47" s="3">
-        <v>552800</v>
+        <v>3641200</v>
       </c>
       <c r="F47" s="3">
-        <v>526800</v>
+        <v>559600</v>
       </c>
       <c r="G47" s="3">
-        <v>533600</v>
+        <v>540100</v>
       </c>
       <c r="H47" s="3">
-        <v>545700</v>
+        <v>514700</v>
       </c>
       <c r="I47" s="3">
+        <v>521400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>533300</v>
+      </c>
+      <c r="K47" s="3">
         <v>565300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>587200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>664700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>826000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>847800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>543800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>475800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>272000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>253700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>486700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>268700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>52000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>53500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>53300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>55600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>51200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>51200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>1738500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>1944800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11900800</v>
+        <v>7373700</v>
       </c>
       <c r="E48" s="3">
-        <v>11786000</v>
+        <v>10215900</v>
       </c>
       <c r="F48" s="3">
-        <v>11512600</v>
+        <v>11628300</v>
       </c>
       <c r="G48" s="3">
-        <v>11674800</v>
+        <v>11516200</v>
       </c>
       <c r="H48" s="3">
-        <v>11618200</v>
+        <v>11249000</v>
       </c>
       <c r="I48" s="3">
+        <v>11407500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>11352200</v>
+      </c>
+      <c r="K48" s="3">
         <v>11879500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>11961800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>14727000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>14716600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>16542600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>17296600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>15778500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>16995100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>14544500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>16139200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>8276600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>7060600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>7104000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>6984200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>8748700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>8271800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>8497000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>9027500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>8879600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>8405100</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3647500</v>
+        <v>3216800</v>
       </c>
       <c r="E49" s="3">
-        <v>3567100</v>
+        <v>3396900</v>
       </c>
       <c r="F49" s="3">
-        <v>3387800</v>
+        <v>3563900</v>
       </c>
       <c r="G49" s="3">
-        <v>3534700</v>
+        <v>3485400</v>
       </c>
       <c r="H49" s="3">
-        <v>3583800</v>
+        <v>3310200</v>
       </c>
       <c r="I49" s="3">
+        <v>3453700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3501700</v>
+      </c>
+      <c r="K49" s="3">
         <v>3610100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3575500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4160700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>4237300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4643000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4839800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>4296700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5123000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2361900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>4394900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>5728300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>3698000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>3864400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>4002500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>6605500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>6627500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>6847600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>6962500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>7099100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>7250400</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4121,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1776300</v>
+        <v>2322700</v>
       </c>
       <c r="E52" s="3">
-        <v>1754500</v>
+        <v>1744400</v>
       </c>
       <c r="F52" s="3">
-        <v>1548700</v>
+        <v>1735600</v>
       </c>
       <c r="G52" s="3">
-        <v>1337000</v>
+        <v>1714300</v>
       </c>
       <c r="H52" s="3">
-        <v>1315300</v>
+        <v>1513200</v>
       </c>
       <c r="I52" s="3">
+        <v>1306400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1285100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1453900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1509100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1833200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1877000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2144700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2457300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1810800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2484200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>2288400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1852300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>2311800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1982900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1485500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1533000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1761500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1790700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>2147400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>850000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>981800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>874400</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21933200</v>
+        <v>21474300</v>
       </c>
       <c r="E54" s="3">
-        <v>21057200</v>
+        <v>21951100</v>
       </c>
       <c r="F54" s="3">
-        <v>21281500</v>
+        <v>21431000</v>
       </c>
       <c r="G54" s="3">
-        <v>21197000</v>
+        <v>20575000</v>
       </c>
       <c r="H54" s="3">
-        <v>21939300</v>
+        <v>20794200</v>
       </c>
       <c r="I54" s="3">
+        <v>20711600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>21436900</v>
+      </c>
+      <c r="K54" s="3">
         <v>22154100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>22334000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>26571300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>26402800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>29373700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>31063100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>27548100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>32369600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>27088300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>28177900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>21579300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>19084400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>19735400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>20099400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>23362400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>23444200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>23433600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>25833200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>25439100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>24911800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4447,526 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2958400</v>
+        <v>2019500</v>
       </c>
       <c r="E57" s="3">
-        <v>2924900</v>
+        <v>2589800</v>
       </c>
       <c r="F57" s="3">
-        <v>2897700</v>
+        <v>2890700</v>
       </c>
       <c r="G57" s="3">
-        <v>3034800</v>
+        <v>2857900</v>
       </c>
       <c r="H57" s="3">
-        <v>2883900</v>
+        <v>2831300</v>
       </c>
       <c r="I57" s="3">
+        <v>2965400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2817800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2822500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2982600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3510400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3344800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3834100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4089800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3950300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4383300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3795600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4040600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4256500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>3576100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3484800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>3486000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>4665800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>4258800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>4539200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>4887000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>5288300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>4924500</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1667000</v>
+        <v>1365400</v>
       </c>
       <c r="E58" s="3">
-        <v>1226100</v>
+        <v>1453600</v>
       </c>
       <c r="F58" s="3">
-        <v>1471300</v>
+        <v>1628800</v>
       </c>
       <c r="G58" s="3">
-        <v>1526200</v>
+        <v>1198000</v>
       </c>
       <c r="H58" s="3">
-        <v>1703800</v>
+        <v>1437600</v>
       </c>
       <c r="I58" s="3">
+        <v>1491200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1664800</v>
+      </c>
+      <c r="K58" s="3">
         <v>2078100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1462000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1718800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1883200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2466100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2069500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2662500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4165700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3453100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2723400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1775800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1588700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>2615700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2051000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>2629600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>2984700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>3083000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>4001300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>3202100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>3174000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1671100</v>
+        <v>796900</v>
       </c>
       <c r="E59" s="3">
-        <v>1605600</v>
+        <v>890600</v>
       </c>
       <c r="F59" s="3">
-        <v>1121700</v>
+        <v>1632900</v>
       </c>
       <c r="G59" s="3">
-        <v>1276500</v>
+        <v>1568800</v>
       </c>
       <c r="H59" s="3">
-        <v>1769300</v>
+        <v>1096000</v>
       </c>
       <c r="I59" s="3">
+        <v>1247200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1728800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1762500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1005200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1041100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1639300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1928100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1480500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1470400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2325000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2159400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1504100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1578100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2654800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2280400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1900000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1583800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2214000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2207700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1558500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>1079900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>1033600</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6296600</v>
+        <v>4181900</v>
       </c>
       <c r="E60" s="3">
-        <v>5756500</v>
+        <v>4934000</v>
       </c>
       <c r="F60" s="3">
-        <v>5490700</v>
+        <v>6152400</v>
       </c>
       <c r="G60" s="3">
-        <v>5837500</v>
+        <v>5624700</v>
       </c>
       <c r="H60" s="3">
-        <v>6356900</v>
+        <v>5365000</v>
       </c>
       <c r="I60" s="3">
+        <v>5703800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>6211400</v>
+      </c>
+      <c r="K60" s="3">
         <v>6663100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5449900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6270300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6867300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>8228300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7639800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>8083200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>10873900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>9408000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>8268000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>7610400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>7819600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>8380900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>7437000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>8879100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>9457500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>9829900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>10446800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>9570300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>9132100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11173700</v>
+        <v>7668300</v>
       </c>
       <c r="E61" s="3">
-        <v>11213400</v>
+        <v>9830200</v>
       </c>
       <c r="F61" s="3">
-        <v>10625100</v>
+        <v>10917900</v>
       </c>
       <c r="G61" s="3">
-        <v>10884100</v>
+        <v>10956600</v>
       </c>
       <c r="H61" s="3">
-        <v>11129700</v>
+        <v>10381800</v>
       </c>
       <c r="I61" s="3">
+        <v>10634900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>10874900</v>
+      </c>
+      <c r="K61" s="3">
         <v>11236200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>11596800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>13901600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>13888300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>15270500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>15872400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>12837700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>14534900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>11137800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>13131100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>6309600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>4548900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>4739300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>4852400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>5973300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>5762600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>5949300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>6540000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>7446200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>7214000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1674300</v>
+        <v>1241900</v>
       </c>
       <c r="E62" s="3">
-        <v>1546300</v>
+        <v>1280500</v>
       </c>
       <c r="F62" s="3">
-        <v>1466200</v>
+        <v>1636000</v>
       </c>
       <c r="G62" s="3">
-        <v>1517500</v>
+        <v>1510800</v>
       </c>
       <c r="H62" s="3">
-        <v>1545900</v>
+        <v>1432700</v>
       </c>
       <c r="I62" s="3">
+        <v>1482800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1510500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1560100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1579800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1850400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1790500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2093100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2227800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1830500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1962200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1408000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1872300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1515700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1260900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1244500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1065200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1292200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1284700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1223900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>1479700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>1592300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>1503800</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19611100</v>
+        <v>13603200</v>
       </c>
       <c r="E66" s="3">
-        <v>19012300</v>
+        <v>16433400</v>
       </c>
       <c r="F66" s="3">
-        <v>18097800</v>
+        <v>19162100</v>
       </c>
       <c r="G66" s="3">
-        <v>18728000</v>
+        <v>18577000</v>
       </c>
       <c r="H66" s="3">
-        <v>19481100</v>
+        <v>17683400</v>
       </c>
       <c r="I66" s="3">
+        <v>18299200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>19035000</v>
+      </c>
+      <c r="K66" s="3">
         <v>19933600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>19135300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>22601700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>23108300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>26282800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>26436000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>23336400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>27950500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>22521100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>23869900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>16000800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>14120200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>14910200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>13911100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>16704900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>17006400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>17551000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>19074800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>19165800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>18363900</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1717600</v>
+        <v>7338700</v>
       </c>
       <c r="E72" s="3">
-        <v>1534100</v>
+        <v>5054600</v>
       </c>
       <c r="F72" s="3">
-        <v>2818900</v>
+        <v>1678300</v>
       </c>
       <c r="G72" s="3">
-        <v>2108100</v>
+        <v>1499000</v>
       </c>
       <c r="H72" s="3">
-        <v>2077900</v>
+        <v>2754300</v>
       </c>
       <c r="I72" s="3">
+        <v>2059900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2030300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1803800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2791900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>3421800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2516200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2252700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3551600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3562800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>3647400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>3964700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>5195400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>4828000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>4471800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>4521900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>5777800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>6005900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>5929300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>5278900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>5612000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>5136300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>5466800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2322100</v>
+        <v>7871000</v>
       </c>
       <c r="E76" s="3">
-        <v>2044900</v>
+        <v>5517700</v>
       </c>
       <c r="F76" s="3">
-        <v>3183700</v>
+        <v>2268900</v>
       </c>
       <c r="G76" s="3">
-        <v>2469000</v>
+        <v>1998000</v>
       </c>
       <c r="H76" s="3">
-        <v>2458200</v>
+        <v>3110800</v>
       </c>
       <c r="I76" s="3">
+        <v>2412500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2401900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2220500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3198700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3969600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3294600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3090900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4627100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4211700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4419100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4567200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>4308000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>5578500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>4964200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4825200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>6188300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>6657500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>6437800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>5882600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>6758400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>6273400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>6547800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>658000</v>
+        <v>1664900</v>
       </c>
       <c r="E81" s="3">
-        <v>-104500</v>
+        <v>3478000</v>
       </c>
       <c r="F81" s="3">
-        <v>616900</v>
+        <v>142100</v>
       </c>
       <c r="G81" s="3">
-        <v>55000</v>
+        <v>-102100</v>
       </c>
       <c r="H81" s="3">
-        <v>248100</v>
+        <v>602800</v>
       </c>
       <c r="I81" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>242400</v>
+      </c>
+      <c r="K81" s="3">
         <v>205500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-365300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>796400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>458600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>491800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>77400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>191400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-81700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>330100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>432600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>136900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>601600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>270600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>510700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>257600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>666400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-19300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>513900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>348900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6408,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2052200</v>
+        <v>457200</v>
       </c>
       <c r="E83" s="3">
-        <v>850500</v>
+        <v>583700</v>
       </c>
       <c r="F83" s="3">
-        <v>597200</v>
+        <v>590700</v>
       </c>
       <c r="G83" s="3">
-        <v>698800</v>
+        <v>831000</v>
       </c>
       <c r="H83" s="3">
-        <v>625700</v>
+        <v>583500</v>
       </c>
       <c r="I83" s="3">
+        <v>682800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>611300</v>
+      </c>
+      <c r="K83" s="3">
         <v>635000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1267200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>744900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>722500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>842100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>795400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>764600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>756300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>666600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>641700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>437000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>571000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>567700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>597600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>701200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>610700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>662200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>630900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>3456500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>1136300</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2803600</v>
+        <v>559900</v>
       </c>
       <c r="E89" s="3">
-        <v>900400</v>
+        <v>859300</v>
       </c>
       <c r="F89" s="3">
-        <v>884000</v>
+        <v>995900</v>
       </c>
       <c r="G89" s="3">
-        <v>800300</v>
+        <v>879800</v>
       </c>
       <c r="H89" s="3">
-        <v>1227400</v>
+        <v>863700</v>
       </c>
       <c r="I89" s="3">
+        <v>782000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1199300</v>
+      </c>
+      <c r="K89" s="3">
         <v>924400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1017300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1171000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1106800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1246300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1152100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>774300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1405400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>703500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1071600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>926100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1107200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>895600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>880500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1064600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>1399400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1343300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>1129900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>4904600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>1293700</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7042,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1369400</v>
+        <v>-4763000</v>
       </c>
       <c r="E91" s="3">
-        <v>-531900</v>
+        <v>-9177000</v>
       </c>
       <c r="F91" s="3">
-        <v>-421700</v>
+        <v>-4428000</v>
       </c>
       <c r="G91" s="3">
-        <v>-463500</v>
+        <v>-5665000</v>
       </c>
       <c r="H91" s="3">
-        <v>-388200</v>
+        <v>-4491000</v>
       </c>
       <c r="I91" s="3">
+        <v>-4936000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-4134000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-439000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-535400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-504100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1395900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>571200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-610400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-8600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>32500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-101800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-827500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1315200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>484600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-568500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-523100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-449500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-530800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-1393000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-2925500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-500200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7296,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1092400</v>
+        <v>189400</v>
       </c>
       <c r="E94" s="3">
-        <v>-515700</v>
+        <v>-1056100</v>
       </c>
       <c r="F94" s="3">
-        <v>-289800</v>
+        <v>-280400</v>
       </c>
       <c r="G94" s="3">
-        <v>-468700</v>
+        <v>-503900</v>
       </c>
       <c r="H94" s="3">
-        <v>-272500</v>
+        <v>-283100</v>
       </c>
       <c r="I94" s="3">
+        <v>-457900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-266300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-433500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-443000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>252400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-349300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-562400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-499100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1439700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2515000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-535700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-564800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-906400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>1771500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-448800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-563600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-511600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-41700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>50900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-662400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-2602200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,88 +7418,96 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-657000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-657000</v>
+        <v>-552200</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-525700</v>
+        <v>-642000</v>
       </c>
       <c r="H96" s="3">
-        <v>-23900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>-513600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-633100</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-623200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-695500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-631400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-741900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1368800</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-639200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-606500</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-747500</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-30800</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-1386600</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-32100</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7758,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1884000</v>
+        <v>-371400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1458000</v>
+        <v>-359700</v>
       </c>
       <c r="F100" s="3">
-        <v>-253000</v>
+        <v>-169100</v>
       </c>
       <c r="G100" s="3">
-        <v>-931800</v>
+        <v>-1424600</v>
       </c>
       <c r="H100" s="3">
-        <v>-650900</v>
+        <v>-247200</v>
       </c>
       <c r="I100" s="3">
+        <v>-910400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-636000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-726000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-311400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1074200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-653300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-893600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-302200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1248800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-253200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1835400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>209000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1683300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1548700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-652600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-311900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-1372300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-107900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-1948200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-15300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-1114300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>503100</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>80200</v>
+        <v>40400</v>
       </c>
       <c r="E101" s="3">
-        <v>20800</v>
+        <v>-23300</v>
       </c>
       <c r="F101" s="3">
-        <v>-13200</v>
+        <v>71000</v>
       </c>
       <c r="G101" s="3">
-        <v>19500</v>
+        <v>20300</v>
       </c>
       <c r="H101" s="3">
-        <v>-38300</v>
+        <v>-12900</v>
       </c>
       <c r="I101" s="3">
+        <v>19100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="K101" s="3">
         <v>20100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-24300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-26100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-37000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-38800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>154000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>10400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>93000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-22000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-4100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>10700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-3400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-5900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-29500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>72600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-60200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>15500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>26300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-55000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-70700</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-92700</v>
+        <v>418200</v>
       </c>
       <c r="E102" s="3">
-        <v>-1052500</v>
+        <v>-579800</v>
       </c>
       <c r="F102" s="3">
-        <v>328000</v>
+        <v>617400</v>
       </c>
       <c r="G102" s="3">
-        <v>-580600</v>
+        <v>-1028400</v>
       </c>
       <c r="H102" s="3">
-        <v>265600</v>
+        <v>320500</v>
       </c>
       <c r="I102" s="3">
+        <v>-567300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>259600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-215000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>238600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>323100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>67300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-248400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>504800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1900700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1268800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1989000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>700100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1652800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1326600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-211700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-24400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-864300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>1083000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-642900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>373700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>1133100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>1819800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>TELNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1760400</v>
+        <v>1902300</v>
       </c>
       <c r="E8" s="3">
-        <v>1420300</v>
+        <v>1804700</v>
       </c>
       <c r="F8" s="3">
-        <v>2608300</v>
+        <v>1456000</v>
       </c>
       <c r="G8" s="3">
-        <v>2572300</v>
+        <v>2673900</v>
       </c>
       <c r="H8" s="3">
-        <v>2478100</v>
+        <v>2637100</v>
       </c>
       <c r="I8" s="3">
-        <v>1382300</v>
+        <v>2540500</v>
       </c>
       <c r="J8" s="3">
+        <v>1417100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2515000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2550100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2583900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2483500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3039500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3219500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3236500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3165100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3421100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3112400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3010000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2674300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2820000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2813600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2777400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2247000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3179900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3280600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3402600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>15461200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>3853000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>428300</v>
+        <v>440100</v>
       </c>
       <c r="E9" s="3">
-        <v>423800</v>
+        <v>439100</v>
       </c>
       <c r="F9" s="3">
-        <v>666700</v>
+        <v>434500</v>
       </c>
       <c r="G9" s="3">
-        <v>673900</v>
+        <v>683500</v>
       </c>
       <c r="H9" s="3">
-        <v>658100</v>
+        <v>690900</v>
       </c>
       <c r="I9" s="3">
-        <v>416100</v>
+        <v>674700</v>
       </c>
       <c r="J9" s="3">
+        <v>426600</v>
+      </c>
+      <c r="K9" s="3">
         <v>628700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>647300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>686400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>780400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>702800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>780300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>795900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>785200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>816200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>725100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>700800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>588400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>619800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>662700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>632900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>523300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>725500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>760900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1192600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>5577700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1329500</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1332100</v>
+        <v>1462200</v>
       </c>
       <c r="E10" s="3">
-        <v>996500</v>
+        <v>1365700</v>
       </c>
       <c r="F10" s="3">
-        <v>1941500</v>
+        <v>1021600</v>
       </c>
       <c r="G10" s="3">
-        <v>1898400</v>
+        <v>1990400</v>
       </c>
       <c r="H10" s="3">
-        <v>1820000</v>
+        <v>1946200</v>
       </c>
       <c r="I10" s="3">
-        <v>966200</v>
+        <v>1865800</v>
       </c>
       <c r="J10" s="3">
+        <v>990500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1886300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1902900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1897500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1703200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2336700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2439200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2440500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2380000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2605000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2387300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2309300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2085900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2200200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2150900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2144500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1723800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2454400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2519700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2210000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>9883500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2523500</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,180 +1262,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>32100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10700</v>
+      </c>
+      <c r="H14" s="3">
+        <v>257600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>16700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>93600</v>
+      </c>
+      <c r="K14" s="3">
         <v>16900</v>
       </c>
-      <c r="E14" s="3">
-        <v>31300</v>
-      </c>
-      <c r="F14" s="3">
-        <v>10500</v>
-      </c>
-      <c r="G14" s="3">
-        <v>251300</v>
-      </c>
-      <c r="H14" s="3">
-        <v>16300</v>
-      </c>
-      <c r="I14" s="3">
-        <v>91300</v>
-      </c>
-      <c r="J14" s="3">
-        <v>16900</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>13700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>147800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>37000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>37100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>26900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>20700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>268700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>25500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>26600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>18600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>59900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>55600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>718100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-82400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>158900</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>707900</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>368700</v>
+        <v>395500</v>
       </c>
       <c r="E15" s="3">
-        <v>357300</v>
+        <v>378000</v>
       </c>
       <c r="F15" s="3">
-        <v>592600</v>
+        <v>366300</v>
       </c>
       <c r="G15" s="3">
-        <v>601600</v>
+        <v>607500</v>
       </c>
       <c r="H15" s="3">
-        <v>583500</v>
+        <v>616800</v>
       </c>
       <c r="I15" s="3">
-        <v>351200</v>
+        <v>598200</v>
       </c>
       <c r="J15" s="3">
+        <v>360100</v>
+      </c>
+      <c r="K15" s="3">
         <v>607100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>603000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>599100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>459400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>722500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>761100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>722000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>756200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>757100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>666800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>637800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>462800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>553400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>529200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>547800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>457600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>556300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>570100</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>581900</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>2414600</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1408600</v>
+        <v>1536000</v>
       </c>
       <c r="E17" s="3">
-        <v>1336900</v>
+        <v>1444100</v>
       </c>
       <c r="F17" s="3">
-        <v>2016200</v>
+        <v>1370500</v>
       </c>
       <c r="G17" s="3">
-        <v>2290800</v>
+        <v>2067000</v>
       </c>
       <c r="H17" s="3">
-        <v>1849800</v>
+        <v>2348500</v>
       </c>
       <c r="I17" s="3">
-        <v>1360800</v>
+        <v>1896300</v>
       </c>
       <c r="J17" s="3">
+        <v>1395100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1956000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2017600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2050200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1679400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2209800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2664400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2547000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2550200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2612300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2398400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2269400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2378100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2132300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2221000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2183200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1893900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2354800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3111300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2705400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>12375000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3663500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>351800</v>
+        <v>366300</v>
       </c>
       <c r="E18" s="3">
-        <v>83400</v>
+        <v>360600</v>
       </c>
       <c r="F18" s="3">
-        <v>592100</v>
+        <v>85500</v>
       </c>
       <c r="G18" s="3">
-        <v>281500</v>
+        <v>607000</v>
       </c>
       <c r="H18" s="3">
-        <v>628300</v>
+        <v>288600</v>
       </c>
       <c r="I18" s="3">
-        <v>21500</v>
+        <v>644100</v>
       </c>
       <c r="J18" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K18" s="3">
         <v>558900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>532500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>533700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>804100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>829700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>555100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>689500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>614900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>808800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>714000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>740600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>296200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>687700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>592500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>594300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>353200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>825100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>169300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>697100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>3086200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>189500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-313800</v>
+        <v>-86900</v>
       </c>
       <c r="E20" s="3">
-        <v>53300</v>
+        <v>-321700</v>
       </c>
       <c r="F20" s="3">
-        <v>-222600</v>
+        <v>54600</v>
       </c>
       <c r="G20" s="3">
-        <v>-204300</v>
+        <v>-228200</v>
       </c>
       <c r="H20" s="3">
-        <v>15200</v>
+        <v>-209500</v>
       </c>
       <c r="I20" s="3">
-        <v>-9400</v>
+        <v>15600</v>
       </c>
       <c r="J20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-86700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-59500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>219500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>49700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>120200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-404300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>85200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-202000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>62800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-258100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>9800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-124000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>233900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-45200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>211800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>102900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>100400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-323500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>90900</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>495200</v>
+        <v>676200</v>
       </c>
       <c r="E21" s="3">
-        <v>720400</v>
+        <v>507600</v>
       </c>
       <c r="F21" s="3">
-        <v>960200</v>
+        <v>738600</v>
       </c>
       <c r="G21" s="3">
-        <v>908100</v>
+        <v>984300</v>
       </c>
       <c r="H21" s="3">
-        <v>1227100</v>
+        <v>931000</v>
       </c>
       <c r="I21" s="3">
-        <v>694900</v>
+        <v>1258000</v>
       </c>
       <c r="J21" s="3">
+        <v>712400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1083600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1108000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1820400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1768500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1602000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1517400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1080600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1464700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1363200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1387700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1445100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>516500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1252700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1017600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1422600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1009200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1647600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>934400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1428400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>6219100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1416700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>42600</v>
+        <v>64100</v>
       </c>
       <c r="E22" s="3">
-        <v>70900</v>
+        <v>43600</v>
       </c>
       <c r="F22" s="3">
-        <v>70700</v>
+        <v>72700</v>
       </c>
       <c r="G22" s="3">
-        <v>56800</v>
+        <v>72500</v>
       </c>
       <c r="H22" s="3">
-        <v>43800</v>
+        <v>58200</v>
       </c>
       <c r="I22" s="3">
-        <v>47500</v>
+        <v>44900</v>
       </c>
       <c r="J22" s="3">
+        <v>48700</v>
+      </c>
+      <c r="K22" s="3">
         <v>61000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>61600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>60700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>110900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>107400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>85400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>89800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>173900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>135400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>117100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>100900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>104900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>45900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>46200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>30500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>105800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>54700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>72700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>72500</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>382700</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4600</v>
+        <v>215200</v>
       </c>
       <c r="E23" s="3">
-        <v>65800</v>
+        <v>-4700</v>
       </c>
       <c r="F23" s="3">
-        <v>298700</v>
+        <v>67400</v>
       </c>
       <c r="G23" s="3">
-        <v>20400</v>
+        <v>306300</v>
       </c>
       <c r="H23" s="3">
-        <v>599800</v>
+        <v>20900</v>
       </c>
       <c r="I23" s="3">
-        <v>-35400</v>
+        <v>614900</v>
       </c>
       <c r="J23" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="K23" s="3">
         <v>411200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>411400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>492600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>912600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>772100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>589800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>195400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>526300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>471500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>603900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>702600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-66900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>651500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>422300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>797600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>202200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>982200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>199500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>725000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2379900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17300</v>
+        <v>67400</v>
       </c>
       <c r="E24" s="3">
-        <v>-234100</v>
+        <v>17800</v>
       </c>
       <c r="F24" s="3">
-        <v>99100</v>
+        <v>-240000</v>
       </c>
       <c r="G24" s="3">
-        <v>-35100</v>
+        <v>101600</v>
       </c>
       <c r="H24" s="3">
-        <v>-97200</v>
+        <v>-36000</v>
       </c>
       <c r="I24" s="3">
-        <v>38800</v>
+        <v>-99600</v>
       </c>
       <c r="J24" s="3">
+        <v>39800</v>
+      </c>
+      <c r="K24" s="3">
         <v>134300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>138100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>154900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>158700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>217500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>221300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>69100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>147500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>483800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>216100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>203000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>55800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>205700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>125000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>235000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>77200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>272900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>186400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>197900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>730400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-21900</v>
+        <v>147800</v>
       </c>
       <c r="E26" s="3">
-        <v>299900</v>
+        <v>-22500</v>
       </c>
       <c r="F26" s="3">
-        <v>199600</v>
+        <v>307500</v>
       </c>
       <c r="G26" s="3">
-        <v>55500</v>
+        <v>204700</v>
       </c>
       <c r="H26" s="3">
-        <v>696900</v>
+        <v>56900</v>
       </c>
       <c r="I26" s="3">
-        <v>-74200</v>
+        <v>714500</v>
       </c>
       <c r="J26" s="3">
+        <v>-76100</v>
+      </c>
+      <c r="K26" s="3">
         <v>276900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>273200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>337700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>754000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>554600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>368500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>126300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>378700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-12400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>387800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>499600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-122700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>445800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>297300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>562700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>124900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>709300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>13100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>527100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1649500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-56700</v>
+        <v>90500</v>
       </c>
       <c r="E27" s="3">
-        <v>259900</v>
+        <v>-58100</v>
       </c>
       <c r="F27" s="3">
-        <v>128600</v>
+        <v>266500</v>
       </c>
       <c r="G27" s="3">
-        <v>-15600</v>
+        <v>131900</v>
       </c>
       <c r="H27" s="3">
-        <v>634500</v>
+        <v>-16000</v>
       </c>
       <c r="I27" s="3">
-        <v>-138600</v>
+        <v>650400</v>
       </c>
       <c r="J27" s="3">
+        <v>-142100</v>
+      </c>
+      <c r="K27" s="3">
         <v>203200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>197800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>266500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>668600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>461100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>266200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>277900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-113600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>302100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>397100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-160200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>370200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>208100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>484100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>46100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>623500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-79500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>441500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1282600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-93500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,94 +2482,100 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>1721600</v>
+        <v>-13300</v>
       </c>
       <c r="E29" s="3">
-        <v>3218000</v>
+        <v>1764900</v>
       </c>
       <c r="F29" s="3">
-        <v>13500</v>
+        <v>3299100</v>
       </c>
       <c r="G29" s="3">
-        <v>-86500</v>
+        <v>13800</v>
       </c>
       <c r="H29" s="3">
-        <v>-31700</v>
+        <v>-88700</v>
       </c>
       <c r="I29" s="3">
-        <v>143500</v>
+        <v>-32500</v>
       </c>
       <c r="J29" s="3">
+        <v>147100</v>
+      </c>
+      <c r="K29" s="3">
         <v>39200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>7600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-631800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>127800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-2500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>225600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>67900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-86600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>31900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>28000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>35400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>297100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>231400</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>62500</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>26600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>211500</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>42800</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>60200</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>72400</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-933600</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-501000</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>313800</v>
+        <v>86900</v>
       </c>
       <c r="E32" s="3">
-        <v>-53300</v>
+        <v>321700</v>
       </c>
       <c r="F32" s="3">
-        <v>222600</v>
+        <v>-54600</v>
       </c>
       <c r="G32" s="3">
-        <v>204300</v>
+        <v>228200</v>
       </c>
       <c r="H32" s="3">
-        <v>-15200</v>
+        <v>209500</v>
       </c>
       <c r="I32" s="3">
-        <v>9400</v>
+        <v>-15600</v>
       </c>
       <c r="J32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K32" s="3">
         <v>86700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>59500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-219500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-49700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-120200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>404300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-85200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>202000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-62800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>258100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-9800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>124000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-233900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>45200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-211800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-102900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-100400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>323500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1664900</v>
+        <v>77200</v>
       </c>
       <c r="E33" s="3">
-        <v>3478000</v>
+        <v>1706800</v>
       </c>
       <c r="F33" s="3">
-        <v>142100</v>
+        <v>3565500</v>
       </c>
       <c r="G33" s="3">
-        <v>-102100</v>
+        <v>145700</v>
       </c>
       <c r="H33" s="3">
-        <v>602800</v>
+        <v>-104700</v>
       </c>
       <c r="I33" s="3">
-        <v>4900</v>
+        <v>618000</v>
       </c>
       <c r="J33" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K33" s="3">
         <v>242400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>205500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-365300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>796400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>458600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>491800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>77400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>191400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-81700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>330100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>432600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>136900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>601600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>270600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>510700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>257600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>666400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-19300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>513900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>348900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1664900</v>
+        <v>77200</v>
       </c>
       <c r="E35" s="3">
-        <v>3478000</v>
+        <v>1706800</v>
       </c>
       <c r="F35" s="3">
-        <v>142100</v>
+        <v>3565500</v>
       </c>
       <c r="G35" s="3">
-        <v>-102100</v>
+        <v>145700</v>
       </c>
       <c r="H35" s="3">
-        <v>602800</v>
+        <v>-104700</v>
       </c>
       <c r="I35" s="3">
-        <v>4900</v>
+        <v>618000</v>
       </c>
       <c r="J35" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K35" s="3">
         <v>242400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>205500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-365300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>796400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>458600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>491800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>77400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>191400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-81700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>330100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>432600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>136900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>601600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>270600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>510700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>257600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>666400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-19300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>513900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>348900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,782 +3267,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1316600</v>
+        <v>1177900</v>
       </c>
       <c r="E41" s="3">
-        <v>911000</v>
+        <v>1349800</v>
       </c>
       <c r="F41" s="3">
-        <v>1488600</v>
+        <v>933900</v>
       </c>
       <c r="G41" s="3">
-        <v>863600</v>
+        <v>1526000</v>
       </c>
       <c r="H41" s="3">
-        <v>1908200</v>
+        <v>885300</v>
       </c>
       <c r="I41" s="3">
-        <v>1396700</v>
+        <v>1956300</v>
       </c>
       <c r="J41" s="3">
+        <v>1431900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2018200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1852900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2139500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2131400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1771000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1855300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2006900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1534800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3841300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4899600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1569900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2086300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3345800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1900500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2144100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2610600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3448500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2389300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3222400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2846400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>3399800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>54100</v>
+        <v>78300</v>
       </c>
       <c r="E42" s="3">
-        <v>33100</v>
+        <v>55500</v>
       </c>
       <c r="F42" s="3">
-        <v>67400</v>
+        <v>34000</v>
       </c>
       <c r="G42" s="3">
-        <v>55600</v>
+        <v>69100</v>
       </c>
       <c r="H42" s="3">
-        <v>60000</v>
+        <v>57000</v>
       </c>
       <c r="I42" s="3">
-        <v>77000</v>
+        <v>61500</v>
       </c>
       <c r="J42" s="3">
+        <v>78900</v>
+      </c>
+      <c r="K42" s="3">
         <v>93000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>71500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>54300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>59700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>54500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>65400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>93700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>100700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>80600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>97200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>103000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>76500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>93200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>83200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>69000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>187800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>189300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>192000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>297900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>306900</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>261000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1505300</v>
+        <v>1465500</v>
       </c>
       <c r="E43" s="3">
-        <v>1728800</v>
+        <v>1543100</v>
       </c>
       <c r="F43" s="3">
-        <v>2081600</v>
+        <v>1772300</v>
       </c>
       <c r="G43" s="3">
-        <v>2096600</v>
+        <v>2134000</v>
       </c>
       <c r="H43" s="3">
-        <v>1959200</v>
+        <v>2149400</v>
       </c>
       <c r="I43" s="3">
-        <v>1994600</v>
+        <v>2008600</v>
       </c>
       <c r="J43" s="3">
+        <v>2044800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2132100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>2213800</v>
       </c>
       <c r="L43" s="3">
         <v>2213800</v>
       </c>
       <c r="M43" s="3">
+        <v>2213800</v>
+      </c>
+      <c r="N43" s="3">
         <v>2730300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2652100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2945000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3052900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3000200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3410000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2509600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3068800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2537200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2310300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2155700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2118400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2990300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2713200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2991200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3085500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3158100</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>2854000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>117700</v>
+        <v>117300</v>
       </c>
       <c r="E44" s="3">
-        <v>143000</v>
+        <v>120700</v>
       </c>
       <c r="F44" s="3">
-        <v>168800</v>
+        <v>146600</v>
       </c>
       <c r="G44" s="3">
-        <v>153400</v>
+        <v>173100</v>
       </c>
       <c r="H44" s="3">
-        <v>143300</v>
+        <v>157300</v>
       </c>
       <c r="I44" s="3">
-        <v>143400</v>
+        <v>146900</v>
       </c>
       <c r="J44" s="3">
+        <v>147000</v>
+      </c>
+      <c r="K44" s="3">
         <v>103400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>121500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>149300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>136000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>127100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>142500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>172600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>164400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>163400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>133400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>168100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>192100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>101800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>115000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>149800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>205300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>174100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>200000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>210800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>222200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>175900</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>49500</v>
+        <v>70100</v>
       </c>
       <c r="E45" s="3">
-        <v>136800</v>
+        <v>50700</v>
       </c>
       <c r="F45" s="3">
-        <v>137100</v>
+        <v>140200</v>
       </c>
       <c r="G45" s="3">
-        <v>149800</v>
+        <v>140500</v>
       </c>
       <c r="H45" s="3">
-        <v>136200</v>
+        <v>153600</v>
       </c>
       <c r="I45" s="3">
-        <v>410900</v>
+        <v>139700</v>
       </c>
       <c r="J45" s="3">
+        <v>421300</v>
+      </c>
+      <c r="K45" s="3">
         <v>417800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>385700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>143600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>128400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>141200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>187400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>599400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>386200</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>395000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>101800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>439600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2973600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3045100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>197100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>178000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>117900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>438000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>200</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3043200</v>
+        <v>2909000</v>
       </c>
       <c r="E46" s="3">
-        <v>2952700</v>
+        <v>3119800</v>
       </c>
       <c r="F46" s="3">
-        <v>3943500</v>
+        <v>3027000</v>
       </c>
       <c r="G46" s="3">
-        <v>3319000</v>
+        <v>4042800</v>
       </c>
       <c r="H46" s="3">
-        <v>4207000</v>
+        <v>3402500</v>
       </c>
       <c r="I46" s="3">
-        <v>4022600</v>
+        <v>4312900</v>
       </c>
       <c r="J46" s="3">
+        <v>4123900</v>
+      </c>
+      <c r="K46" s="3">
         <v>4764600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4645400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4700400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5185700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4746000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5195700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5925500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5186200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7495400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7639800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5304800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4993900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6290700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7227900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7526400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6191100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6703100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5890400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>7254600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>6533800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>6691100</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5517800</v>
+        <v>5913900</v>
       </c>
       <c r="E47" s="3">
-        <v>3641200</v>
+        <v>5656800</v>
       </c>
       <c r="F47" s="3">
-        <v>559600</v>
+        <v>3732900</v>
       </c>
       <c r="G47" s="3">
-        <v>540100</v>
+        <v>573700</v>
       </c>
       <c r="H47" s="3">
-        <v>514700</v>
+        <v>553700</v>
       </c>
       <c r="I47" s="3">
-        <v>521400</v>
+        <v>527700</v>
       </c>
       <c r="J47" s="3">
+        <v>534500</v>
+      </c>
+      <c r="K47" s="3">
         <v>533300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>565300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>587200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>664700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>826000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>847800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>543800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>475800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>272000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>253700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>486700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>268700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>52000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>53500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>53300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>55600</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>51200</v>
       </c>
       <c r="AA47" s="3">
         <v>51200</v>
       </c>
       <c r="AB47" s="3">
+        <v>51200</v>
+      </c>
+      <c r="AC47" s="3">
         <v>1738500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1944800</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7373700</v>
+        <v>7650600</v>
       </c>
       <c r="E48" s="3">
-        <v>10215900</v>
+        <v>7559300</v>
       </c>
       <c r="F48" s="3">
-        <v>11628300</v>
+        <v>10473100</v>
       </c>
       <c r="G48" s="3">
-        <v>11516200</v>
+        <v>11921100</v>
       </c>
       <c r="H48" s="3">
-        <v>11249000</v>
+        <v>11806100</v>
       </c>
       <c r="I48" s="3">
-        <v>11407500</v>
+        <v>11532200</v>
       </c>
       <c r="J48" s="3">
+        <v>11694700</v>
+      </c>
+      <c r="K48" s="3">
         <v>11352200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11879500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11961800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14727000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14716600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16542600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17296600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15778500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16995100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14544500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16139200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8276600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7060600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7104000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6984200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>8748700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>8271800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>8497000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>9027500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>8879600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>8405100</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3216800</v>
+        <v>3362000</v>
       </c>
       <c r="E49" s="3">
-        <v>3396900</v>
+        <v>3297800</v>
       </c>
       <c r="F49" s="3">
-        <v>3563900</v>
+        <v>3482400</v>
       </c>
       <c r="G49" s="3">
-        <v>3485400</v>
+        <v>3653700</v>
       </c>
       <c r="H49" s="3">
-        <v>3310200</v>
+        <v>3573200</v>
       </c>
       <c r="I49" s="3">
-        <v>3453700</v>
+        <v>3393600</v>
       </c>
       <c r="J49" s="3">
+        <v>3540700</v>
+      </c>
+      <c r="K49" s="3">
         <v>3501700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3610100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3575500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4160700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4237300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4643000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4839800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4296700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5123000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2361900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4394900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5728300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3698000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3864400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4002500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6605500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>6627500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>6847600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>6962500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>7099100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>7250400</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2322700</v>
+        <v>2105300</v>
       </c>
       <c r="E52" s="3">
-        <v>1744400</v>
+        <v>2381200</v>
       </c>
       <c r="F52" s="3">
-        <v>1735600</v>
+        <v>1788400</v>
       </c>
       <c r="G52" s="3">
-        <v>1714300</v>
+        <v>1779300</v>
       </c>
       <c r="H52" s="3">
-        <v>1513200</v>
+        <v>1757500</v>
       </c>
       <c r="I52" s="3">
-        <v>1306400</v>
+        <v>1551300</v>
       </c>
       <c r="J52" s="3">
+        <v>1339300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1285100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1453900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1509100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1833200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1877000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2144700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2457300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1810800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2484200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2288400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1852300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2311800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1982900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1485500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1533000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1761500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1790700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2147400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>850000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>981800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>874400</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21474300</v>
+        <v>21940800</v>
       </c>
       <c r="E54" s="3">
-        <v>21951100</v>
+        <v>22014900</v>
       </c>
       <c r="F54" s="3">
-        <v>21431000</v>
+        <v>22503800</v>
       </c>
       <c r="G54" s="3">
-        <v>20575000</v>
+        <v>21970500</v>
       </c>
       <c r="H54" s="3">
-        <v>20794200</v>
+        <v>21093000</v>
       </c>
       <c r="I54" s="3">
-        <v>20711600</v>
+        <v>21317800</v>
       </c>
       <c r="J54" s="3">
+        <v>21233100</v>
+      </c>
+      <c r="K54" s="3">
         <v>21436900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22154100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22334000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26571300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26402800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29373700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31063100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>27548100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>32369600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>27088300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28177900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>21579300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>19084400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>19735400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>20099400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>23362400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>23444200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>23433600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>25833200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>25439100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>24911800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2019500</v>
+        <v>2036200</v>
       </c>
       <c r="E57" s="3">
-        <v>2589800</v>
+        <v>2070400</v>
       </c>
       <c r="F57" s="3">
-        <v>2890700</v>
+        <v>2655000</v>
       </c>
       <c r="G57" s="3">
-        <v>2857900</v>
+        <v>2963500</v>
       </c>
       <c r="H57" s="3">
-        <v>2831300</v>
+        <v>2929900</v>
       </c>
       <c r="I57" s="3">
-        <v>2965400</v>
+        <v>2902600</v>
       </c>
       <c r="J57" s="3">
+        <v>3040000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2817800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2822500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2982600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3510400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3344800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3834100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4089800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3950300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4383300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3795600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4040600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4256500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3576100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3484800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3486000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4665800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4258800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4539200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4887000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>5288300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>4924500</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1365400</v>
+        <v>1626800</v>
       </c>
       <c r="E58" s="3">
-        <v>1453600</v>
+        <v>1399800</v>
       </c>
       <c r="F58" s="3">
-        <v>1628800</v>
+        <v>1490200</v>
       </c>
       <c r="G58" s="3">
-        <v>1198000</v>
+        <v>1669800</v>
       </c>
       <c r="H58" s="3">
-        <v>1437600</v>
+        <v>1228100</v>
       </c>
       <c r="I58" s="3">
-        <v>1491200</v>
+        <v>1473800</v>
       </c>
       <c r="J58" s="3">
+        <v>1528800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1664800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2078100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1462000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1718800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1883200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2466100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2069500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2662500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4165700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3453100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2723400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1775800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1588700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2615700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2051000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2629600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2984700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3083000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4001300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3202100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>3174000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>796900</v>
+        <v>1285500</v>
       </c>
       <c r="E59" s="3">
-        <v>890600</v>
+        <v>817000</v>
       </c>
       <c r="F59" s="3">
-        <v>1632900</v>
+        <v>913000</v>
       </c>
       <c r="G59" s="3">
-        <v>1568800</v>
+        <v>1674000</v>
       </c>
       <c r="H59" s="3">
-        <v>1096000</v>
+        <v>1608300</v>
       </c>
       <c r="I59" s="3">
-        <v>1247200</v>
+        <v>1123600</v>
       </c>
       <c r="J59" s="3">
+        <v>1278700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1728800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1762500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1005200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1041100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1639300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1928100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1480500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1470400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2325000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2159400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1504100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1578100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2654800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2280400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1900000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1583800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2214000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2207700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1558500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1079900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1033600</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4181900</v>
+        <v>4948500</v>
       </c>
       <c r="E60" s="3">
-        <v>4934000</v>
+        <v>4287200</v>
       </c>
       <c r="F60" s="3">
-        <v>6152400</v>
+        <v>5058300</v>
       </c>
       <c r="G60" s="3">
-        <v>5624700</v>
+        <v>6307300</v>
       </c>
       <c r="H60" s="3">
-        <v>5365000</v>
+        <v>5766300</v>
       </c>
       <c r="I60" s="3">
-        <v>5703800</v>
+        <v>5500100</v>
       </c>
       <c r="J60" s="3">
+        <v>5847400</v>
+      </c>
+      <c r="K60" s="3">
         <v>6211400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6663100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5449900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6270300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6867300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8228300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7639800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8083200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10873900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9408000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8268000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7610400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7819600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8380900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7437000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8879100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9457500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>9829900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>10446800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>9570300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>9132100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7668300</v>
+        <v>8355600</v>
       </c>
       <c r="E61" s="3">
-        <v>9830200</v>
+        <v>7861300</v>
       </c>
       <c r="F61" s="3">
-        <v>10917900</v>
+        <v>10077700</v>
       </c>
       <c r="G61" s="3">
-        <v>10956600</v>
+        <v>11192800</v>
       </c>
       <c r="H61" s="3">
-        <v>10381800</v>
+        <v>11232500</v>
       </c>
       <c r="I61" s="3">
-        <v>10634900</v>
+        <v>10643200</v>
       </c>
       <c r="J61" s="3">
+        <v>10902700</v>
+      </c>
+      <c r="K61" s="3">
         <v>10874900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11236200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11596800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13901600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13888300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15270500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15872400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>12837700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14534900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11137800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>13131100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6309600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4548900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4739300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4852400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5973300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5762600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5949300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>6540000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>7446200</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>7214000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1241900</v>
+        <v>1210500</v>
       </c>
       <c r="E62" s="3">
-        <v>1280500</v>
+        <v>1273200</v>
       </c>
       <c r="F62" s="3">
-        <v>1636000</v>
+        <v>1312700</v>
       </c>
       <c r="G62" s="3">
-        <v>1510800</v>
+        <v>1677200</v>
       </c>
       <c r="H62" s="3">
-        <v>1432700</v>
+        <v>1548900</v>
       </c>
       <c r="I62" s="3">
-        <v>1482800</v>
+        <v>1468700</v>
       </c>
       <c r="J62" s="3">
+        <v>1520100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1510500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1560100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1579800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1850400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1790500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2093100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2227800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1830500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1962200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1408000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1872300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1515700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1260900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1244500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1065200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1292200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1284700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1223900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1479700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1592300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1503800</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13603200</v>
+        <v>15043800</v>
       </c>
       <c r="E66" s="3">
-        <v>16433400</v>
+        <v>13945700</v>
       </c>
       <c r="F66" s="3">
-        <v>19162100</v>
+        <v>16847200</v>
       </c>
       <c r="G66" s="3">
-        <v>18577000</v>
+        <v>19644500</v>
       </c>
       <c r="H66" s="3">
-        <v>17683400</v>
+        <v>19044700</v>
       </c>
       <c r="I66" s="3">
-        <v>18299200</v>
+        <v>18128700</v>
       </c>
       <c r="J66" s="3">
+        <v>18759900</v>
+      </c>
+      <c r="K66" s="3">
         <v>19035000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19933600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19135300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22601700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23108300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26282800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26436000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23336400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>27950500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>22521100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>23869900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16000800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14120200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>14910200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13911100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>16704900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>17006400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>17551000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>19074800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>19165800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>18363900</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7338700</v>
+        <v>6421200</v>
       </c>
       <c r="E72" s="3">
-        <v>5054600</v>
+        <v>7523500</v>
       </c>
       <c r="F72" s="3">
-        <v>1678300</v>
+        <v>5181900</v>
       </c>
       <c r="G72" s="3">
-        <v>1499000</v>
+        <v>1720500</v>
       </c>
       <c r="H72" s="3">
-        <v>2754300</v>
+        <v>1536800</v>
       </c>
       <c r="I72" s="3">
-        <v>2059900</v>
+        <v>2823700</v>
       </c>
       <c r="J72" s="3">
+        <v>2111700</v>
+      </c>
+      <c r="K72" s="3">
         <v>2030300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1803800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2791900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3421800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2516200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2252700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3551600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3562800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3647400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3964700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5195400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4828000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4471800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4521900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>5777800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6005900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>5929300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>5278900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>5612000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>5136300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>5466800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7871000</v>
+        <v>6897000</v>
       </c>
       <c r="E76" s="3">
-        <v>5517700</v>
+        <v>8069200</v>
       </c>
       <c r="F76" s="3">
-        <v>2268900</v>
+        <v>5656600</v>
       </c>
       <c r="G76" s="3">
-        <v>1998000</v>
+        <v>2326000</v>
       </c>
       <c r="H76" s="3">
-        <v>3110800</v>
+        <v>2048300</v>
       </c>
       <c r="I76" s="3">
-        <v>2412500</v>
+        <v>3189100</v>
       </c>
       <c r="J76" s="3">
+        <v>2473200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2401900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2220500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3198700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3969600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3294600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3090900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4627100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4211700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4419100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4567200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4308000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5578500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4964200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4825200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6188300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6657500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6437800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>5882600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6758400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>6273400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>6547800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1664900</v>
+        <v>77200</v>
       </c>
       <c r="E81" s="3">
-        <v>3478000</v>
+        <v>1706800</v>
       </c>
       <c r="F81" s="3">
-        <v>142100</v>
+        <v>3565500</v>
       </c>
       <c r="G81" s="3">
-        <v>-102100</v>
+        <v>145700</v>
       </c>
       <c r="H81" s="3">
-        <v>602800</v>
+        <v>-104700</v>
       </c>
       <c r="I81" s="3">
-        <v>4900</v>
+        <v>618000</v>
       </c>
       <c r="J81" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K81" s="3">
         <v>242400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>205500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-365300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>796400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>458600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>491800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>77400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>191400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-81700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>330100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>432600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>136900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>601600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>270600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>510700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>257600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>666400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-19300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>513900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>348900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>457200</v>
+        <v>396800</v>
       </c>
       <c r="E83" s="3">
-        <v>583700</v>
+        <v>468700</v>
       </c>
       <c r="F83" s="3">
-        <v>590700</v>
+        <v>598400</v>
       </c>
       <c r="G83" s="3">
-        <v>831000</v>
+        <v>605600</v>
       </c>
       <c r="H83" s="3">
-        <v>583500</v>
+        <v>851900</v>
       </c>
       <c r="I83" s="3">
-        <v>682800</v>
+        <v>598200</v>
       </c>
       <c r="J83" s="3">
+        <v>700000</v>
+      </c>
+      <c r="K83" s="3">
         <v>611300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>635000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1267200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>744900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>722500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>842100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>795400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>764600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>756300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>666600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>641700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>437000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>571000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>567700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>597600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>701200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>610700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>662200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>630900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>3456500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>1136300</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>559900</v>
+        <v>535500</v>
       </c>
       <c r="E89" s="3">
-        <v>859300</v>
+        <v>574000</v>
       </c>
       <c r="F89" s="3">
-        <v>995900</v>
+        <v>881000</v>
       </c>
       <c r="G89" s="3">
-        <v>879800</v>
+        <v>1020900</v>
       </c>
       <c r="H89" s="3">
-        <v>863700</v>
+        <v>901900</v>
       </c>
       <c r="I89" s="3">
-        <v>782000</v>
+        <v>885500</v>
       </c>
       <c r="J89" s="3">
+        <v>801700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1199300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>924400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1017300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1171000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1106800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1246300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1152100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>774300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1405400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>703500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1071600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>926100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1107200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>895600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>880500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1064600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1399400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1343300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1129900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>4904600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1293700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3604000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4763000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9177000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4428000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5665000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4491000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4936000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4134000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-439000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-535400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-504100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1395900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>571200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-610400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>1000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>32500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-101800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-827500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1315200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>484600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-568500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-523100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-449500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-530800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1393000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2925500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-500200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>189400</v>
+        <v>-367500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1056100</v>
+        <v>194100</v>
       </c>
       <c r="F94" s="3">
-        <v>-280400</v>
+        <v>-1082700</v>
       </c>
       <c r="G94" s="3">
-        <v>-503900</v>
+        <v>-287400</v>
       </c>
       <c r="H94" s="3">
-        <v>-283100</v>
+        <v>-516600</v>
       </c>
       <c r="I94" s="3">
-        <v>-457900</v>
+        <v>-290300</v>
       </c>
       <c r="J94" s="3">
+        <v>-469500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-266300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-433500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-443000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>252400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-349300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-562400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-499100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1439700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2515000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-535700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-564800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-906400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1771500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-448800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-563600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-511600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-41700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>50900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-662400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-2602200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,94 +7653,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-651200</v>
       </c>
       <c r="E96" s="3">
-        <v>-552200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-566100</v>
       </c>
       <c r="G96" s="3">
-        <v>-642000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-658100</v>
       </c>
       <c r="I96" s="3">
-        <v>-513600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-526500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-23400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-633100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-623200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-695500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-631400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-741900</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1368800</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-639200</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-606500</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-747500</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-30800</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-1386600</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-32100</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-371400</v>
+        <v>-381100</v>
       </c>
       <c r="E100" s="3">
-        <v>-359700</v>
+        <v>-380800</v>
       </c>
       <c r="F100" s="3">
-        <v>-169100</v>
+        <v>-368700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1424600</v>
+        <v>-173400</v>
       </c>
       <c r="H100" s="3">
-        <v>-247200</v>
+        <v>-1460500</v>
       </c>
       <c r="I100" s="3">
-        <v>-910400</v>
+        <v>-253400</v>
       </c>
       <c r="J100" s="3">
+        <v>-933400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-636000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-726000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-311400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1074200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-653300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-893600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-302200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1248800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-253200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1835400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>209000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1683300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1548700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-652600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-311900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1372300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-107900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1948200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-15300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1114300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>503100</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>40400</v>
+        <v>14100</v>
       </c>
       <c r="E101" s="3">
-        <v>-23300</v>
+        <v>41400</v>
       </c>
       <c r="F101" s="3">
-        <v>71000</v>
+        <v>-23900</v>
       </c>
       <c r="G101" s="3">
-        <v>20300</v>
+        <v>72800</v>
       </c>
       <c r="H101" s="3">
-        <v>-12900</v>
+        <v>20800</v>
       </c>
       <c r="I101" s="3">
-        <v>19100</v>
+        <v>-13300</v>
       </c>
       <c r="J101" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-37400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>20100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-24300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-26100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-37000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-38800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>154000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>93000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-22000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>10700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-5900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-29500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>72600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-60200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>15500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>26300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-55000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-70700</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>418200</v>
+        <v>-199000</v>
       </c>
       <c r="E102" s="3">
-        <v>-579800</v>
+        <v>428700</v>
       </c>
       <c r="F102" s="3">
-        <v>617400</v>
+        <v>-594400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1028400</v>
+        <v>632900</v>
       </c>
       <c r="H102" s="3">
-        <v>320500</v>
+        <v>-1054300</v>
       </c>
       <c r="I102" s="3">
-        <v>-567300</v>
+        <v>328600</v>
       </c>
       <c r="J102" s="3">
+        <v>-581600</v>
+      </c>
+      <c r="K102" s="3">
         <v>259600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-215000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>238600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>323100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>67300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-248400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>504800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1900700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1268800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1989000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>700100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1652800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1326600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-211700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-24400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-864300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1083000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-642900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>373700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1133100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1819800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TELNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>TELNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1902300</v>
+        <v>1839100</v>
       </c>
       <c r="E8" s="3">
-        <v>1804700</v>
+        <v>1849700</v>
       </c>
       <c r="F8" s="3">
-        <v>1456000</v>
+        <v>1754800</v>
       </c>
       <c r="G8" s="3">
-        <v>2673900</v>
+        <v>1415800</v>
       </c>
       <c r="H8" s="3">
-        <v>2637100</v>
+        <v>2600000</v>
       </c>
       <c r="I8" s="3">
-        <v>2540500</v>
+        <v>2564200</v>
       </c>
       <c r="J8" s="3">
+        <v>2470200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1417100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2515000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2550100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2583900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2483500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3039500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3219500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3236500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3165100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3421100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3112400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3010000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2674300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2820000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2813600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2777400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2247000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3179900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3280600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3402600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>15461200</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>3853000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>440100</v>
+        <v>413900</v>
       </c>
       <c r="E9" s="3">
-        <v>439100</v>
+        <v>427900</v>
       </c>
       <c r="F9" s="3">
-        <v>434500</v>
+        <v>426900</v>
       </c>
       <c r="G9" s="3">
-        <v>683500</v>
+        <v>422500</v>
       </c>
       <c r="H9" s="3">
-        <v>690900</v>
+        <v>664600</v>
       </c>
       <c r="I9" s="3">
-        <v>674700</v>
+        <v>671800</v>
       </c>
       <c r="J9" s="3">
+        <v>656000</v>
+      </c>
+      <c r="K9" s="3">
         <v>426600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>628700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>647300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>686400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>780400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>702800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>780300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>795900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>785200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>816200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>725100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>700800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>588400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>619800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>662700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>632900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>523300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>725500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>760900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1192600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>5577700</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1329500</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1462200</v>
+        <v>1425200</v>
       </c>
       <c r="E10" s="3">
-        <v>1365700</v>
+        <v>1421700</v>
       </c>
       <c r="F10" s="3">
-        <v>1021600</v>
+        <v>1327900</v>
       </c>
       <c r="G10" s="3">
-        <v>1990400</v>
+        <v>993300</v>
       </c>
       <c r="H10" s="3">
-        <v>1946200</v>
+        <v>1935400</v>
       </c>
       <c r="I10" s="3">
-        <v>1865800</v>
+        <v>1892400</v>
       </c>
       <c r="J10" s="3">
+        <v>1814200</v>
+      </c>
+      <c r="K10" s="3">
         <v>990500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1886300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1902900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1897500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1703200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2336700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2439200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2440500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2380000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2605000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2387300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2309300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2085900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2200200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2150900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2144500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1723800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2454400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2519700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2210000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>9883500</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>2523500</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,186 +1282,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>53200</v>
+        <v>9100</v>
       </c>
       <c r="E14" s="3">
-        <v>17300</v>
+        <v>51800</v>
       </c>
       <c r="F14" s="3">
-        <v>32100</v>
+        <v>16800</v>
       </c>
       <c r="G14" s="3">
-        <v>10700</v>
+        <v>31200</v>
       </c>
       <c r="H14" s="3">
-        <v>257600</v>
+        <v>10400</v>
       </c>
       <c r="I14" s="3">
-        <v>16700</v>
+        <v>250500</v>
       </c>
       <c r="J14" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K14" s="3">
         <v>93600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>16900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>13700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>147800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>37000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>37100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>26900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>20700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>268700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>25500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>26600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>18600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>59900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>55600</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>718100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-82400</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>158900</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>707900</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>395500</v>
+        <v>376400</v>
       </c>
       <c r="E15" s="3">
-        <v>378000</v>
+        <v>384600</v>
       </c>
       <c r="F15" s="3">
-        <v>366300</v>
+        <v>367600</v>
       </c>
       <c r="G15" s="3">
-        <v>607500</v>
+        <v>356100</v>
       </c>
       <c r="H15" s="3">
-        <v>616800</v>
+        <v>590700</v>
       </c>
       <c r="I15" s="3">
-        <v>598200</v>
+        <v>599700</v>
       </c>
       <c r="J15" s="3">
+        <v>581700</v>
+      </c>
+      <c r="K15" s="3">
         <v>360100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>607100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>603000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>599100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>459400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>722500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>761100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>722000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>756200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>757100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>666800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>637800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>462800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>553400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>529200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>547800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>457600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>556300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>570100</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>581900</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>2414600</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>617700</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1536000</v>
+        <v>1378700</v>
       </c>
       <c r="E17" s="3">
-        <v>1444100</v>
+        <v>1493500</v>
       </c>
       <c r="F17" s="3">
-        <v>1370500</v>
+        <v>1404200</v>
       </c>
       <c r="G17" s="3">
-        <v>2067000</v>
+        <v>1332700</v>
       </c>
       <c r="H17" s="3">
-        <v>2348500</v>
+        <v>2009800</v>
       </c>
       <c r="I17" s="3">
-        <v>1896300</v>
+        <v>2283600</v>
       </c>
       <c r="J17" s="3">
+        <v>1843900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1395100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1956000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2017600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2050200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1679400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2209800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2664400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2547000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2550200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2612300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2398400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2269400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2378100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2132300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2221000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2183200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1893900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2354800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3111300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2705400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>12375000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>3663500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>366300</v>
+        <v>460400</v>
       </c>
       <c r="E18" s="3">
-        <v>360600</v>
+        <v>356100</v>
       </c>
       <c r="F18" s="3">
-        <v>85500</v>
+        <v>350700</v>
       </c>
       <c r="G18" s="3">
-        <v>607000</v>
+        <v>83100</v>
       </c>
       <c r="H18" s="3">
-        <v>288600</v>
+        <v>590200</v>
       </c>
       <c r="I18" s="3">
-        <v>644100</v>
+        <v>280600</v>
       </c>
       <c r="J18" s="3">
+        <v>626300</v>
+      </c>
+      <c r="K18" s="3">
         <v>22000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>558900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>532500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>533700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>804100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>829700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>555100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>689500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>614900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>808800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>714000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>740600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>296200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>687700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>592500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>594300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>353200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>825100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>169300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>697100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>3086200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>189500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-86900</v>
+        <v>26300</v>
       </c>
       <c r="E20" s="3">
-        <v>-321700</v>
+        <v>-84500</v>
       </c>
       <c r="F20" s="3">
-        <v>54600</v>
+        <v>-312800</v>
       </c>
       <c r="G20" s="3">
-        <v>-228200</v>
+        <v>53100</v>
       </c>
       <c r="H20" s="3">
-        <v>-209500</v>
+        <v>-221900</v>
       </c>
       <c r="I20" s="3">
-        <v>15600</v>
+        <v>-203700</v>
       </c>
       <c r="J20" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-9600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-86700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-59500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>219500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>49700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>120200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-404300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>85200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-202000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>62800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-258100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>9800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-124000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>233900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-45200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>211800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>102900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>100400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-323500</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>90900</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>676200</v>
+        <v>862500</v>
       </c>
       <c r="E21" s="3">
-        <v>507600</v>
+        <v>657500</v>
       </c>
       <c r="F21" s="3">
-        <v>738600</v>
+        <v>493600</v>
       </c>
       <c r="G21" s="3">
-        <v>984300</v>
+        <v>718100</v>
       </c>
       <c r="H21" s="3">
-        <v>931000</v>
+        <v>957100</v>
       </c>
       <c r="I21" s="3">
-        <v>1258000</v>
+        <v>905300</v>
       </c>
       <c r="J21" s="3">
+        <v>1223200</v>
+      </c>
+      <c r="K21" s="3">
         <v>712400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1083600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1108000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1820400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1768500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1602000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1517400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1080600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1464700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1363200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1387700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1445100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>516500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1252700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1017600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1422600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1009200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1647600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>934400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1428400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>6219100</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1416700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>64100</v>
+        <v>69100</v>
       </c>
       <c r="E22" s="3">
+        <v>62400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>42400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>70700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>70500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>56600</v>
+      </c>
+      <c r="J22" s="3">
         <v>43600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="K22" s="3">
+        <v>48700</v>
+      </c>
+      <c r="L22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="M22" s="3">
+        <v>61600</v>
+      </c>
+      <c r="N22" s="3">
+        <v>60700</v>
+      </c>
+      <c r="O22" s="3">
+        <v>110900</v>
+      </c>
+      <c r="P22" s="3">
+        <v>107400</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>85400</v>
+      </c>
+      <c r="R22" s="3">
+        <v>89800</v>
+      </c>
+      <c r="S22" s="3">
+        <v>173900</v>
+      </c>
+      <c r="T22" s="3">
+        <v>135400</v>
+      </c>
+      <c r="U22" s="3">
+        <v>117100</v>
+      </c>
+      <c r="V22" s="3">
+        <v>100900</v>
+      </c>
+      <c r="W22" s="3">
+        <v>104900</v>
+      </c>
+      <c r="X22" s="3">
+        <v>45900</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>46200</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>30500</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>105800</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>54700</v>
+      </c>
+      <c r="AC22" s="3">
         <v>72700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="AD22" s="3">
         <v>72500</v>
       </c>
-      <c r="H22" s="3">
-        <v>58200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>44900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>48700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>61000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>61600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>60700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>110900</v>
-      </c>
-      <c r="O22" s="3">
-        <v>107400</v>
-      </c>
-      <c r="P22" s="3">
-        <v>85400</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>89800</v>
-      </c>
-      <c r="R22" s="3">
-        <v>173900</v>
-      </c>
-      <c r="S22" s="3">
-        <v>135400</v>
-      </c>
-      <c r="T22" s="3">
-        <v>117100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>100900</v>
-      </c>
-      <c r="V22" s="3">
-        <v>104900</v>
-      </c>
-      <c r="W22" s="3">
-        <v>45900</v>
-      </c>
-      <c r="X22" s="3">
-        <v>46200</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>30500</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>105800</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>54700</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>72700</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>72500</v>
-      </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>382700</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>215200</v>
+        <v>417700</v>
       </c>
       <c r="E23" s="3">
-        <v>-4700</v>
+        <v>209300</v>
       </c>
       <c r="F23" s="3">
-        <v>67400</v>
+        <v>-4600</v>
       </c>
       <c r="G23" s="3">
-        <v>306300</v>
+        <v>65600</v>
       </c>
       <c r="H23" s="3">
-        <v>20900</v>
+        <v>297800</v>
       </c>
       <c r="I23" s="3">
-        <v>614900</v>
+        <v>20300</v>
       </c>
       <c r="J23" s="3">
+        <v>597900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-36300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>411200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>411400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>492600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>912600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>772100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>589800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>195400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>526300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>471500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>603900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>702600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-66900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>651500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>422300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>797600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>202200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>982200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>199500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>725000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>2379900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>67400</v>
+        <v>151400</v>
       </c>
       <c r="E24" s="3">
-        <v>17800</v>
+        <v>65600</v>
       </c>
       <c r="F24" s="3">
-        <v>-240000</v>
+        <v>17300</v>
       </c>
       <c r="G24" s="3">
-        <v>101600</v>
+        <v>-233400</v>
       </c>
       <c r="H24" s="3">
-        <v>-36000</v>
+        <v>98800</v>
       </c>
       <c r="I24" s="3">
-        <v>-99600</v>
+        <v>-35000</v>
       </c>
       <c r="J24" s="3">
+        <v>-96900</v>
+      </c>
+      <c r="K24" s="3">
         <v>39800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>134300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>138100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>154900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>158700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>217500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>221300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>69100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>147500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>483800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>216100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>203000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>55800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>205700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>125000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>235000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>77200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>272900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>186400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>197900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>730400</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>147800</v>
+        <v>266300</v>
       </c>
       <c r="E26" s="3">
-        <v>-22500</v>
+        <v>143700</v>
       </c>
       <c r="F26" s="3">
-        <v>307500</v>
+        <v>-21900</v>
       </c>
       <c r="G26" s="3">
-        <v>204700</v>
+        <v>299000</v>
       </c>
       <c r="H26" s="3">
-        <v>56900</v>
+        <v>199000</v>
       </c>
       <c r="I26" s="3">
-        <v>714500</v>
+        <v>55300</v>
       </c>
       <c r="J26" s="3">
+        <v>694700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-76100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>276900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>273200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>337700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>754000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>554600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>368500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>126300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>378700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-12400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>387800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>499600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-122700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>445800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>297300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>562700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>124900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>709300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>13100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>527100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1649500</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>90500</v>
+        <v>230700</v>
       </c>
       <c r="E27" s="3">
-        <v>-58100</v>
+        <v>88000</v>
       </c>
       <c r="F27" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>259100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>128200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>632400</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-142100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>203200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>197800</v>
+      </c>
+      <c r="N27" s="3">
         <v>266500</v>
       </c>
-      <c r="G27" s="3">
-        <v>131900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>650400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-142100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>203200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>197800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>266500</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>668600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>461100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>266200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>277900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-113600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>302100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>397100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-160200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>370200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>208100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>484100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>46100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>623500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-79500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>441500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1282600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-93500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,97 +2543,103 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-13300</v>
+        <v>-6500</v>
       </c>
       <c r="E29" s="3">
-        <v>1764900</v>
+        <v>-12900</v>
       </c>
       <c r="F29" s="3">
-        <v>3299100</v>
+        <v>1716200</v>
       </c>
       <c r="G29" s="3">
-        <v>13800</v>
+        <v>3207900</v>
       </c>
       <c r="H29" s="3">
-        <v>-88700</v>
+        <v>13400</v>
       </c>
       <c r="I29" s="3">
-        <v>-32500</v>
+        <v>-86200</v>
       </c>
       <c r="J29" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="K29" s="3">
         <v>147100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>39200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>7600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-631800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>127800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-2500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>225600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>67900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-86600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>31900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>28000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>35400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>297100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>231400</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>62500</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>26600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>211500</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>42800</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>60200</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>72400</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-933600</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>-501000</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>86900</v>
+        <v>-26300</v>
       </c>
       <c r="E32" s="3">
-        <v>321700</v>
+        <v>84500</v>
       </c>
       <c r="F32" s="3">
-        <v>-54600</v>
+        <v>312800</v>
       </c>
       <c r="G32" s="3">
-        <v>228200</v>
+        <v>-53100</v>
       </c>
       <c r="H32" s="3">
-        <v>209500</v>
+        <v>221900</v>
       </c>
       <c r="I32" s="3">
-        <v>-15600</v>
+        <v>203700</v>
       </c>
       <c r="J32" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="K32" s="3">
         <v>9600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>86700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>59500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-219500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-49700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-120200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>404300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-85200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>202000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-62800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>258100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-9800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>124000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-233900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>45200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-211800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-102900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-100400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>323500</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>77200</v>
+        <v>224200</v>
       </c>
       <c r="E33" s="3">
-        <v>1706800</v>
+        <v>75100</v>
       </c>
       <c r="F33" s="3">
-        <v>3565500</v>
+        <v>1659600</v>
       </c>
       <c r="G33" s="3">
-        <v>145700</v>
+        <v>3467000</v>
       </c>
       <c r="H33" s="3">
-        <v>-104700</v>
+        <v>141700</v>
       </c>
       <c r="I33" s="3">
-        <v>618000</v>
+        <v>-101800</v>
       </c>
       <c r="J33" s="3">
+        <v>600900</v>
+      </c>
+      <c r="K33" s="3">
         <v>5000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>242400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>205500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-365300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>796400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>458600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>491800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>77400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>191400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-81700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>330100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>432600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>136900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>601600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>270600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>510700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>257600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>666400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-19300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>513900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>348900</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>77200</v>
+        <v>224200</v>
       </c>
       <c r="E35" s="3">
-        <v>1706800</v>
+        <v>75100</v>
       </c>
       <c r="F35" s="3">
-        <v>3565500</v>
+        <v>1659600</v>
       </c>
       <c r="G35" s="3">
-        <v>145700</v>
+        <v>3467000</v>
       </c>
       <c r="H35" s="3">
-        <v>-104700</v>
+        <v>141700</v>
       </c>
       <c r="I35" s="3">
-        <v>618000</v>
+        <v>-101800</v>
       </c>
       <c r="J35" s="3">
+        <v>600900</v>
+      </c>
+      <c r="K35" s="3">
         <v>5000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>242400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>205500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-365300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>796400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>458600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>491800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>77400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>191400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-81700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>330100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>432600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>136900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>601600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>270600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>510700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>257600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>666400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-19300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>513900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>348900</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,809 +3354,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1177900</v>
+        <v>888100</v>
       </c>
       <c r="E41" s="3">
-        <v>1349800</v>
+        <v>1145400</v>
       </c>
       <c r="F41" s="3">
-        <v>933900</v>
+        <v>1312500</v>
       </c>
       <c r="G41" s="3">
-        <v>1526000</v>
+        <v>908100</v>
       </c>
       <c r="H41" s="3">
-        <v>885300</v>
+        <v>1483800</v>
       </c>
       <c r="I41" s="3">
-        <v>1956300</v>
+        <v>860800</v>
       </c>
       <c r="J41" s="3">
+        <v>1902200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1431900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2018200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1852900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2139500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2131400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1771000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1855300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2006900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1534800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3841300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4899600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1569900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2086300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3345800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1900500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2144100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2610600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3448500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2389300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3222400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2846400</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>3399800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>78300</v>
+        <v>75000</v>
       </c>
       <c r="E42" s="3">
-        <v>55500</v>
+        <v>76100</v>
       </c>
       <c r="F42" s="3">
-        <v>34000</v>
+        <v>54000</v>
       </c>
       <c r="G42" s="3">
-        <v>69100</v>
+        <v>33000</v>
       </c>
       <c r="H42" s="3">
-        <v>57000</v>
+        <v>67200</v>
       </c>
       <c r="I42" s="3">
-        <v>61500</v>
+        <v>55400</v>
       </c>
       <c r="J42" s="3">
+        <v>59800</v>
+      </c>
+      <c r="K42" s="3">
         <v>78900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>93000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>71500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>54300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>59700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>54500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>65400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>93700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>100700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>80600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>97200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>103000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>76500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>93200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>83200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>69000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>187800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>189300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>192000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>297900</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>306900</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>261000</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1465500</v>
+        <v>1359000</v>
       </c>
       <c r="E43" s="3">
-        <v>1543100</v>
+        <v>1424900</v>
       </c>
       <c r="F43" s="3">
-        <v>1772300</v>
+        <v>1500500</v>
       </c>
       <c r="G43" s="3">
-        <v>2134000</v>
+        <v>1723300</v>
       </c>
       <c r="H43" s="3">
-        <v>2149400</v>
+        <v>2075000</v>
       </c>
       <c r="I43" s="3">
-        <v>2008600</v>
+        <v>2090000</v>
       </c>
       <c r="J43" s="3">
+        <v>1953000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2044800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2132100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>2213800</v>
       </c>
       <c r="M43" s="3">
         <v>2213800</v>
       </c>
       <c r="N43" s="3">
+        <v>2213800</v>
+      </c>
+      <c r="O43" s="3">
         <v>2730300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2652100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2945000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3052900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3000200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3410000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2509600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3068800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2537200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2310300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2155700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2118400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2990300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2713200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2991200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3085500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3158100</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>2854000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>97300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>114100</v>
+      </c>
+      <c r="F44" s="3">
         <v>117300</v>
       </c>
-      <c r="E44" s="3">
-        <v>120700</v>
-      </c>
-      <c r="F44" s="3">
-        <v>146600</v>
-      </c>
       <c r="G44" s="3">
-        <v>173100</v>
+        <v>142600</v>
       </c>
       <c r="H44" s="3">
-        <v>157300</v>
+        <v>168300</v>
       </c>
       <c r="I44" s="3">
-        <v>146900</v>
+        <v>152900</v>
       </c>
       <c r="J44" s="3">
+        <v>142900</v>
+      </c>
+      <c r="K44" s="3">
         <v>147000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>103400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>121500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>149300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>136000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>127100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>142500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>172600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>164400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>163400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>133400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>168100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>192100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>101800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>115000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>149800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>205300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>174100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>200000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>210800</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>222200</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>175900</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>70100</v>
+        <v>82800</v>
       </c>
       <c r="E45" s="3">
-        <v>50700</v>
+        <v>68100</v>
       </c>
       <c r="F45" s="3">
-        <v>140200</v>
+        <v>49300</v>
       </c>
       <c r="G45" s="3">
-        <v>140500</v>
+        <v>136400</v>
       </c>
       <c r="H45" s="3">
-        <v>153600</v>
+        <v>136600</v>
       </c>
       <c r="I45" s="3">
-        <v>139700</v>
+        <v>149400</v>
       </c>
       <c r="J45" s="3">
+        <v>135800</v>
+      </c>
+      <c r="K45" s="3">
         <v>421300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>417800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>385700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>143600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>128400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>141200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>187400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>599400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>386200</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3" t="s">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>395000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>101800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>439600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2973600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3045100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>197100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>178000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>117900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>438000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>200</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2909000</v>
+        <v>2502200</v>
       </c>
       <c r="E46" s="3">
-        <v>3119800</v>
+        <v>2828600</v>
       </c>
       <c r="F46" s="3">
-        <v>3027000</v>
+        <v>3033500</v>
       </c>
       <c r="G46" s="3">
-        <v>4042800</v>
+        <v>2943400</v>
       </c>
       <c r="H46" s="3">
-        <v>3402500</v>
+        <v>3931000</v>
       </c>
       <c r="I46" s="3">
-        <v>4312900</v>
+        <v>3308500</v>
       </c>
       <c r="J46" s="3">
+        <v>4193700</v>
+      </c>
+      <c r="K46" s="3">
         <v>4123900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4764600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4645400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4700400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5185700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4746000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5195700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5925500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5186200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7495400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7639800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5304800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4993900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6290700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7227900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7526400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6191100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6703100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5890400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>7254600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>6533800</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>6691100</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5913900</v>
+        <v>5583600</v>
       </c>
       <c r="E47" s="3">
-        <v>5656800</v>
+        <v>5750500</v>
       </c>
       <c r="F47" s="3">
-        <v>3732900</v>
+        <v>5500400</v>
       </c>
       <c r="G47" s="3">
-        <v>573700</v>
+        <v>3629700</v>
       </c>
       <c r="H47" s="3">
-        <v>553700</v>
+        <v>557800</v>
       </c>
       <c r="I47" s="3">
-        <v>527700</v>
+        <v>538400</v>
       </c>
       <c r="J47" s="3">
+        <v>513100</v>
+      </c>
+      <c r="K47" s="3">
         <v>534500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>533300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>565300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>587200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>664700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>826000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>847800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>543800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>475800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>272000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>253700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>486700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>268700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>52000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>53500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>53300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>55600</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>51200</v>
       </c>
       <c r="AB47" s="3">
         <v>51200</v>
       </c>
       <c r="AC47" s="3">
+        <v>51200</v>
+      </c>
+      <c r="AD47" s="3">
         <v>1738500</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1944800</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>1690700</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7650600</v>
+        <v>7281500</v>
       </c>
       <c r="E48" s="3">
-        <v>7559300</v>
+        <v>7439100</v>
       </c>
       <c r="F48" s="3">
-        <v>10473100</v>
+        <v>7350400</v>
       </c>
       <c r="G48" s="3">
-        <v>11921100</v>
+        <v>10183600</v>
       </c>
       <c r="H48" s="3">
-        <v>11806100</v>
+        <v>11591500</v>
       </c>
       <c r="I48" s="3">
-        <v>11532200</v>
+        <v>11479800</v>
       </c>
       <c r="J48" s="3">
+        <v>11213500</v>
+      </c>
+      <c r="K48" s="3">
         <v>11694700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11352200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11879500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11961800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14727000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14716600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16542600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17296600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15778500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16995100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14544500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16139200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8276600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7060600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7104000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6984200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>8748700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>8271800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>8497000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>9027500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>8879600</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>8405100</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3362000</v>
+        <v>3148200</v>
       </c>
       <c r="E49" s="3">
-        <v>3297800</v>
+        <v>3269100</v>
       </c>
       <c r="F49" s="3">
-        <v>3482400</v>
+        <v>3206700</v>
       </c>
       <c r="G49" s="3">
-        <v>3653700</v>
+        <v>3386100</v>
       </c>
       <c r="H49" s="3">
-        <v>3573200</v>
+        <v>3552700</v>
       </c>
       <c r="I49" s="3">
-        <v>3393600</v>
+        <v>3474400</v>
       </c>
       <c r="J49" s="3">
+        <v>3299800</v>
+      </c>
+      <c r="K49" s="3">
         <v>3540700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3501700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3610100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3575500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4160700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4237300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4643000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4839800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4296700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5123000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2361900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4394900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5728300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3698000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3864400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4002500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>6605500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>6627500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>6847600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>6962500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>7099100</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>7250400</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2105300</v>
+        <v>1922000</v>
       </c>
       <c r="E52" s="3">
-        <v>2381200</v>
+        <v>2047100</v>
       </c>
       <c r="F52" s="3">
-        <v>1788400</v>
+        <v>2315400</v>
       </c>
       <c r="G52" s="3">
-        <v>1779300</v>
+        <v>1738900</v>
       </c>
       <c r="H52" s="3">
-        <v>1757500</v>
+        <v>1730100</v>
       </c>
       <c r="I52" s="3">
-        <v>1551300</v>
+        <v>1708900</v>
       </c>
       <c r="J52" s="3">
+        <v>1508400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1339300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1285100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1453900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1509100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1833200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1877000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2144700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2457300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1810800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2484200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2288400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1852300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2311800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1982900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1485500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1533000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1761500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1790700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2147400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>850000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>981800</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>874400</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21940800</v>
+        <v>20437600</v>
       </c>
       <c r="E54" s="3">
-        <v>22014900</v>
+        <v>21334300</v>
       </c>
       <c r="F54" s="3">
-        <v>22503800</v>
+        <v>21406400</v>
       </c>
       <c r="G54" s="3">
-        <v>21970500</v>
+        <v>21881700</v>
       </c>
       <c r="H54" s="3">
-        <v>21093000</v>
+        <v>21363200</v>
       </c>
       <c r="I54" s="3">
-        <v>21317800</v>
+        <v>20510000</v>
       </c>
       <c r="J54" s="3">
+        <v>20728500</v>
+      </c>
+      <c r="K54" s="3">
         <v>21233100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21436900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22154100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22334000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26571300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26402800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>29373700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31063100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>27548100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32369600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>27088300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28177900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>21579300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>19084400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>19735400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>20099400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>23362400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>23444200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>23433600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>25833200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>25439100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>24911800</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2036200</v>
+        <v>1898200</v>
       </c>
       <c r="E57" s="3">
-        <v>2070400</v>
+        <v>1979900</v>
       </c>
       <c r="F57" s="3">
-        <v>2655000</v>
+        <v>2013100</v>
       </c>
       <c r="G57" s="3">
-        <v>2963500</v>
+        <v>2581600</v>
       </c>
       <c r="H57" s="3">
-        <v>2929900</v>
+        <v>2881500</v>
       </c>
       <c r="I57" s="3">
-        <v>2902600</v>
+        <v>2848900</v>
       </c>
       <c r="J57" s="3">
+        <v>2822400</v>
+      </c>
+      <c r="K57" s="3">
         <v>3040000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2817800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2822500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2982600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3510400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3344800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3834100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4089800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3950300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4383300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3795600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4040600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4256500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3576100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3484800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3486000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4665800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4258800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4539200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4887000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>5288300</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>4924500</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1626800</v>
+        <v>916300</v>
       </c>
       <c r="E58" s="3">
-        <v>1399800</v>
+        <v>1581800</v>
       </c>
       <c r="F58" s="3">
-        <v>1490200</v>
+        <v>1361100</v>
       </c>
       <c r="G58" s="3">
-        <v>1669800</v>
+        <v>1449000</v>
       </c>
       <c r="H58" s="3">
-        <v>1228100</v>
+        <v>1623700</v>
       </c>
       <c r="I58" s="3">
-        <v>1473800</v>
+        <v>1194200</v>
       </c>
       <c r="J58" s="3">
+        <v>1433100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1528800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1664800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2078100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1462000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1718800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1883200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2466100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2069500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2662500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4165700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3453100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2723400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1775800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1588700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2615700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2051000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2629600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2984700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3083000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>4001300</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>3202100</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>3174000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1285500</v>
+        <v>1285700</v>
       </c>
       <c r="E59" s="3">
-        <v>817000</v>
+        <v>1250000</v>
       </c>
       <c r="F59" s="3">
-        <v>913000</v>
+        <v>794400</v>
       </c>
       <c r="G59" s="3">
-        <v>1674000</v>
+        <v>887800</v>
       </c>
       <c r="H59" s="3">
-        <v>1608300</v>
+        <v>1627700</v>
       </c>
       <c r="I59" s="3">
-        <v>1123600</v>
+        <v>1563900</v>
       </c>
       <c r="J59" s="3">
+        <v>1092600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1278700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1728800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1762500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1005200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1041100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1639300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1928100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1480500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1470400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2325000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2159400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1504100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1578100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2654800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2280400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1900000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1583800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2214000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2207700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1558500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1079900</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1033600</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4948500</v>
+        <v>4100200</v>
       </c>
       <c r="E60" s="3">
-        <v>4287200</v>
+        <v>4811700</v>
       </c>
       <c r="F60" s="3">
-        <v>5058300</v>
+        <v>4168700</v>
       </c>
       <c r="G60" s="3">
-        <v>6307300</v>
+        <v>4918400</v>
       </c>
       <c r="H60" s="3">
-        <v>5766300</v>
+        <v>6132900</v>
       </c>
       <c r="I60" s="3">
-        <v>5500100</v>
+        <v>5607000</v>
       </c>
       <c r="J60" s="3">
+        <v>5348000</v>
+      </c>
+      <c r="K60" s="3">
         <v>5847400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6211400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6663100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5449900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6270300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6867300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8228300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7639800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8083200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10873900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9408000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8268000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7610400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7819600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8380900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7437000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8879100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>9457500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>9829900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>10446800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>9570300</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>9132100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8355600</v>
+        <v>7857100</v>
       </c>
       <c r="E61" s="3">
-        <v>7861300</v>
+        <v>8124700</v>
       </c>
       <c r="F61" s="3">
-        <v>10077700</v>
+        <v>7644000</v>
       </c>
       <c r="G61" s="3">
-        <v>11192800</v>
+        <v>9799100</v>
       </c>
       <c r="H61" s="3">
-        <v>11232500</v>
+        <v>10883400</v>
       </c>
       <c r="I61" s="3">
-        <v>10643200</v>
+        <v>10922000</v>
       </c>
       <c r="J61" s="3">
+        <v>10349000</v>
+      </c>
+      <c r="K61" s="3">
         <v>10902700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10874900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11236200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11596800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13901600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13888300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15270500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15872400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12837700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14534900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11137800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>13131100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6309600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4548900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4739300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4852400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5973300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5762600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5949300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>6540000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>7446200</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>7214000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1210500</v>
+        <v>1157200</v>
       </c>
       <c r="E62" s="3">
-        <v>1273200</v>
+        <v>1177000</v>
       </c>
       <c r="F62" s="3">
-        <v>1312700</v>
+        <v>1238000</v>
       </c>
       <c r="G62" s="3">
-        <v>1677200</v>
+        <v>1276400</v>
       </c>
       <c r="H62" s="3">
-        <v>1548900</v>
+        <v>1630800</v>
       </c>
       <c r="I62" s="3">
-        <v>1468700</v>
+        <v>1506100</v>
       </c>
       <c r="J62" s="3">
+        <v>1428100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1520100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1510500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1560100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1579800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1850400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1790500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2093100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2227800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1830500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1962200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1408000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1872300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1515700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1260900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1244500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1065200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1292200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1284700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1223900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1479700</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1592300</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1503800</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15043800</v>
+        <v>13646600</v>
       </c>
       <c r="E66" s="3">
-        <v>13945700</v>
+        <v>14627900</v>
       </c>
       <c r="F66" s="3">
-        <v>16847200</v>
+        <v>13560200</v>
       </c>
       <c r="G66" s="3">
-        <v>19644500</v>
+        <v>16381500</v>
       </c>
       <c r="H66" s="3">
-        <v>19044700</v>
+        <v>19101500</v>
       </c>
       <c r="I66" s="3">
-        <v>18128700</v>
+        <v>18518300</v>
       </c>
       <c r="J66" s="3">
+        <v>17627500</v>
+      </c>
+      <c r="K66" s="3">
         <v>18759900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19035000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19933600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19135300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22601700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23108300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26282800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26436000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23336400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>27950500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>22521100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>23869900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16000800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>14120200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>14910200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13911100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>16704900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>17006400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>17551000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>19074800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>19165800</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>18363900</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6421200</v>
+        <v>6484100</v>
       </c>
       <c r="E72" s="3">
-        <v>7523500</v>
+        <v>6243700</v>
       </c>
       <c r="F72" s="3">
-        <v>5181900</v>
+        <v>7315500</v>
       </c>
       <c r="G72" s="3">
-        <v>1720500</v>
+        <v>5038600</v>
       </c>
       <c r="H72" s="3">
-        <v>1536800</v>
+        <v>1673000</v>
       </c>
       <c r="I72" s="3">
-        <v>2823700</v>
+        <v>1494300</v>
       </c>
       <c r="J72" s="3">
+        <v>2745600</v>
+      </c>
+      <c r="K72" s="3">
         <v>2111700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2030300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1803800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2791900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3421800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2516200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2252700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3551600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3562800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3647400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3964700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5195400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4828000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4471800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4521900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>5777800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6005900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>5929300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>5278900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>5612000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>5136300</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>5466800</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6897000</v>
+        <v>6791000</v>
       </c>
       <c r="E76" s="3">
-        <v>8069200</v>
+        <v>6706400</v>
       </c>
       <c r="F76" s="3">
-        <v>5656600</v>
+        <v>7846200</v>
       </c>
       <c r="G76" s="3">
-        <v>2326000</v>
+        <v>5500200</v>
       </c>
       <c r="H76" s="3">
-        <v>2048300</v>
+        <v>2261700</v>
       </c>
       <c r="I76" s="3">
-        <v>3189100</v>
+        <v>1991700</v>
       </c>
       <c r="J76" s="3">
+        <v>3101000</v>
+      </c>
+      <c r="K76" s="3">
         <v>2473200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2401900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2220500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3198700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3969600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3294600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3090900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4627100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4211700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4419100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4567200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4308000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5578500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4964200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4825200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6188300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6657500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6437800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>5882600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>6758400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>6273400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>6547800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>77200</v>
+        <v>224200</v>
       </c>
       <c r="E81" s="3">
-        <v>1706800</v>
+        <v>75100</v>
       </c>
       <c r="F81" s="3">
-        <v>3565500</v>
+        <v>1659600</v>
       </c>
       <c r="G81" s="3">
-        <v>145700</v>
+        <v>3467000</v>
       </c>
       <c r="H81" s="3">
-        <v>-104700</v>
+        <v>141700</v>
       </c>
       <c r="I81" s="3">
-        <v>618000</v>
+        <v>-101800</v>
       </c>
       <c r="J81" s="3">
+        <v>600900</v>
+      </c>
+      <c r="K81" s="3">
         <v>5000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>242400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>205500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-365300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>796400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>458600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>491800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>77400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>191400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-81700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>330100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>432600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>136900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>601600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>270600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>510700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>257600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>666400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-19300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>513900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>348900</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-594400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>396800</v>
+        <v>375700</v>
       </c>
       <c r="E83" s="3">
-        <v>468700</v>
+        <v>385900</v>
       </c>
       <c r="F83" s="3">
-        <v>598400</v>
+        <v>455700</v>
       </c>
       <c r="G83" s="3">
-        <v>605600</v>
+        <v>581900</v>
       </c>
       <c r="H83" s="3">
-        <v>851900</v>
+        <v>588800</v>
       </c>
       <c r="I83" s="3">
-        <v>598200</v>
+        <v>828400</v>
       </c>
       <c r="J83" s="3">
+        <v>581700</v>
+      </c>
+      <c r="K83" s="3">
         <v>700000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>611300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>635000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1267200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>744900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>722500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>842100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>795400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>764600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>756300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>666600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>641700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>437000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>571000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>567700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>597600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>701200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>610700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>662200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>630900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>3456500</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>1136300</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>535500</v>
+        <v>768800</v>
       </c>
       <c r="E89" s="3">
-        <v>574000</v>
+        <v>520700</v>
       </c>
       <c r="F89" s="3">
-        <v>881000</v>
+        <v>558100</v>
       </c>
       <c r="G89" s="3">
-        <v>1020900</v>
+        <v>856600</v>
       </c>
       <c r="H89" s="3">
-        <v>901900</v>
+        <v>992700</v>
       </c>
       <c r="I89" s="3">
-        <v>885500</v>
+        <v>877000</v>
       </c>
       <c r="J89" s="3">
+        <v>861000</v>
+      </c>
+      <c r="K89" s="3">
         <v>801700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1199300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>924400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1017300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1171000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1106800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1246300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1152100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>774300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1405400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>703500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1071600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>926100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1107200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>895600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>880500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1064600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1399400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1343300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1129900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>4904600</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>1293700</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3191000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3604000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4763000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9177000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4428000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5665000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4491000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4936000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4134000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-439000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-535400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-504100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1395900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>571200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-610400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>1000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>32500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-101800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-827500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1315200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>484600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-568500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-523100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-449500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-530800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1393000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-2925500</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-500200</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-367500</v>
+        <v>-290300</v>
       </c>
       <c r="E94" s="3">
-        <v>194100</v>
+        <v>-357300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1082700</v>
+        <v>188800</v>
       </c>
       <c r="G94" s="3">
-        <v>-287400</v>
+        <v>-1052800</v>
       </c>
       <c r="H94" s="3">
-        <v>-516600</v>
+        <v>-279500</v>
       </c>
       <c r="I94" s="3">
-        <v>-290300</v>
+        <v>-502300</v>
       </c>
       <c r="J94" s="3">
+        <v>-282200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-469500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-266300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-433500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-443000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>252400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-349300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-562400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-499100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1439700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2515000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-535700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-564800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-906400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1771500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-448800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-563600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-511600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-41700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>50900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-662400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-2602200</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,97 +7887,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-651200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-633200</v>
       </c>
       <c r="F96" s="3">
-        <v>-566100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-550400</v>
       </c>
       <c r="H96" s="3">
-        <v>-658100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-639900</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-526500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-23400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-633100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-623200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-695500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-631400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-741900</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1368800</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-639200</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-606500</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-747500</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-30800</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-1386600</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-32100</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-381100</v>
+        <v>-746600</v>
       </c>
       <c r="E100" s="3">
-        <v>-380800</v>
+        <v>-370600</v>
       </c>
       <c r="F100" s="3">
-        <v>-368700</v>
+        <v>-370200</v>
       </c>
       <c r="G100" s="3">
-        <v>-173400</v>
+        <v>-358500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1460500</v>
+        <v>-168600</v>
       </c>
       <c r="I100" s="3">
-        <v>-253400</v>
+        <v>-1420100</v>
       </c>
       <c r="J100" s="3">
+        <v>-246400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-933400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-636000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-726000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-311400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1074200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-653300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-893600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-302200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1248800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-253200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1835400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>209000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1683300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1548700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-652600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-311900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1372300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-107900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1948200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-15300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-1114300</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>503100</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>14100</v>
+        <v>600</v>
       </c>
       <c r="E101" s="3">
-        <v>41400</v>
+        <v>13700</v>
       </c>
       <c r="F101" s="3">
-        <v>-23900</v>
+        <v>40200</v>
       </c>
       <c r="G101" s="3">
-        <v>72800</v>
+        <v>-23200</v>
       </c>
       <c r="H101" s="3">
-        <v>20800</v>
+        <v>70800</v>
       </c>
       <c r="I101" s="3">
-        <v>-13300</v>
+        <v>20200</v>
       </c>
       <c r="J101" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="K101" s="3">
         <v>19600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-37400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>20100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-24300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-26100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-37000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-38800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>154000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>93000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-22000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>10700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-29500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>72600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-60200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>15500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>26300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-55000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-70700</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-199000</v>
+        <v>-267400</v>
       </c>
       <c r="E102" s="3">
-        <v>428700</v>
+        <v>-193500</v>
       </c>
       <c r="F102" s="3">
-        <v>-594400</v>
+        <v>416900</v>
       </c>
       <c r="G102" s="3">
-        <v>632900</v>
+        <v>-577900</v>
       </c>
       <c r="H102" s="3">
-        <v>-1054300</v>
+        <v>615400</v>
       </c>
       <c r="I102" s="3">
-        <v>328600</v>
+        <v>-1025200</v>
       </c>
       <c r="J102" s="3">
+        <v>319500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-581600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>259600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-215000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>238600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>323100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>67300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-248400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>504800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1900700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1268800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1989000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>700100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1652800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1326600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-211700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-24400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-864300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1083000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-642900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>373700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1133100</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>1819800</v>
       </c>
     </row>
